--- a/TERA.xlsx
+++ b/TERA.xlsx
@@ -3,6 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="1q3LqFGLRjmh8P0SBcaovddreZB6DvfoB6+BqALlcDxz7D2cJ8XLfOtlm4nexi18KWYbWFEz2mkwuhXV7e59yA==" workbookSaltValue="l8/Q5eOQMNUl1eJoQBNHVQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8805"/>
   </bookViews>
@@ -14,7 +15,7 @@
     <sheet name="Material Costs" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Template3!$A$1:$E$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Template3!$A$1:$E$97</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -238,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="238">
   <si>
     <r>
       <t>CAPACITY</t>
@@ -738,9 +739,6 @@
     <t>TERA 170</t>
   </si>
   <si>
-    <t>Unit summary:</t>
-  </si>
-  <si>
     <t>Version 1.1.0.0</t>
   </si>
   <si>
@@ -873,9 +871,6 @@
     <t>kg/m³</t>
   </si>
   <si>
-    <t>Supply Fan  Details</t>
-  </si>
-  <si>
     <t>Air Flow Rate</t>
   </si>
   <si>
@@ -942,10 +937,34 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>pcs.</t>
-  </si>
-  <si>
     <t>Coil Cooling Capacity</t>
+  </si>
+  <si>
+    <t>Unit summary</t>
+  </si>
+  <si>
+    <t>Supply Fan Details</t>
+  </si>
+  <si>
+    <t>Damper Details</t>
+  </si>
+  <si>
+    <t>Damper Dimensions</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>Air Tightness Class</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>2350 x 900</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -956,7 +975,7 @@
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,13 +1083,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Daxline Offc Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Daxline Offc Pro"/>
@@ -1123,7 +1135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1352,29 +1364,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1450,6 +1444,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1515,19 +1513,11 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1555,7 +1545,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1574,144 +1564,149 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1720,21 +1715,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1767,7 +1747,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>83528</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2070,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,643 +2066,657 @@
     <col min="6" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+    </row>
+    <row r="2" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
         <v>163</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="50"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
-        <v>164</v>
       </c>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
-      <c r="D5" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="50"/>
+      <c r="D5" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="89">
+      <c r="D6" s="71">
         <v>340.7</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="50"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
-      <c r="D7" s="85">
+      <c r="D7" s="73">
         <v>33333</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="50"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="50"/>
+      <c r="D8" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="50"/>
+      <c r="D9" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="63"/>
       <c r="C10" s="63"/>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="50"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="88" t="s">
+      <c r="E12" s="79"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71" t="s">
+      <c r="E13" s="74"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75" t="s">
+      <c r="E14" s="78"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75" t="s">
+      <c r="E16" s="78"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="52"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="52"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="55" t="s">
         <v>185</v>
-      </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="55" t="s">
-        <v>186</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="B19" s="74"/>
+      <c r="C19" s="81">
+        <v>44</v>
+      </c>
+      <c r="D19" s="81"/>
+      <c r="E19" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="79">
-        <v>44</v>
-      </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="58" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="78" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="82">
+        <v>11</v>
+      </c>
+      <c r="D20" s="82"/>
+      <c r="E20" s="59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="80">
+      <c r="B21" s="74"/>
+      <c r="C21" s="81">
+        <v>14.2</v>
+      </c>
+      <c r="D21" s="81"/>
+      <c r="E21" s="58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="78"/>
+      <c r="C22" s="82">
+        <v>62.2</v>
+      </c>
+      <c r="D22" s="82"/>
+      <c r="E22" s="59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="74"/>
+      <c r="C23" s="81">
+        <v>102.8</v>
+      </c>
+      <c r="D23" s="81"/>
+      <c r="E23" s="58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" s="82">
+        <v>340.7</v>
+      </c>
+      <c r="D24" s="82"/>
+      <c r="E24" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="74"/>
+      <c r="C25" s="81">
         <v>11</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="59" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="79">
-        <v>14.2</v>
-      </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="80">
-        <v>62.2</v>
-      </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="59" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="79">
-        <v>102.8</v>
-      </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="58" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="80">
-        <v>340.7</v>
-      </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
+      <c r="D25" s="81"/>
+      <c r="E25" s="58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="79">
-        <v>11</v>
-      </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
+      <c r="B26" s="78"/>
+      <c r="C26" s="82">
+        <v>22</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="80">
-        <v>22</v>
-      </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="59" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="81">
+        <v>26.6</v>
+      </c>
+      <c r="D27" s="81"/>
+      <c r="E27" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="79">
-        <v>26.6</v>
-      </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="58" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="78" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
+      <c r="B28" s="78"/>
+      <c r="C28" s="82">
+        <v>85.8</v>
+      </c>
+      <c r="D28" s="82"/>
+      <c r="E28" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="80">
-        <v>85.8</v>
-      </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="59" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="74" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71" t="s">
+      <c r="B29" s="74"/>
+      <c r="C29" s="83">
+        <v>71</v>
+      </c>
+      <c r="D29" s="83"/>
+      <c r="E29" s="60"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="82">
-        <v>71</v>
-      </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="60"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="B30" s="78"/>
+      <c r="C30" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" s="80"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="61"/>
     </row>
     <row r="31" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="63"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="63" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="52"/>
+    </row>
+    <row r="33" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="78" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="74" t="s">
+      <c r="B33" s="78"/>
+      <c r="C33" s="84">
+        <v>33333</v>
+      </c>
+      <c r="D33" s="84"/>
+      <c r="E33" s="59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="75" t="s">
+      <c r="B34" s="74"/>
+      <c r="C34" s="85">
+        <v>111</v>
+      </c>
+      <c r="D34" s="85"/>
+      <c r="E34" s="58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="78">
-        <v>33333</v>
-      </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="59" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="B35" s="78"/>
+      <c r="C35" s="84">
+        <v>259.3</v>
+      </c>
+      <c r="D35" s="84"/>
+      <c r="E35" s="59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="81">
-        <v>111</v>
-      </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="58" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
+      <c r="B36" s="74"/>
+      <c r="C36" s="86">
+        <v>1513</v>
+      </c>
+      <c r="D36" s="86"/>
+      <c r="E36" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="78">
-        <v>259.3</v>
-      </c>
-      <c r="D35" s="78"/>
-      <c r="E35" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71" t="s">
+    </row>
+    <row r="37" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="77">
-        <v>1513</v>
-      </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="58" t="s">
+      <c r="B37" s="78"/>
+      <c r="C37" s="84">
+        <v>2370</v>
+      </c>
+      <c r="D37" s="84"/>
+      <c r="E37" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="74" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
+      <c r="B38" s="74"/>
+      <c r="C38" s="86">
+        <v>63</v>
+      </c>
+      <c r="D38" s="86"/>
+      <c r="E38" s="58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="78">
-        <v>2370</v>
-      </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="59" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="71" t="s">
+      <c r="B39" s="78"/>
+      <c r="C39" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="77">
-        <v>63</v>
-      </c>
-      <c r="D38" s="77"/>
-      <c r="E38" s="58" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="75" t="s">
+      <c r="D39" s="82"/>
+      <c r="E39" s="64"/>
+    </row>
+    <row r="40" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="80" t="s">
+      <c r="B40" s="74"/>
+      <c r="C40" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="80"/>
-      <c r="E39" s="64"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="71" t="s">
+      <c r="D40" s="81"/>
+      <c r="E40" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="79" t="s">
+    </row>
+    <row r="41" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="58" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="80">
+      <c r="B41" s="78"/>
+      <c r="C41" s="82">
         <v>30</v>
       </c>
-      <c r="D41" s="80"/>
+      <c r="D41" s="82"/>
       <c r="E41" s="59" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="71" t="s">
+    <row r="42" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="74"/>
+      <c r="C42" s="81">
+        <v>4.8</v>
+      </c>
+      <c r="D42" s="81"/>
+      <c r="E42" s="58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="52"/>
+    </row>
+    <row r="44" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="79">
-        <v>4.8</v>
-      </c>
-      <c r="D42" s="79"/>
-      <c r="E42" s="58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="73" t="s">
+      <c r="B44" s="78"/>
+      <c r="C44" s="88">
+        <v>45.5</v>
+      </c>
+      <c r="D44" s="88"/>
+      <c r="E44" s="70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-    </row>
-    <row r="44" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="75" t="s">
+      <c r="B45" s="74"/>
+      <c r="C45" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="76">
-        <v>45.5</v>
-      </c>
-      <c r="D44" s="76"/>
-      <c r="E44" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71" t="s">
+      <c r="D45" s="86"/>
+      <c r="E45" s="69"/>
+    </row>
+    <row r="46" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="77" t="s">
+      <c r="B46" s="78"/>
+      <c r="C46" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="D45" s="77"/>
-      <c r="E45" s="58"/>
-    </row>
-    <row r="46" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="75" t="s">
+      <c r="D46" s="84"/>
+      <c r="E46" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="78" t="s">
+    </row>
+    <row r="47" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="72">
+      <c r="B47" s="74"/>
+      <c r="C47" s="87">
         <v>4</v>
       </c>
-      <c r="D47" s="72"/>
+      <c r="D47" s="87"/>
       <c r="E47" s="63" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="65"/>
-    </row>
-    <row r="49" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="65"/>
-    </row>
-    <row r="50" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="65"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="65"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="65"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="52"/>
+    </row>
+    <row r="49" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="78"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" s="74"/>
+      <c r="C50" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" s="86"/>
+      <c r="E50" s="58"/>
+    </row>
+    <row r="51" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" s="78"/>
+      <c r="C51" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="84"/>
+      <c r="E51" s="59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="74"/>
+      <c r="C52" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="87"/>
+      <c r="E52" s="63" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="65"/>
@@ -2778,7 +2772,7 @@
       <c r="F58" s="66"/>
       <c r="G58" s="65"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="65"/>
       <c r="B59" s="65"/>
       <c r="C59" s="65"/>
@@ -2787,7 +2781,7 @@
       <c r="F59" s="66"/>
       <c r="G59" s="65"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="65"/>
       <c r="B60" s="65"/>
       <c r="C60" s="65"/>
@@ -2796,7 +2790,7 @@
       <c r="F60" s="66"/>
       <c r="G60" s="65"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="65"/>
       <c r="B61" s="65"/>
       <c r="C61" s="65"/>
@@ -2805,7 +2799,7 @@
       <c r="F61" s="66"/>
       <c r="G61" s="65"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="65"/>
       <c r="B62" s="65"/>
       <c r="C62" s="65"/>
@@ -2814,7 +2808,7 @@
       <c r="F62" s="66"/>
       <c r="G62" s="65"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="65"/>
       <c r="B63" s="65"/>
       <c r="C63" s="65"/>
@@ -3364,49 +3358,49 @@
       <c r="G123" s="65"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="67"/>
-      <c r="B124" s="67"/>
-      <c r="C124" s="67"/>
-      <c r="D124" s="67"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="68"/>
-      <c r="G124" s="67"/>
+      <c r="A124" s="65"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="66"/>
+      <c r="F124" s="66"/>
+      <c r="G124" s="65"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
-      <c r="B125" s="67"/>
-      <c r="C125" s="67"/>
-      <c r="D125" s="67"/>
-      <c r="E125" s="68"/>
-      <c r="F125" s="68"/>
-      <c r="G125" s="67"/>
+      <c r="A125" s="65"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="65"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="66"/>
+      <c r="F125" s="66"/>
+      <c r="G125" s="65"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="67"/>
-      <c r="B126" s="67"/>
-      <c r="C126" s="67"/>
-      <c r="D126" s="67"/>
-      <c r="E126" s="68"/>
-      <c r="F126" s="68"/>
-      <c r="G126" s="67"/>
+      <c r="A126" s="65"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="65"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="66"/>
+      <c r="F126" s="66"/>
+      <c r="G126" s="65"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="67"/>
-      <c r="B127" s="67"/>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="68"/>
-      <c r="F127" s="68"/>
-      <c r="G127" s="67"/>
+      <c r="A127" s="65"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="65"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
-      <c r="B128" s="67"/>
-      <c r="C128" s="67"/>
-      <c r="D128" s="67"/>
-      <c r="E128" s="68"/>
-      <c r="F128" s="68"/>
-      <c r="G128" s="67"/>
+      <c r="A128" s="65"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="65"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="66"/>
+      <c r="F128" s="66"/>
+      <c r="G128" s="65"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="67"/>
@@ -3507,13 +3501,126 @@
       <c r="F139" s="68"/>
       <c r="G139" s="67"/>
     </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="67"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="68"/>
+      <c r="F140" s="68"/>
+      <c r="G140" s="67"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="67"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="67"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="67"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="68"/>
+      <c r="F142" s="68"/>
+      <c r="G142" s="67"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="67"/>
+      <c r="B143" s="67"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="67"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="67"/>
+      <c r="B144" s="67"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="67"/>
+      <c r="E144" s="68"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="67"/>
+    </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D5:E5"/>
+  <mergeCells count="87">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
@@ -3523,69 +3630,11 @@
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3594,8 +3643,11 @@
     <oddFooter>&amp;L&amp;"Daxline Offc Pro,Normal"systemair.com.tr&amp;C&amp;P/&amp;N&amp;R&amp;G</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="47" max="16383" man="1"/>
+    <brk id="52" max="16383" man="1"/>
   </rowBreaks>
+  <ignoredErrors>
+    <ignoredError sqref="C52" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
 </worksheet>
@@ -3606,14 +3658,14 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3621,9 +3673,9 @@
         <v>63</v>
       </c>
       <c r="B1" s="23">
-        <v>23</v>
-      </c>
-      <c r="C1" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3634,7 +3686,7 @@
       <c r="B2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3645,7 +3697,7 @@
       <c r="B3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3656,7 +3708,7 @@
       <c r="B4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="30">
         <v>-5371</v>
       </c>
     </row>
@@ -3664,10 +3716,10 @@
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24">
-        <v>0</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3676,9 +3728,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3689,7 +3741,7 @@
       <c r="B7" s="24">
         <v>0</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3700,7 +3752,7 @@
       <c r="B8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="30" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3711,49 +3763,49 @@
       <c r="B9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="24">
         <v>0</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="31" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>82</v>
       </c>
       <c r="F12" s="27"/>
@@ -3767,7 +3819,7 @@
       <c r="B13" s="24">
         <v>0</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3778,7 +3830,7 @@
       <c r="B14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="30" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3789,7 +3841,7 @@
       <c r="B15" s="24">
         <v>0</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3800,7 +3852,7 @@
       <c r="B16" s="24">
         <v>0</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3811,7 +3863,7 @@
       <c r="B17" s="24">
         <v>0</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3822,7 +3874,7 @@
       <c r="B18" s="24">
         <v>0</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="30" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3833,7 +3885,7 @@
       <c r="B19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3844,7 +3896,7 @@
       <c r="B20" s="24">
         <v>0</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="30" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3855,7 +3907,7 @@
       <c r="B21" s="24">
         <v>0</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="30" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3866,7 +3918,7 @@
       <c r="B22" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="30" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3877,7 +3929,7 @@
       <c r="B23" s="24">
         <v>0</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="30" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3887,9 +3939,9 @@
       </c>
       <c r="B24" s="28" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6&amp;B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12&amp;B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18&amp;B19&amp;B20&amp;B21&amp;B22&amp;B23</f>
-        <v>23BRH0L0SSN000N0000N00F0</v>
-      </c>
-      <c r="C24" s="92" t="s">
+        <v>17BRHSH0SSN000N0000N00F0</v>
+      </c>
+      <c r="C24" s="89" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3897,11 +3949,11 @@
       <c r="A25" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="36">
         <f>Calculation!B25</f>
-        <v>37858.745139000275</v>
-      </c>
-      <c r="C25" s="93"/>
+        <v>27875.844305666935</v>
+      </c>
+      <c r="C25" s="90"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4065,7 +4117,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4075,23 +4127,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="33">
+      <c r="B1" s="35">
         <f xml:space="preserve">
 IF('Selection List'!B1=17,'Material Costs'!$F$2,
 IF('Selection List'!B1=23,'Material Costs'!$G$2,
 IF('Selection List'!B1=30,'Material Costs'!$H$2,
 0)))</f>
-        <v>35008.94</v>
+        <v>24016.9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="35">
         <f xml:space="preserve">
 IF('Selection List'!B2="M",
 IF('Selection List'!B1=17,'Material Costs'!$F$7,
@@ -4108,53 +4160,53 @@
 IF('Selection List'!B1=23,'Material Costs'!$G$5,
 IF('Selection List'!B1=30,'Material Costs'!$H$5,
 ))),0)</f>
-        <v>1743.4416666666668</v>
+        <v>1457.95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="35">
         <f xml:space="preserve">
 IF('Selection List'!B4="H",
 IF('Selection List'!B1=17,'Material Costs'!$F$11,
 IF('Selection List'!B1=23,'Material Costs'!$G$11,
 IF('Selection List'!B1=30,'Material Costs'!$H$11,
 ))),0)</f>
-        <v>981.75000000000489</v>
+        <v>758.99999999999943</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="35">
         <f>IF('Selection List'!B5="S",'Material Costs'!$H$12,0)</f>
-        <v>0</v>
+        <v>1363.7833333333333</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="35">
         <f>IF('Selection List'!B7=1,
 IF('Selection List'!B1=17,'Material Costs'!$F$17,
 IF('Selection List'!B1=23,'Material Costs'!$G$17,
@@ -4164,10 +4216,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="35">
         <f xml:space="preserve">
 IF('Selection List'!B8="O",
 IF('Selection List'!B1=17,'Material Costs'!$F$20,
@@ -4183,10 +4235,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="35">
         <f>IF('Selection List'!B9="O",
 IF('Selection List'!B1=17,'Material Costs'!$F$22,
 IF('Selection List'!B1=23,'Material Costs'!$G$22,
@@ -4196,10 +4248,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="35">
         <f xml:space="preserve">
 IF(AND('Selection List'!B1=17,'Selection List'!B10="N"),'Material Costs'!$F$23,0)+
 IF(AND('Selection List'!B1=17,'Selection List'!B10="F"),'Material Costs'!$F$24,0)+
@@ -4223,10 +4275,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="35">
         <f xml:space="preserve">
 IF('Selection List'!B11=1,'Material Costs'!F30,
 IF('Selection List'!B11=2,'Material Costs'!F31,
@@ -4238,26 +4290,26 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="35">
         <f xml:space="preserve">
 IF(AND('Selection List'!B1=17,'Selection List'!B14="N"),'Material Costs'!$F$40,0)+
 IF(AND('Selection List'!B1=17,'Selection List'!B14="A"),'Material Costs'!$F$41,0)+
@@ -4275,10 +4327,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="35">
         <f xml:space="preserve">
 IF('Selection List'!B15=3,'Material Costs'!F45,
 0)</f>
@@ -4286,10 +4338,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="35">
         <f xml:space="preserve">
 IF('Selection List'!B16=1,'Material Costs'!F47,
 IF('Selection List'!B16=2,'Material Costs'!F48,
@@ -4298,10 +4350,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="35">
         <f xml:space="preserve">
 IF('Selection List'!B17=1,'Material Costs'!$F$50,IF('Selection List'!B17=2,'Material Costs'!$F$51,
 0))</f>
@@ -4309,10 +4361,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="35">
         <f xml:space="preserve">
 IF('Selection List'!B18="A",'Material Costs'!$F$53,
 0)</f>
@@ -4320,10 +4372,10 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="35">
         <f xml:space="preserve">
 IF('Selection List'!B19=0,'Material Costs'!$F$55,
 IF('Selection List'!B19=1,'Material Costs'!$F$56,
@@ -4334,18 +4386,18 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="35">
         <f xml:space="preserve">
 IF('Selection List'!B21=1,'Material Costs'!$F$65,
 IF('Selection List'!B21=3,'Material Costs'!$F$67,
@@ -4354,10 +4406,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="35">
         <f xml:space="preserve">
 IF(AND('Selection List'!B1=17,'Selection List'!B22="F"),'Material Costs'!$F$68,0)+
 IF(AND('Selection List'!B1=17,'Selection List'!B22="B"),'Material Costs'!$F$69,0)+
@@ -4372,10 +4424,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="35">
         <f xml:space="preserve">
 IF('Selection List'!B23=1,
 IF('Selection List'!B1=17,'Material Costs'!$F$72,
@@ -4386,23 +4438,23 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="35">
         <f xml:space="preserve">
 IF(OR('Selection List'!B11&gt;0,'Selection List'!B5="S",'Selection List'!B19=1,'Selection List'!B19=2,'Selection List'!B19=3,'Selection List'!B19=0),'Material Costs'!$G$74,
 0)</f>
-        <v>0</v>
+        <v>153.59750000000003</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="35">
         <f>SUM(B1:B24)</f>
-        <v>37858.745139000275</v>
+        <v>27875.844305666935</v>
       </c>
     </row>
   </sheetData>
@@ -4416,7 +4468,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4426,7 +4478,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17">
@@ -4437,7 +4489,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="104"/>
+      <c r="A2" s="96"/>
       <c r="B2" s="18">
         <v>17</v>
       </c>
@@ -4446,7 +4498,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="104"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="18">
         <v>23</v>
       </c>
@@ -4456,7 +4508,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="105"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="19">
         <v>30</v>
       </c>
@@ -4466,7 +4518,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="94" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -4478,7 +4530,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -4488,7 +4540,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
@@ -4498,7 +4550,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="91" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4510,7 +4562,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
@@ -4520,7 +4572,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="94" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4532,7 +4584,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="103"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -4542,7 +4594,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="94" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4553,7 +4605,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -4563,7 +4615,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="91" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4574,7 +4626,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
@@ -4583,7 +4635,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
@@ -4593,7 +4645,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="94" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5">
@@ -4605,7 +4657,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="103"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -4615,7 +4667,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="91" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -4627,7 +4679,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
@@ -4637,7 +4689,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="91" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -4649,7 +4701,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
@@ -4659,7 +4711,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="91" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -4670,7 +4722,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
@@ -4679,7 +4731,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="9">
         <v>2</v>
       </c>
@@ -4688,7 +4740,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="8">
         <v>3</v>
       </c>
@@ -4697,7 +4749,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
@@ -4706,7 +4758,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="98"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="10" t="s">
         <v>41</v>
       </c>
@@ -4716,7 +4768,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="91" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="5">
@@ -4728,7 +4780,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="6">
         <v>1</v>
       </c>
@@ -4738,7 +4790,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="6">
         <v>2</v>
       </c>
@@ -4748,7 +4800,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="6">
         <v>3</v>
       </c>
@@ -4757,7 +4809,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="6">
         <v>4</v>
       </c>
@@ -4766,7 +4818,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="98"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="6">
         <v>5</v>
       </c>
@@ -4775,7 +4827,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="5">
@@ -4786,7 +4838,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="98"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="3">
         <v>1</v>
       </c>
@@ -4795,7 +4847,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="91" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -4807,19 +4859,19 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="97"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="97"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="6" t="s">
         <v>47</v>
       </c>
@@ -4829,7 +4881,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="91" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="5">
@@ -4841,7 +4893,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="98"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="3">
         <v>3</v>
       </c>
@@ -4851,7 +4903,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="91" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="5">
@@ -4862,7 +4914,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="6">
         <v>1</v>
       </c>
@@ -4871,7 +4923,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="98"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -4881,7 +4933,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="96" t="s">
+      <c r="A46" s="91" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="5">
@@ -4892,7 +4944,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="98"/>
+      <c r="A47" s="93"/>
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -4902,7 +4954,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="96" t="s">
+      <c r="A48" s="91" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="5">
@@ -4914,7 +4966,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="98"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
@@ -4924,7 +4976,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="96" t="s">
+      <c r="A50" s="91" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -4936,7 +4988,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="97"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="6">
         <v>0</v>
       </c>
@@ -4946,7 +4998,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="97"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="6">
         <v>1</v>
       </c>
@@ -4956,7 +5008,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="97"/>
+      <c r="A53" s="92"/>
       <c r="B53" s="6">
         <v>2</v>
       </c>
@@ -4966,7 +5018,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="97"/>
+      <c r="A54" s="92"/>
       <c r="B54" s="6">
         <v>3</v>
       </c>
@@ -4976,7 +5028,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="99" t="s">
+      <c r="A55" s="101" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="11">
@@ -4988,7 +5040,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="100"/>
+      <c r="A56" s="102"/>
       <c r="B56" s="12">
         <v>1</v>
       </c>
@@ -4998,7 +5050,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="100"/>
+      <c r="A57" s="102"/>
       <c r="B57" s="12">
         <v>2</v>
       </c>
@@ -5008,7 +5060,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="100"/>
+      <c r="A58" s="102"/>
       <c r="B58" s="12">
         <v>3</v>
       </c>
@@ -5018,7 +5070,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="100"/>
+      <c r="A59" s="102"/>
       <c r="B59" s="12">
         <v>4</v>
       </c>
@@ -5028,7 +5080,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="99" t="s">
+      <c r="A60" s="101" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="11">
@@ -5040,7 +5092,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="100"/>
+      <c r="A61" s="102"/>
       <c r="B61" s="12">
         <v>1</v>
       </c>
@@ -5050,7 +5102,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="100"/>
+      <c r="A62" s="102"/>
       <c r="B62" s="12">
         <v>2</v>
       </c>
@@ -5060,7 +5112,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="100"/>
+      <c r="A63" s="102"/>
       <c r="B63" s="12">
         <v>3</v>
       </c>
@@ -5070,7 +5122,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="101" t="s">
+      <c r="A64" s="94" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -5081,7 +5133,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="102"/>
+      <c r="A65" s="98"/>
       <c r="B65" s="6" t="s">
         <v>23</v>
       </c>
@@ -5090,7 +5142,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="103"/>
+      <c r="A66" s="95"/>
       <c r="B66" s="3" t="s">
         <v>48</v>
       </c>
@@ -5099,7 +5151,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="101" t="s">
+      <c r="A67" s="94" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="13">
@@ -5110,7 +5162,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="103"/>
+      <c r="A68" s="95"/>
       <c r="B68" s="3">
         <v>1</v>
       </c>
@@ -5119,13 +5171,13 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="30"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="94" t="s">
+      <c r="A70" s="99" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="4">
@@ -5136,7 +5188,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="95"/>
+      <c r="A71" s="100"/>
       <c r="B71" s="4">
         <v>2</v>
       </c>
@@ -5146,16 +5198,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:A42"/>
@@ -5169,6 +5211,16 @@
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5181,7 +5233,7 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5213,1961 +5265,1961 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="37">
         <v>14440.154438724534</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="37">
         <v>20956.581756699787</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="37">
         <v>24574.707105540692</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="37">
         <v>24016.9</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="37">
         <v>35008.94</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="37">
         <v>41208.74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="35">
-        <v>0</v>
-      </c>
-      <c r="D3" s="35">
-        <v>0</v>
-      </c>
-      <c r="E3" s="35">
-        <v>0</v>
-      </c>
-      <c r="F3" s="35">
+      <c r="C3" s="37">
+        <v>0</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0</v>
+      </c>
+      <c r="F3" s="37">
         <f t="shared" ref="F3:F66" si="0">C3/0.6</f>
         <v>0</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="37">
         <f t="shared" ref="G3:H17" si="1">D3/0.6</f>
         <v>0</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="35">
-        <v>0</v>
-      </c>
-      <c r="D4" s="35">
-        <v>0</v>
-      </c>
-      <c r="E4" s="35">
-        <v>0</v>
-      </c>
-      <c r="F4" s="35">
+      <c r="C4" s="37">
+        <v>0</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="37">
         <v>874.77</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="37">
         <v>1046.0650000000001</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="37">
         <v>1198.6174999999998</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="37">
         <f t="shared" si="0"/>
         <v>1457.95</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="37">
         <f t="shared" si="1"/>
         <v>1743.4416666666668</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="37">
         <f t="shared" si="1"/>
         <v>1997.6958333333332</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="98"/>
+      <c r="B6" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="37">
         <v>713.41750000000002</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="37">
         <v>878.83249999999998</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="37">
         <v>1037.2649999999999</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="37">
         <f t="shared" si="0"/>
         <v>1189.0291666666667</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="37">
         <f t="shared" si="1"/>
         <v>1464.7208333333333</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="37">
         <f t="shared" si="1"/>
         <v>1728.7749999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="37">
         <v>921.53</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="37">
         <v>1103.1925000000001</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="37">
         <v>1270.7450000000001</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="37">
         <f t="shared" si="0"/>
         <v>1535.8833333333334</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="37">
         <f t="shared" si="1"/>
         <v>1838.6541666666669</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="37">
         <f t="shared" si="1"/>
         <v>2117.9083333333338</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="91" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="35">
-        <v>0</v>
-      </c>
-      <c r="D8" s="35">
-        <v>0</v>
-      </c>
-      <c r="E8" s="35">
-        <v>0</v>
-      </c>
-      <c r="F8" s="35">
+      <c r="C8" s="37">
+        <v>0</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0</v>
+      </c>
+      <c r="F8" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="35">
-        <v>0</v>
-      </c>
-      <c r="D9" s="35">
-        <v>0</v>
-      </c>
-      <c r="E9" s="35">
-        <v>0</v>
-      </c>
-      <c r="F9" s="35">
+      <c r="C9" s="37">
+        <v>0</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0</v>
+      </c>
+      <c r="F9" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="94" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="35">
-        <v>0</v>
-      </c>
-      <c r="D10" s="35">
-        <v>0</v>
-      </c>
-      <c r="E10" s="35">
-        <v>0</v>
-      </c>
-      <c r="F10" s="35">
+      <c r="C10" s="37">
+        <v>0</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0</v>
+      </c>
+      <c r="F10" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="103"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="37">
         <v>455.39999999999964</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="37">
         <v>589.05000000000291</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="37">
         <v>773.850000000004</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="37">
         <f t="shared" si="0"/>
         <v>758.99999999999943</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="37">
         <f t="shared" si="1"/>
         <v>981.75000000000489</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="37">
         <f t="shared" si="1"/>
         <v>1289.7500000000068</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="37">
         <v>818.27</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="37">
         <v>818.27</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="37">
         <v>818.27</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="37">
         <f t="shared" si="0"/>
         <v>1363.7833333333333</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="37">
         <f t="shared" si="1"/>
         <v>1363.7833333333333</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="37">
         <f t="shared" si="1"/>
         <v>1363.7833333333333</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="95"/>
+      <c r="B13" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="35">
-        <v>0</v>
-      </c>
-      <c r="D13" s="35">
-        <v>0</v>
-      </c>
-      <c r="E13" s="35">
-        <v>0</v>
-      </c>
-      <c r="F13" s="35">
+      <c r="C13" s="37">
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0</v>
+      </c>
+      <c r="F13" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="35">
-        <v>0</v>
-      </c>
-      <c r="D14" s="35">
-        <v>0</v>
-      </c>
-      <c r="E14" s="35">
-        <v>0</v>
-      </c>
-      <c r="F14" s="35">
+      <c r="C14" s="37">
+        <v>0</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0</v>
+      </c>
+      <c r="F14" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="92"/>
+      <c r="B15" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="35">
-        <v>0</v>
-      </c>
-      <c r="D15" s="35">
-        <v>0</v>
-      </c>
-      <c r="E15" s="35">
-        <v>0</v>
-      </c>
-      <c r="F15" s="35">
+      <c r="C15" s="37">
+        <v>0</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0</v>
+      </c>
+      <c r="F15" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="35">
-        <v>0</v>
-      </c>
-      <c r="D16" s="35">
-        <v>0</v>
-      </c>
-      <c r="E16" s="35">
-        <v>0</v>
-      </c>
-      <c r="F16" s="35">
+      <c r="C16" s="37">
+        <v>0</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0</v>
+      </c>
+      <c r="F16" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="37">
         <v>897.51099999999997</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="37">
         <v>874.51099999999997</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="37">
         <v>1306.511</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="37">
         <f t="shared" si="0"/>
         <v>1495.8516666666667</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="37">
         <f t="shared" si="1"/>
         <v>1457.5183333333334</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="37">
         <f t="shared" si="1"/>
         <v>2177.5183333333334</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="110"/>
-      <c r="B18" s="39" t="s">
+      <c r="A18" s="107"/>
+      <c r="B18" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="35">
-        <v>0</v>
-      </c>
-      <c r="D18" s="35">
-        <v>0</v>
-      </c>
-      <c r="E18" s="35">
-        <v>0</v>
-      </c>
-      <c r="F18" s="35">
+      <c r="C18" s="37">
+        <v>0</v>
+      </c>
+      <c r="D18" s="37">
+        <v>0</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0</v>
+      </c>
+      <c r="F18" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="37">
         <f t="shared" ref="G18:G72" si="2">D18/0.6</f>
         <v>0</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="37">
         <f t="shared" ref="H18:H72" si="3">E18/0.6</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="94" t="s">
         <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="37">
         <v>2.2453889334402573</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="37">
         <v>2.2453889334402573</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="37">
         <v>2.2453889334402573</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="37">
         <f t="shared" si="0"/>
         <v>3.7423148890670954</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="37">
         <f t="shared" si="2"/>
         <v>3.7423148890670954</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="37">
         <f t="shared" si="3"/>
         <v>3.7423148890670954</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="103"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="37">
         <v>255.11681956696071</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="37">
         <v>255.11681956696071</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="37">
         <v>255.11681956696071</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="37">
         <f t="shared" si="0"/>
         <v>425.19469927826788</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="37">
         <f t="shared" si="2"/>
         <v>425.19469927826788</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="37">
         <f t="shared" si="3"/>
         <v>425.19469927826788</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="91" t="s">
         <v>108</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="35">
-        <v>0</v>
-      </c>
-      <c r="D21" s="35">
-        <v>0</v>
-      </c>
-      <c r="E21" s="35">
-        <v>0</v>
-      </c>
-      <c r="F21" s="35">
+      <c r="C21" s="37">
+        <v>0</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0</v>
+      </c>
+      <c r="F21" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="37">
         <v>192.07650000000001</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="37">
         <v>192.07650000000001</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="37">
         <v>192.07650000000001</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="37">
         <f t="shared" si="0"/>
         <v>320.12750000000005</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="37">
         <f t="shared" si="2"/>
         <v>320.12750000000005</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="37">
         <f t="shared" si="3"/>
         <v>320.12750000000005</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="37">
         <v>72.522694466720139</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="37">
         <v>72.522694466720139</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="37">
         <v>72.522694466720139</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="37">
         <f t="shared" si="0"/>
         <v>120.87115744453357</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="37">
         <f t="shared" si="2"/>
         <v>120.87115744453357</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="37">
         <f t="shared" si="3"/>
         <v>120.87115744453357</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="92"/>
+      <c r="B24" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="37">
         <v>577.22269446672021</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="37">
         <v>627.20269446672023</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="37">
         <v>652.20269446672023</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="37">
         <f t="shared" si="0"/>
         <v>962.03782411120039</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="37">
         <f t="shared" si="2"/>
         <v>1045.3378241112005</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="37">
         <f t="shared" si="3"/>
         <v>1087.0044907778672</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="41" t="s">
+      <c r="A25" s="92"/>
+      <c r="B25" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="37">
         <v>1115.0536944667201</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="37">
         <v>1024.3861944667201</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="37">
         <v>1049.3861944667201</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="37">
         <f t="shared" si="0"/>
         <v>1858.4228241112003</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="37">
         <f t="shared" si="2"/>
         <v>1707.3103241112003</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="37">
         <f t="shared" si="3"/>
         <v>1748.9769907778668</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="92"/>
+      <c r="B26" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="37">
         <v>1250.5036944667202</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="37">
         <v>1477.6711944667204</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="37">
         <v>1502.6711944667204</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="37">
         <f t="shared" si="0"/>
         <v>2084.1728241112005</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="37">
         <f t="shared" si="2"/>
         <v>2462.7853241112007</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="37">
         <f t="shared" si="3"/>
         <v>2504.4519907778676</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="92"/>
+      <c r="B27" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="37">
         <v>1978.48</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="37">
         <v>2267.86</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="37">
         <v>2292.86</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="37">
         <f t="shared" si="0"/>
         <v>3297.4666666666667</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="37">
         <f t="shared" si="2"/>
         <v>3779.7666666666669</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="37">
         <f t="shared" si="3"/>
         <v>3821.4333333333338</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="98"/>
-      <c r="B28" s="43" t="s">
+      <c r="A28" s="93"/>
+      <c r="B28" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="37">
         <v>1721.125</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="37">
         <v>1982.68</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="37">
         <v>2007.68</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="37">
         <f t="shared" si="0"/>
         <v>2868.541666666667</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="37">
         <f t="shared" si="2"/>
         <v>3304.4666666666667</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="37">
         <f t="shared" si="3"/>
         <v>3346.1333333333337</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="91" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="35">
-        <v>0</v>
-      </c>
-      <c r="D29" s="35">
-        <v>0</v>
-      </c>
-      <c r="E29" s="35">
-        <v>0</v>
-      </c>
-      <c r="F29" s="35">
+      <c r="C29" s="37">
+        <v>0</v>
+      </c>
+      <c r="D29" s="37">
+        <v>0</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0</v>
+      </c>
+      <c r="F29" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="44" t="s">
+      <c r="A30" s="92"/>
+      <c r="B30" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="37">
         <v>68.712000000000003</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="37">
         <v>68.712000000000003</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="37">
         <v>68.712000000000003</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="37">
         <f t="shared" si="0"/>
         <v>114.52000000000001</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="37">
         <f t="shared" si="2"/>
         <v>114.52000000000001</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="37">
         <f t="shared" si="3"/>
         <v>114.52000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
-      <c r="B31" s="44" t="s">
+      <c r="A31" s="92"/>
+      <c r="B31" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="37">
         <v>137.42400000000001</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="37">
         <v>137.42400000000001</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="37">
         <v>137.42400000000001</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="37">
         <f t="shared" si="0"/>
         <v>229.04000000000002</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="37">
         <f t="shared" si="2"/>
         <v>229.04000000000002</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="37">
         <f t="shared" si="3"/>
         <v>229.04000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
-      <c r="B32" s="44" t="s">
+      <c r="A32" s="92"/>
+      <c r="B32" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="37">
         <v>213.339</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="37">
         <v>213.339</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="37">
         <v>213.339</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="37">
         <f t="shared" si="0"/>
         <v>355.565</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="37">
         <f t="shared" si="2"/>
         <v>355.565</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="37">
         <f t="shared" si="3"/>
         <v>355.565</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
-      <c r="B33" s="44" t="s">
+      <c r="A33" s="92"/>
+      <c r="B33" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="37">
         <v>282.05100000000004</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="37">
         <v>282.05100000000004</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="37">
         <v>282.05100000000004</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="37">
         <f t="shared" si="0"/>
         <v>470.08500000000009</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="37">
         <f t="shared" si="2"/>
         <v>470.08500000000009</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="37">
         <f t="shared" si="3"/>
         <v>470.08500000000009</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="97"/>
-      <c r="B34" s="44" t="s">
+      <c r="A34" s="92"/>
+      <c r="B34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="37">
         <v>144.62700000000001</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="37">
         <v>144.62700000000001</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="37">
         <v>144.62700000000001</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="37">
         <f t="shared" si="0"/>
         <v>241.04500000000002</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="37">
         <f t="shared" si="2"/>
         <v>241.04500000000002</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="37">
         <f t="shared" si="3"/>
         <v>241.04500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="35">
-        <v>0</v>
-      </c>
-      <c r="E35" s="35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="35">
+      <c r="C35" s="37">
+        <v>0</v>
+      </c>
+      <c r="D35" s="37">
+        <v>0</v>
+      </c>
+      <c r="E35" s="37">
+        <v>0</v>
+      </c>
+      <c r="F35" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="97"/>
-      <c r="B36" s="46" t="s">
+      <c r="A36" s="92"/>
+      <c r="B36" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="35">
-        <v>0</v>
-      </c>
-      <c r="D36" s="35">
-        <v>0</v>
-      </c>
-      <c r="E36" s="35">
-        <v>0</v>
-      </c>
-      <c r="F36" s="35">
+      <c r="C36" s="37">
+        <v>0</v>
+      </c>
+      <c r="D36" s="37">
+        <v>0</v>
+      </c>
+      <c r="E36" s="37">
+        <v>0</v>
+      </c>
+      <c r="F36" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="98"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="35">
-        <v>0</v>
-      </c>
-      <c r="D37" s="35">
-        <v>0</v>
-      </c>
-      <c r="E37" s="35">
-        <v>0</v>
-      </c>
-      <c r="F37" s="35">
+      <c r="C37" s="37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="91" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="35">
-        <v>0</v>
-      </c>
-      <c r="D38" s="35">
-        <v>0</v>
-      </c>
-      <c r="E38" s="35">
-        <v>0</v>
-      </c>
-      <c r="F38" s="35">
+      <c r="C38" s="37">
+        <v>0</v>
+      </c>
+      <c r="D38" s="37">
+        <v>0</v>
+      </c>
+      <c r="E38" s="37">
+        <v>0</v>
+      </c>
+      <c r="F38" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="98"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="35">
-        <v>0</v>
-      </c>
-      <c r="D39" s="35">
-        <v>0</v>
-      </c>
-      <c r="E39" s="35">
-        <v>0</v>
-      </c>
-      <c r="F39" s="35">
+      <c r="C39" s="37">
+        <v>0</v>
+      </c>
+      <c r="D39" s="37">
+        <v>0</v>
+      </c>
+      <c r="E39" s="37">
+        <v>0</v>
+      </c>
+      <c r="F39" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H39" s="35">
+      <c r="H39" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="101" t="s">
+      <c r="A40" s="94" t="s">
         <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="35">
-        <v>0</v>
-      </c>
-      <c r="D40" s="35">
-        <v>0</v>
-      </c>
-      <c r="E40" s="35">
-        <v>0</v>
-      </c>
-      <c r="F40" s="35">
+      <c r="C40" s="37">
+        <v>0</v>
+      </c>
+      <c r="D40" s="37">
+        <v>0</v>
+      </c>
+      <c r="E40" s="37">
+        <v>0</v>
+      </c>
+      <c r="F40" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="102"/>
-      <c r="B41" s="44" t="s">
+      <c r="A41" s="98"/>
+      <c r="B41" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="37">
         <v>1069.047</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="37">
         <v>1069.047</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="37">
         <v>1069.047</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="37">
         <f t="shared" si="0"/>
         <v>1781.7450000000001</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G41" s="37">
         <f t="shared" si="2"/>
         <v>1781.7450000000001</v>
       </c>
-      <c r="H41" s="35">
+      <c r="H41" s="37">
         <f t="shared" si="3"/>
         <v>1781.7450000000001</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="102"/>
-      <c r="B42" s="44" t="s">
+      <c r="A42" s="98"/>
+      <c r="B42" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="37">
         <v>1484.7218195669607</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="37">
         <v>1484.7218195669607</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="37">
         <v>1484.7218195669607</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="37">
         <f t="shared" si="0"/>
         <v>2474.5363659449345</v>
       </c>
-      <c r="G42" s="35">
+      <c r="G42" s="37">
         <f t="shared" si="2"/>
         <v>2474.5363659449345</v>
       </c>
-      <c r="H42" s="35">
+      <c r="H42" s="37">
         <f t="shared" si="3"/>
         <v>2474.5363659449345</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="103"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="37">
         <v>415.67481956696065</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="37">
         <v>415.67481956696065</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="37">
         <v>415.67481956696065</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F43" s="37">
         <f t="shared" si="0"/>
         <v>692.79136594493446</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="37">
         <f t="shared" si="2"/>
         <v>692.79136594493446</v>
       </c>
-      <c r="H43" s="35">
+      <c r="H43" s="37">
         <f t="shared" si="3"/>
         <v>692.79136594493446</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="106" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="35">
-        <v>0</v>
-      </c>
-      <c r="D44" s="35">
-        <v>0</v>
-      </c>
-      <c r="E44" s="35">
-        <v>0</v>
-      </c>
-      <c r="F44" s="35">
+      <c r="C44" s="37">
+        <v>0</v>
+      </c>
+      <c r="D44" s="37">
+        <v>0</v>
+      </c>
+      <c r="E44" s="37">
+        <v>0</v>
+      </c>
+      <c r="F44" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H44" s="35">
+      <c r="H44" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="110"/>
+      <c r="A45" s="107"/>
       <c r="B45" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="37">
         <v>316.05</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="37">
         <v>316.05</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="37">
         <v>316.05</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="37">
         <f t="shared" si="0"/>
         <v>526.75</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G45" s="37">
         <f t="shared" si="2"/>
         <v>526.75</v>
       </c>
-      <c r="H45" s="35">
+      <c r="H45" s="37">
         <f t="shared" si="3"/>
         <v>526.75</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="96" t="s">
+      <c r="A46" s="91" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="35">
-        <v>0</v>
-      </c>
-      <c r="D46" s="35">
-        <v>0</v>
-      </c>
-      <c r="E46" s="35">
-        <v>0</v>
-      </c>
-      <c r="F46" s="35">
+      <c r="C46" s="37">
+        <v>0</v>
+      </c>
+      <c r="D46" s="37">
+        <v>0</v>
+      </c>
+      <c r="E46" s="37">
+        <v>0</v>
+      </c>
+      <c r="F46" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H46" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="97"/>
-      <c r="B47" s="44" t="s">
+      <c r="A47" s="92"/>
+      <c r="B47" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="37">
         <v>114.66000000000001</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="37">
         <v>114.66000000000001</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="37">
         <v>114.66000000000001</v>
       </c>
-      <c r="F47" s="35">
+      <c r="F47" s="37">
         <f t="shared" si="0"/>
         <v>191.10000000000002</v>
       </c>
-      <c r="G47" s="35">
+      <c r="G47" s="37">
         <f t="shared" si="2"/>
         <v>191.10000000000002</v>
       </c>
-      <c r="H47" s="35">
+      <c r="H47" s="37">
         <f t="shared" si="3"/>
         <v>191.10000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="98"/>
+      <c r="A48" s="93"/>
       <c r="B48" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="37">
         <v>294.24229149959905</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="37">
         <v>294.24229149959905</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="37">
         <v>294.24229149959905</v>
       </c>
-      <c r="F48" s="35">
+      <c r="F48" s="37">
         <f t="shared" si="0"/>
         <v>490.40381916599841</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G48" s="37">
         <f t="shared" si="2"/>
         <v>490.40381916599841</v>
       </c>
-      <c r="H48" s="35">
+      <c r="H48" s="37">
         <f t="shared" si="3"/>
         <v>490.40381916599841</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="111" t="s">
+      <c r="A49" s="103" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="35">
-        <v>0</v>
-      </c>
-      <c r="D49" s="35">
-        <v>0</v>
-      </c>
-      <c r="E49" s="35">
-        <v>0</v>
-      </c>
-      <c r="F49" s="35">
+      <c r="C49" s="37">
+        <v>0</v>
+      </c>
+      <c r="D49" s="37">
+        <v>0</v>
+      </c>
+      <c r="E49" s="37">
+        <v>0</v>
+      </c>
+      <c r="F49" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H49" s="35">
+      <c r="H49" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="112"/>
+      <c r="A50" s="104"/>
       <c r="B50" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="37">
         <v>6431.4715316760221</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="37">
         <v>6431.4715316760221</v>
       </c>
-      <c r="E50" s="35">
+      <c r="E50" s="37">
         <v>6431.4715316760221</v>
       </c>
-      <c r="F50" s="35">
+      <c r="F50" s="37">
         <f t="shared" si="0"/>
         <v>10719.119219460037</v>
       </c>
-      <c r="G50" s="35">
+      <c r="G50" s="37">
         <f t="shared" si="2"/>
         <v>10719.119219460037</v>
       </c>
-      <c r="H50" s="35">
+      <c r="H50" s="37">
         <f t="shared" si="3"/>
         <v>10719.119219460037</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="113"/>
-      <c r="B51" s="44" t="s">
+      <c r="A51" s="105"/>
+      <c r="B51" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="37">
         <v>436.80000000000018</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="37">
         <v>582.40000000000009</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="37">
         <v>728</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="37">
         <f t="shared" si="0"/>
         <v>728.00000000000034</v>
       </c>
-      <c r="G51" s="35">
+      <c r="G51" s="37">
         <f t="shared" si="2"/>
         <v>970.66666666666686</v>
       </c>
-      <c r="H51" s="35">
+      <c r="H51" s="37">
         <f t="shared" si="3"/>
         <v>1213.3333333333335</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="96" t="s">
+      <c r="A52" s="91" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="35">
-        <v>0</v>
-      </c>
-      <c r="D52" s="35">
-        <v>0</v>
-      </c>
-      <c r="E52" s="35">
-        <v>0</v>
-      </c>
-      <c r="F52" s="35">
+      <c r="C52" s="37">
+        <v>0</v>
+      </c>
+      <c r="D52" s="37">
+        <v>0</v>
+      </c>
+      <c r="E52" s="37">
+        <v>0</v>
+      </c>
+      <c r="F52" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="35">
+      <c r="G52" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H52" s="35">
+      <c r="H52" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="98"/>
+      <c r="A53" s="93"/>
       <c r="B53" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="37">
         <v>4.9039097834803531</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="37">
         <v>4.9039097834803531</v>
       </c>
-      <c r="E53" s="35">
+      <c r="E53" s="37">
         <v>4.9039097834803531</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="37">
         <f t="shared" si="0"/>
         <v>8.1731829724672558</v>
       </c>
-      <c r="G53" s="35">
+      <c r="G53" s="37">
         <f t="shared" si="2"/>
         <v>8.1731829724672558</v>
       </c>
-      <c r="H53" s="35">
+      <c r="H53" s="37">
         <f t="shared" si="3"/>
         <v>8.1731829724672558</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="108" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="35">
-        <v>0</v>
-      </c>
-      <c r="D54" s="35">
-        <v>0</v>
-      </c>
-      <c r="E54" s="35">
-        <v>0</v>
-      </c>
-      <c r="F54" s="35">
+      <c r="C54" s="37">
+        <v>0</v>
+      </c>
+      <c r="D54" s="37">
+        <v>0</v>
+      </c>
+      <c r="E54" s="37">
+        <v>0</v>
+      </c>
+      <c r="F54" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="35">
+      <c r="G54" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H54" s="35">
+      <c r="H54" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="107"/>
-      <c r="B55" s="44" t="s">
+      <c r="A55" s="109"/>
+      <c r="B55" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="37">
         <v>6.0585000000000004</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="37">
         <v>6.0585000000000004</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E55" s="37">
         <v>6.0585000000000004</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F55" s="37">
         <f t="shared" si="0"/>
         <v>10.097500000000002</v>
       </c>
-      <c r="G55" s="35">
+      <c r="G55" s="37">
         <f t="shared" si="2"/>
         <v>10.097500000000002</v>
       </c>
-      <c r="H55" s="35">
+      <c r="H55" s="37">
         <f t="shared" si="3"/>
         <v>10.097500000000002</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="107"/>
-      <c r="B56" s="44" t="s">
+      <c r="A56" s="109"/>
+      <c r="B56" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="37">
         <v>6.0585000000000004</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="37">
         <v>6.0585000000000004</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E56" s="37">
         <v>6.0585000000000004</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="37">
         <f t="shared" si="0"/>
         <v>10.097500000000002</v>
       </c>
-      <c r="G56" s="35">
+      <c r="G56" s="37">
         <f t="shared" si="2"/>
         <v>10.097500000000002</v>
       </c>
-      <c r="H56" s="35">
+      <c r="H56" s="37">
         <f t="shared" si="3"/>
         <v>10.097500000000002</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="107"/>
-      <c r="B57" s="44" t="s">
+      <c r="A57" s="109"/>
+      <c r="B57" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="37">
         <v>236.50276623897358</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="37">
         <v>236.50276623897358</v>
       </c>
-      <c r="E57" s="35">
+      <c r="E57" s="37">
         <v>236.50276623897358</v>
       </c>
-      <c r="F57" s="35">
+      <c r="F57" s="37">
         <f t="shared" si="0"/>
         <v>394.17127706495597</v>
       </c>
-      <c r="G57" s="35">
+      <c r="G57" s="37">
         <f t="shared" si="2"/>
         <v>394.17127706495597</v>
       </c>
-      <c r="H57" s="35">
+      <c r="H57" s="37">
         <f t="shared" si="3"/>
         <v>394.17127706495597</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="108"/>
+      <c r="A58" s="110"/>
       <c r="B58" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="37">
         <v>236.50276623897358</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D58" s="37">
         <v>236.50276623897358</v>
       </c>
-      <c r="E58" s="35">
+      <c r="E58" s="37">
         <v>236.50276623897358</v>
       </c>
-      <c r="F58" s="35">
+      <c r="F58" s="37">
         <f t="shared" si="0"/>
         <v>394.17127706495597</v>
       </c>
-      <c r="G58" s="35">
+      <c r="G58" s="37">
         <f t="shared" si="2"/>
         <v>394.17127706495597</v>
       </c>
-      <c r="H58" s="35">
+      <c r="H58" s="37">
         <f t="shared" si="3"/>
         <v>394.17127706495597</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="101" t="s">
+      <c r="A59" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="35">
-        <v>0</v>
-      </c>
-      <c r="D59" s="35">
-        <v>0</v>
-      </c>
-      <c r="E59" s="35">
-        <v>0</v>
-      </c>
-      <c r="F59" s="35">
+      <c r="C59" s="37">
+        <v>0</v>
+      </c>
+      <c r="D59" s="37">
+        <v>0</v>
+      </c>
+      <c r="E59" s="37">
+        <v>0</v>
+      </c>
+      <c r="F59" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="35">
+      <c r="G59" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H59" s="35">
+      <c r="H59" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="102"/>
-      <c r="B60" s="46" t="s">
+      <c r="A60" s="98"/>
+      <c r="B60" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="35">
-        <v>0</v>
-      </c>
-      <c r="D60" s="35">
-        <v>0</v>
-      </c>
-      <c r="E60" s="35">
-        <v>0</v>
-      </c>
-      <c r="F60" s="35">
+      <c r="C60" s="37">
+        <v>0</v>
+      </c>
+      <c r="D60" s="37">
+        <v>0</v>
+      </c>
+      <c r="E60" s="37">
+        <v>0</v>
+      </c>
+      <c r="F60" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G60" s="35">
+      <c r="G60" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H60" s="35">
+      <c r="H60" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="102"/>
-      <c r="B61" s="44" t="s">
+      <c r="A61" s="98"/>
+      <c r="B61" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="35">
-        <v>0</v>
-      </c>
-      <c r="D61" s="35">
-        <v>0</v>
-      </c>
-      <c r="E61" s="35">
-        <v>0</v>
-      </c>
-      <c r="F61" s="35">
+      <c r="C61" s="37">
+        <v>0</v>
+      </c>
+      <c r="D61" s="37">
+        <v>0</v>
+      </c>
+      <c r="E61" s="37">
+        <v>0</v>
+      </c>
+      <c r="F61" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G61" s="35">
+      <c r="G61" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H61" s="35">
+      <c r="H61" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="102"/>
-      <c r="B62" s="44" t="s">
+      <c r="A62" s="98"/>
+      <c r="B62" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="35">
-        <v>0</v>
-      </c>
-      <c r="D62" s="35">
-        <v>0</v>
-      </c>
-      <c r="E62" s="35">
-        <v>0</v>
-      </c>
-      <c r="F62" s="35">
+      <c r="C62" s="37">
+        <v>0</v>
+      </c>
+      <c r="D62" s="37">
+        <v>0</v>
+      </c>
+      <c r="E62" s="37">
+        <v>0</v>
+      </c>
+      <c r="F62" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G62" s="35">
+      <c r="G62" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H62" s="35">
+      <c r="H62" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="103"/>
+      <c r="A63" s="95"/>
       <c r="B63" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="35">
-        <v>0</v>
-      </c>
-      <c r="D63" s="35">
-        <v>0</v>
-      </c>
-      <c r="E63" s="35">
-        <v>0</v>
-      </c>
-      <c r="F63" s="35">
+      <c r="C63" s="37">
+        <v>0</v>
+      </c>
+      <c r="D63" s="37">
+        <v>0</v>
+      </c>
+      <c r="E63" s="37">
+        <v>0</v>
+      </c>
+      <c r="F63" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="35">
+      <c r="G63" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H63" s="35">
+      <c r="H63" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="101" t="s">
+      <c r="A64" s="94" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="35">
-        <v>0</v>
-      </c>
-      <c r="D64" s="35">
-        <v>0</v>
-      </c>
-      <c r="E64" s="35">
-        <v>0</v>
-      </c>
-      <c r="F64" s="35">
+      <c r="C64" s="37">
+        <v>0</v>
+      </c>
+      <c r="D64" s="37">
+        <v>0</v>
+      </c>
+      <c r="E64" s="37">
+        <v>0</v>
+      </c>
+      <c r="F64" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G64" s="35">
+      <c r="G64" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H64" s="35">
+      <c r="H64" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="102"/>
-      <c r="B65" s="44" t="s">
+      <c r="A65" s="98"/>
+      <c r="B65" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="37">
         <v>189</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="37">
         <v>189</v>
       </c>
-      <c r="E65" s="35">
+      <c r="E65" s="37">
         <v>189</v>
       </c>
-      <c r="F65" s="35">
+      <c r="F65" s="37">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="G65" s="35">
+      <c r="G65" s="37">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="H65" s="35">
+      <c r="H65" s="37">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="102"/>
-      <c r="B66" s="44" t="s">
+      <c r="A66" s="98"/>
+      <c r="B66" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="C66" s="35">
-        <v>0</v>
-      </c>
-      <c r="D66" s="35">
-        <v>0</v>
-      </c>
-      <c r="E66" s="35">
-        <v>0</v>
-      </c>
-      <c r="F66" s="35">
+      <c r="C66" s="37">
+        <v>0</v>
+      </c>
+      <c r="D66" s="37">
+        <v>0</v>
+      </c>
+      <c r="E66" s="37">
+        <v>0</v>
+      </c>
+      <c r="F66" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G66" s="35">
+      <c r="G66" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H66" s="35">
+      <c r="H66" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="103"/>
+      <c r="A67" s="95"/>
       <c r="B67" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="37">
         <v>189</v>
       </c>
-      <c r="D67" s="35">
+      <c r="D67" s="37">
         <v>189</v>
       </c>
-      <c r="E67" s="35">
+      <c r="E67" s="37">
         <v>189</v>
       </c>
-      <c r="F67" s="35">
+      <c r="F67" s="37">
         <f t="shared" ref="F67:F72" si="4">C67/0.6</f>
         <v>315</v>
       </c>
-      <c r="G67" s="35">
+      <c r="G67" s="37">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="H67" s="35">
+      <c r="H67" s="37">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="101" t="s">
+      <c r="A68" s="94" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="35">
-        <v>0</v>
-      </c>
-      <c r="D68" s="35">
-        <v>0</v>
-      </c>
-      <c r="E68" s="35">
-        <v>0</v>
-      </c>
-      <c r="F68" s="35">
+      <c r="C68" s="37">
+        <v>0</v>
+      </c>
+      <c r="D68" s="37">
+        <v>0</v>
+      </c>
+      <c r="E68" s="37">
+        <v>0</v>
+      </c>
+      <c r="F68" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G68" s="35">
+      <c r="G68" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H68" s="35">
+      <c r="H68" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="102"/>
-      <c r="B69" s="44" t="s">
+      <c r="A69" s="98"/>
+      <c r="B69" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="37">
         <v>215</v>
       </c>
-      <c r="D69" s="35">
+      <c r="D69" s="37">
         <v>265</v>
       </c>
-      <c r="E69" s="35">
+      <c r="E69" s="37">
         <v>345</v>
       </c>
-      <c r="F69" s="35">
+      <c r="F69" s="37">
         <f t="shared" si="4"/>
         <v>358.33333333333337</v>
       </c>
-      <c r="G69" s="35">
+      <c r="G69" s="37">
         <f t="shared" si="2"/>
         <v>441.66666666666669</v>
       </c>
-      <c r="H69" s="35">
+      <c r="H69" s="37">
         <f t="shared" si="3"/>
         <v>575</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="103"/>
+      <c r="A70" s="95"/>
       <c r="B70" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="37">
         <v>260</v>
       </c>
-      <c r="D70" s="35">
+      <c r="D70" s="37">
         <v>325</v>
       </c>
-      <c r="E70" s="35">
+      <c r="E70" s="37">
         <v>420</v>
       </c>
-      <c r="F70" s="35">
+      <c r="F70" s="37">
         <f t="shared" si="4"/>
         <v>433.33333333333337</v>
       </c>
-      <c r="G70" s="35">
+      <c r="G70" s="37">
         <f t="shared" si="2"/>
         <v>541.66666666666674</v>
       </c>
-      <c r="H70" s="35">
+      <c r="H70" s="37">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="101" t="s">
+      <c r="A71" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C71" s="35">
-        <v>0</v>
-      </c>
-      <c r="D71" s="35">
-        <v>0</v>
-      </c>
-      <c r="E71" s="35">
-        <v>0</v>
-      </c>
-      <c r="F71" s="35">
+      <c r="C71" s="37">
+        <v>0</v>
+      </c>
+      <c r="D71" s="37">
+        <v>0</v>
+      </c>
+      <c r="E71" s="37">
+        <v>0</v>
+      </c>
+      <c r="F71" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G71" s="35">
+      <c r="G71" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H71" s="35">
+      <c r="H71" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="103"/>
+      <c r="A72" s="95"/>
       <c r="B72" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="37">
         <v>386.05849999999998</v>
       </c>
-      <c r="D72" s="35">
+      <c r="D72" s="37">
         <v>386.05849999999998</v>
       </c>
-      <c r="E72" s="35">
+      <c r="E72" s="37">
         <v>426.05849999999998</v>
       </c>
-      <c r="F72" s="35">
+      <c r="F72" s="37">
         <f t="shared" si="4"/>
         <v>643.43083333333334</v>
       </c>
-      <c r="G72" s="35">
+      <c r="G72" s="37">
         <f t="shared" si="2"/>
         <v>643.43083333333334</v>
       </c>
-      <c r="H72" s="35">
+      <c r="H72" s="37">
         <f t="shared" si="3"/>
         <v>710.09749999999997</v>
       </c>
@@ -7176,20 +7228,18 @@
       <c r="B74" t="s">
         <v>84</v>
       </c>
-      <c r="G74" s="35">
+      <c r="G74" s="37">
         <f>92.1585/0.6</f>
         <v>153.59750000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
@@ -7201,11 +7251,13 @@
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TERA.xlsx
+++ b/TERA.xlsx
@@ -1579,6 +1579,70 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1587,76 +1651,18 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1666,9 +1672,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1678,19 +1693,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1700,21 +1715,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2052,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:D52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,12 +2070,12 @@
       <c r="A1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="50"/>
       <c r="G1" s="51"/>
     </row>
@@ -2083,12 +2083,12 @@
       <c r="A2" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="50"/>
       <c r="G2" s="51"/>
     </row>
@@ -2096,21 +2096,21 @@
       <c r="A3" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="50"/>
       <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="53" t="s">
         <v>162</v>
       </c>
@@ -2124,10 +2124,10 @@
       </c>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="50"/>
       <c r="G5" s="52"/>
     </row>
@@ -2137,10 +2137,10 @@
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="71">
+      <c r="D6" s="87">
         <v>340.7</v>
       </c>
-      <c r="E6" s="71"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="50"/>
       <c r="G6" s="52"/>
     </row>
@@ -2150,10 +2150,10 @@
       </c>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
-      <c r="D7" s="73">
+      <c r="D7" s="83">
         <v>33333</v>
       </c>
-      <c r="E7" s="73"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="50"/>
       <c r="G7" s="52"/>
     </row>
@@ -2163,10 +2163,10 @@
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="75"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="50"/>
       <c r="G8" s="52"/>
     </row>
@@ -2176,10 +2176,10 @@
       </c>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="50"/>
       <c r="G9" s="52"/>
     </row>
@@ -2189,105 +2189,105 @@
       </c>
       <c r="B10" s="63"/>
       <c r="C10" s="63"/>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="76"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="50"/>
       <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="50"/>
       <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="79"/>
+      <c r="E12" s="86"/>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="74"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="78"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="50"/>
       <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="55" t="s">
         <v>185</v>
       </c>
@@ -2297,155 +2297,155 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="81">
+      <c r="B19" s="73"/>
+      <c r="C19" s="78">
         <v>44</v>
       </c>
-      <c r="D19" s="81"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="58" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="82">
+      <c r="B20" s="71"/>
+      <c r="C20" s="79">
         <v>11</v>
       </c>
-      <c r="D20" s="82"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="59" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="81">
+      <c r="B21" s="73"/>
+      <c r="C21" s="78">
         <v>14.2</v>
       </c>
-      <c r="D21" s="81"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="58" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="82">
+      <c r="B22" s="71"/>
+      <c r="C22" s="79">
         <v>62.2</v>
       </c>
-      <c r="D22" s="82"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="59" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="81">
+      <c r="B23" s="73"/>
+      <c r="C23" s="78">
         <v>102.8</v>
       </c>
-      <c r="D23" s="81"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="58" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="82">
+      <c r="B24" s="71"/>
+      <c r="C24" s="79">
         <v>340.7</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="59" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="81">
+      <c r="B25" s="73"/>
+      <c r="C25" s="78">
         <v>11</v>
       </c>
-      <c r="D25" s="81"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="58" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="82">
+      <c r="B26" s="71"/>
+      <c r="C26" s="79">
         <v>22</v>
       </c>
-      <c r="D26" s="82"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="59" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="81">
+      <c r="B27" s="73"/>
+      <c r="C27" s="78">
         <v>26.6</v>
       </c>
-      <c r="D27" s="81"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="58" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="82">
+      <c r="B28" s="71"/>
+      <c r="C28" s="79">
         <v>85.8</v>
       </c>
-      <c r="D28" s="82"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="59" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="83">
+      <c r="B29" s="73"/>
+      <c r="C29" s="81">
         <v>71</v>
       </c>
-      <c r="D29" s="83"/>
+      <c r="D29" s="81"/>
       <c r="E29" s="60"/>
     </row>
     <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="82" t="s">
+      <c r="B30" s="71"/>
+      <c r="C30" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="D30" s="82"/>
+      <c r="D30" s="79"/>
       <c r="E30" s="61"/>
     </row>
     <row r="31" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,267 +2453,267 @@
         <v>204</v>
       </c>
       <c r="B31" s="63"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="63" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="50"/>
       <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="84">
+      <c r="B33" s="71"/>
+      <c r="C33" s="72">
         <v>33333</v>
       </c>
-      <c r="D33" s="84"/>
+      <c r="D33" s="72"/>
       <c r="E33" s="59" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="85">
+      <c r="B34" s="73"/>
+      <c r="C34" s="80">
         <v>111</v>
       </c>
-      <c r="D34" s="85"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="58" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="84">
+      <c r="B35" s="71"/>
+      <c r="C35" s="72">
         <v>259.3</v>
       </c>
-      <c r="D35" s="84"/>
+      <c r="D35" s="72"/>
       <c r="E35" s="59" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="86">
+      <c r="B36" s="73"/>
+      <c r="C36" s="77">
         <v>1513</v>
       </c>
-      <c r="D36" s="86"/>
+      <c r="D36" s="77"/>
       <c r="E36" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="84">
+      <c r="B37" s="71"/>
+      <c r="C37" s="72">
         <v>2370</v>
       </c>
-      <c r="D37" s="84"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="59" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="86">
+      <c r="B38" s="73"/>
+      <c r="C38" s="77">
         <v>63</v>
       </c>
-      <c r="D38" s="86"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="58" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="82" t="s">
+      <c r="B39" s="71"/>
+      <c r="C39" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="D39" s="82"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="64"/>
     </row>
     <row r="40" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="81" t="s">
+      <c r="B40" s="73"/>
+      <c r="C40" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="81"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="58" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="82">
+      <c r="B41" s="71"/>
+      <c r="C41" s="79">
         <v>30</v>
       </c>
-      <c r="D41" s="82"/>
+      <c r="D41" s="79"/>
       <c r="E41" s="59" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="B42" s="74"/>
-      <c r="C42" s="81">
+      <c r="B42" s="73"/>
+      <c r="C42" s="78">
         <v>4.8</v>
       </c>
-      <c r="D42" s="81"/>
+      <c r="D42" s="78"/>
       <c r="E42" s="58" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
       <c r="F43" s="50"/>
       <c r="G43" s="52"/>
     </row>
     <row r="44" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="B44" s="78"/>
-      <c r="C44" s="88">
+      <c r="B44" s="71"/>
+      <c r="C44" s="76">
         <v>45.5</v>
       </c>
-      <c r="D44" s="88"/>
+      <c r="D44" s="76"/>
       <c r="E44" s="70" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="86" t="s">
+      <c r="B45" s="73"/>
+      <c r="C45" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="D45" s="86"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="69"/>
     </row>
     <row r="46" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="B46" s="78"/>
-      <c r="C46" s="84" t="s">
+      <c r="B46" s="71"/>
+      <c r="C46" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="D46" s="84"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="70" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="B47" s="74"/>
-      <c r="C47" s="87">
+      <c r="B47" s="73"/>
+      <c r="C47" s="74">
         <v>4</v>
       </c>
-      <c r="D47" s="87"/>
+      <c r="D47" s="74"/>
       <c r="E47" s="63" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
       <c r="F48" s="50"/>
       <c r="G48" s="52"/>
     </row>
     <row r="49" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="78" t="s">
+      <c r="A49" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="B49" s="78"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
       <c r="E49" s="59" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="74" t="s">
+      <c r="A50" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="74"/>
-      <c r="C50" s="86" t="s">
+      <c r="B50" s="73"/>
+      <c r="C50" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="D50" s="86"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="58"/>
     </row>
     <row r="51" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="84" t="s">
+      <c r="B51" s="71"/>
+      <c r="C51" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="D51" s="84"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="59" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="74" t="s">
+      <c r="A52" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="B52" s="74"/>
-      <c r="C52" s="87" t="s">
+      <c r="B52" s="73"/>
+      <c r="C52" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="87"/>
+      <c r="D52" s="74"/>
       <c r="E52" s="63" t="s">
         <v>233</v>
       </c>
@@ -3548,6 +3548,77 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="A47:B47"/>
@@ -3558,83 +3629,12 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4478,7 +4478,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17">
@@ -4489,7 +4489,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
+      <c r="A2" s="101"/>
       <c r="B2" s="18">
         <v>17</v>
       </c>
@@ -4498,7 +4498,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="18">
         <v>23</v>
       </c>
@@ -4508,7 +4508,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="19">
         <v>30</v>
       </c>
@@ -4518,7 +4518,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="98" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -4530,7 +4530,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -4540,7 +4540,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
@@ -4550,7 +4550,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="93" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4562,7 +4562,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
@@ -4572,7 +4572,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="98" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4584,7 +4584,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -4594,7 +4594,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="98" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4605,7 +4605,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -4615,7 +4615,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="93" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4626,7 +4626,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
@@ -4635,7 +4635,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="93"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
@@ -4645,7 +4645,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="98" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5">
@@ -4657,7 +4657,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="95"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -4667,7 +4667,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="93" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -4679,7 +4679,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="93"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
@@ -4689,7 +4689,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -4701,7 +4701,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="93"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
@@ -4711,7 +4711,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="93" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -4722,7 +4722,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
@@ -4731,7 +4731,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="9">
         <v>2</v>
       </c>
@@ -4740,7 +4740,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="8">
         <v>3</v>
       </c>
@@ -4749,7 +4749,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
@@ -4758,7 +4758,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="93"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="10" t="s">
         <v>41</v>
       </c>
@@ -4768,7 +4768,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="5">
@@ -4780,7 +4780,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="6">
         <v>1</v>
       </c>
@@ -4790,7 +4790,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="6">
         <v>2</v>
       </c>
@@ -4800,7 +4800,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="6">
         <v>3</v>
       </c>
@@ -4809,7 +4809,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="92"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="6">
         <v>4</v>
       </c>
@@ -4818,7 +4818,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="93"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="6">
         <v>5</v>
       </c>
@@ -4827,7 +4827,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="93" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="5">
@@ -4838,7 +4838,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="93"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="3">
         <v>1</v>
       </c>
@@ -4847,7 +4847,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -4859,19 +4859,19 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="92"/>
+      <c r="A40" s="94"/>
       <c r="B40" s="6" t="s">
         <v>47</v>
       </c>
@@ -4881,7 +4881,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="93" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="5">
@@ -4893,7 +4893,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="93"/>
+      <c r="A42" s="95"/>
       <c r="B42" s="3">
         <v>3</v>
       </c>
@@ -4903,7 +4903,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="93" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="5">
@@ -4914,7 +4914,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
+      <c r="A44" s="94"/>
       <c r="B44" s="6">
         <v>1</v>
       </c>
@@ -4923,7 +4923,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="93"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -4933,7 +4933,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="93" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="5">
@@ -4944,7 +4944,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="93"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -4954,7 +4954,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="91" t="s">
+      <c r="A48" s="93" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="5">
@@ -4966,7 +4966,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="93"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="91" t="s">
+      <c r="A50" s="93" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -4988,7 +4988,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="92"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="6">
         <v>0</v>
       </c>
@@ -4998,7 +4998,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="92"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="6">
         <v>1</v>
       </c>
@@ -5008,7 +5008,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="92"/>
+      <c r="A53" s="94"/>
       <c r="B53" s="6">
         <v>2</v>
       </c>
@@ -5018,7 +5018,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="92"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="6">
         <v>3</v>
       </c>
@@ -5028,7 +5028,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="101" t="s">
+      <c r="A55" s="96" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="11">
@@ -5040,7 +5040,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="102"/>
+      <c r="A56" s="97"/>
       <c r="B56" s="12">
         <v>1</v>
       </c>
@@ -5050,7 +5050,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="102"/>
+      <c r="A57" s="97"/>
       <c r="B57" s="12">
         <v>2</v>
       </c>
@@ -5060,7 +5060,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="102"/>
+      <c r="A58" s="97"/>
       <c r="B58" s="12">
         <v>3</v>
       </c>
@@ -5070,7 +5070,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="102"/>
+      <c r="A59" s="97"/>
       <c r="B59" s="12">
         <v>4</v>
       </c>
@@ -5080,7 +5080,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="101" t="s">
+      <c r="A60" s="96" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="11">
@@ -5092,7 +5092,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="102"/>
+      <c r="A61" s="97"/>
       <c r="B61" s="12">
         <v>1</v>
       </c>
@@ -5102,7 +5102,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="102"/>
+      <c r="A62" s="97"/>
       <c r="B62" s="12">
         <v>2</v>
       </c>
@@ -5112,7 +5112,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="102"/>
+      <c r="A63" s="97"/>
       <c r="B63" s="12">
         <v>3</v>
       </c>
@@ -5122,7 +5122,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="94" t="s">
+      <c r="A64" s="98" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -5133,7 +5133,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="98"/>
+      <c r="A65" s="99"/>
       <c r="B65" s="6" t="s">
         <v>23</v>
       </c>
@@ -5142,7 +5142,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="95"/>
+      <c r="A66" s="100"/>
       <c r="B66" s="3" t="s">
         <v>48</v>
       </c>
@@ -5151,7 +5151,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="94" t="s">
+      <c r="A67" s="98" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="13">
@@ -5162,7 +5162,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="95"/>
+      <c r="A68" s="100"/>
       <c r="B68" s="3">
         <v>1</v>
       </c>
@@ -5177,7 +5177,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="99" t="s">
+      <c r="A70" s="91" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="4">
@@ -5188,7 +5188,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="100"/>
+      <c r="A71" s="92"/>
       <c r="B71" s="4">
         <v>2</v>
       </c>
@@ -5198,6 +5198,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:A42"/>
@@ -5211,16 +5221,6 @@
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5265,7 +5265,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="93" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -5291,7 +5291,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="39" t="s">
         <v>90</v>
       </c>
@@ -5318,7 +5318,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="2" t="s">
         <v>91</v>
       </c>
@@ -5345,7 +5345,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="98" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -5374,7 +5374,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="39" t="s">
         <v>93</v>
       </c>
@@ -5401,7 +5401,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="2" t="s">
         <v>94</v>
       </c>
@@ -5428,7 +5428,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="93" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5457,7 +5457,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="2" t="s">
         <v>96</v>
       </c>
@@ -5484,7 +5484,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="98" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5513,7 +5513,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="2" t="s">
         <v>98</v>
       </c>
@@ -5540,7 +5540,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="98" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -5569,7 +5569,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="41" t="s">
         <v>100</v>
       </c>
@@ -5596,7 +5596,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="93" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="38" t="s">
@@ -5625,7 +5625,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="39" t="s">
         <v>102</v>
       </c>
@@ -5652,7 +5652,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="93"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="3" t="s">
         <v>103</v>
       </c>
@@ -5735,7 +5735,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="98" t="s">
         <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -5764,7 +5764,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="95"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="2" t="s">
         <v>107</v>
       </c>
@@ -5791,7 +5791,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>108</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -5820,7 +5820,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="93"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="2" t="s">
         <v>110</v>
       </c>
@@ -5847,7 +5847,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="93" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -5876,7 +5876,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="43" t="s">
         <v>112</v>
       </c>
@@ -5903,7 +5903,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="43" t="s">
         <v>113</v>
       </c>
@@ -5930,7 +5930,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="44" t="s">
         <v>114</v>
       </c>
@@ -5957,7 +5957,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="43" t="s">
         <v>115</v>
       </c>
@@ -5984,7 +5984,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="93"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="45" t="s">
         <v>116</v>
       </c>
@@ -6011,7 +6011,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="93" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -6040,7 +6040,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="46" t="s">
         <v>118</v>
       </c>
@@ -6067,7 +6067,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="46" t="s">
         <v>119</v>
       </c>
@@ -6094,7 +6094,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="46" t="s">
         <v>120</v>
       </c>
@@ -6121,7 +6121,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="92"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="46" t="s">
         <v>121</v>
       </c>
@@ -6148,7 +6148,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="92"/>
+      <c r="A34" s="94"/>
       <c r="B34" s="46" t="s">
         <v>122</v>
       </c>
@@ -6175,7 +6175,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="47" t="s">
@@ -6204,7 +6204,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="48" t="s">
         <v>80</v>
       </c>
@@ -6231,7 +6231,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="93"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
@@ -6258,7 +6258,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="93" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -6287,7 +6287,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="93"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="2" t="s">
         <v>125</v>
       </c>
@@ -6314,7 +6314,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="98" t="s">
         <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -6343,7 +6343,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="98"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="46" t="s">
         <v>128</v>
       </c>
@@ -6370,7 +6370,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="98"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="46" t="s">
         <v>129</v>
       </c>
@@ -6397,7 +6397,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="95"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="2" t="s">
         <v>130</v>
       </c>
@@ -6480,7 +6480,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="93" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -6509,7 +6509,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="92"/>
+      <c r="A47" s="94"/>
       <c r="B47" s="46" t="s">
         <v>133</v>
       </c>
@@ -6536,7 +6536,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="93"/>
+      <c r="A48" s="95"/>
       <c r="B48" s="2" t="s">
         <v>134</v>
       </c>
@@ -6563,7 +6563,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="108" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -6592,7 +6592,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="104"/>
+      <c r="A50" s="109"/>
       <c r="B50" s="2" t="s">
         <v>136</v>
       </c>
@@ -6619,7 +6619,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="105"/>
+      <c r="A51" s="110"/>
       <c r="B51" s="46" t="s">
         <v>155</v>
       </c>
@@ -6646,7 +6646,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="91" t="s">
+      <c r="A52" s="93" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -6675,7 +6675,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="93"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="2" t="s">
         <v>137</v>
       </c>
@@ -6702,7 +6702,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="103" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -6731,7 +6731,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
+      <c r="A55" s="104"/>
       <c r="B55" s="46" t="s">
         <v>138</v>
       </c>
@@ -6758,7 +6758,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="109"/>
+      <c r="A56" s="104"/>
       <c r="B56" s="46" t="s">
         <v>139</v>
       </c>
@@ -6785,7 +6785,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="109"/>
+      <c r="A57" s="104"/>
       <c r="B57" s="46" t="s">
         <v>140</v>
       </c>
@@ -6812,7 +6812,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="110"/>
+      <c r="A58" s="105"/>
       <c r="B58" s="2" t="s">
         <v>141</v>
       </c>
@@ -6839,7 +6839,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="94" t="s">
+      <c r="A59" s="98" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="47" t="s">
@@ -6868,7 +6868,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="98"/>
+      <c r="A60" s="99"/>
       <c r="B60" s="48" t="s">
         <v>143</v>
       </c>
@@ -6895,7 +6895,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="98"/>
+      <c r="A61" s="99"/>
       <c r="B61" s="46" t="s">
         <v>144</v>
       </c>
@@ -6922,7 +6922,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="98"/>
+      <c r="A62" s="99"/>
       <c r="B62" s="46" t="s">
         <v>145</v>
       </c>
@@ -6949,7 +6949,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="95"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="2" t="s">
         <v>146</v>
       </c>
@@ -6976,7 +6976,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="94" t="s">
+      <c r="A64" s="98" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -7005,7 +7005,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="98"/>
+      <c r="A65" s="99"/>
       <c r="B65" s="46" t="s">
         <v>147</v>
       </c>
@@ -7032,7 +7032,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="98"/>
+      <c r="A66" s="99"/>
       <c r="B66" s="46" t="s">
         <v>148</v>
       </c>
@@ -7059,7 +7059,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="95"/>
+      <c r="A67" s="100"/>
       <c r="B67" s="2" t="s">
         <v>149</v>
       </c>
@@ -7086,7 +7086,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="94" t="s">
+      <c r="A68" s="98" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -7115,7 +7115,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="98"/>
+      <c r="A69" s="99"/>
       <c r="B69" s="46" t="s">
         <v>151</v>
       </c>
@@ -7142,7 +7142,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="95"/>
+      <c r="A70" s="100"/>
       <c r="B70" s="2" t="s">
         <v>152</v>
       </c>
@@ -7169,7 +7169,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="94" t="s">
+      <c r="A71" s="98" t="s">
         <v>153</v>
       </c>
       <c r="B71" s="47" t="s">
@@ -7198,7 +7198,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="95"/>
+      <c r="A72" s="100"/>
       <c r="B72" s="2" t="s">
         <v>154</v>
       </c>
@@ -7235,11 +7235,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
@@ -7251,13 +7253,11 @@
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TERA.xlsx
+++ b/TERA.xlsx
@@ -1078,11 +1078,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Daxline Offc Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Daxline Offc Pro"/>
@@ -1106,6 +1101,11 @@
       <sz val="7.5"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Daxline Offc Pro"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1368,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1517,117 +1517,135 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1635,87 +1653,77 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1747,7 +1755,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>83528</xdr:rowOff>
+      <xdr:rowOff>93554</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2052,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2066,51 +2074,51 @@
     <col min="6" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="50"/>
       <c r="G1" s="51"/>
     </row>
-    <row r="2" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="50"/>
       <c r="G2" s="51"/>
     </row>
-    <row r="3" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="50"/>
       <c r="G3" s="51"/>
     </row>
-    <row r="4" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="53" t="s">
         <v>162</v>
       </c>
@@ -2118,1436 +2126,1436 @@
       <c r="F4" s="50"/>
       <c r="G4" s="52"/>
     </row>
-    <row r="5" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="83" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="50"/>
       <c r="G5" s="52"/>
     </row>
-    <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="87">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="92">
         <v>340.7</v>
       </c>
-      <c r="E6" s="87"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="50"/>
       <c r="G6" s="52"/>
     </row>
-    <row r="7" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="83">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="91">
         <v>33333</v>
       </c>
-      <c r="E7" s="83"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="50"/>
       <c r="G7" s="52"/>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="84" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="84"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="50"/>
       <c r="G8" s="52"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="83" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="50"/>
       <c r="G9" s="52"/>
     </row>
-    <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="85" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="85"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="50"/>
       <c r="G10" s="52"/>
     </row>
-    <row r="11" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="50"/>
       <c r="G11" s="52"/>
     </row>
-    <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="86" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="86"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
     </row>
-    <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="73"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
     </row>
-    <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="71"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="73"/>
+      <c r="E15" s="96"/>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="71"/>
+      <c r="E16" s="97"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
     </row>
-    <row r="17" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="50"/>
       <c r="G17" s="52"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
+    <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="82"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57" t="s">
+      <c r="D18" s="98"/>
+      <c r="E18" s="99" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73" t="s">
+    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="78">
+      <c r="B19" s="64"/>
+      <c r="C19" s="100">
         <v>44</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="58" t="s">
+      <c r="D19" s="100"/>
+      <c r="E19" s="101" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="79">
+      <c r="B20" s="63"/>
+      <c r="C20" s="102">
         <v>11</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="59" t="s">
+      <c r="D20" s="102"/>
+      <c r="E20" s="103" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
+    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="78">
+      <c r="B21" s="64"/>
+      <c r="C21" s="100">
         <v>14.2</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="58" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="101" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="79">
+      <c r="B22" s="63"/>
+      <c r="C22" s="102">
         <v>62.2</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="59" t="s">
+      <c r="D22" s="102"/>
+      <c r="E22" s="103" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+    <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="78">
+      <c r="B23" s="64"/>
+      <c r="C23" s="100">
         <v>102.8</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="58" t="s">
+      <c r="D23" s="100"/>
+      <c r="E23" s="101" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="79">
+      <c r="B24" s="63"/>
+      <c r="C24" s="102">
         <v>340.7</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="59" t="s">
+      <c r="D24" s="102"/>
+      <c r="E24" s="103" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
+    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="78">
+      <c r="B25" s="64"/>
+      <c r="C25" s="100">
         <v>11</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="58" t="s">
+      <c r="D25" s="100"/>
+      <c r="E25" s="101" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="71" t="s">
+    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="79">
+      <c r="B26" s="63"/>
+      <c r="C26" s="102">
         <v>22</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="59" t="s">
+      <c r="D26" s="102"/>
+      <c r="E26" s="103" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="s">
+    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="78">
+      <c r="B27" s="64"/>
+      <c r="C27" s="100">
         <v>26.6</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="58" t="s">
+      <c r="D27" s="100"/>
+      <c r="E27" s="101" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
+    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="79">
+      <c r="B28" s="63"/>
+      <c r="C28" s="102">
         <v>85.8</v>
       </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="59" t="s">
+      <c r="D28" s="102"/>
+      <c r="E28" s="103" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+    <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="81">
+      <c r="B29" s="64"/>
+      <c r="C29" s="104">
         <v>71</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="60"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
+    </row>
+    <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="79" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="61"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="D30" s="102"/>
+      <c r="E30" s="106"/>
+    </row>
+    <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="63" t="s">
+      <c r="B31" s="57"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="90" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="75" t="s">
+    <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="50"/>
       <c r="G32" s="52"/>
     </row>
-    <row r="33" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71" t="s">
+    <row r="33" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="72">
+      <c r="B33" s="63"/>
+      <c r="C33" s="107">
         <v>33333</v>
       </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="59" t="s">
+      <c r="D33" s="107"/>
+      <c r="E33" s="103" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73" t="s">
+    <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="80">
+      <c r="B34" s="64"/>
+      <c r="C34" s="108">
         <v>111</v>
       </c>
-      <c r="D34" s="80"/>
-      <c r="E34" s="58" t="s">
+      <c r="D34" s="108"/>
+      <c r="E34" s="101" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71" t="s">
+    <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="72">
+      <c r="B35" s="63"/>
+      <c r="C35" s="107">
         <v>259.3</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="59" t="s">
+      <c r="D35" s="107"/>
+      <c r="E35" s="103" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73" t="s">
+    <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="77">
+      <c r="B36" s="64"/>
+      <c r="C36" s="109">
         <v>1513</v>
       </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="58" t="s">
+      <c r="D36" s="109"/>
+      <c r="E36" s="101" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71" t="s">
+    <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="72">
+      <c r="B37" s="63"/>
+      <c r="C37" s="107">
         <v>2370</v>
       </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="59" t="s">
+      <c r="D37" s="107"/>
+      <c r="E37" s="103" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73" t="s">
+    <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="B38" s="73"/>
-      <c r="C38" s="77">
+      <c r="B38" s="64"/>
+      <c r="C38" s="109">
         <v>63</v>
       </c>
-      <c r="D38" s="77"/>
-      <c r="E38" s="58" t="s">
+      <c r="D38" s="109"/>
+      <c r="E38" s="101" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="71" t="s">
+    <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="79" t="s">
+      <c r="B39" s="63"/>
+      <c r="C39" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="64"/>
-    </row>
-    <row r="40" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="73" t="s">
+      <c r="D39" s="102"/>
+      <c r="E39" s="110"/>
+    </row>
+    <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="78" t="s">
+      <c r="B40" s="64"/>
+      <c r="C40" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="58" t="s">
+      <c r="D40" s="100"/>
+      <c r="E40" s="101" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="71" t="s">
+    <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="79">
+      <c r="B41" s="63"/>
+      <c r="C41" s="102">
         <v>30</v>
       </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="59" t="s">
+      <c r="D41" s="102"/>
+      <c r="E41" s="103" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="73" t="s">
+    <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="B42" s="73"/>
-      <c r="C42" s="78">
+      <c r="B42" s="64"/>
+      <c r="C42" s="100">
         <v>4.8</v>
       </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="58" t="s">
+      <c r="D42" s="100"/>
+      <c r="E42" s="101" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="75" t="s">
+    <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
       <c r="F43" s="50"/>
       <c r="G43" s="52"/>
     </row>
-    <row r="44" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="71" t="s">
+    <row r="44" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="B44" s="71"/>
-      <c r="C44" s="76">
+      <c r="B44" s="63"/>
+      <c r="C44" s="111">
         <v>45.5</v>
       </c>
-      <c r="D44" s="76"/>
-      <c r="E44" s="70" t="s">
+      <c r="D44" s="111"/>
+      <c r="E44" s="103" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="73" t="s">
+    <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="77" t="s">
+      <c r="B45" s="64"/>
+      <c r="C45" s="109" t="s">
         <v>223</v>
       </c>
-      <c r="D45" s="77"/>
-      <c r="E45" s="69"/>
-    </row>
-    <row r="46" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="71" t="s">
+      <c r="D45" s="109"/>
+      <c r="E45" s="101"/>
+    </row>
+    <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="B46" s="71"/>
-      <c r="C46" s="72" t="s">
+      <c r="B46" s="63"/>
+      <c r="C46" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="70" t="s">
+      <c r="D46" s="107"/>
+      <c r="E46" s="103" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="73" t="s">
+    <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="B47" s="73"/>
-      <c r="C47" s="74">
+      <c r="B47" s="64"/>
+      <c r="C47" s="112">
         <v>4</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="63" t="s">
+      <c r="D47" s="112"/>
+      <c r="E47" s="90" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="75" t="s">
+    <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
       <c r="F48" s="50"/>
       <c r="G48" s="52"/>
     </row>
-    <row r="49" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="71" t="s">
+    <row r="49" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="59" t="s">
+      <c r="B49" s="63"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="103" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="73" t="s">
+    <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="73"/>
-      <c r="C50" s="77" t="s">
+      <c r="B50" s="64"/>
+      <c r="C50" s="109" t="s">
         <v>235</v>
       </c>
-      <c r="D50" s="77"/>
-      <c r="E50" s="58"/>
-    </row>
-    <row r="51" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="71" t="s">
+      <c r="D50" s="109"/>
+      <c r="E50" s="101"/>
+    </row>
+    <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="72" t="s">
+      <c r="B51" s="63"/>
+      <c r="C51" s="107" t="s">
         <v>236</v>
       </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="59" t="s">
+      <c r="D51" s="107"/>
+      <c r="E51" s="103" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="73" t="s">
+    <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="74" t="s">
+      <c r="B52" s="64"/>
+      <c r="C52" s="112" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="74"/>
-      <c r="E52" s="63" t="s">
+      <c r="D52" s="112"/>
+      <c r="E52" s="90" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="65"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="59"/>
     </row>
     <row r="54" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="65"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="59"/>
     </row>
     <row r="55" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="65"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="59"/>
     </row>
     <row r="56" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="65"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="59"/>
     </row>
     <row r="57" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="65"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="59"/>
     </row>
     <row r="58" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="65"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="59"/>
     </row>
     <row r="59" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="65"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="59"/>
     </row>
     <row r="60" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="65"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="59"/>
     </row>
     <row r="61" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="65"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="59"/>
     </row>
     <row r="62" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="65"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="59"/>
     </row>
     <row r="63" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="65"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="59"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="65"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="59"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="65"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="65"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="59"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="65"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="59"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="65"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="59"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="65"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="59"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="65"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="59"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="65"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="59"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="65"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="65"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="59"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="65"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="59"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="65"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="59"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="65"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="59"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="65"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="59"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="65"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="59"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="65"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="59"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="65"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="59"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="65"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="59"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="65"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="59"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="65"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="65"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="59"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="65"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="59"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="65"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="59"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="65"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="59"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="65"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="59"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="65"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="59"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="65"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="65"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="59"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="65"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="59"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="65"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="65"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="59"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="65"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="65"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="59"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="65"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="65"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="59"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="65"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="59"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="65"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="65"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="59"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="65"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="59"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="65"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="65"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="59"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="65"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="59"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="65"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="65"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="65"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="59"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="65"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="65"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="59"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="65"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="65"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="60"/>
+      <c r="G99" s="59"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="65"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="65"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="59"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="65"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="65"/>
+      <c r="A101" s="59"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="59"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="65"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="65"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="59"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="65"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="65"/>
+      <c r="A103" s="59"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="59"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="65"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="65"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="59"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="65"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="65"/>
+      <c r="A105" s="59"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="59"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="65"/>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="65"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="59"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="65"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="65"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="59"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="65"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="65"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="59"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="59"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="65"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="65"/>
+      <c r="A109" s="59"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="59"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="65"/>
-      <c r="B110" s="65"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="65"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="59"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="60"/>
+      <c r="G110" s="59"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="65"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="65"/>
+      <c r="A111" s="59"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="59"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="65"/>
-      <c r="B112" s="65"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="65"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="60"/>
+      <c r="G112" s="59"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="65"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="65"/>
+      <c r="A113" s="59"/>
+      <c r="B113" s="59"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="59"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="65"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="65"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="65"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="59"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="59"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="59"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="65"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="65"/>
+      <c r="A115" s="59"/>
+      <c r="B115" s="59"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="59"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="65"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="65"/>
-      <c r="D116" s="65"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="66"/>
-      <c r="G116" s="65"/>
+      <c r="A116" s="59"/>
+      <c r="B116" s="59"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="60"/>
+      <c r="F116" s="60"/>
+      <c r="G116" s="59"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="65"/>
-      <c r="B117" s="65"/>
-      <c r="C117" s="65"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="65"/>
+      <c r="A117" s="59"/>
+      <c r="B117" s="59"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="60"/>
+      <c r="G117" s="59"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="65"/>
-      <c r="B118" s="65"/>
-      <c r="C118" s="65"/>
-      <c r="D118" s="65"/>
-      <c r="E118" s="66"/>
-      <c r="F118" s="66"/>
-      <c r="G118" s="65"/>
+      <c r="A118" s="59"/>
+      <c r="B118" s="59"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="59"/>
+      <c r="E118" s="60"/>
+      <c r="F118" s="60"/>
+      <c r="G118" s="59"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="65"/>
-      <c r="B119" s="65"/>
-      <c r="C119" s="65"/>
-      <c r="D119" s="65"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="66"/>
-      <c r="G119" s="65"/>
+      <c r="A119" s="59"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="59"/>
+      <c r="E119" s="60"/>
+      <c r="F119" s="60"/>
+      <c r="G119" s="59"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="65"/>
-      <c r="B120" s="65"/>
-      <c r="C120" s="65"/>
-      <c r="D120" s="65"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="66"/>
-      <c r="G120" s="65"/>
+      <c r="A120" s="59"/>
+      <c r="B120" s="59"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="60"/>
+      <c r="F120" s="60"/>
+      <c r="G120" s="59"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="65"/>
-      <c r="B121" s="65"/>
-      <c r="C121" s="65"/>
-      <c r="D121" s="65"/>
-      <c r="E121" s="66"/>
-      <c r="F121" s="66"/>
-      <c r="G121" s="65"/>
+      <c r="A121" s="59"/>
+      <c r="B121" s="59"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="59"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="65"/>
-      <c r="B122" s="65"/>
-      <c r="C122" s="65"/>
-      <c r="D122" s="65"/>
-      <c r="E122" s="66"/>
-      <c r="F122" s="66"/>
-      <c r="G122" s="65"/>
+      <c r="A122" s="59"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="59"/>
+      <c r="E122" s="60"/>
+      <c r="F122" s="60"/>
+      <c r="G122" s="59"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="65"/>
-      <c r="B123" s="65"/>
-      <c r="C123" s="65"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="66"/>
-      <c r="G123" s="65"/>
+      <c r="A123" s="59"/>
+      <c r="B123" s="59"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="59"/>
+      <c r="E123" s="60"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="59"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="65"/>
-      <c r="B124" s="65"/>
-      <c r="C124" s="65"/>
-      <c r="D124" s="65"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="66"/>
-      <c r="G124" s="65"/>
+      <c r="A124" s="59"/>
+      <c r="B124" s="59"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="59"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="60"/>
+      <c r="G124" s="59"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="65"/>
-      <c r="B125" s="65"/>
-      <c r="C125" s="65"/>
-      <c r="D125" s="65"/>
-      <c r="E125" s="66"/>
-      <c r="F125" s="66"/>
-      <c r="G125" s="65"/>
+      <c r="A125" s="59"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="59"/>
+      <c r="D125" s="59"/>
+      <c r="E125" s="60"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="59"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="65"/>
-      <c r="B126" s="65"/>
-      <c r="C126" s="65"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="66"/>
-      <c r="F126" s="66"/>
-      <c r="G126" s="65"/>
+      <c r="A126" s="59"/>
+      <c r="B126" s="59"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="59"/>
+      <c r="E126" s="60"/>
+      <c r="F126" s="60"/>
+      <c r="G126" s="59"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="65"/>
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="65"/>
+      <c r="A127" s="59"/>
+      <c r="B127" s="59"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="59"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="60"/>
+      <c r="G127" s="59"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="65"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="66"/>
-      <c r="F128" s="66"/>
-      <c r="G128" s="65"/>
+      <c r="A128" s="59"/>
+      <c r="B128" s="59"/>
+      <c r="C128" s="59"/>
+      <c r="D128" s="59"/>
+      <c r="E128" s="60"/>
+      <c r="F128" s="60"/>
+      <c r="G128" s="59"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="67"/>
-      <c r="B129" s="67"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="68"/>
-      <c r="F129" s="68"/>
-      <c r="G129" s="67"/>
+      <c r="A129" s="61"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="61"/>
+      <c r="D129" s="61"/>
+      <c r="E129" s="62"/>
+      <c r="F129" s="62"/>
+      <c r="G129" s="61"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="67"/>
-      <c r="B130" s="67"/>
-      <c r="C130" s="67"/>
-      <c r="D130" s="67"/>
-      <c r="E130" s="68"/>
-      <c r="F130" s="68"/>
-      <c r="G130" s="67"/>
+      <c r="A130" s="61"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="61"/>
+      <c r="D130" s="61"/>
+      <c r="E130" s="62"/>
+      <c r="F130" s="62"/>
+      <c r="G130" s="61"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="67"/>
-      <c r="B131" s="67"/>
-      <c r="C131" s="67"/>
-      <c r="D131" s="67"/>
-      <c r="E131" s="68"/>
-      <c r="F131" s="68"/>
-      <c r="G131" s="67"/>
+      <c r="A131" s="61"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="61"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="62"/>
+      <c r="F131" s="62"/>
+      <c r="G131" s="61"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="67"/>
-      <c r="B132" s="67"/>
-      <c r="C132" s="67"/>
-      <c r="D132" s="67"/>
-      <c r="E132" s="68"/>
-      <c r="F132" s="68"/>
-      <c r="G132" s="67"/>
+      <c r="A132" s="61"/>
+      <c r="B132" s="61"/>
+      <c r="C132" s="61"/>
+      <c r="D132" s="61"/>
+      <c r="E132" s="62"/>
+      <c r="F132" s="62"/>
+      <c r="G132" s="61"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
-      <c r="B133" s="67"/>
-      <c r="C133" s="67"/>
-      <c r="D133" s="67"/>
-      <c r="E133" s="68"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="67"/>
+      <c r="A133" s="61"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="61"/>
+      <c r="D133" s="61"/>
+      <c r="E133" s="62"/>
+      <c r="F133" s="62"/>
+      <c r="G133" s="61"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="67"/>
-      <c r="B134" s="67"/>
-      <c r="C134" s="67"/>
-      <c r="D134" s="67"/>
-      <c r="E134" s="68"/>
-      <c r="F134" s="68"/>
-      <c r="G134" s="67"/>
+      <c r="A134" s="61"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="61"/>
+      <c r="D134" s="61"/>
+      <c r="E134" s="62"/>
+      <c r="F134" s="62"/>
+      <c r="G134" s="61"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="67"/>
-      <c r="B135" s="67"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="68"/>
-      <c r="F135" s="68"/>
-      <c r="G135" s="67"/>
+      <c r="A135" s="61"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="61"/>
+      <c r="D135" s="61"/>
+      <c r="E135" s="62"/>
+      <c r="F135" s="62"/>
+      <c r="G135" s="61"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
-      <c r="B136" s="67"/>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="68"/>
-      <c r="G136" s="67"/>
+      <c r="A136" s="61"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="61"/>
+      <c r="D136" s="61"/>
+      <c r="E136" s="62"/>
+      <c r="F136" s="62"/>
+      <c r="G136" s="61"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="67"/>
-      <c r="B137" s="67"/>
-      <c r="C137" s="67"/>
-      <c r="D137" s="67"/>
-      <c r="E137" s="68"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="67"/>
+      <c r="A137" s="61"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="61"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="62"/>
+      <c r="F137" s="62"/>
+      <c r="G137" s="61"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="67"/>
-      <c r="B138" s="67"/>
-      <c r="C138" s="67"/>
-      <c r="D138" s="67"/>
-      <c r="E138" s="68"/>
-      <c r="F138" s="68"/>
-      <c r="G138" s="67"/>
+      <c r="A138" s="61"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="61"/>
+      <c r="D138" s="61"/>
+      <c r="E138" s="62"/>
+      <c r="F138" s="62"/>
+      <c r="G138" s="61"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
-      <c r="B139" s="67"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="67"/>
-      <c r="E139" s="68"/>
-      <c r="F139" s="68"/>
-      <c r="G139" s="67"/>
+      <c r="A139" s="61"/>
+      <c r="B139" s="61"/>
+      <c r="C139" s="61"/>
+      <c r="D139" s="61"/>
+      <c r="E139" s="62"/>
+      <c r="F139" s="62"/>
+      <c r="G139" s="61"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
-      <c r="B140" s="67"/>
-      <c r="C140" s="67"/>
-      <c r="D140" s="67"/>
-      <c r="E140" s="68"/>
-      <c r="F140" s="68"/>
-      <c r="G140" s="67"/>
+      <c r="A140" s="61"/>
+      <c r="B140" s="61"/>
+      <c r="C140" s="61"/>
+      <c r="D140" s="61"/>
+      <c r="E140" s="62"/>
+      <c r="F140" s="62"/>
+      <c r="G140" s="61"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="67"/>
-      <c r="B141" s="67"/>
-      <c r="C141" s="67"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="68"/>
-      <c r="F141" s="68"/>
-      <c r="G141" s="67"/>
+      <c r="A141" s="61"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="61"/>
+      <c r="D141" s="61"/>
+      <c r="E141" s="62"/>
+      <c r="F141" s="62"/>
+      <c r="G141" s="61"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="67"/>
-      <c r="B142" s="67"/>
-      <c r="C142" s="67"/>
-      <c r="D142" s="67"/>
-      <c r="E142" s="68"/>
-      <c r="F142" s="68"/>
-      <c r="G142" s="67"/>
+      <c r="A142" s="61"/>
+      <c r="B142" s="61"/>
+      <c r="C142" s="61"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="62"/>
+      <c r="F142" s="62"/>
+      <c r="G142" s="61"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
-      <c r="B143" s="67"/>
-      <c r="C143" s="67"/>
-      <c r="D143" s="67"/>
-      <c r="E143" s="68"/>
-      <c r="F143" s="68"/>
-      <c r="G143" s="67"/>
+      <c r="A143" s="61"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="61"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="67"/>
-      <c r="B144" s="67"/>
-      <c r="C144" s="67"/>
-      <c r="D144" s="67"/>
-      <c r="E144" s="68"/>
-      <c r="F144" s="68"/>
-      <c r="G144" s="67"/>
+      <c r="A144" s="61"/>
+      <c r="B144" s="61"/>
+      <c r="C144" s="61"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="62"/>
+      <c r="F144" s="62"/>
+      <c r="G144" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="88">
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -3562,6 +3570,7 @@
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A15:C15"/>
@@ -3941,7 +3950,7 @@
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6&amp;B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12&amp;B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18&amp;B19&amp;B20&amp;B21&amp;B22&amp;B23</f>
         <v>17BRHSH0SSN000N0000N00F0</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="68" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3953,7 +3962,7 @@
         <f>Calculation!B25</f>
         <v>27875.844305666935</v>
       </c>
-      <c r="C25" s="90"/>
+      <c r="C25" s="69"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4478,7 +4487,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17">
@@ -4489,7 +4498,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
+      <c r="A2" s="80"/>
       <c r="B2" s="18">
         <v>17</v>
       </c>
@@ -4498,7 +4507,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="18">
         <v>23</v>
       </c>
@@ -4508,7 +4517,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="102"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="19">
         <v>30</v>
       </c>
@@ -4518,7 +4527,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="77" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -4530,7 +4539,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -4540,7 +4549,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
@@ -4550,7 +4559,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="72" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4562,7 +4571,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
@@ -4572,7 +4581,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4584,7 +4593,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -4594,7 +4603,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="77" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4605,7 +4614,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="100"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -4615,7 +4624,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="72" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4626,7 +4635,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
@@ -4635,7 +4644,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="95"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
@@ -4645,7 +4654,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="77" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5">
@@ -4657,7 +4666,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="100"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -4667,7 +4676,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="72" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -4679,7 +4688,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="95"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
@@ -4689,7 +4698,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="72" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -4701,7 +4710,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
@@ -4711,7 +4720,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="72" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -4722,7 +4731,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
@@ -4731,7 +4740,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="9">
         <v>2</v>
       </c>
@@ -4740,7 +4749,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="8">
         <v>3</v>
       </c>
@@ -4749,7 +4758,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
@@ -4758,7 +4767,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="95"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="10" t="s">
         <v>41</v>
       </c>
@@ -4768,7 +4777,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="72" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="5">
@@ -4780,7 +4789,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="6">
         <v>1</v>
       </c>
@@ -4790,7 +4799,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="6">
         <v>2</v>
       </c>
@@ -4800,7 +4809,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="6">
         <v>3</v>
       </c>
@@ -4809,7 +4818,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="6">
         <v>4</v>
       </c>
@@ -4818,7 +4827,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="95"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="6">
         <v>5</v>
       </c>
@@ -4827,7 +4836,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="72" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="5">
@@ -4838,7 +4847,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="95"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="3">
         <v>1</v>
       </c>
@@ -4847,7 +4856,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -4859,19 +4868,19 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="94"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="6" t="s">
         <v>47</v>
       </c>
@@ -4881,7 +4890,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="5">
@@ -4893,7 +4902,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="95"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="3">
         <v>3</v>
       </c>
@@ -4903,7 +4912,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="72" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="5">
@@ -4914,7 +4923,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="94"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="6">
         <v>1</v>
       </c>
@@ -4923,7 +4932,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="95"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -4933,7 +4942,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="93" t="s">
+      <c r="A46" s="72" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="5">
@@ -4944,7 +4953,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="95"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -4954,7 +4963,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="93" t="s">
+      <c r="A48" s="72" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="5">
@@ -4966,7 +4975,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="95"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
@@ -4976,7 +4985,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="93" t="s">
+      <c r="A50" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -4988,7 +4997,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="6">
         <v>0</v>
       </c>
@@ -4998,7 +5007,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="94"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="6">
         <v>1</v>
       </c>
@@ -5008,7 +5017,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="6">
         <v>2</v>
       </c>
@@ -5018,7 +5027,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="94"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="6">
         <v>3</v>
       </c>
@@ -5028,7 +5037,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="96" t="s">
+      <c r="A55" s="75" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="11">
@@ -5040,7 +5049,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="97"/>
+      <c r="A56" s="76"/>
       <c r="B56" s="12">
         <v>1</v>
       </c>
@@ -5050,7 +5059,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="97"/>
+      <c r="A57" s="76"/>
       <c r="B57" s="12">
         <v>2</v>
       </c>
@@ -5060,7 +5069,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="97"/>
+      <c r="A58" s="76"/>
       <c r="B58" s="12">
         <v>3</v>
       </c>
@@ -5070,7 +5079,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="97"/>
+      <c r="A59" s="76"/>
       <c r="B59" s="12">
         <v>4</v>
       </c>
@@ -5080,7 +5089,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="96" t="s">
+      <c r="A60" s="75" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="11">
@@ -5092,7 +5101,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="97"/>
+      <c r="A61" s="76"/>
       <c r="B61" s="12">
         <v>1</v>
       </c>
@@ -5102,7 +5111,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="97"/>
+      <c r="A62" s="76"/>
       <c r="B62" s="12">
         <v>2</v>
       </c>
@@ -5112,7 +5121,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="97"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="12">
         <v>3</v>
       </c>
@@ -5122,7 +5131,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="98" t="s">
+      <c r="A64" s="77" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -5133,7 +5142,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="99"/>
+      <c r="A65" s="78"/>
       <c r="B65" s="6" t="s">
         <v>23</v>
       </c>
@@ -5142,7 +5151,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="100"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="3" t="s">
         <v>48</v>
       </c>
@@ -5151,7 +5160,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="98" t="s">
+      <c r="A67" s="77" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="13">
@@ -5162,7 +5171,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="100"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="3">
         <v>1</v>
       </c>
@@ -5177,7 +5186,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="91" t="s">
+      <c r="A70" s="70" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="4">
@@ -5188,7 +5197,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="92"/>
+      <c r="A71" s="71"/>
       <c r="B71" s="4">
         <v>2</v>
       </c>
@@ -5265,7 +5274,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="72" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -5291,7 +5300,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="39" t="s">
         <v>90</v>
       </c>
@@ -5318,7 +5327,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="2" t="s">
         <v>91</v>
       </c>
@@ -5345,7 +5354,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="77" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -5374,7 +5383,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="39" t="s">
         <v>93</v>
       </c>
@@ -5401,7 +5410,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="2" t="s">
         <v>94</v>
       </c>
@@ -5428,7 +5437,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="72" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5457,7 +5466,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="2" t="s">
         <v>96</v>
       </c>
@@ -5484,7 +5493,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5513,7 +5522,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="2" t="s">
         <v>98</v>
       </c>
@@ -5540,7 +5549,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="77" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -5569,7 +5578,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="100"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="41" t="s">
         <v>100</v>
       </c>
@@ -5596,7 +5605,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="72" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="38" t="s">
@@ -5625,7 +5634,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="39" t="s">
         <v>102</v>
       </c>
@@ -5652,7 +5661,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="95"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="3" t="s">
         <v>103</v>
       </c>
@@ -5679,7 +5688,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="85" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="38" t="s">
@@ -5708,7 +5717,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="107"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="41" t="s">
         <v>100</v>
       </c>
@@ -5735,7 +5744,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="77" t="s">
         <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -5764,7 +5773,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="2" t="s">
         <v>107</v>
       </c>
@@ -5791,7 +5800,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="72" t="s">
         <v>108</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -5820,7 +5829,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="2" t="s">
         <v>110</v>
       </c>
@@ -5847,7 +5856,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="72" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -5876,7 +5885,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="43" t="s">
         <v>112</v>
       </c>
@@ -5903,7 +5912,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="43" t="s">
         <v>113</v>
       </c>
@@ -5930,7 +5939,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="44" t="s">
         <v>114</v>
       </c>
@@ -5957,7 +5966,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="43" t="s">
         <v>115</v>
       </c>
@@ -5984,7 +5993,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="95"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="45" t="s">
         <v>116</v>
       </c>
@@ -6011,7 +6020,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="72" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -6040,7 +6049,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="46" t="s">
         <v>118</v>
       </c>
@@ -6067,7 +6076,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="46" t="s">
         <v>119</v>
       </c>
@@ -6094,7 +6103,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="46" t="s">
         <v>120</v>
       </c>
@@ -6121,7 +6130,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="46" t="s">
         <v>121</v>
       </c>
@@ -6148,7 +6157,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="94"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="46" t="s">
         <v>122</v>
       </c>
@@ -6175,7 +6184,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="72" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="47" t="s">
@@ -6204,7 +6213,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="48" t="s">
         <v>80</v>
       </c>
@@ -6231,7 +6240,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="95"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
@@ -6258,7 +6267,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="72" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -6287,7 +6296,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="95"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="2" t="s">
         <v>125</v>
       </c>
@@ -6314,7 +6323,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="77" t="s">
         <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -6343,7 +6352,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="99"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="46" t="s">
         <v>128</v>
       </c>
@@ -6370,7 +6379,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="46" t="s">
         <v>129</v>
       </c>
@@ -6397,7 +6406,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="100"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="2" t="s">
         <v>130</v>
       </c>
@@ -6424,7 +6433,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="85" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -6453,7 +6462,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="107"/>
+      <c r="A45" s="86"/>
       <c r="B45" s="2" t="s">
         <v>131</v>
       </c>
@@ -6480,7 +6489,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="93" t="s">
+      <c r="A46" s="72" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -6509,7 +6518,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="46" t="s">
         <v>133</v>
       </c>
@@ -6536,7 +6545,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="95"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="2" t="s">
         <v>134</v>
       </c>
@@ -6563,7 +6572,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="87" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -6592,7 +6601,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="109"/>
+      <c r="A50" s="88"/>
       <c r="B50" s="2" t="s">
         <v>136</v>
       </c>
@@ -6619,7 +6628,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="110"/>
+      <c r="A51" s="89"/>
       <c r="B51" s="46" t="s">
         <v>155</v>
       </c>
@@ -6646,7 +6655,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="93" t="s">
+      <c r="A52" s="72" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -6675,7 +6684,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="95"/>
+      <c r="A53" s="74"/>
       <c r="B53" s="2" t="s">
         <v>137</v>
       </c>
@@ -6702,7 +6711,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="103" t="s">
+      <c r="A54" s="82" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -6731,7 +6740,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="104"/>
+      <c r="A55" s="83"/>
       <c r="B55" s="46" t="s">
         <v>138</v>
       </c>
@@ -6758,7 +6767,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="104"/>
+      <c r="A56" s="83"/>
       <c r="B56" s="46" t="s">
         <v>139</v>
       </c>
@@ -6785,7 +6794,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="104"/>
+      <c r="A57" s="83"/>
       <c r="B57" s="46" t="s">
         <v>140</v>
       </c>
@@ -6812,7 +6821,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="105"/>
+      <c r="A58" s="84"/>
       <c r="B58" s="2" t="s">
         <v>141</v>
       </c>
@@ -6839,7 +6848,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="98" t="s">
+      <c r="A59" s="77" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="47" t="s">
@@ -6868,7 +6877,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="99"/>
+      <c r="A60" s="78"/>
       <c r="B60" s="48" t="s">
         <v>143</v>
       </c>
@@ -6895,7 +6904,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="99"/>
+      <c r="A61" s="78"/>
       <c r="B61" s="46" t="s">
         <v>144</v>
       </c>
@@ -6922,7 +6931,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="99"/>
+      <c r="A62" s="78"/>
       <c r="B62" s="46" t="s">
         <v>145</v>
       </c>
@@ -6949,7 +6958,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="100"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="2" t="s">
         <v>146</v>
       </c>
@@ -6976,7 +6985,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="98" t="s">
+      <c r="A64" s="77" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -7005,7 +7014,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="99"/>
+      <c r="A65" s="78"/>
       <c r="B65" s="46" t="s">
         <v>147</v>
       </c>
@@ -7032,7 +7041,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="99"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="46" t="s">
         <v>148</v>
       </c>
@@ -7059,7 +7068,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="100"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="2" t="s">
         <v>149</v>
       </c>
@@ -7086,7 +7095,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="98" t="s">
+      <c r="A68" s="77" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -7115,7 +7124,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="99"/>
+      <c r="A69" s="78"/>
       <c r="B69" s="46" t="s">
         <v>151</v>
       </c>
@@ -7142,7 +7151,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="100"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="2" t="s">
         <v>152</v>
       </c>
@@ -7169,7 +7178,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="98" t="s">
+      <c r="A71" s="77" t="s">
         <v>153</v>
       </c>
       <c r="B71" s="47" t="s">
@@ -7198,7 +7207,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="100"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="2" t="s">
         <v>154</v>
       </c>

--- a/TERA.xlsx
+++ b/TERA.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Material Costs" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Template3!$A$1:$E$97</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Template3!$A$1:$E$99</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="245">
   <si>
     <r>
       <t>CAPACITY</t>
@@ -790,9 +790,6 @@
     <t>Panel External Sheet</t>
   </si>
   <si>
-    <t>Z275 Steel + Polyster Painted (0,80mm)</t>
-  </si>
-  <si>
     <t>Panel Internal Sheet</t>
   </si>
   <si>
@@ -965,6 +962,30 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Temperature &amp; Humidity Sensor</t>
+  </si>
+  <si>
+    <t>Water Valve</t>
+  </si>
+  <si>
+    <t>Power Option &amp; ATS</t>
+  </si>
+  <si>
+    <t>Power Measurement</t>
+  </si>
+  <si>
+    <t>User Terminal</t>
+  </si>
+  <si>
+    <t>Water Shut off valve</t>
+  </si>
+  <si>
+    <t>Z275 Steel + Polyster Painted (0,8mm)</t>
+  </si>
+  <si>
+    <t>Control and Electrical Configuration</t>
   </si>
 </sst>
 </file>
@@ -975,7 +996,7 @@
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,6 +1126,11 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Daxline Offc Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Daxline Offc Pro"/>
       <family val="2"/>
     </font>
@@ -1368,7 +1394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1547,104 +1573,121 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1657,73 +1700,79 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2058,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,12 +2127,12 @@
       <c r="A1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
       <c r="F1" s="50"/>
       <c r="G1" s="51"/>
     </row>
@@ -2091,12 +2140,12 @@
       <c r="A2" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
       <c r="F2" s="50"/>
       <c r="G2" s="51"/>
     </row>
@@ -2104,21 +2153,21 @@
       <c r="A3" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="50"/>
       <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="53" t="s">
         <v>162</v>
       </c>
@@ -2145,10 +2194,10 @@
       </c>
       <c r="B6" s="57"/>
       <c r="C6" s="57"/>
-      <c r="D6" s="92">
+      <c r="D6" s="89">
         <v>340.7</v>
       </c>
-      <c r="E6" s="92"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="50"/>
       <c r="G6" s="52"/>
     </row>
@@ -2166,15 +2215,15 @@
       <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="71" t="s">
         <v>167</v>
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="93"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="50"/>
       <c r="G8" s="52"/>
     </row>
@@ -2192,708 +2241,755 @@
       <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="57"/>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="94"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="50"/>
       <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="50"/>
       <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="95" t="s">
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="94" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="95"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="96" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="96"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
     </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+    <row r="14" spans="1:7" s="72" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="97" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="97"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="87"/>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="96" t="s">
+      <c r="A15" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="96"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="88"/>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="97" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="97"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
+      <c r="A17" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="50"/>
       <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="86"/>
+      <c r="C18" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="55" t="s">
+      <c r="D18" s="64"/>
+      <c r="E18" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="77" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+      <c r="B19" s="77"/>
+      <c r="C19" s="84">
+        <v>44</v>
+      </c>
+      <c r="D19" s="84"/>
+      <c r="E19" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="100">
-        <v>44</v>
-      </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="B20" s="75"/>
+      <c r="C20" s="82">
+        <v>11</v>
+      </c>
+      <c r="D20" s="82"/>
+      <c r="E20" s="67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="102">
+      <c r="B21" s="77"/>
+      <c r="C21" s="84">
+        <v>14.2</v>
+      </c>
+      <c r="D21" s="84"/>
+      <c r="E21" s="66" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="82">
+        <v>62.2</v>
+      </c>
+      <c r="D22" s="82"/>
+      <c r="E22" s="67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="84">
+        <v>102.8</v>
+      </c>
+      <c r="D23" s="84"/>
+      <c r="E23" s="66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="75"/>
+      <c r="C24" s="82">
+        <v>340.7</v>
+      </c>
+      <c r="D24" s="82"/>
+      <c r="E24" s="67" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="77"/>
+      <c r="C25" s="84">
         <v>11</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="100">
-        <v>14.2</v>
-      </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="102">
-        <v>62.2</v>
-      </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="100">
-        <v>102.8</v>
-      </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="102">
-        <v>340.7</v>
-      </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="103" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+      <c r="D25" s="84"/>
+      <c r="E25" s="66" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="100">
-        <v>11</v>
-      </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="101" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
+      <c r="B26" s="75"/>
+      <c r="C26" s="82">
+        <v>22</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="102">
-        <v>22</v>
-      </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+      <c r="B27" s="77"/>
+      <c r="C27" s="84">
+        <v>26.6</v>
+      </c>
+      <c r="D27" s="84"/>
+      <c r="E27" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="100">
-        <v>26.6</v>
-      </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="101" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="75" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="B28" s="75"/>
+      <c r="C28" s="82">
+        <v>85.8</v>
+      </c>
+      <c r="D28" s="82"/>
+      <c r="E28" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="102">
-        <v>85.8</v>
-      </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="77" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+      <c r="B29" s="77"/>
+      <c r="C29" s="85">
+        <v>71</v>
+      </c>
+      <c r="D29" s="85"/>
+      <c r="E29" s="68"/>
+    </row>
+    <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="104">
-        <v>71</v>
-      </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
-    </row>
-    <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="B30" s="75"/>
+      <c r="C30" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="102" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="106"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="69"/>
     </row>
     <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="57"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="90" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
+      <c r="A32" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="50"/>
       <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="75"/>
+      <c r="C33" s="76">
+        <v>33333</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="107">
-        <v>33333</v>
-      </c>
-      <c r="D33" s="107"/>
-      <c r="E33" s="103" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
+      <c r="B34" s="77"/>
+      <c r="C34" s="83">
+        <v>111</v>
+      </c>
+      <c r="D34" s="83"/>
+      <c r="E34" s="66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="108">
-        <v>111</v>
-      </c>
-      <c r="D34" s="108"/>
-      <c r="E34" s="101" t="s">
+      <c r="B35" s="75"/>
+      <c r="C35" s="76">
+        <v>259.3</v>
+      </c>
+      <c r="D35" s="76"/>
+      <c r="E35" s="67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="77"/>
+      <c r="C36" s="81">
+        <v>1513</v>
+      </c>
+      <c r="D36" s="81"/>
+      <c r="E36" s="66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="75"/>
+      <c r="C37" s="76">
+        <v>2370</v>
+      </c>
+      <c r="D37" s="76"/>
+      <c r="E37" s="67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="77"/>
+      <c r="C38" s="81">
+        <v>63</v>
+      </c>
+      <c r="D38" s="81"/>
+      <c r="E38" s="66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" s="75"/>
+      <c r="C39" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="82"/>
+      <c r="E39" s="70"/>
+    </row>
+    <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="77"/>
+      <c r="C40" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="84"/>
+      <c r="E40" s="66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" s="75"/>
+      <c r="C41" s="82">
+        <v>30</v>
+      </c>
+      <c r="D41" s="82"/>
+      <c r="E41" s="67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" s="77"/>
+      <c r="C42" s="84">
+        <v>4.8</v>
+      </c>
+      <c r="D42" s="84"/>
+      <c r="E42" s="66" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="107">
-        <v>259.3</v>
-      </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="103" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="109">
-        <v>1513</v>
-      </c>
-      <c r="D36" s="109"/>
-      <c r="E36" s="101" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
-        <v>211</v>
-      </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="107">
-        <v>2370</v>
-      </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="103" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="109">
-        <v>63</v>
-      </c>
-      <c r="D38" s="109"/>
-      <c r="E38" s="101" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="102" t="s">
-        <v>214</v>
-      </c>
-      <c r="D39" s="102"/>
-      <c r="E39" s="110"/>
-    </row>
-    <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="100" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" s="100"/>
-      <c r="E40" s="101" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="102">
-        <v>30</v>
-      </c>
-      <c r="D41" s="102"/>
-      <c r="E41" s="103" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
+    <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="100">
-        <v>4.8</v>
-      </c>
-      <c r="D42" s="100"/>
-      <c r="E42" s="101" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
       <c r="F43" s="50"/>
       <c r="G43" s="52"/>
     </row>
     <row r="44" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="75"/>
+      <c r="C44" s="80">
+        <v>45.5</v>
+      </c>
+      <c r="D44" s="80"/>
+      <c r="E44" s="67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="111">
-        <v>45.5</v>
-      </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="103" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
+      <c r="B45" s="77"/>
+      <c r="C45" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="109" t="s">
+      <c r="D45" s="81"/>
+      <c r="E45" s="66"/>
+    </row>
+    <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="D45" s="109"/>
-      <c r="E45" s="101"/>
-    </row>
-    <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
+      <c r="B46" s="75"/>
+      <c r="C46" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="107" t="s">
+      <c r="D46" s="76"/>
+      <c r="E46" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="D46" s="107"/>
-      <c r="E46" s="103" t="s">
+    </row>
+    <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="77" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="112">
+      <c r="B47" s="77"/>
+      <c r="C47" s="78">
         <v>4</v>
       </c>
-      <c r="D47" s="112"/>
-      <c r="E47" s="90" t="s">
-        <v>233</v>
+      <c r="D47" s="78"/>
+      <c r="E47" s="63" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
+      <c r="A48" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
       <c r="F48" s="50"/>
       <c r="G48" s="52"/>
     </row>
     <row r="49" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="B49" s="63"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="103" t="s">
-        <v>193</v>
+      <c r="A49" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="75"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="67" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" s="77"/>
+      <c r="C50" s="81" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="109" t="s">
+      <c r="D50" s="81"/>
+      <c r="E50" s="66"/>
+    </row>
+    <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" s="75"/>
+      <c r="C51" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="D50" s="109"/>
-      <c r="E50" s="101"/>
-    </row>
-    <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="63" t="s">
+      <c r="D51" s="76"/>
+      <c r="E51" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="77"/>
+      <c r="C52" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="78"/>
+      <c r="E52" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="B51" s="63"/>
-      <c r="C51" s="107" t="s">
-        <v>236</v>
-      </c>
-      <c r="D51" s="107"/>
-      <c r="E51" s="103" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="B52" s="64"/>
-      <c r="C52" s="112" t="s">
-        <v>237</v>
-      </c>
-      <c r="D52" s="112"/>
-      <c r="E52" s="90" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="59"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="59"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="59"/>
-    </row>
-    <row r="56" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="60"/>
+    </row>
+    <row r="53" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="90" t="str">
+        <f>B1</f>
+        <v>Enter your data</v>
+      </c>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="51"/>
+    </row>
+    <row r="54" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="90" t="str">
+        <f>B2</f>
+        <v>Geniox Tera C Macro CRAH</v>
+      </c>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="51"/>
+    </row>
+    <row r="55" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="90" t="str">
+        <f>B3</f>
+        <v>TERA 170</v>
+      </c>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="51"/>
+    </row>
+    <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
       <c r="F56" s="60"/>
       <c r="G56" s="59"/>
     </row>
-    <row r="57" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="60"/>
+    <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="74"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
       <c r="F57" s="60"/>
       <c r="G57" s="59"/>
     </row>
-    <row r="58" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="60"/>
+    <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="73"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
       <c r="F58" s="60"/>
       <c r="G58" s="59"/>
     </row>
-    <row r="59" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="60"/>
+    <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" s="74"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
       <c r="F59" s="60"/>
       <c r="G59" s="59"/>
     </row>
-    <row r="60" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="60"/>
+    <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="73"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
       <c r="F60" s="60"/>
       <c r="G60" s="59"/>
     </row>
-    <row r="61" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="60"/>
+    <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="74"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
       <c r="F61" s="60"/>
       <c r="G61" s="59"/>
     </row>
-    <row r="62" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="60"/>
+    <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="73"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="95"/>
       <c r="F62" s="60"/>
       <c r="G62" s="59"/>
     </row>
-    <row r="63" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="60"/>
+    <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="B63" s="74"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
       <c r="F63" s="60"/>
       <c r="G63" s="59"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="60"/>
+    <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" s="73"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="95"/>
       <c r="F64" s="60"/>
       <c r="G64" s="59"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="60"/>
+    <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" s="74"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
       <c r="F65" s="60"/>
       <c r="G65" s="59"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="60"/>
+    <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="73"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
       <c r="F66" s="60"/>
       <c r="G66" s="59"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="60"/>
+    <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="74"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="96"/>
       <c r="F67" s="60"/>
       <c r="G67" s="59"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="60"/>
+    <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="73"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
       <c r="F68" s="60"/>
       <c r="G68" s="59"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="60"/>
+    <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="74"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
       <c r="F69" s="60"/>
       <c r="G69" s="59"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="60"/>
+    <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="73"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="95"/>
+      <c r="E70" s="95"/>
       <c r="F70" s="60"/>
       <c r="G70" s="59"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="60"/>
+    <row r="71" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" s="74"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="96"/>
+      <c r="E71" s="96"/>
       <c r="F71" s="60"/>
       <c r="G71" s="59"/>
     </row>
@@ -3411,22 +3507,22 @@
       <c r="G128" s="59"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="61"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="61"/>
-      <c r="D129" s="61"/>
-      <c r="E129" s="62"/>
-      <c r="F129" s="62"/>
-      <c r="G129" s="61"/>
+      <c r="A129" s="59"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="59"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="60"/>
+      <c r="G129" s="59"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="61"/>
-      <c r="B130" s="61"/>
-      <c r="C130" s="61"/>
-      <c r="D130" s="61"/>
-      <c r="E130" s="62"/>
-      <c r="F130" s="62"/>
-      <c r="G130" s="61"/>
+      <c r="A130" s="59"/>
+      <c r="B130" s="59"/>
+      <c r="C130" s="59"/>
+      <c r="D130" s="59"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="60"/>
+      <c r="G130" s="59"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="61"/>
@@ -3554,8 +3650,49 @@
       <c r="F144" s="62"/>
       <c r="G144" s="61"/>
     </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="61"/>
+      <c r="B145" s="61"/>
+      <c r="C145" s="61"/>
+      <c r="D145" s="61"/>
+      <c r="E145" s="62"/>
+      <c r="F145" s="62"/>
+      <c r="G145" s="61"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="61"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="61"/>
+      <c r="D146" s="61"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="61"/>
+    </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="122">
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -3571,68 +3708,43 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:D44"/>
@@ -3644,6 +3756,42 @@
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3651,8 +3799,9 @@
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;L&amp;"Daxline Offc Pro,Normal"systemair.com.tr&amp;C&amp;P/&amp;N&amp;R&amp;G</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="52" max="16383" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="52" max="4" man="1"/>
+    <brk id="71" max="4" man="1"/>
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="C52" numberStoredAsText="1"/>
@@ -3725,8 +3874,8 @@
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>29</v>
+      <c r="B5" s="24">
+        <v>0</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>59</v>
@@ -3948,9 +4097,9 @@
       </c>
       <c r="B24" s="28" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6&amp;B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12&amp;B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18&amp;B19&amp;B20&amp;B21&amp;B22&amp;B23</f>
-        <v>17BRHSH0SSN000N0000N00F0</v>
-      </c>
-      <c r="C24" s="68" t="s">
+        <v>17BRH0H0SSN000N0000N00F0</v>
+      </c>
+      <c r="C24" s="97" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3960,9 +4109,9 @@
       </c>
       <c r="B25" s="36">
         <f>Calculation!B25</f>
-        <v>27875.844305666935</v>
-      </c>
-      <c r="C25" s="69"/>
+        <v>26358.463472333602</v>
+      </c>
+      <c r="C25" s="98"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4200,7 +4349,7 @@
       </c>
       <c r="B5" s="35">
         <f>IF('Selection List'!B5="S",'Material Costs'!$H$12,0)</f>
-        <v>1363.7833333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4454,7 +4603,7 @@
         <f xml:space="preserve">
 IF(OR('Selection List'!B11&gt;0,'Selection List'!B5="S",'Selection List'!B19=1,'Selection List'!B19=2,'Selection List'!B19=3,'Selection List'!B19=0),'Material Costs'!$G$74,
 0)</f>
-        <v>153.59750000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4463,7 +4612,7 @@
       </c>
       <c r="B25" s="35">
         <f>SUM(B1:B24)</f>
-        <v>27875.844305666935</v>
+        <v>26358.463472333602</v>
       </c>
     </row>
   </sheetData>
@@ -4487,7 +4636,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17">
@@ -4498,7 +4647,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
+      <c r="A2" s="109"/>
       <c r="B2" s="18">
         <v>17</v>
       </c>
@@ -4507,7 +4656,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="18">
         <v>23</v>
       </c>
@@ -4517,7 +4666,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81"/>
+      <c r="A4" s="110"/>
       <c r="B4" s="19">
         <v>30</v>
       </c>
@@ -4527,7 +4676,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="106" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -4539,7 +4688,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -4549,7 +4698,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
@@ -4559,7 +4708,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="101" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4571,7 +4720,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
@@ -4581,7 +4730,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="106" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4593,7 +4742,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -4603,7 +4752,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="106" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4614,7 +4763,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -4624,7 +4773,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="101" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4635,7 +4784,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
@@ -4644,7 +4793,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
@@ -4654,7 +4803,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="106" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5">
@@ -4666,7 +4815,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="79"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -4676,7 +4825,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="101" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -4688,7 +4837,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
@@ -4698,7 +4847,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="101" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -4710,7 +4859,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
+      <c r="A22" s="103"/>
       <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
@@ -4720,7 +4869,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="101" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -4731,7 +4880,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
@@ -4740,7 +4889,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="9">
         <v>2</v>
       </c>
@@ -4749,7 +4898,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="8">
         <v>3</v>
       </c>
@@ -4758,7 +4907,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
@@ -4767,7 +4916,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="74"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="10" t="s">
         <v>41</v>
       </c>
@@ -4777,7 +4926,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="101" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="5">
@@ -4789,7 +4938,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="6">
         <v>1</v>
       </c>
@@ -4799,7 +4948,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
+      <c r="A31" s="102"/>
       <c r="B31" s="6">
         <v>2</v>
       </c>
@@ -4809,7 +4958,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
+      <c r="A32" s="102"/>
       <c r="B32" s="6">
         <v>3</v>
       </c>
@@ -4818,7 +4967,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="6">
         <v>4</v>
       </c>
@@ -4827,7 +4976,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="74"/>
+      <c r="A34" s="103"/>
       <c r="B34" s="6">
         <v>5</v>
       </c>
@@ -4836,7 +4985,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="101" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="5">
@@ -4847,7 +4996,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
+      <c r="A36" s="103"/>
       <c r="B36" s="3">
         <v>1</v>
       </c>
@@ -4856,7 +5005,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="101" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -4868,19 +5017,19 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
+      <c r="A38" s="102"/>
       <c r="B38" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
+      <c r="A39" s="102"/>
       <c r="B39" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="73"/>
+      <c r="A40" s="102"/>
       <c r="B40" s="6" t="s">
         <v>47</v>
       </c>
@@ -4890,7 +5039,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="101" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="5">
@@ -4902,7 +5051,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="3">
         <v>3</v>
       </c>
@@ -4912,7 +5061,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="101" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="5">
@@ -4923,7 +5072,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="73"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="6">
         <v>1</v>
       </c>
@@ -4932,7 +5081,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="74"/>
+      <c r="A45" s="103"/>
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -4942,7 +5091,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="5">
@@ -4953,7 +5102,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="74"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -4963,7 +5112,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="101" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="5">
@@ -4975,7 +5124,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="74"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
@@ -4985,7 +5134,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="72" t="s">
+      <c r="A50" s="101" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -4997,7 +5146,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
+      <c r="A51" s="102"/>
       <c r="B51" s="6">
         <v>0</v>
       </c>
@@ -5007,7 +5156,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
+      <c r="A52" s="102"/>
       <c r="B52" s="6">
         <v>1</v>
       </c>
@@ -5017,7 +5166,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
+      <c r="A53" s="102"/>
       <c r="B53" s="6">
         <v>2</v>
       </c>
@@ -5027,7 +5176,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="73"/>
+      <c r="A54" s="102"/>
       <c r="B54" s="6">
         <v>3</v>
       </c>
@@ -5037,7 +5186,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="75" t="s">
+      <c r="A55" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="11">
@@ -5049,7 +5198,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="76"/>
+      <c r="A56" s="105"/>
       <c r="B56" s="12">
         <v>1</v>
       </c>
@@ -5059,7 +5208,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="76"/>
+      <c r="A57" s="105"/>
       <c r="B57" s="12">
         <v>2</v>
       </c>
@@ -5069,7 +5218,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="76"/>
+      <c r="A58" s="105"/>
       <c r="B58" s="12">
         <v>3</v>
       </c>
@@ -5079,7 +5228,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="76"/>
+      <c r="A59" s="105"/>
       <c r="B59" s="12">
         <v>4</v>
       </c>
@@ -5089,7 +5238,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="104" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="11">
@@ -5101,7 +5250,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="76"/>
+      <c r="A61" s="105"/>
       <c r="B61" s="12">
         <v>1</v>
       </c>
@@ -5111,7 +5260,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="76"/>
+      <c r="A62" s="105"/>
       <c r="B62" s="12">
         <v>2</v>
       </c>
@@ -5121,7 +5270,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="76"/>
+      <c r="A63" s="105"/>
       <c r="B63" s="12">
         <v>3</v>
       </c>
@@ -5131,7 +5280,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="77" t="s">
+      <c r="A64" s="106" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -5142,7 +5291,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
+      <c r="A65" s="107"/>
       <c r="B65" s="6" t="s">
         <v>23</v>
       </c>
@@ -5151,7 +5300,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="79"/>
+      <c r="A66" s="108"/>
       <c r="B66" s="3" t="s">
         <v>48</v>
       </c>
@@ -5160,7 +5309,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="77" t="s">
+      <c r="A67" s="106" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="13">
@@ -5171,7 +5320,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="79"/>
+      <c r="A68" s="108"/>
       <c r="B68" s="3">
         <v>1</v>
       </c>
@@ -5186,7 +5335,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="99" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="4">
@@ -5197,7 +5346,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="71"/>
+      <c r="A71" s="100"/>
       <c r="B71" s="4">
         <v>2</v>
       </c>
@@ -5274,7 +5423,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="101" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -5300,7 +5449,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="39" t="s">
         <v>90</v>
       </c>
@@ -5327,7 +5476,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="74"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="2" t="s">
         <v>91</v>
       </c>
@@ -5354,7 +5503,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="106" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -5383,7 +5532,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="39" t="s">
         <v>93</v>
       </c>
@@ -5410,7 +5559,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="2" t="s">
         <v>94</v>
       </c>
@@ -5437,7 +5586,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="101" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5466,7 +5615,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="2" t="s">
         <v>96</v>
       </c>
@@ -5493,7 +5642,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="106" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5522,7 +5671,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="2" t="s">
         <v>98</v>
       </c>
@@ -5549,7 +5698,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="106" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -5578,7 +5727,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="41" t="s">
         <v>100</v>
       </c>
@@ -5605,7 +5754,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="101" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="38" t="s">
@@ -5634,7 +5783,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="39" t="s">
         <v>102</v>
       </c>
@@ -5661,7 +5810,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="3" t="s">
         <v>103</v>
       </c>
@@ -5688,7 +5837,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="114" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="38" t="s">
@@ -5717,7 +5866,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="41" t="s">
         <v>100</v>
       </c>
@@ -5744,7 +5893,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="106" t="s">
         <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -5773,7 +5922,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="2" t="s">
         <v>107</v>
       </c>
@@ -5800,7 +5949,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="101" t="s">
         <v>108</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -5829,7 +5978,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
+      <c r="A22" s="103"/>
       <c r="B22" s="2" t="s">
         <v>110</v>
       </c>
@@ -5856,7 +6005,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="101" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -5885,7 +6034,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="43" t="s">
         <v>112</v>
       </c>
@@ -5912,7 +6061,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="43" t="s">
         <v>113</v>
       </c>
@@ -5939,7 +6088,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="44" t="s">
         <v>114</v>
       </c>
@@ -5966,7 +6115,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="43" t="s">
         <v>115</v>
       </c>
@@ -5993,7 +6142,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="74"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="45" t="s">
         <v>116</v>
       </c>
@@ -6020,7 +6169,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="101" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -6049,7 +6198,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="46" t="s">
         <v>118</v>
       </c>
@@ -6076,7 +6225,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
+      <c r="A31" s="102"/>
       <c r="B31" s="46" t="s">
         <v>119</v>
       </c>
@@ -6103,7 +6252,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
+      <c r="A32" s="102"/>
       <c r="B32" s="46" t="s">
         <v>120</v>
       </c>
@@ -6130,7 +6279,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="46" t="s">
         <v>121</v>
       </c>
@@ -6157,7 +6306,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="73"/>
+      <c r="A34" s="102"/>
       <c r="B34" s="46" t="s">
         <v>122</v>
       </c>
@@ -6184,7 +6333,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="101" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="47" t="s">
@@ -6213,7 +6362,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
+      <c r="A36" s="102"/>
       <c r="B36" s="48" t="s">
         <v>80</v>
       </c>
@@ -6240,7 +6389,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
+      <c r="A37" s="103"/>
       <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
@@ -6267,7 +6416,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="101" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -6296,7 +6445,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="74"/>
+      <c r="A39" s="103"/>
       <c r="B39" s="2" t="s">
         <v>125</v>
       </c>
@@ -6323,7 +6472,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="106" t="s">
         <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -6352,7 +6501,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="46" t="s">
         <v>128</v>
       </c>
@@ -6379,7 +6528,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
+      <c r="A42" s="107"/>
       <c r="B42" s="46" t="s">
         <v>129</v>
       </c>
@@ -6406,7 +6555,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="79"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="2" t="s">
         <v>130</v>
       </c>
@@ -6433,7 +6582,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="114" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -6462,7 +6611,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="86"/>
+      <c r="A45" s="115"/>
       <c r="B45" s="2" t="s">
         <v>131</v>
       </c>
@@ -6489,7 +6638,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="101" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -6518,7 +6667,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="73"/>
+      <c r="A47" s="102"/>
       <c r="B47" s="46" t="s">
         <v>133</v>
       </c>
@@ -6545,7 +6694,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="74"/>
+      <c r="A48" s="103"/>
       <c r="B48" s="2" t="s">
         <v>134</v>
       </c>
@@ -6572,7 +6721,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="116" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -6601,7 +6750,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="88"/>
+      <c r="A50" s="117"/>
       <c r="B50" s="2" t="s">
         <v>136</v>
       </c>
@@ -6628,7 +6777,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="89"/>
+      <c r="A51" s="118"/>
       <c r="B51" s="46" t="s">
         <v>155</v>
       </c>
@@ -6655,7 +6804,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="72" t="s">
+      <c r="A52" s="101" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -6684,7 +6833,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="74"/>
+      <c r="A53" s="103"/>
       <c r="B53" s="2" t="s">
         <v>137</v>
       </c>
@@ -6711,7 +6860,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="111" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -6740,7 +6889,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
+      <c r="A55" s="112"/>
       <c r="B55" s="46" t="s">
         <v>138</v>
       </c>
@@ -6767,7 +6916,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
+      <c r="A56" s="112"/>
       <c r="B56" s="46" t="s">
         <v>139</v>
       </c>
@@ -6794,7 +6943,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
+      <c r="A57" s="112"/>
       <c r="B57" s="46" t="s">
         <v>140</v>
       </c>
@@ -6821,7 +6970,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="84"/>
+      <c r="A58" s="113"/>
       <c r="B58" s="2" t="s">
         <v>141</v>
       </c>
@@ -6848,7 +6997,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="106" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="47" t="s">
@@ -6877,7 +7026,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
+      <c r="A60" s="107"/>
       <c r="B60" s="48" t="s">
         <v>143</v>
       </c>
@@ -6904,7 +7053,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
+      <c r="A61" s="107"/>
       <c r="B61" s="46" t="s">
         <v>144</v>
       </c>
@@ -6931,7 +7080,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
+      <c r="A62" s="107"/>
       <c r="B62" s="46" t="s">
         <v>145</v>
       </c>
@@ -6958,7 +7107,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="79"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="2" t="s">
         <v>146</v>
       </c>
@@ -6985,7 +7134,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="77" t="s">
+      <c r="A64" s="106" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -7014,7 +7163,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
+      <c r="A65" s="107"/>
       <c r="B65" s="46" t="s">
         <v>147</v>
       </c>
@@ -7041,7 +7190,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
+      <c r="A66" s="107"/>
       <c r="B66" s="46" t="s">
         <v>148</v>
       </c>
@@ -7068,7 +7217,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="79"/>
+      <c r="A67" s="108"/>
       <c r="B67" s="2" t="s">
         <v>149</v>
       </c>
@@ -7095,7 +7244,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="106" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -7124,7 +7273,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
+      <c r="A69" s="107"/>
       <c r="B69" s="46" t="s">
         <v>151</v>
       </c>
@@ -7151,7 +7300,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="79"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="2" t="s">
         <v>152</v>
       </c>
@@ -7178,7 +7327,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="77" t="s">
+      <c r="A71" s="106" t="s">
         <v>153</v>
       </c>
       <c r="B71" s="47" t="s">
@@ -7207,7 +7356,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="79"/>
+      <c r="A72" s="108"/>
       <c r="B72" s="2" t="s">
         <v>154</v>
       </c>

--- a/TERA.xlsx
+++ b/TERA.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Material Costs" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Template3!$A$1:$E$99</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Template3!$A$1:$E$118</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1612,12 +1612,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1625,130 +1665,105 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1757,21 +1772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2109,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:E68"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A70" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,12 +2127,12 @@
       <c r="A1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="F1" s="50"/>
       <c r="G1" s="51"/>
     </row>
@@ -2140,12 +2140,12 @@
       <c r="A2" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="50"/>
       <c r="G2" s="51"/>
     </row>
@@ -2153,21 +2153,21 @@
       <c r="A3" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="50"/>
       <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="53" t="s">
         <v>162</v>
       </c>
@@ -2181,10 +2181,10 @@
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="91"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="50"/>
       <c r="G5" s="52"/>
     </row>
@@ -2194,10 +2194,10 @@
       </c>
       <c r="B6" s="57"/>
       <c r="C6" s="57"/>
-      <c r="D6" s="89">
+      <c r="D6" s="79">
         <v>340.7</v>
       </c>
-      <c r="E6" s="89"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="50"/>
       <c r="G6" s="52"/>
     </row>
@@ -2207,10 +2207,10 @@
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
-      <c r="D7" s="91">
+      <c r="D7" s="80">
         <v>33333</v>
       </c>
-      <c r="E7" s="91"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="50"/>
       <c r="G7" s="52"/>
     </row>
@@ -2220,10 +2220,10 @@
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="92"/>
+      <c r="E8" s="83"/>
       <c r="F8" s="50"/>
       <c r="G8" s="52"/>
     </row>
@@ -2233,118 +2233,118 @@
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="91"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="50"/>
       <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="77"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="57"/>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="93"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="50"/>
       <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="50"/>
       <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="94" t="s">
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="94"/>
+      <c r="E12" s="86"/>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="88" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="88"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7" s="72" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="87" t="s">
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="87"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="88" t="s">
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="E15" s="88"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="87" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="87"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="50"/>
       <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="86"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="55" t="s">
         <v>184</v>
       </c>
@@ -2354,155 +2354,155 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="84">
+      <c r="B19" s="81"/>
+      <c r="C19" s="88">
         <v>44</v>
       </c>
-      <c r="D19" s="84"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="66" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="82">
+      <c r="B20" s="85"/>
+      <c r="C20" s="89">
         <v>11</v>
       </c>
-      <c r="D20" s="82"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="67" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="84">
+      <c r="B21" s="81"/>
+      <c r="C21" s="88">
         <v>14.2</v>
       </c>
-      <c r="D21" s="84"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="66" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="82">
+      <c r="B22" s="85"/>
+      <c r="C22" s="89">
         <v>62.2</v>
       </c>
-      <c r="D22" s="82"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="67" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="84">
+      <c r="B23" s="81"/>
+      <c r="C23" s="88">
         <v>102.8</v>
       </c>
-      <c r="D23" s="84"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="66" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="82">
+      <c r="B24" s="85"/>
+      <c r="C24" s="89">
         <v>340.7</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="67" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="84">
+      <c r="B25" s="81"/>
+      <c r="C25" s="88">
         <v>11</v>
       </c>
-      <c r="D25" s="84"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="66" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="82">
+      <c r="B26" s="85"/>
+      <c r="C26" s="89">
         <v>22</v>
       </c>
-      <c r="D26" s="82"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="67" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="84">
+      <c r="B27" s="81"/>
+      <c r="C27" s="88">
         <v>26.6</v>
       </c>
-      <c r="D27" s="84"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="66" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="82">
+      <c r="B28" s="85"/>
+      <c r="C28" s="89">
         <v>85.8</v>
       </c>
-      <c r="D28" s="82"/>
+      <c r="D28" s="89"/>
       <c r="E28" s="67" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="85">
+      <c r="B29" s="81"/>
+      <c r="C29" s="92">
         <v>71</v>
       </c>
-      <c r="D29" s="85"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="68"/>
     </row>
     <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="82" t="s">
+      <c r="B30" s="85"/>
+      <c r="C30" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="82"/>
+      <c r="D30" s="89"/>
       <c r="E30" s="69"/>
     </row>
     <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2510,267 +2510,267 @@
         <v>203</v>
       </c>
       <c r="B31" s="57"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="63" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="76" t="s">
         <v>229</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="50"/>
       <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="76">
+      <c r="B33" s="85"/>
+      <c r="C33" s="91">
         <v>33333</v>
       </c>
-      <c r="D33" s="76"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="67" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="83">
+      <c r="B34" s="81"/>
+      <c r="C34" s="95">
         <v>111</v>
       </c>
-      <c r="D34" s="83"/>
+      <c r="D34" s="95"/>
       <c r="E34" s="66" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="76">
+      <c r="B35" s="85"/>
+      <c r="C35" s="91">
         <v>259.3</v>
       </c>
-      <c r="D35" s="76"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="67" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="81">
+      <c r="B36" s="81"/>
+      <c r="C36" s="94">
         <v>1513</v>
       </c>
-      <c r="D36" s="81"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="66" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="76">
+      <c r="B37" s="85"/>
+      <c r="C37" s="91">
         <v>2370</v>
       </c>
-      <c r="D37" s="76"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="67" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="81">
+      <c r="B38" s="81"/>
+      <c r="C38" s="94">
         <v>63</v>
       </c>
-      <c r="D38" s="81"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="66" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="82" t="s">
+      <c r="B39" s="85"/>
+      <c r="C39" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="D39" s="82"/>
+      <c r="D39" s="89"/>
       <c r="E39" s="70"/>
     </row>
     <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="84" t="s">
+      <c r="B40" s="81"/>
+      <c r="C40" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="D40" s="84"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="66" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="85" t="s">
         <v>217</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="82">
+      <c r="B41" s="85"/>
+      <c r="C41" s="89">
         <v>30</v>
       </c>
-      <c r="D41" s="82"/>
+      <c r="D41" s="89"/>
       <c r="E41" s="67" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="84">
+      <c r="B42" s="81"/>
+      <c r="C42" s="88">
         <v>4.8</v>
       </c>
-      <c r="D42" s="84"/>
+      <c r="D42" s="88"/>
       <c r="E42" s="66" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
       <c r="F43" s="50"/>
       <c r="G43" s="52"/>
     </row>
     <row r="44" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="80">
+      <c r="B44" s="85"/>
+      <c r="C44" s="93">
         <v>45.5</v>
       </c>
-      <c r="D44" s="80"/>
+      <c r="D44" s="93"/>
       <c r="E44" s="67" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="81" t="s">
+      <c r="B45" s="81"/>
+      <c r="C45" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="81"/>
+      <c r="D45" s="94"/>
       <c r="E45" s="66"/>
     </row>
     <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="76" t="s">
+      <c r="B46" s="85"/>
+      <c r="C46" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="D46" s="76"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="67" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="78">
+      <c r="B47" s="81"/>
+      <c r="C47" s="96">
         <v>4</v>
       </c>
-      <c r="D47" s="78"/>
+      <c r="D47" s="96"/>
       <c r="E47" s="63" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
       <c r="F48" s="50"/>
       <c r="G48" s="52"/>
     </row>
     <row r="49" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
       <c r="E49" s="67" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="81" t="s">
+      <c r="B50" s="81"/>
+      <c r="C50" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="D50" s="81"/>
+      <c r="D50" s="94"/>
       <c r="E50" s="66"/>
     </row>
     <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="76" t="s">
+      <c r="B51" s="85"/>
+      <c r="C51" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="D51" s="76"/>
+      <c r="D51" s="91"/>
       <c r="E51" s="67" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="B52" s="77"/>
-      <c r="C52" s="78" t="s">
+      <c r="B52" s="81"/>
+      <c r="C52" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="D52" s="78"/>
+      <c r="D52" s="96"/>
       <c r="E52" s="63" t="s">
         <v>232</v>
       </c>
@@ -2779,13 +2779,13 @@
       <c r="A53" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="90" t="str">
+      <c r="B53" s="75" t="str">
         <f>B1</f>
         <v>Enter your data</v>
       </c>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="50"/>
       <c r="G53" s="51"/>
     </row>
@@ -2793,13 +2793,13 @@
       <c r="A54" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="90" t="str">
+      <c r="B54" s="75" t="str">
         <f>B2</f>
         <v>Geniox Tera C Macro CRAH</v>
       </c>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="50"/>
       <c r="G54" s="51"/>
     </row>
@@ -2807,189 +2807,189 @@
       <c r="A55" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="90" t="str">
+      <c r="B55" s="75" t="str">
         <f>B3</f>
         <v>TERA 170</v>
       </c>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="50"/>
       <c r="G55" s="51"/>
     </row>
     <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="79" t="s">
+      <c r="A56" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
       <c r="F56" s="60"/>
       <c r="G56" s="59"/>
     </row>
     <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="B57" s="74"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="60"/>
       <c r="G57" s="59"/>
     </row>
     <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="73" t="s">
+      <c r="A58" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="73"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="95"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
       <c r="F58" s="60"/>
       <c r="G58" s="59"/>
     </row>
     <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
       <c r="F59" s="60"/>
       <c r="G59" s="59"/>
     </row>
     <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="73"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="95"/>
-      <c r="E60" s="95"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
       <c r="F60" s="60"/>
       <c r="G60" s="59"/>
     </row>
     <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="74" t="s">
+      <c r="A61" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="74"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="60"/>
       <c r="G61" s="59"/>
     </row>
     <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="73"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="95"/>
-      <c r="E62" s="95"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
       <c r="F62" s="60"/>
       <c r="G62" s="59"/>
     </row>
     <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="74" t="s">
+      <c r="A63" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="B63" s="74"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="96"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
       <c r="F63" s="60"/>
       <c r="G63" s="59"/>
     </row>
     <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="95"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
       <c r="F64" s="60"/>
       <c r="G64" s="59"/>
     </row>
     <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="74" t="s">
+      <c r="A65" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="B65" s="74"/>
-      <c r="C65" s="96"/>
-      <c r="D65" s="96"/>
-      <c r="E65" s="96"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
       <c r="F65" s="60"/>
       <c r="G65" s="59"/>
     </row>
     <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="73" t="s">
+      <c r="A66" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="73"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
       <c r="F66" s="60"/>
       <c r="G66" s="59"/>
     </row>
     <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="74" t="s">
+      <c r="A67" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="74"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="96"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
       <c r="F67" s="60"/>
       <c r="G67" s="59"/>
     </row>
     <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="73" t="s">
+      <c r="A68" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="73"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="95"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
       <c r="F68" s="60"/>
       <c r="G68" s="59"/>
     </row>
     <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="74" t="s">
+      <c r="A69" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="74"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="96"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="60"/>
       <c r="G69" s="59"/>
     </row>
     <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="73"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="95"/>
-      <c r="E70" s="95"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="73"/>
       <c r="F70" s="60"/>
       <c r="G70" s="59"/>
     </row>
     <row r="71" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="74" t="s">
+      <c r="A71" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="B71" s="74"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
-      <c r="E71" s="96"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
       <c r="F71" s="60"/>
       <c r="G71" s="59"/>
     </row>
@@ -3670,6 +3670,113 @@
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="C66:E66"/>
     <mergeCell ref="C67:E67"/>
     <mergeCell ref="C68:E68"/>
@@ -3685,113 +3792,6 @@
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="C64:E64"/>
     <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4636,7 +4636,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17">
@@ -4647,7 +4647,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
+      <c r="A2" s="104"/>
       <c r="B2" s="18">
         <v>17</v>
       </c>
@@ -4656,7 +4656,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="18">
         <v>23</v>
       </c>
@@ -4666,7 +4666,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="110"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="19">
         <v>30</v>
       </c>
@@ -4676,7 +4676,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="102" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -4688,7 +4688,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -4698,7 +4698,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
@@ -4708,7 +4708,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="99" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4720,7 +4720,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="103"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
@@ -4730,7 +4730,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="102" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4742,7 +4742,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -4752,7 +4752,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="102" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4763,7 +4763,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -4773,7 +4773,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="99" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4784,7 +4784,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
@@ -4793,7 +4793,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="103"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
@@ -4803,7 +4803,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="102" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5">
@@ -4815,7 +4815,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
+      <c r="A18" s="103"/>
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -4825,7 +4825,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -4837,7 +4837,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="103"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
@@ -4847,7 +4847,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="99" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -4859,7 +4859,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="103"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
@@ -4869,7 +4869,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="99" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -4880,7 +4880,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
@@ -4889,7 +4889,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="102"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="9">
         <v>2</v>
       </c>
@@ -4898,7 +4898,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="8">
         <v>3</v>
       </c>
@@ -4907,7 +4907,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
@@ -4916,7 +4916,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="103"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="10" t="s">
         <v>41</v>
       </c>
@@ -4926,7 +4926,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="99" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="5">
@@ -4938,7 +4938,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="6">
         <v>1</v>
       </c>
@@ -4948,7 +4948,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="6">
         <v>2</v>
       </c>
@@ -4958,7 +4958,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="6">
         <v>3</v>
       </c>
@@ -4967,7 +4967,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="6">
         <v>4</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="103"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="6">
         <v>5</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="99" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="5">
@@ -4996,7 +4996,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="3">
         <v>1</v>
       </c>
@@ -5005,7 +5005,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="99" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -5017,19 +5017,19 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="102"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="102"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="102"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="6" t="s">
         <v>47</v>
       </c>
@@ -5039,7 +5039,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="101" t="s">
+      <c r="A41" s="99" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="5">
@@ -5051,7 +5051,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="103"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="3">
         <v>3</v>
       </c>
@@ -5061,7 +5061,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="99" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="5">
@@ -5072,7 +5072,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="102"/>
+      <c r="A44" s="100"/>
       <c r="B44" s="6">
         <v>1</v>
       </c>
@@ -5081,7 +5081,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="103"/>
+      <c r="A45" s="101"/>
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -5091,7 +5091,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="99" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="5">
@@ -5102,7 +5102,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="103"/>
+      <c r="A47" s="101"/>
       <c r="B47" s="3">
         <v>1</v>
       </c>
@@ -5112,7 +5112,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="101" t="s">
+      <c r="A48" s="99" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="5">
@@ -5124,7 +5124,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="103"/>
+      <c r="A49" s="101"/>
       <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
@@ -5134,7 +5134,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="101" t="s">
+      <c r="A50" s="99" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -5146,7 +5146,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="102"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="6">
         <v>0</v>
       </c>
@@ -5156,7 +5156,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="102"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="6">
         <v>1</v>
       </c>
@@ -5166,7 +5166,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="102"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="6">
         <v>2</v>
       </c>
@@ -5176,7 +5176,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="102"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="6">
         <v>3</v>
       </c>
@@ -5186,7 +5186,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="104" t="s">
+      <c r="A55" s="109" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="11">
@@ -5198,7 +5198,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="105"/>
+      <c r="A56" s="110"/>
       <c r="B56" s="12">
         <v>1</v>
       </c>
@@ -5208,7 +5208,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="105"/>
+      <c r="A57" s="110"/>
       <c r="B57" s="12">
         <v>2</v>
       </c>
@@ -5218,7 +5218,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="105"/>
+      <c r="A58" s="110"/>
       <c r="B58" s="12">
         <v>3</v>
       </c>
@@ -5228,7 +5228,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="105"/>
+      <c r="A59" s="110"/>
       <c r="B59" s="12">
         <v>4</v>
       </c>
@@ -5238,7 +5238,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="104" t="s">
+      <c r="A60" s="109" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="11">
@@ -5250,7 +5250,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="105"/>
+      <c r="A61" s="110"/>
       <c r="B61" s="12">
         <v>1</v>
       </c>
@@ -5260,7 +5260,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="105"/>
+      <c r="A62" s="110"/>
       <c r="B62" s="12">
         <v>2</v>
       </c>
@@ -5270,7 +5270,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="105"/>
+      <c r="A63" s="110"/>
       <c r="B63" s="12">
         <v>3</v>
       </c>
@@ -5280,7 +5280,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="106" t="s">
+      <c r="A64" s="102" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -5291,7 +5291,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="107"/>
+      <c r="A65" s="106"/>
       <c r="B65" s="6" t="s">
         <v>23</v>
       </c>
@@ -5300,7 +5300,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="108"/>
+      <c r="A66" s="103"/>
       <c r="B66" s="3" t="s">
         <v>48</v>
       </c>
@@ -5309,7 +5309,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="102" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="13">
@@ -5320,7 +5320,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="108"/>
+      <c r="A68" s="103"/>
       <c r="B68" s="3">
         <v>1</v>
       </c>
@@ -5335,7 +5335,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="99" t="s">
+      <c r="A70" s="107" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="4">
@@ -5346,7 +5346,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="100"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="4">
         <v>2</v>
       </c>
@@ -5356,16 +5356,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:A42"/>
@@ -5379,6 +5369,16 @@
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5423,7 +5423,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="99" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -5449,7 +5449,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="102"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="39" t="s">
         <v>90</v>
       </c>
@@ -5476,7 +5476,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="2" t="s">
         <v>91</v>
       </c>
@@ -5503,7 +5503,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="102" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -5532,7 +5532,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="39" t="s">
         <v>93</v>
       </c>
@@ -5559,7 +5559,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="2" t="s">
         <v>94</v>
       </c>
@@ -5586,7 +5586,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="99" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5615,7 +5615,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="103"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="2" t="s">
         <v>96</v>
       </c>
@@ -5642,7 +5642,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="102" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5671,7 +5671,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="2" t="s">
         <v>98</v>
       </c>
@@ -5698,7 +5698,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="102" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -5727,7 +5727,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="41" t="s">
         <v>100</v>
       </c>
@@ -5754,7 +5754,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="99" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="38" t="s">
@@ -5783,7 +5783,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="39" t="s">
         <v>102</v>
       </c>
@@ -5810,7 +5810,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="103"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="3" t="s">
         <v>103</v>
       </c>
@@ -5893,7 +5893,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="102" t="s">
         <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -5922,7 +5922,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="2" t="s">
         <v>107</v>
       </c>
@@ -5949,7 +5949,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="99" t="s">
         <v>108</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -5978,7 +5978,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="103"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="2" t="s">
         <v>110</v>
       </c>
@@ -6005,7 +6005,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="99" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="42" t="s">
@@ -6034,7 +6034,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="43" t="s">
         <v>112</v>
       </c>
@@ -6061,7 +6061,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="102"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="43" t="s">
         <v>113</v>
       </c>
@@ -6088,7 +6088,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="44" t="s">
         <v>114</v>
       </c>
@@ -6115,7 +6115,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="43" t="s">
         <v>115</v>
       </c>
@@ -6142,7 +6142,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="103"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="45" t="s">
         <v>116</v>
       </c>
@@ -6169,7 +6169,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="99" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -6198,7 +6198,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="46" t="s">
         <v>118</v>
       </c>
@@ -6225,7 +6225,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="46" t="s">
         <v>119</v>
       </c>
@@ -6252,7 +6252,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="46" t="s">
         <v>120</v>
       </c>
@@ -6279,7 +6279,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="46" t="s">
         <v>121</v>
       </c>
@@ -6306,7 +6306,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="102"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="46" t="s">
         <v>122</v>
       </c>
@@ -6333,7 +6333,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="99" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="47" t="s">
@@ -6362,7 +6362,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="102"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="48" t="s">
         <v>80</v>
       </c>
@@ -6389,7 +6389,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="103"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
@@ -6416,7 +6416,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="99" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -6445,7 +6445,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="103"/>
+      <c r="A39" s="101"/>
       <c r="B39" s="2" t="s">
         <v>125</v>
       </c>
@@ -6472,7 +6472,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="102" t="s">
         <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -6501,7 +6501,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="107"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="46" t="s">
         <v>128</v>
       </c>
@@ -6528,7 +6528,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="107"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="46" t="s">
         <v>129</v>
       </c>
@@ -6555,7 +6555,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="108"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="2" t="s">
         <v>130</v>
       </c>
@@ -6638,7 +6638,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="99" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -6667,7 +6667,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="102"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="46" t="s">
         <v>133</v>
       </c>
@@ -6694,7 +6694,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="103"/>
+      <c r="A48" s="101"/>
       <c r="B48" s="2" t="s">
         <v>134</v>
       </c>
@@ -6721,7 +6721,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="116" t="s">
+      <c r="A49" s="111" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -6750,7 +6750,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="117"/>
+      <c r="A50" s="112"/>
       <c r="B50" s="2" t="s">
         <v>136</v>
       </c>
@@ -6777,7 +6777,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="118"/>
+      <c r="A51" s="113"/>
       <c r="B51" s="46" t="s">
         <v>155</v>
       </c>
@@ -6804,7 +6804,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="101" t="s">
+      <c r="A52" s="99" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -6833,7 +6833,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="103"/>
+      <c r="A53" s="101"/>
       <c r="B53" s="2" t="s">
         <v>137</v>
       </c>
@@ -6860,7 +6860,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="111" t="s">
+      <c r="A54" s="116" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -6889,7 +6889,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="112"/>
+      <c r="A55" s="117"/>
       <c r="B55" s="46" t="s">
         <v>138</v>
       </c>
@@ -6916,7 +6916,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="112"/>
+      <c r="A56" s="117"/>
       <c r="B56" s="46" t="s">
         <v>139</v>
       </c>
@@ -6943,7 +6943,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="112"/>
+      <c r="A57" s="117"/>
       <c r="B57" s="46" t="s">
         <v>140</v>
       </c>
@@ -6970,7 +6970,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="113"/>
+      <c r="A58" s="118"/>
       <c r="B58" s="2" t="s">
         <v>141</v>
       </c>
@@ -6997,7 +6997,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="106" t="s">
+      <c r="A59" s="102" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="47" t="s">
@@ -7026,7 +7026,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="107"/>
+      <c r="A60" s="106"/>
       <c r="B60" s="48" t="s">
         <v>143</v>
       </c>
@@ -7053,7 +7053,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="107"/>
+      <c r="A61" s="106"/>
       <c r="B61" s="46" t="s">
         <v>144</v>
       </c>
@@ -7080,7 +7080,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="107"/>
+      <c r="A62" s="106"/>
       <c r="B62" s="46" t="s">
         <v>145</v>
       </c>
@@ -7107,7 +7107,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="108"/>
+      <c r="A63" s="103"/>
       <c r="B63" s="2" t="s">
         <v>146</v>
       </c>
@@ -7134,7 +7134,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="106" t="s">
+      <c r="A64" s="102" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -7163,7 +7163,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="107"/>
+      <c r="A65" s="106"/>
       <c r="B65" s="46" t="s">
         <v>147</v>
       </c>
@@ -7190,7 +7190,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="107"/>
+      <c r="A66" s="106"/>
       <c r="B66" s="46" t="s">
         <v>148</v>
       </c>
@@ -7217,7 +7217,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="108"/>
+      <c r="A67" s="103"/>
       <c r="B67" s="2" t="s">
         <v>149</v>
       </c>
@@ -7244,7 +7244,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="106" t="s">
+      <c r="A68" s="102" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -7273,7 +7273,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="107"/>
+      <c r="A69" s="106"/>
       <c r="B69" s="46" t="s">
         <v>151</v>
       </c>
@@ -7300,7 +7300,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="108"/>
+      <c r="A70" s="103"/>
       <c r="B70" s="2" t="s">
         <v>152</v>
       </c>
@@ -7327,7 +7327,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="106" t="s">
+      <c r="A71" s="102" t="s">
         <v>153</v>
       </c>
       <c r="B71" s="47" t="s">
@@ -7356,7 +7356,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="108"/>
+      <c r="A72" s="103"/>
       <c r="B72" s="2" t="s">
         <v>154</v>
       </c>
@@ -7393,13 +7393,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
@@ -7411,11 +7409,13 @@
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TERA.xlsx
+++ b/TERA.xlsx
@@ -1612,27 +1612,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1640,80 +1692,26 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1723,9 +1721,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1735,19 +1742,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1759,20 +1766,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2109,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A70" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,12 +2127,12 @@
       <c r="A1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="50"/>
       <c r="G1" s="51"/>
     </row>
@@ -2140,12 +2140,12 @@
       <c r="A2" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="50"/>
       <c r="G2" s="51"/>
     </row>
@@ -2153,21 +2153,21 @@
       <c r="A3" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="50"/>
       <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="53" t="s">
         <v>162</v>
       </c>
@@ -2181,10 +2181,10 @@
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="80"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="50"/>
       <c r="G5" s="52"/>
     </row>
@@ -2194,10 +2194,10 @@
       </c>
       <c r="B6" s="57"/>
       <c r="C6" s="57"/>
-      <c r="D6" s="79">
+      <c r="D6" s="92">
         <v>340.7</v>
       </c>
-      <c r="E6" s="79"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="50"/>
       <c r="G6" s="52"/>
     </row>
@@ -2207,10 +2207,10 @@
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
-      <c r="D7" s="80">
+      <c r="D7" s="87">
         <v>33333</v>
       </c>
-      <c r="E7" s="80"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="50"/>
       <c r="G7" s="52"/>
     </row>
@@ -2220,10 +2220,10 @@
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="50"/>
       <c r="G8" s="52"/>
     </row>
@@ -2233,118 +2233,118 @@
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="80"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="50"/>
       <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="81"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="57"/>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="84"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="50"/>
       <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="50"/>
       <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86" t="s">
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="86"/>
+      <c r="E12" s="91"/>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="82"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7" s="72" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="90" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="94"/>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="E15" s="82"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="90" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="94" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="94"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="50"/>
       <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="87"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="55" t="s">
         <v>184</v>
       </c>
@@ -2354,155 +2354,155 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="88">
+      <c r="B19" s="77"/>
+      <c r="C19" s="84">
         <v>44</v>
       </c>
-      <c r="D19" s="88"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="66" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="89">
+      <c r="B20" s="75"/>
+      <c r="C20" s="82">
         <v>11</v>
       </c>
-      <c r="D20" s="89"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="67" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="88">
+      <c r="B21" s="77"/>
+      <c r="C21" s="84">
         <v>14.2</v>
       </c>
-      <c r="D21" s="88"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="66" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="89">
+      <c r="B22" s="75"/>
+      <c r="C22" s="82">
         <v>62.2</v>
       </c>
-      <c r="D22" s="89"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="67" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="88">
+      <c r="B23" s="77"/>
+      <c r="C23" s="84">
         <v>102.8</v>
       </c>
-      <c r="D23" s="88"/>
+      <c r="D23" s="84"/>
       <c r="E23" s="66" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="89">
+      <c r="B24" s="75"/>
+      <c r="C24" s="82">
         <v>340.7</v>
       </c>
-      <c r="D24" s="89"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="67" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="88">
+      <c r="B25" s="77"/>
+      <c r="C25" s="84">
         <v>11</v>
       </c>
-      <c r="D25" s="88"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="66" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="89">
+      <c r="B26" s="75"/>
+      <c r="C26" s="82">
         <v>22</v>
       </c>
-      <c r="D26" s="89"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="67" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="88">
+      <c r="B27" s="77"/>
+      <c r="C27" s="84">
         <v>26.6</v>
       </c>
-      <c r="D27" s="88"/>
+      <c r="D27" s="84"/>
       <c r="E27" s="66" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="89">
+      <c r="B28" s="75"/>
+      <c r="C28" s="82">
         <v>85.8</v>
       </c>
-      <c r="D28" s="89"/>
+      <c r="D28" s="82"/>
       <c r="E28" s="67" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="92">
+      <c r="B29" s="77"/>
+      <c r="C29" s="85">
         <v>71</v>
       </c>
-      <c r="D29" s="92"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="68"/>
     </row>
     <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="89" t="s">
+      <c r="B30" s="75"/>
+      <c r="C30" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="89"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="69"/>
     </row>
     <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2510,267 +2510,267 @@
         <v>203</v>
       </c>
       <c r="B31" s="57"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
       <c r="E31" s="63" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="50"/>
       <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="85" t="s">
+      <c r="A33" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="91">
+      <c r="B33" s="75"/>
+      <c r="C33" s="76">
         <v>33333</v>
       </c>
-      <c r="D33" s="91"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="67" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="95">
+      <c r="B34" s="77"/>
+      <c r="C34" s="83">
         <v>111</v>
       </c>
-      <c r="D34" s="95"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="66" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="91">
+      <c r="B35" s="75"/>
+      <c r="C35" s="76">
         <v>259.3</v>
       </c>
-      <c r="D35" s="91"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="67" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="94">
+      <c r="B36" s="77"/>
+      <c r="C36" s="81">
         <v>1513</v>
       </c>
-      <c r="D36" s="94"/>
+      <c r="D36" s="81"/>
       <c r="E36" s="66" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="91">
+      <c r="B37" s="75"/>
+      <c r="C37" s="76">
         <v>2370</v>
       </c>
-      <c r="D37" s="91"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="67" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="94">
+      <c r="B38" s="77"/>
+      <c r="C38" s="81">
         <v>63</v>
       </c>
-      <c r="D38" s="94"/>
+      <c r="D38" s="81"/>
       <c r="E38" s="66" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="89" t="s">
+      <c r="B39" s="75"/>
+      <c r="C39" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="D39" s="89"/>
+      <c r="D39" s="82"/>
       <c r="E39" s="70"/>
     </row>
     <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="88" t="s">
+      <c r="B40" s="77"/>
+      <c r="C40" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D40" s="88"/>
+      <c r="D40" s="84"/>
       <c r="E40" s="66" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="89">
+      <c r="B41" s="75"/>
+      <c r="C41" s="82">
         <v>30</v>
       </c>
-      <c r="D41" s="89"/>
+      <c r="D41" s="82"/>
       <c r="E41" s="67" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="88">
+      <c r="B42" s="77"/>
+      <c r="C42" s="84">
         <v>4.8</v>
       </c>
-      <c r="D42" s="88"/>
+      <c r="D42" s="84"/>
       <c r="E42" s="66" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
       <c r="F43" s="50"/>
       <c r="G43" s="52"/>
     </row>
     <row r="44" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="93">
+      <c r="B44" s="75"/>
+      <c r="C44" s="80">
         <v>45.5</v>
       </c>
-      <c r="D44" s="93"/>
+      <c r="D44" s="80"/>
       <c r="E44" s="67" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="94" t="s">
+      <c r="B45" s="77"/>
+      <c r="C45" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="94"/>
+      <c r="D45" s="81"/>
       <c r="E45" s="66"/>
     </row>
     <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="91" t="s">
+      <c r="B46" s="75"/>
+      <c r="C46" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="D46" s="91"/>
+      <c r="D46" s="76"/>
       <c r="E46" s="67" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="96">
+      <c r="B47" s="77"/>
+      <c r="C47" s="78">
         <v>4</v>
       </c>
-      <c r="D47" s="96"/>
+      <c r="D47" s="78"/>
       <c r="E47" s="63" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
       <c r="F48" s="50"/>
       <c r="G48" s="52"/>
     </row>
     <row r="49" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
       <c r="E49" s="67" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="81" t="s">
+      <c r="A50" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="94" t="s">
+      <c r="B50" s="77"/>
+      <c r="C50" s="81" t="s">
         <v>234</v>
       </c>
-      <c r="D50" s="94"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="66"/>
     </row>
     <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="B51" s="85"/>
-      <c r="C51" s="91" t="s">
+      <c r="B51" s="75"/>
+      <c r="C51" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="D51" s="91"/>
+      <c r="D51" s="76"/>
       <c r="E51" s="67" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="C52" s="96" t="s">
+      <c r="B52" s="77"/>
+      <c r="C52" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="D52" s="96"/>
+      <c r="D52" s="78"/>
       <c r="E52" s="63" t="s">
         <v>232</v>
       </c>
@@ -2779,13 +2779,13 @@
       <c r="A53" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="75" t="str">
+      <c r="B53" s="86" t="str">
         <f>B1</f>
         <v>Enter your data</v>
       </c>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
       <c r="F53" s="50"/>
       <c r="G53" s="51"/>
     </row>
@@ -2793,13 +2793,13 @@
       <c r="A54" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="75" t="str">
+      <c r="B54" s="86" t="str">
         <f>B2</f>
         <v>Geniox Tera C Macro CRAH</v>
       </c>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
       <c r="F54" s="50"/>
       <c r="G54" s="51"/>
     </row>
@@ -2807,189 +2807,189 @@
       <c r="A55" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="75" t="str">
+      <c r="B55" s="86" t="str">
         <f>B3</f>
         <v>TERA 170</v>
       </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
       <c r="F55" s="50"/>
       <c r="G55" s="51"/>
     </row>
     <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="79" t="s">
         <v>244</v>
       </c>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
       <c r="F56" s="60"/>
       <c r="G56" s="59"/>
     </row>
     <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="B57" s="77"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="117"/>
       <c r="F57" s="60"/>
       <c r="G57" s="59"/>
     </row>
     <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="78" t="s">
+      <c r="A58" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="78"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
       <c r="F58" s="60"/>
       <c r="G58" s="59"/>
     </row>
     <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
       <c r="F59" s="60"/>
       <c r="G59" s="59"/>
     </row>
     <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="78" t="s">
+      <c r="A60" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="78"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
       <c r="F60" s="60"/>
       <c r="G60" s="59"/>
     </row>
     <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="77" t="s">
+      <c r="A61" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="77"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
       <c r="F61" s="60"/>
       <c r="G61" s="59"/>
     </row>
     <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="78" t="s">
+      <c r="A62" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="78"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
       <c r="F62" s="60"/>
       <c r="G62" s="59"/>
     </row>
     <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="77" t="s">
+      <c r="A63" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="B63" s="77"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="117"/>
       <c r="F63" s="60"/>
       <c r="G63" s="59"/>
     </row>
     <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="78" t="s">
+      <c r="A64" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="B64" s="78"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="118"/>
       <c r="F64" s="60"/>
       <c r="G64" s="59"/>
     </row>
     <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="77" t="s">
+      <c r="A65" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="B65" s="77"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="117"/>
       <c r="F65" s="60"/>
       <c r="G65" s="59"/>
     </row>
     <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="78" t="s">
+      <c r="A66" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="78"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
       <c r="F66" s="60"/>
       <c r="G66" s="59"/>
     </row>
     <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="77" t="s">
+      <c r="A67" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="77"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
+      <c r="E67" s="117"/>
       <c r="F67" s="60"/>
       <c r="G67" s="59"/>
     </row>
     <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="78" t="s">
+      <c r="A68" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="78"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="118"/>
+      <c r="D68" s="118"/>
+      <c r="E68" s="118"/>
       <c r="F68" s="60"/>
       <c r="G68" s="59"/>
     </row>
     <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="77" t="s">
+      <c r="A69" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="77"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="117"/>
       <c r="F69" s="60"/>
       <c r="G69" s="59"/>
     </row>
     <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="78" t="s">
+      <c r="A70" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="78"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="118"/>
+      <c r="D70" s="118"/>
+      <c r="E70" s="118"/>
       <c r="F70" s="60"/>
       <c r="G70" s="59"/>
     </row>
     <row r="71" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="77" t="s">
+      <c r="A71" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B71" s="77"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="117"/>
+      <c r="E71" s="117"/>
       <c r="F71" s="60"/>
       <c r="G71" s="59"/>
     </row>
@@ -3670,89 +3670,21 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="B55:E55"/>
@@ -3777,21 +3709,89 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4099,7 +4099,7 @@
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6&amp;B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12&amp;B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18&amp;B19&amp;B20&amp;B21&amp;B22&amp;B23</f>
         <v>17BRH0H0SSN000N0000N00F0</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="95" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
         <f>Calculation!B25</f>
         <v>26358.463472333602</v>
       </c>
-      <c r="C25" s="98"/>
+      <c r="C25" s="96"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -4636,7 +4636,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17">
@@ -4647,7 +4647,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="104"/>
+      <c r="A2" s="107"/>
       <c r="B2" s="18">
         <v>17</v>
       </c>
@@ -4656,7 +4656,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="104"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="18">
         <v>23</v>
       </c>
@@ -4666,7 +4666,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="105"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="19">
         <v>30</v>
       </c>
@@ -4676,7 +4676,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="104" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -4688,7 +4688,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -4698,7 +4698,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
@@ -4730,7 +4730,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="104" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4742,7 +4742,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="103"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -4752,7 +4752,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="104" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4763,7 +4763,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -4803,7 +4803,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="104" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5">
@@ -4815,7 +4815,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="103"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -5186,7 +5186,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="109" t="s">
+      <c r="A55" s="102" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="11">
@@ -5198,7 +5198,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
+      <c r="A56" s="103"/>
       <c r="B56" s="12">
         <v>1</v>
       </c>
@@ -5208,7 +5208,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="110"/>
+      <c r="A57" s="103"/>
       <c r="B57" s="12">
         <v>2</v>
       </c>
@@ -5218,7 +5218,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="110"/>
+      <c r="A58" s="103"/>
       <c r="B58" s="12">
         <v>3</v>
       </c>
@@ -5228,7 +5228,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="110"/>
+      <c r="A59" s="103"/>
       <c r="B59" s="12">
         <v>4</v>
       </c>
@@ -5238,7 +5238,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="109" t="s">
+      <c r="A60" s="102" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="11">
@@ -5250,7 +5250,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="110"/>
+      <c r="A61" s="103"/>
       <c r="B61" s="12">
         <v>1</v>
       </c>
@@ -5260,7 +5260,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="110"/>
+      <c r="A62" s="103"/>
       <c r="B62" s="12">
         <v>2</v>
       </c>
@@ -5270,7 +5270,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="110"/>
+      <c r="A63" s="103"/>
       <c r="B63" s="12">
         <v>3</v>
       </c>
@@ -5280,7 +5280,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="104" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -5291,7 +5291,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
+      <c r="A65" s="105"/>
       <c r="B65" s="6" t="s">
         <v>23</v>
       </c>
@@ -5300,7 +5300,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="103"/>
+      <c r="A66" s="106"/>
       <c r="B66" s="3" t="s">
         <v>48</v>
       </c>
@@ -5309,7 +5309,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="104" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="13">
@@ -5320,7 +5320,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="103"/>
+      <c r="A68" s="106"/>
       <c r="B68" s="3">
         <v>1</v>
       </c>
@@ -5335,7 +5335,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="107" t="s">
+      <c r="A70" s="97" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="4">
@@ -5346,7 +5346,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="108"/>
+      <c r="A71" s="98"/>
       <c r="B71" s="4">
         <v>2</v>
       </c>
@@ -5356,6 +5356,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:A42"/>
@@ -5369,16 +5379,6 @@
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5503,7 +5503,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="104" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -5532,7 +5532,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="39" t="s">
         <v>93</v>
       </c>
@@ -5559,7 +5559,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="2" t="s">
         <v>94</v>
       </c>
@@ -5642,7 +5642,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="104" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5671,7 +5671,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="103"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="2" t="s">
         <v>98</v>
       </c>
@@ -5698,7 +5698,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="104" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -5727,7 +5727,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="41" t="s">
         <v>100</v>
       </c>
@@ -5837,7 +5837,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="112" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="38" t="s">
@@ -5866,7 +5866,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="115"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="41" t="s">
         <v>100</v>
       </c>
@@ -5893,7 +5893,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="104" t="s">
         <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -5922,7 +5922,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="103"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="2" t="s">
         <v>107</v>
       </c>
@@ -6472,7 +6472,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="104" t="s">
         <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -6501,7 +6501,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="46" t="s">
         <v>128</v>
       </c>
@@ -6528,7 +6528,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="46" t="s">
         <v>129</v>
       </c>
@@ -6555,7 +6555,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="103"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="2" t="s">
         <v>130</v>
       </c>
@@ -6582,7 +6582,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="114" t="s">
+      <c r="A44" s="112" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -6611,7 +6611,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="115"/>
+      <c r="A45" s="113"/>
       <c r="B45" s="2" t="s">
         <v>131</v>
       </c>
@@ -6721,7 +6721,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="111" t="s">
+      <c r="A49" s="114" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -6750,7 +6750,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="112"/>
+      <c r="A50" s="115"/>
       <c r="B50" s="2" t="s">
         <v>136</v>
       </c>
@@ -6777,7 +6777,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="113"/>
+      <c r="A51" s="116"/>
       <c r="B51" s="46" t="s">
         <v>155</v>
       </c>
@@ -6860,7 +6860,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="116" t="s">
+      <c r="A54" s="109" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -6889,7 +6889,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="117"/>
+      <c r="A55" s="110"/>
       <c r="B55" s="46" t="s">
         <v>138</v>
       </c>
@@ -6916,7 +6916,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="117"/>
+      <c r="A56" s="110"/>
       <c r="B56" s="46" t="s">
         <v>139</v>
       </c>
@@ -6943,7 +6943,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="117"/>
+      <c r="A57" s="110"/>
       <c r="B57" s="46" t="s">
         <v>140</v>
       </c>
@@ -6970,7 +6970,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="118"/>
+      <c r="A58" s="111"/>
       <c r="B58" s="2" t="s">
         <v>141</v>
       </c>
@@ -6997,7 +6997,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="102" t="s">
+      <c r="A59" s="104" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="47" t="s">
@@ -7026,7 +7026,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="106"/>
+      <c r="A60" s="105"/>
       <c r="B60" s="48" t="s">
         <v>143</v>
       </c>
@@ -7053,7 +7053,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="106"/>
+      <c r="A61" s="105"/>
       <c r="B61" s="46" t="s">
         <v>144</v>
       </c>
@@ -7080,7 +7080,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="106"/>
+      <c r="A62" s="105"/>
       <c r="B62" s="46" t="s">
         <v>145</v>
       </c>
@@ -7107,7 +7107,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="103"/>
+      <c r="A63" s="106"/>
       <c r="B63" s="2" t="s">
         <v>146</v>
       </c>
@@ -7134,7 +7134,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="104" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -7163,7 +7163,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
+      <c r="A65" s="105"/>
       <c r="B65" s="46" t="s">
         <v>147</v>
       </c>
@@ -7190,7 +7190,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="106"/>
+      <c r="A66" s="105"/>
       <c r="B66" s="46" t="s">
         <v>148</v>
       </c>
@@ -7217,7 +7217,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="103"/>
+      <c r="A67" s="106"/>
       <c r="B67" s="2" t="s">
         <v>149</v>
       </c>
@@ -7244,7 +7244,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="104" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -7273,7 +7273,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="106"/>
+      <c r="A69" s="105"/>
       <c r="B69" s="46" t="s">
         <v>151</v>
       </c>
@@ -7300,7 +7300,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="103"/>
+      <c r="A70" s="106"/>
       <c r="B70" s="2" t="s">
         <v>152</v>
       </c>
@@ -7327,7 +7327,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="102" t="s">
+      <c r="A71" s="104" t="s">
         <v>153</v>
       </c>
       <c r="B71" s="47" t="s">
@@ -7356,7 +7356,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="103"/>
+      <c r="A72" s="106"/>
       <c r="B72" s="2" t="s">
         <v>154</v>
       </c>
@@ -7393,11 +7393,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
@@ -7409,13 +7411,11 @@
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TERA.xlsx
+++ b/TERA.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="DLgFXPmdA4my9IpkWjaaSDYcRegK1mbf2K33YIW/Vi9AoJBO2cPFmeJwc1YZ5s+WIJXnWDaTfbDnEn8EUBjOhA==" workbookSaltValue="fCmECN8ub+/FPheJU2EBaA==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="h60oF1LZxTLggQb6TdpdFchnJeYqdYV4NSz7sNxoU63IJxYrt+XeultdAgXnKbtHTC/wR8iFLL8IQFevjd4lww==" workbookSaltValue="0OX9hbrWk2T1cXOo5NHEXQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Template3" sheetId="5" r:id="rId1"/>
-    <sheet name="Selection List" sheetId="1" r:id="rId2"/>
+    <sheet name="Selection List" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="Sayfa2" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
@@ -2140,7 +2140,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2292,6 +2292,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2586,7 +2595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2795,6 +2804,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3318,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61:E61"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A79" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,12 +3346,12 @@
       <c r="A1" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="79" t="s">
         <v>531</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="49"/>
       <c r="G1" s="50"/>
     </row>
@@ -3349,12 +3359,12 @@
       <c r="A2" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>533</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="49"/>
       <c r="G2" s="50"/>
     </row>
@@ -3362,21 +3372,21 @@
       <c r="A3" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="79" t="s">
         <v>535</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="49"/>
       <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>536</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="51" t="s">
         <v>537</v>
       </c>
@@ -3390,10 +3400,10 @@
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="93" t="s">
         <v>539</v>
       </c>
-      <c r="E5" s="92"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="49"/>
       <c r="G5" s="52"/>
     </row>
@@ -3403,10 +3413,10 @@
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
-      <c r="D6" s="95">
+      <c r="D6" s="96">
         <v>340.7</v>
       </c>
-      <c r="E6" s="95"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="49"/>
       <c r="G6" s="52"/>
     </row>
@@ -3416,10 +3426,10 @@
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
-      <c r="D7" s="92">
+      <c r="D7" s="93">
         <v>33333</v>
       </c>
-      <c r="E7" s="92"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="49"/>
       <c r="G7" s="52"/>
     </row>
@@ -3429,10 +3439,10 @@
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="94" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="93"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="49"/>
       <c r="G8" s="52"/>
     </row>
@@ -3442,118 +3452,118 @@
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="93" t="s">
         <v>545</v>
       </c>
-      <c r="E9" s="92"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="49"/>
       <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="77" t="s">
         <v>546</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="95" t="s">
         <v>547</v>
       </c>
-      <c r="E10" s="94"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="49"/>
       <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>548</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="49"/>
       <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="81" t="s">
         <v>549</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="91" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="92" t="s">
         <v>550</v>
       </c>
-      <c r="E12" s="91"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="77" t="s">
         <v>551</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="88" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="89" t="s">
         <v>552</v>
       </c>
-      <c r="E13" s="88"/>
+      <c r="E13" s="89"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:7" s="57" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="81" t="s">
         <v>553</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="89" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="90" t="s">
         <v>554</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="77" t="s">
         <v>555</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="88" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="89" t="s">
         <v>554</v>
       </c>
-      <c r="E15" s="88"/>
+      <c r="E15" s="89"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="81" t="s">
         <v>556</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="89" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="90" t="s">
         <v>557</v>
       </c>
-      <c r="E16" s="89"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="80" t="s">
         <v>558</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="49"/>
       <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="91" t="s">
         <v>559</v>
       </c>
-      <c r="B18" s="90"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="58" t="s">
         <v>560</v>
       </c>
@@ -3563,155 +3573,155 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="77" t="s">
         <v>562</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="85">
+      <c r="B19" s="77"/>
+      <c r="C19" s="86">
         <v>44</v>
       </c>
-      <c r="D19" s="85"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="61" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="81" t="s">
         <v>564</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="84">
+      <c r="B20" s="81"/>
+      <c r="C20" s="85">
         <v>11</v>
       </c>
-      <c r="D20" s="84"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="62" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="77" t="s">
         <v>565</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="85">
+      <c r="B21" s="77"/>
+      <c r="C21" s="86">
         <v>14.2</v>
       </c>
-      <c r="D21" s="85"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="61" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="81" t="s">
         <v>566</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="84">
+      <c r="B22" s="81"/>
+      <c r="C22" s="85">
         <v>62.2</v>
       </c>
-      <c r="D22" s="84"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="62" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="77" t="s">
         <v>567</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="85">
+      <c r="B23" s="77"/>
+      <c r="C23" s="86">
         <v>102.8</v>
       </c>
-      <c r="D23" s="85"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="61" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="81" t="s">
         <v>569</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="84">
+      <c r="B24" s="81"/>
+      <c r="C24" s="85">
         <v>340.7</v>
       </c>
-      <c r="D24" s="84"/>
+      <c r="D24" s="85"/>
       <c r="E24" s="62" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="77" t="s">
         <v>571</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="85">
+      <c r="B25" s="77"/>
+      <c r="C25" s="86">
         <v>11</v>
       </c>
-      <c r="D25" s="85"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="61" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="81" t="s">
         <v>572</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="84">
+      <c r="B26" s="81"/>
+      <c r="C26" s="85">
         <v>22</v>
       </c>
-      <c r="D26" s="84"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="62" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="77" t="s">
         <v>573</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="85">
+      <c r="B27" s="77"/>
+      <c r="C27" s="86">
         <v>26.6</v>
       </c>
-      <c r="D27" s="85"/>
+      <c r="D27" s="86"/>
       <c r="E27" s="61" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="81" t="s">
         <v>575</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="84">
+      <c r="B28" s="81"/>
+      <c r="C28" s="85">
         <v>85.8</v>
       </c>
-      <c r="D28" s="84"/>
+      <c r="D28" s="85"/>
       <c r="E28" s="62" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="77" t="s">
         <v>577</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="87">
+      <c r="B29" s="77"/>
+      <c r="C29" s="88">
         <v>71</v>
       </c>
-      <c r="D29" s="87"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="63"/>
     </row>
     <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="81" t="s">
         <v>578</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="84" t="s">
+      <c r="B30" s="81"/>
+      <c r="C30" s="85" t="s">
         <v>579</v>
       </c>
-      <c r="D30" s="84"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="64"/>
     </row>
     <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3719,267 +3729,267 @@
         <v>580</v>
       </c>
       <c r="B31" s="54"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
       <c r="E31" s="66" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="49"/>
       <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="80" t="s">
+      <c r="A33" s="81" t="s">
         <v>583</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="83">
+      <c r="B33" s="81"/>
+      <c r="C33" s="84">
         <v>33333</v>
       </c>
-      <c r="D33" s="83"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="62" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="77" t="s">
         <v>584</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="86">
+      <c r="B34" s="77"/>
+      <c r="C34" s="87">
         <v>111</v>
       </c>
-      <c r="D34" s="86"/>
+      <c r="D34" s="87"/>
       <c r="E34" s="61" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="81" t="s">
         <v>585</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="83">
+      <c r="B35" s="81"/>
+      <c r="C35" s="84">
         <v>259.3</v>
       </c>
-      <c r="D35" s="83"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="62" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="77" t="s">
         <v>586</v>
       </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="82">
+      <c r="B36" s="77"/>
+      <c r="C36" s="83">
         <v>1513</v>
       </c>
-      <c r="D36" s="82"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="61" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="81" t="s">
         <v>588</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="83">
+      <c r="B37" s="81"/>
+      <c r="C37" s="84">
         <v>2370</v>
       </c>
-      <c r="D37" s="83"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="62" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="77" t="s">
         <v>589</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="82">
+      <c r="B38" s="77"/>
+      <c r="C38" s="83">
         <v>63</v>
       </c>
-      <c r="D38" s="82"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="61" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="81" t="s">
         <v>590</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="84" t="s">
+      <c r="B39" s="81"/>
+      <c r="C39" s="85" t="s">
         <v>591</v>
       </c>
-      <c r="D39" s="84"/>
+      <c r="D39" s="85"/>
       <c r="E39" s="67"/>
     </row>
     <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="77" t="s">
         <v>592</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="85" t="s">
+      <c r="B40" s="77"/>
+      <c r="C40" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="D40" s="85"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="61" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="81" t="s">
         <v>595</v>
       </c>
-      <c r="B41" s="80"/>
-      <c r="C41" s="84">
+      <c r="B41" s="81"/>
+      <c r="C41" s="85">
         <v>30</v>
       </c>
-      <c r="D41" s="84"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="77" t="s">
         <v>596</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="85">
+      <c r="B42" s="77"/>
+      <c r="C42" s="86">
         <v>4.8</v>
       </c>
-      <c r="D42" s="85"/>
+      <c r="D42" s="86"/>
       <c r="E42" s="61" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="80" t="s">
         <v>597</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="49"/>
       <c r="G43" s="52"/>
     </row>
     <row r="44" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="81" t="s">
         <v>598</v>
       </c>
-      <c r="B44" s="80"/>
-      <c r="C44" s="81">
+      <c r="B44" s="81"/>
+      <c r="C44" s="82">
         <v>45.5</v>
       </c>
-      <c r="D44" s="81"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="62" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="77" t="s">
         <v>599</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="82" t="s">
+      <c r="B45" s="77"/>
+      <c r="C45" s="83" t="s">
         <v>600</v>
       </c>
-      <c r="D45" s="82"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="61"/>
     </row>
     <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="81" t="s">
         <v>601</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="83" t="s">
+      <c r="B46" s="81"/>
+      <c r="C46" s="84" t="s">
         <v>602</v>
       </c>
-      <c r="D46" s="83"/>
+      <c r="D46" s="84"/>
       <c r="E46" s="62" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="77" t="s">
         <v>604</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="77">
+      <c r="B47" s="77"/>
+      <c r="C47" s="78">
         <v>4</v>
       </c>
-      <c r="D47" s="77"/>
+      <c r="D47" s="78"/>
       <c r="E47" s="66" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="80" t="s">
         <v>605</v>
       </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
       <c r="F48" s="49"/>
       <c r="G48" s="52"/>
     </row>
     <row r="49" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="81" t="s">
         <v>598</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
       <c r="E49" s="62" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="77" t="s">
         <v>606</v>
       </c>
-      <c r="B50" s="76"/>
-      <c r="C50" s="82" t="s">
+      <c r="B50" s="77"/>
+      <c r="C50" s="83" t="s">
         <v>607</v>
       </c>
-      <c r="D50" s="82"/>
+      <c r="D50" s="83"/>
       <c r="E50" s="61"/>
     </row>
     <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="81" t="s">
         <v>608</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="83" t="s">
+      <c r="B51" s="81"/>
+      <c r="C51" s="84" t="s">
         <v>609</v>
       </c>
-      <c r="D51" s="83"/>
+      <c r="D51" s="84"/>
       <c r="E51" s="62" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="77" t="s">
         <v>604</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="77" t="s">
+      <c r="B52" s="77"/>
+      <c r="C52" s="78" t="s">
         <v>610</v>
       </c>
-      <c r="D52" s="77"/>
+      <c r="D52" s="78"/>
       <c r="E52" s="66" t="s">
         <v>92</v>
       </c>
@@ -3988,13 +3998,13 @@
       <c r="A53" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="B53" s="78" t="str">
+      <c r="B53" s="79" t="str">
         <f>B1</f>
         <v>Enter your data</v>
       </c>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
       <c r="F53" s="49"/>
       <c r="G53" s="50"/>
     </row>
@@ -4002,13 +4012,13 @@
       <c r="A54" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="B54" s="78" t="str">
+      <c r="B54" s="79" t="str">
         <f>B2</f>
         <v>Geniox Tera C Macro CRAH</v>
       </c>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
       <c r="F54" s="49"/>
       <c r="G54" s="50"/>
     </row>
@@ -4016,189 +4026,189 @@
       <c r="A55" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="B55" s="78" t="str">
+      <c r="B55" s="79" t="str">
         <f>B3</f>
         <v>TERA 170</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
       <c r="F55" s="49"/>
       <c r="G55" s="50"/>
     </row>
     <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="79" t="s">
+      <c r="A56" s="80" t="s">
         <v>611</v>
       </c>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="68"/>
       <c r="G56" s="69"/>
     </row>
     <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="73" t="s">
         <v>612</v>
       </c>
-      <c r="B57" s="72"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="68"/>
       <c r="G57" s="69"/>
     </row>
     <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="74" t="s">
+      <c r="A58" s="75" t="s">
         <v>613</v>
       </c>
-      <c r="B58" s="74"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
       <c r="F58" s="68"/>
       <c r="G58" s="69"/>
     </row>
     <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="72" t="s">
+      <c r="A59" s="73" t="s">
         <v>614</v>
       </c>
-      <c r="B59" s="72"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
       <c r="F59" s="68"/>
       <c r="G59" s="69"/>
     </row>
     <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="74" t="s">
+      <c r="A60" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="74"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
       <c r="F60" s="68"/>
       <c r="G60" s="69"/>
     </row>
     <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="72" t="s">
+      <c r="A61" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="72"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="68"/>
       <c r="G61" s="69"/>
     </row>
     <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="74" t="s">
+      <c r="A62" s="75" t="s">
         <v>544</v>
       </c>
-      <c r="B62" s="74"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
       <c r="F62" s="68"/>
       <c r="G62" s="69"/>
     </row>
     <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="72" t="s">
+      <c r="A63" s="73" t="s">
         <v>615</v>
       </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
       <c r="F63" s="68"/>
       <c r="G63" s="69"/>
     </row>
     <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="74" t="s">
+      <c r="A64" s="75" t="s">
         <v>616</v>
       </c>
-      <c r="B64" s="74"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
       <c r="F64" s="68"/>
       <c r="G64" s="69"/>
     </row>
     <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="73" t="s">
         <v>617</v>
       </c>
-      <c r="B65" s="72"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
       <c r="F65" s="68"/>
       <c r="G65" s="69"/>
     </row>
     <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="74" t="s">
+      <c r="A66" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="74"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
       <c r="F66" s="68"/>
       <c r="G66" s="69"/>
     </row>
     <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="72"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
       <c r="F67" s="68"/>
       <c r="G67" s="69"/>
     </row>
     <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="74" t="s">
+      <c r="A68" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="74"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
       <c r="F68" s="68"/>
       <c r="G68" s="69"/>
     </row>
     <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="72"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="68"/>
       <c r="G69" s="69"/>
     </row>
     <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="74" t="s">
+      <c r="A70" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="74"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="75"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
       <c r="F70" s="68"/>
       <c r="G70" s="69"/>
     </row>
     <row r="71" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="73" t="s">
         <v>618</v>
       </c>
-      <c r="B71" s="72"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
       <c r="F71" s="68"/>
       <c r="G71" s="69"/>
     </row>
@@ -5019,15 +5029,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="210.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5036,7 +5047,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="28">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>514</v>
@@ -5047,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>55</v>
@@ -5069,7 +5080,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>57</v>
@@ -5091,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>59</v>
@@ -5102,7 +5113,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>60</v>
@@ -5113,7 +5124,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>68</v>
@@ -5135,7 +5146,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>69</v>
@@ -5179,7 +5190,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>79</v>
@@ -5190,7 +5201,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>80</v>
@@ -5201,7 +5212,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>74</v>
@@ -5212,7 +5223,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>83</v>
@@ -5222,8 +5233,8 @@
       <c r="A18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>46</v>
+      <c r="B18" s="19">
+        <v>0</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>64</v>
@@ -5233,8 +5244,8 @@
       <c r="A19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="19">
-        <v>3</v>
+      <c r="B19" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>81</v>
@@ -5245,7 +5256,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>65</v>
@@ -5256,7 +5267,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>84</v>
@@ -5290,9 +5301,9 @@
       </c>
       <c r="B24" s="22" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6&amp;B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12&amp;B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18&amp;B19&amp;B20&amp;B21&amp;B22&amp;B23</f>
-        <v>23FRL0L1OSP000B322A311F0</v>
-      </c>
-      <c r="C24" s="96" t="s">
+        <v>17BRH0H0SSN000N0000N00F0</v>
+      </c>
+      <c r="C24" s="97" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5300,9 +5311,12 @@
       <c r="A25" s="21"/>
       <c r="B25" s="27">
         <f>Sheet1!F217/0.6</f>
-        <v>47533.40166666665</v>
-      </c>
-      <c r="C25" s="97"/>
+        <v>30527.006666666683</v>
+      </c>
+      <c r="C25" s="98"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="72"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5501,7 +5515,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="111" t="s">
         <v>273</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -5512,7 +5526,7 @@
       </c>
       <c r="D2" s="35">
         <f>IF('Selection List'!B1=17,75.16,IF('Selection List'!B1=23,87.28,IF('Selection List'!B1=30,97.52,"VEYY")))</f>
-        <v>87.28</v>
+        <v>75.16</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>92</v>
@@ -5522,11 +5536,11 @@
       </c>
       <c r="G2" s="46">
         <f>D2*F2</f>
-        <v>3927.6</v>
+        <v>3382.2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="33" t="s">
         <v>263</v>
       </c>
@@ -5535,7 +5549,7 @@
       </c>
       <c r="D3" s="35">
         <f>IF('Selection List'!B1=17,13.75,IF('Selection List'!B1=23,18.77,IF('Selection List'!B1=30,21.39,"VEYY")))</f>
-        <v>18.77</v>
+        <v>13.75</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>92</v>
@@ -5545,11 +5559,11 @@
       </c>
       <c r="G3" s="46">
         <f t="shared" ref="G3:G66" si="0">D3*F3</f>
-        <v>844.65</v>
+        <v>618.75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="33" t="s">
         <v>263</v>
       </c>
@@ -5558,7 +5572,7 @@
       </c>
       <c r="D4" s="35">
         <f>IF('Selection List'!B1=17,19.3,IF('Selection List'!B1=23,25.83,IF('Selection List'!B1=30,27.8,"VEYY")))</f>
-        <v>25.83</v>
+        <v>19.3</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>92</v>
@@ -5568,11 +5582,11 @@
       </c>
       <c r="G4" s="46">
         <f t="shared" si="0"/>
-        <v>1162.3499999999999</v>
+        <v>868.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -5597,7 +5611,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="37" t="s">
         <v>240</v>
       </c>
@@ -5606,7 +5620,7 @@
       </c>
       <c r="D6" s="34">
         <f>IF(AND('Selection List'!B1=17,'Selection List'!B4="H"),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>92</v>
@@ -5616,11 +5630,11 @@
       </c>
       <c r="G6" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="38" t="s">
         <v>242</v>
       </c>
@@ -5629,7 +5643,7 @@
       </c>
       <c r="D7" s="34">
         <f>IF(AND('Selection List'!B1=23,'Selection List'!B4="L"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>92</v>
@@ -5639,11 +5653,11 @@
       </c>
       <c r="G7" s="46">
         <f t="shared" si="0"/>
-        <v>6680</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="38" t="s">
         <v>244</v>
       </c>
@@ -5666,7 +5680,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5689,7 +5703,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="38" t="s">
         <v>93</v>
       </c>
@@ -5712,7 +5726,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="109" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="39" t="s">
@@ -5723,7 +5737,7 @@
       </c>
       <c r="D11" s="34" cm="1">
         <f t="array" ref="D11">IF('Selection List'!B17=2,0,IF('Selection List'!B1=17,3,IF('Selection List'!B1=23,4,IF('Selection List'!B1=30,5,veyy))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>92</v>
@@ -5733,11 +5747,11 @@
       </c>
       <c r="G11" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2437.1999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="39" t="s">
         <v>98</v>
       </c>
@@ -5746,7 +5760,7 @@
       </c>
       <c r="D12" s="34">
         <f>IF('Selection List'!B17=2,IF('Selection List'!B1=17,3,IF('Selection List'!B1=23,4,IF('Selection List'!B1=30,5,"0"))),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>92</v>
@@ -5756,7 +5770,7 @@
       </c>
       <c r="G12" s="46">
         <f t="shared" si="0"/>
-        <v>3832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5809,7 +5823,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="109" t="s">
         <v>103</v>
       </c>
       <c r="B15" s="40" t="s">
@@ -5820,7 +5834,7 @@
       </c>
       <c r="D15" s="34">
         <f>IF(AND('Selection List'!B1=17,(OR('Selection List'!B2="F",'Selection List'!B2="B"))),6,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>92</v>
@@ -5830,11 +5844,11 @@
       </c>
       <c r="G15" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74.52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="40" t="s">
         <v>249</v>
       </c>
@@ -5843,7 +5857,7 @@
       </c>
       <c r="D16" s="34">
         <f>IF(AND('Selection List'!B1=23,(OR('Selection List'!B2="F",'Selection List'!B2="B"))),8,0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>92</v>
@@ -5853,11 +5867,11 @@
       </c>
       <c r="G16" s="46">
         <f t="shared" si="0"/>
-        <v>93.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="39" t="s">
         <v>102</v>
       </c>
@@ -5880,7 +5894,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="40" t="s">
         <v>105</v>
       </c>
@@ -5903,7 +5917,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="40" t="s">
         <v>107</v>
       </c>
@@ -5926,7 +5940,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="109" t="s">
         <v>252</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -5950,7 +5964,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="37" t="s">
         <v>112</v>
       </c>
@@ -5959,7 +5973,7 @@
       </c>
       <c r="D21" s="34">
         <f>IF('Selection List'!B1=17,7,IF('Selection List'!B1=23,8.5,IF('Selection List'!B1=30,10,"VEYY")))</f>
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>111</v>
@@ -5969,11 +5983,11 @@
       </c>
       <c r="G21" s="46">
         <f t="shared" si="0"/>
-        <v>65.365000000000009</v>
+        <v>53.830000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="37" t="s">
         <v>114</v>
       </c>
@@ -5982,7 +5996,7 @@
       </c>
       <c r="D22" s="34">
         <f>IF('Selection List'!B1=17,19,IF('Selection List'!B1=23,20.5,IF('Selection List'!B1=30,22,"VEYY")))</f>
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>111</v>
@@ -5992,11 +6006,11 @@
       </c>
       <c r="G22" s="46">
         <f t="shared" si="0"/>
-        <v>155.595</v>
+        <v>144.21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="37" t="s">
         <v>116</v>
       </c>
@@ -6005,7 +6019,7 @@
       </c>
       <c r="D23" s="34">
         <f>IF('Selection List'!B1=17,31,IF('Selection List'!B1=23,34.5,IF('Selection List'!B1=30,38,"VEYY")))</f>
-        <v>34.5</v>
+        <v>31</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>111</v>
@@ -6015,11 +6029,11 @@
       </c>
       <c r="G23" s="46">
         <f t="shared" si="0"/>
-        <v>183.19499999999999</v>
+        <v>164.60999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="37" t="s">
         <v>118</v>
       </c>
@@ -6028,7 +6042,7 @@
       </c>
       <c r="D24" s="34">
         <f>IF('Selection List'!B1=17,14,IF('Selection List'!B1=23,17,IF('Selection List'!B1=30,20,"VEYY")))</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E24" s="34" t="s">
         <v>111</v>
@@ -6038,11 +6052,11 @@
       </c>
       <c r="G24" s="46">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="37" t="s">
         <v>120</v>
       </c>
@@ -6051,7 +6065,7 @@
       </c>
       <c r="D25" s="34">
         <f>IF('Selection List'!B1=17,4,IF('Selection List'!B1=23,6,IF('Selection List'!B1=30,8,"VEYY")))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25" s="34" t="s">
         <v>92</v>
@@ -6061,11 +6075,11 @@
       </c>
       <c r="G25" s="46">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="37" t="s">
         <v>122</v>
       </c>
@@ -6074,7 +6088,7 @@
       </c>
       <c r="D26" s="34">
         <f>IF('Selection List'!B1=17,58,IF('Selection List'!B1=23,59,IF('Selection List'!B1=30,60,"VEYY")))</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="34" t="s">
         <v>92</v>
@@ -6084,11 +6098,11 @@
       </c>
       <c r="G26" s="46">
         <f t="shared" si="0"/>
-        <v>47.790000000000006</v>
+        <v>46.980000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="37" t="s">
         <v>124</v>
       </c>
@@ -6097,7 +6111,7 @@
       </c>
       <c r="D27" s="34">
         <f>IF('Selection List'!B1=17,289.2,IF('Selection List'!B1=23,319.2,IF('Selection List'!B1=30,349.2,"VEYY")))</f>
-        <v>319.2</v>
+        <v>289.2</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>126</v>
@@ -6107,11 +6121,11 @@
       </c>
       <c r="G27" s="46">
         <f t="shared" si="0"/>
-        <v>341.54399999999998</v>
+        <v>309.44400000000002</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
+      <c r="A28" s="109"/>
       <c r="B28" s="37" t="s">
         <v>127</v>
       </c>
@@ -6120,7 +6134,7 @@
       </c>
       <c r="D28" s="34">
         <f>IF('Selection List'!B1=17,89,IF('Selection List'!B1=23,97.9,IF('Selection List'!B1=30,106.8,"VEYY")))</f>
-        <v>97.9</v>
+        <v>89</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>111</v>
@@ -6130,11 +6144,11 @@
       </c>
       <c r="G28" s="46">
         <f t="shared" si="0"/>
-        <v>303.49</v>
+        <v>275.90000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
+      <c r="A29" s="109"/>
       <c r="B29" s="37" t="s">
         <v>129</v>
       </c>
@@ -6143,7 +6157,7 @@
       </c>
       <c r="D29" s="34">
         <f>IF('Selection List'!B1=17,23,IF('Selection List'!B1=23,25.3,IF('Selection List'!B1=30,27.6,"VEYY")))</f>
-        <v>25.3</v>
+        <v>23</v>
       </c>
       <c r="E29" s="34" t="s">
         <v>111</v>
@@ -6153,11 +6167,11 @@
       </c>
       <c r="G29" s="46">
         <f t="shared" si="0"/>
-        <v>61.731999999999999</v>
+        <v>56.12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="108"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="37" t="s">
         <v>131</v>
       </c>
@@ -6166,7 +6180,7 @@
       </c>
       <c r="D30" s="34">
         <f>IF('Selection List'!B1=17,204,IF('Selection List'!B1=23,241,IF('Selection List'!B1=30,292,"VEYY")))</f>
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="E30" s="34" t="s">
         <v>126</v>
@@ -6176,11 +6190,11 @@
       </c>
       <c r="G30" s="46">
         <f t="shared" si="0"/>
-        <v>190.39000000000001</v>
+        <v>161.16</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
+      <c r="A31" s="109"/>
       <c r="B31" s="37" t="s">
         <v>133</v>
       </c>
@@ -6189,7 +6203,7 @@
       </c>
       <c r="D31" s="34">
         <f>IF('Selection List'!B1=17,30,IF('Selection List'!B1=23,45,IF('Selection List'!B1=30,60,"VEYY")))</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>135</v>
@@ -6199,20 +6213,20 @@
       </c>
       <c r="G31" s="46">
         <f t="shared" si="0"/>
-        <v>143.1</v>
+        <v>95.4</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="47" t="s">
         <v>516</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="D32" s="34" t="str">
+      <c r="D32" s="34">
         <f>IF(AND('Selection List'!B1=30,OR('Selection List'!B2="B",'Selection List'!B2="M"),'Selection List'!B22="F"),3,IF(AND('Selection List'!B1=30,OR('Selection List'!B2="B",'Selection List'!B2="M"),'Selection List'!B22="B"),4,IF(AND('Selection List'!B1=30,OR('Selection List'!B2="B",'Selection List'!B2="M"),'Selection List'!B22="A"),6,IF(AND('Selection List'!B1=23,OR('Selection List'!B2="B",'Selection List'!B2="M"),'Selection List'!B22="F"),2,IF(AND('Selection List'!B1=23,OR('Selection List'!B2="B",'Selection List'!B2="M"),'Selection List'!B22="B"),3,IF(AND('Selection List'!B1=23,OR('Selection List'!B2="B",'Selection List'!B2="M"),'Selection List'!B22="A"),5,IF(AND('Selection List'!B1=17,OR('Selection List'!B2="B",'Selection List'!B2="M"),'Selection List'!B22="F"),2,IF(AND('Selection List'!B1=17,OR('Selection List'!B2="B",'Selection List'!B2="M"),'Selection List'!B22="B"),3,IF(AND('Selection List'!B1=17,OR('Selection List'!B2="B",'Selection List'!B2="M"),'Selection List'!B22="A"),4,"0")))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="34" t="s">
         <v>92</v>
@@ -6222,11 +6236,11 @@
       </c>
       <c r="G32" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>102.24</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
+      <c r="A33" s="109"/>
       <c r="B33" s="47" t="s">
         <v>517</v>
       </c>
@@ -6235,7 +6249,7 @@
       </c>
       <c r="D33" s="34">
         <f>IF(AND('Selection List'!B1=30,'Selection List'!B2="F"),5,IF(AND('Selection List'!B1=23,'Selection List'!B2="F"),4,IF(AND('Selection List'!B1=17,'Selection List'!B2="F"),3,0)))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E33" s="34" t="s">
         <v>92</v>
@@ -6245,11 +6259,11 @@
       </c>
       <c r="G33" s="46">
         <f t="shared" si="0"/>
-        <v>237.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="108"/>
+      <c r="A34" s="109"/>
       <c r="B34" s="37" t="s">
         <v>136</v>
       </c>
@@ -6258,7 +6272,7 @@
       </c>
       <c r="D34" s="34">
         <f>IF('Selection List'!B1=17,18,IF('Selection List'!B1=23,54,IF('Selection List'!B1=30,90,"VEYY")))</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E34" s="34" t="s">
         <v>126</v>
@@ -6268,11 +6282,11 @@
       </c>
       <c r="G34" s="46">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="108"/>
+      <c r="A35" s="109"/>
       <c r="B35" s="37" t="s">
         <v>138</v>
       </c>
@@ -6281,7 +6295,7 @@
       </c>
       <c r="D35" s="34">
         <f>IF('Selection List'!B1=17,11,IF('Selection List'!B1=23,17.5,IF('Selection List'!B1=30,24,"VEYY")))</f>
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="E35" s="34" t="s">
         <v>126</v>
@@ -6291,11 +6305,11 @@
       </c>
       <c r="G35" s="46">
         <f t="shared" si="0"/>
-        <v>73.849999999999994</v>
+        <v>46.419999999999995</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
+      <c r="A36" s="109"/>
       <c r="B36" s="37" t="s">
         <v>140</v>
       </c>
@@ -6317,7 +6331,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="37" t="s">
         <v>142</v>
       </c>
@@ -6339,7 +6353,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
+      <c r="A38" s="109"/>
       <c r="B38" s="37" t="s">
         <v>144</v>
       </c>
@@ -6361,7 +6375,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
+      <c r="A39" s="109"/>
       <c r="B39" s="39" t="s">
         <v>146</v>
       </c>
@@ -6370,7 +6384,7 @@
       </c>
       <c r="D39" s="34">
         <f>IF('Selection List'!B1=17,9,IF('Selection List'!B1=23,12,IF('Selection List'!B1=30,15,"VEYY")))</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E39" s="34" t="s">
         <v>92</v>
@@ -6380,11 +6394,11 @@
       </c>
       <c r="G39" s="46">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
+      <c r="A40" s="109"/>
       <c r="B40" s="39" t="s">
         <v>148</v>
       </c>
@@ -6393,7 +6407,7 @@
       </c>
       <c r="D40" s="34">
         <f>IF('Selection List'!B1=17,6,IF('Selection List'!B1=23,8,IF('Selection List'!B1=30,10,"VEYY")))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E40" s="34" t="s">
         <v>92</v>
@@ -6403,11 +6417,11 @@
       </c>
       <c r="G40" s="46">
         <f t="shared" si="0"/>
-        <v>131.52000000000001</v>
+        <v>98.640000000000015</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
+      <c r="A41" s="109"/>
       <c r="B41" s="37" t="s">
         <v>150</v>
       </c>
@@ -6429,7 +6443,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
+      <c r="A42" s="109"/>
       <c r="B42" s="37" t="s">
         <v>172</v>
       </c>
@@ -6438,7 +6452,7 @@
       </c>
       <c r="D42" s="33">
         <f>IF('Selection List'!B1=17,6,IF('Selection List'!B1=23,9,IF('Selection List'!B1=30,12,"VEYY")))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E42" s="34" t="s">
         <v>92</v>
@@ -6448,11 +6462,11 @@
       </c>
       <c r="G42" s="46">
         <f t="shared" si="0"/>
-        <v>85.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
+      <c r="A43" s="109"/>
       <c r="B43" s="37" t="s">
         <v>174</v>
       </c>
@@ -6461,7 +6475,7 @@
       </c>
       <c r="D43" s="33">
         <f>IF('Selection List'!B1=17,2,IF('Selection List'!B1=23,3,IF('Selection List'!B1=30,4,"VEYY")))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" s="34" t="s">
         <v>92</v>
@@ -6471,11 +6485,11 @@
       </c>
       <c r="G43" s="46">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
+      <c r="A44" s="109"/>
       <c r="B44" s="37" t="s">
         <v>176</v>
       </c>
@@ -6484,7 +6498,7 @@
       </c>
       <c r="D44" s="34">
         <f>IF('Selection List'!B1=17,2,IF('Selection List'!B1=23,3,IF('Selection List'!B1=30,4,"VEYY")))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" s="34" t="s">
         <v>92</v>
@@ -6494,11 +6508,11 @@
       </c>
       <c r="G44" s="46">
         <f t="shared" si="0"/>
-        <v>3.96</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="37" t="s">
         <v>178</v>
       </c>
@@ -6507,7 +6521,7 @@
       </c>
       <c r="D45" s="34">
         <f>IF('Selection List'!B1=17,6,IF('Selection List'!B1=23,9,IF('Selection List'!B1=30,12,"VEYY")))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E45" s="34" t="s">
         <v>92</v>
@@ -6517,11 +6531,11 @@
       </c>
       <c r="G45" s="46">
         <f t="shared" si="0"/>
-        <v>8.64</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="108"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="37" t="s">
         <v>180</v>
       </c>
@@ -6530,7 +6544,7 @@
       </c>
       <c r="D46" s="34">
         <f>IF('Selection List'!B1=17,6,IF('Selection List'!B1=23,9,IF('Selection List'!B1=30,12,"VEYY")))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E46" s="34" t="s">
         <v>92</v>
@@ -6540,11 +6554,11 @@
       </c>
       <c r="G46" s="46">
         <f t="shared" si="0"/>
-        <v>16.11</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
+      <c r="A47" s="109"/>
       <c r="B47" s="37" t="s">
         <v>192</v>
       </c>
@@ -6553,7 +6567,7 @@
       </c>
       <c r="D47" s="34">
         <f>IF('Selection List'!B1=17,10,IF('Selection List'!B1=23,15,IF('Selection List'!B1=30,20,"VEYY")))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E47" s="34" t="s">
         <v>92</v>
@@ -6563,11 +6577,11 @@
       </c>
       <c r="G47" s="46">
         <f t="shared" si="0"/>
-        <v>26.1</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="108"/>
+      <c r="A48" s="109"/>
       <c r="B48" s="39" t="s">
         <v>218</v>
       </c>
@@ -6589,7 +6603,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="108"/>
+      <c r="A49" s="109"/>
       <c r="B49" s="39" t="s">
         <v>220</v>
       </c>
@@ -6611,7 +6625,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="108"/>
+      <c r="A50" s="109"/>
       <c r="B50" s="39" t="s">
         <v>222</v>
       </c>
@@ -6633,7 +6647,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="110" t="s">
         <v>254</v>
       </c>
       <c r="B51" s="39" t="s">
@@ -6644,7 +6658,7 @@
       </c>
       <c r="D51" s="34">
         <f>IF('Selection List'!B1=17,0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51" s="34" t="s">
         <v>92</v>
@@ -6654,11 +6668,11 @@
       </c>
       <c r="G51" s="46">
         <f t="shared" si="0"/>
-        <v>311.39999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
+      <c r="A52" s="110"/>
       <c r="B52" s="39" t="s">
         <v>154</v>
       </c>
@@ -6667,7 +6681,7 @@
       </c>
       <c r="D52" s="34">
         <f>IF('Selection List'!B1=17,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="34" t="s">
         <v>92</v>
@@ -6677,11 +6691,11 @@
       </c>
       <c r="G52" s="46">
         <f t="shared" si="0"/>
-        <v>261.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="109"/>
+      <c r="A53" s="110"/>
       <c r="B53" s="39" t="s">
         <v>156</v>
       </c>
@@ -6690,7 +6704,7 @@
       </c>
       <c r="D53" s="34">
         <f>IF('Selection List'!B1=17,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="34" t="s">
         <v>92</v>
@@ -6700,11 +6714,11 @@
       </c>
       <c r="G53" s="46">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="109"/>
+      <c r="A54" s="110"/>
       <c r="B54" s="47" t="s">
         <v>518</v>
       </c>
@@ -6727,7 +6741,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
+      <c r="A55" s="110"/>
       <c r="B55" s="47" t="s">
         <v>518</v>
       </c>
@@ -6750,7 +6764,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="109"/>
+      <c r="A56" s="110"/>
       <c r="B56" s="47" t="s">
         <v>518</v>
       </c>
@@ -6773,7 +6787,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="109"/>
+      <c r="A57" s="110"/>
       <c r="B57" s="39" t="s">
         <v>158</v>
       </c>
@@ -6782,7 +6796,7 @@
       </c>
       <c r="D57" s="34">
         <f>IF('Selection List'!B1=17,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="34" t="s">
         <v>92</v>
@@ -6792,11 +6806,11 @@
       </c>
       <c r="G57" s="46">
         <f t="shared" si="0"/>
-        <v>253.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
+      <c r="A58" s="110"/>
       <c r="B58" s="37" t="s">
         <v>160</v>
       </c>
@@ -6805,7 +6819,7 @@
       </c>
       <c r="D58" s="34">
         <f>IF('Selection List'!B1=17,0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E58" s="34" t="s">
         <v>92</v>
@@ -6815,11 +6829,11 @@
       </c>
       <c r="G58" s="46">
         <f t="shared" si="0"/>
-        <v>22.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
+      <c r="A59" s="110"/>
       <c r="B59" s="39" t="s">
         <v>162</v>
       </c>
@@ -6828,7 +6842,7 @@
       </c>
       <c r="D59" s="34">
         <f>IF('Selection List'!B1=17,0,2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59" s="34" t="s">
         <v>92</v>
@@ -6838,11 +6852,11 @@
       </c>
       <c r="G59" s="46">
         <f t="shared" si="0"/>
-        <v>20.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
+      <c r="A60" s="110"/>
       <c r="B60" s="39" t="s">
         <v>164</v>
       </c>
@@ -6851,7 +6865,7 @@
       </c>
       <c r="D60" s="34">
         <f>IF('Selection List'!B1=17,0,8)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E60" s="34" t="s">
         <v>92</v>
@@ -6861,11 +6875,11 @@
       </c>
       <c r="G60" s="46">
         <f t="shared" si="0"/>
-        <v>8.9600000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
+      <c r="A61" s="110"/>
       <c r="B61" s="37" t="s">
         <v>224</v>
       </c>
@@ -6874,7 +6888,7 @@
       </c>
       <c r="D61" s="34">
         <f>IF('Selection List'!B1=17,2,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61" s="34" t="s">
         <v>92</v>
@@ -6884,11 +6898,11 @@
       </c>
       <c r="G61" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>255.86</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="109"/>
+      <c r="A62" s="110"/>
       <c r="B62" s="37" t="s">
         <v>226</v>
       </c>
@@ -6897,7 +6911,7 @@
       </c>
       <c r="D62" s="34">
         <f>IF('Selection List'!B1=17,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="34" t="s">
         <v>92</v>
@@ -6907,11 +6921,11 @@
       </c>
       <c r="G62" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>184.3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="109"/>
+      <c r="A63" s="110"/>
       <c r="B63" s="45" t="s">
         <v>228</v>
       </c>
@@ -6920,7 +6934,7 @@
       </c>
       <c r="D63" s="34">
         <f>IF('Selection List'!B1=17,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="34" t="s">
         <v>92</v>
@@ -6930,11 +6944,11 @@
       </c>
       <c r="G63" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>185.41</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="109"/>
+      <c r="A64" s="110"/>
       <c r="B64" s="47" t="s">
         <v>518</v>
       </c>
@@ -6943,7 +6957,7 @@
       </c>
       <c r="D64" s="34">
         <f>IF(AND('Selection List'!B1=17,OR('Selection List'!B10=3,'Selection List'!B10="N")),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="34" t="s">
         <v>92</v>
@@ -6953,11 +6967,11 @@
       </c>
       <c r="G64" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>248.68</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="109"/>
+      <c r="A65" s="110"/>
       <c r="B65" s="47" t="s">
         <v>518</v>
       </c>
@@ -6980,7 +6994,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="109"/>
+      <c r="A66" s="110"/>
       <c r="B66" s="47" t="s">
         <v>518</v>
       </c>
@@ -7003,7 +7017,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="109"/>
+      <c r="A67" s="110"/>
       <c r="B67" s="37" t="s">
         <v>230</v>
       </c>
@@ -7012,7 +7026,7 @@
       </c>
       <c r="D67" s="34">
         <f>IF('Selection List'!B1=17,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="34" t="s">
         <v>92</v>
@@ -7022,11 +7036,11 @@
       </c>
       <c r="G67" s="46">
         <f t="shared" ref="G67:G128" si="1">D67*F67</f>
-        <v>0</v>
+        <v>193.42</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="109"/>
+      <c r="A68" s="110"/>
       <c r="B68" s="37" t="s">
         <v>224</v>
       </c>
@@ -7035,7 +7049,7 @@
       </c>
       <c r="D68" s="34">
         <f>IF('Selection List'!B1=17,2,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>92</v>
@@ -7045,11 +7059,11 @@
       </c>
       <c r="G68" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>255.86</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="109"/>
+      <c r="A69" s="110"/>
       <c r="B69" s="37" t="s">
         <v>233</v>
       </c>
@@ -7058,7 +7072,7 @@
       </c>
       <c r="D69" s="34">
         <f>IF('Selection List'!B1=17,2,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>92</v>
@@ -7068,11 +7082,11 @@
       </c>
       <c r="G69" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="109"/>
+      <c r="A70" s="110"/>
       <c r="B70" s="37" t="s">
         <v>235</v>
       </c>
@@ -7081,7 +7095,7 @@
       </c>
       <c r="D70" s="34">
         <f>IF('Selection List'!B1=17,8,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>92</v>
@@ -7091,11 +7105,11 @@
       </c>
       <c r="G70" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="109"/>
+      <c r="A71" s="110"/>
       <c r="B71" s="37" t="s">
         <v>166</v>
       </c>
@@ -7117,7 +7131,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="109"/>
+      <c r="A72" s="110"/>
       <c r="B72" s="37" t="s">
         <v>168</v>
       </c>
@@ -7139,7 +7153,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="109"/>
+      <c r="A73" s="110"/>
       <c r="B73" s="37" t="s">
         <v>170</v>
       </c>
@@ -7148,7 +7162,7 @@
       </c>
       <c r="D73" s="33">
         <f>IF('Selection List'!B1=17,0,8)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E73" s="34" t="s">
         <v>92</v>
@@ -7158,11 +7172,11 @@
       </c>
       <c r="G73" s="46">
         <f t="shared" si="1"/>
-        <v>9.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="109"/>
+      <c r="A74" s="110"/>
       <c r="B74" s="47" t="s">
         <v>519</v>
       </c>
@@ -7171,7 +7185,7 @@
       </c>
       <c r="D74" s="33">
         <f>IF('Selection List'!B1=17,8,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E74" s="34" t="s">
         <v>92</v>
@@ -7181,11 +7195,11 @@
       </c>
       <c r="G74" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="109"/>
+      <c r="A75" s="110"/>
       <c r="B75" s="39" t="s">
         <v>196</v>
       </c>
@@ -7207,7 +7221,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="109"/>
+      <c r="A76" s="110"/>
       <c r="B76" s="39" t="s">
         <v>198</v>
       </c>
@@ -7229,7 +7243,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="109"/>
+      <c r="A77" s="110"/>
       <c r="B77" s="39" t="s">
         <v>200</v>
       </c>
@@ -7251,7 +7265,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="109"/>
+      <c r="A78" s="110"/>
       <c r="B78" s="39" t="s">
         <v>202</v>
       </c>
@@ -7273,7 +7287,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="109"/>
+      <c r="A79" s="110"/>
       <c r="B79" s="39" t="s">
         <v>204</v>
       </c>
@@ -7295,7 +7309,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="109"/>
+      <c r="A80" s="110"/>
       <c r="B80" s="39" t="s">
         <v>206</v>
       </c>
@@ -7317,7 +7331,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="109"/>
+      <c r="A81" s="110"/>
       <c r="B81" s="39" t="s">
         <v>208</v>
       </c>
@@ -7339,7 +7353,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="109"/>
+      <c r="A82" s="110"/>
       <c r="B82" s="39" t="s">
         <v>210</v>
       </c>
@@ -7361,7 +7375,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="109"/>
+      <c r="A83" s="110"/>
       <c r="B83" s="39" t="s">
         <v>212</v>
       </c>
@@ -7383,7 +7397,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="109"/>
+      <c r="A84" s="110"/>
       <c r="B84" s="39" t="s">
         <v>214</v>
       </c>
@@ -7405,7 +7419,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="109"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="39" t="s">
         <v>216</v>
       </c>
@@ -7427,7 +7441,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="109" t="s">
+      <c r="A86" s="110" t="s">
         <v>270</v>
       </c>
       <c r="B86" s="37" t="s">
@@ -7452,7 +7466,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="109"/>
+      <c r="A87" s="110"/>
       <c r="B87" s="37" t="s">
         <v>267</v>
       </c>
@@ -7461,7 +7475,7 @@
       </c>
       <c r="D87" s="34">
         <f>IF(AND('Selection List'!B1=23,'Selection List'!B7=1),2,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E87" s="34" t="s">
         <v>92</v>
@@ -7471,11 +7485,11 @@
       </c>
       <c r="G87" s="46">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="109"/>
+      <c r="A88" s="110"/>
       <c r="B88" s="37" t="s">
         <v>269</v>
       </c>
@@ -7498,7 +7512,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="108" t="s">
+      <c r="A89" s="109" t="s">
         <v>253</v>
       </c>
       <c r="B89" s="39" t="s">
@@ -7509,7 +7523,7 @@
       </c>
       <c r="D89" s="34">
         <f>IF(AND('Selection List'!B1=30,OR('Selection List'!B2="B",'Selection List'!B2="M")),3,IF(AND('Selection List'!B1=23,OR('Selection List'!B2="B",'Selection List'!B2="M")),3,IF(AND('Selection List'!B1=17,OR('Selection List'!B2="B",'Selection List'!B2="M")),2,0)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E89" s="34" t="s">
         <v>92</v>
@@ -7519,11 +7533,11 @@
       </c>
       <c r="G89" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.78</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="108"/>
+      <c r="A90" s="109"/>
       <c r="B90" s="39" t="s">
         <v>184</v>
       </c>
@@ -7532,7 +7546,7 @@
       </c>
       <c r="D90" s="34">
         <f>IF('Selection List'!B2="F",2,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E90" s="34" t="s">
         <v>92</v>
@@ -7542,11 +7556,11 @@
       </c>
       <c r="G90" s="46">
         <f t="shared" si="1"/>
-        <v>8.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="108"/>
+      <c r="A91" s="109"/>
       <c r="B91" s="39" t="s">
         <v>186</v>
       </c>
@@ -7555,7 +7569,7 @@
       </c>
       <c r="D91" s="34">
         <f>IF(AND('Selection List'!B1=30,OR('Selection List'!B2="B",'Selection List'!B2="M")),1,IF(AND('Selection List'!B1=23,OR('Selection List'!B2="B",'Selection List'!B2="M")),2,IF(AND('Selection List'!B1=17,OR('Selection List'!B2="B",'Selection List'!B2="M")),1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="34" t="s">
         <v>92</v>
@@ -7565,11 +7579,11 @@
       </c>
       <c r="G91" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="108"/>
+      <c r="A92" s="109"/>
       <c r="B92" s="39" t="s">
         <v>188</v>
       </c>
@@ -7578,7 +7592,7 @@
       </c>
       <c r="D92" s="34">
         <f>IF(AND('Selection List'!B1=30,OR('Selection List'!B2="B",'Selection List'!B2="M")),5,IF(AND('Selection List'!B1=23,OR('Selection List'!B2="B",'Selection List'!B2="M")),4,IF(AND('Selection List'!B1=17,OR('Selection List'!B2="B",'Selection List'!B2="M")),3,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E92" s="34" t="s">
         <v>92</v>
@@ -7588,11 +7602,11 @@
       </c>
       <c r="G92" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="108"/>
+      <c r="A93" s="109"/>
       <c r="B93" s="39" t="s">
         <v>190</v>
       </c>
@@ -7614,7 +7628,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="108"/>
+      <c r="A94" s="109"/>
       <c r="B94" s="39" t="s">
         <v>194</v>
       </c>
@@ -7634,7 +7648,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="108"/>
+      <c r="A95" s="109"/>
       <c r="B95" s="47" t="s">
         <v>520</v>
       </c>
@@ -7643,7 +7657,7 @@
       </c>
       <c r="D95" s="33">
         <f>IF('Selection List'!B8="S",2,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E95" s="34" t="s">
         <v>92</v>
@@ -7653,11 +7667,11 @@
       </c>
       <c r="G95" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="108"/>
+      <c r="A96" s="109"/>
       <c r="B96" s="47" t="s">
         <v>521</v>
       </c>
@@ -7666,7 +7680,7 @@
       </c>
       <c r="D96" s="33">
         <f>IF(OR('Selection List'!B10="E",'Selection List'!B10="P"),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="34" t="s">
         <v>92</v>
@@ -7676,11 +7690,11 @@
       </c>
       <c r="G96" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A97" s="108"/>
+      <c r="A97" s="109"/>
       <c r="B97" s="37" t="s">
         <v>275</v>
       </c>
@@ -7703,7 +7717,7 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A98" s="108"/>
+      <c r="A98" s="109"/>
       <c r="B98" s="37" t="s">
         <v>276</v>
       </c>
@@ -7712,7 +7726,7 @@
       </c>
       <c r="D98" s="33">
         <f>IF(AND('Selection List'!B1=30,'Selection List'!B2="F"),2,IF(AND('Selection List'!B1=30,'Selection List'!B2="M"),3,IF(AND('Selection List'!B1=30,'Selection List'!B2="B"),3,IF(AND('Selection List'!B1=23,'Selection List'!B2="F"),3,IF(AND('Selection List'!B1=23,'Selection List'!B2="M"),3,IF(AND('Selection List'!B1=23,'Selection List'!B2="B"),3,IF(AND('Selection List'!B1=17,'Selection List'!B2="F"),3,IF(AND('Selection List'!B1=17,'Selection List'!B2="M"),2,IF(AND('Selection List'!B1=17,'Selection List'!B2="B"),4,"VEYY")))))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E98" s="34" t="s">
         <v>92</v>
@@ -7722,11 +7736,11 @@
       </c>
       <c r="G98" s="46">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="108"/>
+      <c r="A99" s="109"/>
       <c r="B99" s="37" t="s">
         <v>277</v>
       </c>
@@ -7735,7 +7749,7 @@
       </c>
       <c r="D99" s="33">
         <f>IF(AND('Selection List'!B1=30,'Selection List'!B2="F"),2,IF(AND('Selection List'!B1=30,'Selection List'!B2="M"),3,IF(AND('Selection List'!B1=30,'Selection List'!B2="B"),2,IF(AND('Selection List'!B1=23,'Selection List'!B2="F"),1,IF(AND('Selection List'!B1=23,'Selection List'!B2="M"),3,IF(AND('Selection List'!B1=23,'Selection List'!B2="B"),2,IF(AND('Selection List'!B1=17,'Selection List'!B2="F"),2,IF(AND('Selection List'!B1=17,'Selection List'!B2="M"),4,IF(AND('Selection List'!B1=17,'Selection List'!B2="B"),2,"VEYY")))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" s="34" t="s">
         <v>92</v>
@@ -7745,11 +7759,11 @@
       </c>
       <c r="G99" s="46">
         <f t="shared" si="1"/>
-        <v>61.6</v>
+        <v>123.2</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A100" s="108"/>
+      <c r="A100" s="109"/>
       <c r="B100" s="37" t="s">
         <v>278</v>
       </c>
@@ -7758,7 +7772,7 @@
       </c>
       <c r="D100" s="33">
         <f>IF(AND('Selection List'!B1=30,'Selection List'!B2="F"),1,IF(AND('Selection List'!B1=30,'Selection List'!B2="M"),1,IF(AND('Selection List'!B1=30,'Selection List'!B2="B"),1,IF(AND('Selection List'!B1=23,'Selection List'!B2="F"),1,IF(AND('Selection List'!B1=23,'Selection List'!B2="M"),1,IF(AND('Selection List'!B1=23,'Selection List'!B2="B"),1,IF(AND('Selection List'!B1=17,'Selection List'!B2="F"),0,IF(AND('Selection List'!B1=17,'Selection List'!B2="M"),0,IF(AND('Selection List'!B1=17,'Selection List'!B2="B"),0,"VEYY")))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="34" t="s">
         <v>92</v>
@@ -7768,11 +7782,11 @@
       </c>
       <c r="G100" s="46">
         <f t="shared" si="1"/>
-        <v>73.849999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A101" s="108"/>
+      <c r="A101" s="109"/>
       <c r="B101" s="37" t="s">
         <v>279</v>
       </c>
@@ -7781,7 +7795,7 @@
       </c>
       <c r="D101" s="33">
         <f>IF('Selection List'!B1=17,5,IF('Selection List'!B1=23,6,IF('Selection List'!B1=30,7,"veyy")))+IF('Selection List'!B8="O",2,0)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E101" s="34" t="s">
         <v>92</v>
@@ -7791,11 +7805,11 @@
       </c>
       <c r="G101" s="46">
         <f t="shared" si="1"/>
-        <v>91.44</v>
+        <v>57.15</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A102" s="108"/>
+      <c r="A102" s="109"/>
       <c r="B102" s="37" t="s">
         <v>280</v>
       </c>
@@ -7804,7 +7818,7 @@
       </c>
       <c r="D102" s="33">
         <f>IF('Selection List'!B1=17,6,IF('Selection List'!B1=23,7,IF('Selection List'!B1=30,8,"veyy")))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E102" s="34" t="s">
         <v>92</v>
@@ -7814,11 +7828,11 @@
       </c>
       <c r="G102" s="46">
         <f t="shared" si="1"/>
-        <v>115.85000000000001</v>
+        <v>99.300000000000011</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="108"/>
+      <c r="A103" s="109"/>
       <c r="B103" s="37" t="s">
         <v>281</v>
       </c>
@@ -7827,7 +7841,7 @@
       </c>
       <c r="D103" s="33">
         <f>IF('Selection List'!B1=17,3,IF('Selection List'!B1=23,4,IF('Selection List'!B1=30,5,"veyy")))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E103" s="34" t="s">
         <v>92</v>
@@ -7837,11 +7851,11 @@
       </c>
       <c r="G103" s="46">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A104" s="108"/>
+      <c r="A104" s="109"/>
       <c r="B104" s="37" t="s">
         <v>282</v>
       </c>
@@ -7850,7 +7864,7 @@
       </c>
       <c r="D104" s="33">
         <f>IF('Selection List'!B1=17,5,IF('Selection List'!B1=23,6,IF('Selection List'!B1=30,7,"veyy")))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E104" s="34" t="s">
         <v>92</v>
@@ -7860,11 +7874,11 @@
       </c>
       <c r="G104" s="46">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A105" s="108"/>
+      <c r="A105" s="109"/>
       <c r="B105" s="37" t="s">
         <v>299</v>
       </c>
@@ -7900,7 +7914,7 @@
       <c r="U105" s="30"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A106" s="108"/>
+      <c r="A106" s="109"/>
       <c r="B106" s="37" t="s">
         <v>283</v>
       </c>
@@ -7909,7 +7923,7 @@
       </c>
       <c r="D106" s="33">
         <f>IF('Selection List'!B1=17,6,IF('Selection List'!B1=23,7,IF('Selection List'!B1=30,8,"veyy")))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E106" s="34" t="s">
         <v>92</v>
@@ -7919,11 +7933,11 @@
       </c>
       <c r="G106" s="46">
         <f t="shared" si="1"/>
-        <v>112.84</v>
+        <v>96.72</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="108"/>
+      <c r="A107" s="109"/>
       <c r="B107" s="37" t="s">
         <v>495</v>
       </c>
@@ -7946,7 +7960,7 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A108" s="108"/>
+      <c r="A108" s="109"/>
       <c r="B108" s="37" t="s">
         <v>284</v>
       </c>
@@ -7955,7 +7969,7 @@
       </c>
       <c r="D108" s="33">
         <f>IF('Selection List'!B8="O",2,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E108" s="34" t="s">
         <v>92</v>
@@ -7965,11 +7979,11 @@
       </c>
       <c r="G108" s="46">
         <f t="shared" si="1"/>
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A109" s="108"/>
+      <c r="A109" s="109"/>
       <c r="B109" s="37" t="s">
         <v>285</v>
       </c>
@@ -7978,7 +7992,7 @@
       </c>
       <c r="D109" s="33">
         <f>IF('Selection List'!B1=17,4,IF('Selection List'!B1=23,5,IF('Selection List'!B1=30,6,"veyy")))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109" s="34" t="s">
         <v>92</v>
@@ -7988,11 +8002,11 @@
       </c>
       <c r="G109" s="46">
         <f t="shared" si="1"/>
-        <v>78.949999999999989</v>
+        <v>63.16</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A110" s="108"/>
+      <c r="A110" s="109"/>
       <c r="B110" s="37" t="s">
         <v>286</v>
       </c>
@@ -8014,7 +8028,7 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A111" s="101" t="s">
+      <c r="A111" s="102" t="s">
         <v>508</v>
       </c>
       <c r="B111" s="47" t="s">
@@ -8039,7 +8053,7 @@
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A112" s="102"/>
+      <c r="A112" s="103"/>
       <c r="B112" s="47" t="s">
         <v>523</v>
       </c>
@@ -8062,7 +8076,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="102"/>
+      <c r="A113" s="103"/>
       <c r="B113" s="37" t="s">
         <v>450</v>
       </c>
@@ -8071,7 +8085,7 @@
       </c>
       <c r="D113" s="33" cm="1">
         <f t="array" ref="D113">IF('Selection List'!B1=17,3,IF('Selection List'!B1=23,4,IF('Selection List'!B1=30,5,veyy)))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E113" s="34" t="s">
         <v>92</v>
@@ -8081,11 +8095,11 @@
       </c>
       <c r="G113" s="46">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="102"/>
+      <c r="A114" s="103"/>
       <c r="B114" s="37" t="s">
         <v>451</v>
       </c>
@@ -8094,7 +8108,7 @@
       </c>
       <c r="D114" s="33" cm="1">
         <f t="array" ref="D114">IF('Selection List'!B1=17,3,IF('Selection List'!B1=23,4,IF('Selection List'!B1=30,5,veyy)))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E114" s="34" t="s">
         <v>92</v>
@@ -8104,11 +8118,11 @@
       </c>
       <c r="G114" s="46">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="102"/>
+      <c r="A115" s="103"/>
       <c r="B115" s="37" t="s">
         <v>454</v>
       </c>
@@ -8117,7 +8131,7 @@
       </c>
       <c r="D115" s="33">
         <f>IF(OR('Selection List'!B14="A",'Selection List'!B14="B"),1,0)*IF(OR(AND('Selection List'!B1=30,'Selection List'!B5="S",OR('Selection List'!B14="A",'Selection List'!B14="B")),AND('Selection List'!B1=23,'Selection List'!B5="S",OR('Selection List'!B14="A",'Selection List'!B14="B"))),0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" s="37" t="s">
         <v>92</v>
@@ -8127,11 +8141,11 @@
       </c>
       <c r="G115" s="46">
         <f t="shared" si="1"/>
-        <v>858.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="102"/>
+      <c r="A116" s="103"/>
       <c r="B116" s="47" t="s">
         <v>524</v>
       </c>
@@ -8154,7 +8168,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="102"/>
+      <c r="A117" s="103"/>
       <c r="B117" s="37" t="s">
         <v>455</v>
       </c>
@@ -8163,7 +8177,7 @@
       </c>
       <c r="D117" s="33">
         <f>IF(OR('Selection List'!B14="A",'Selection List'!B14="B"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" s="37" t="s">
         <v>92</v>
@@ -8173,11 +8187,11 @@
       </c>
       <c r="G117" s="46">
         <f t="shared" si="1"/>
-        <v>7.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="102"/>
+      <c r="A118" s="103"/>
       <c r="B118" s="37" t="s">
         <v>456</v>
       </c>
@@ -8186,7 +8200,7 @@
       </c>
       <c r="D118" s="33">
         <f>IF(OR('Selection List'!B14="A",'Selection List'!B14="B"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" s="37" t="s">
         <v>92</v>
@@ -8196,11 +8210,11 @@
       </c>
       <c r="G118" s="46">
         <f t="shared" si="1"/>
-        <v>31.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="102"/>
+      <c r="A119" s="103"/>
       <c r="B119" s="37" t="s">
         <v>457</v>
       </c>
@@ -8209,7 +8223,7 @@
       </c>
       <c r="D119" s="33">
         <f>IF(OR('Selection List'!B14="A",'Selection List'!B14="B"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" s="37" t="s">
         <v>92</v>
@@ -8219,11 +8233,11 @@
       </c>
       <c r="G119" s="46">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="102"/>
+      <c r="A120" s="103"/>
       <c r="B120" s="37" t="s">
         <v>458</v>
       </c>
@@ -8232,7 +8246,7 @@
       </c>
       <c r="D120" s="33">
         <f>IF('Selection List'!B15=3,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" s="37" t="s">
         <v>92</v>
@@ -8242,11 +8256,11 @@
       </c>
       <c r="G120" s="46">
         <f t="shared" si="1"/>
-        <v>98.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="102"/>
+      <c r="A121" s="103"/>
       <c r="B121" s="37" t="s">
         <v>459</v>
       </c>
@@ -8255,7 +8269,7 @@
       </c>
       <c r="D121" s="33">
         <f>IF('Selection List'!B15=3,3,0)+IF('Selection List'!B17=1,3,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E121" s="37" t="s">
         <v>92</v>
@@ -8265,11 +8279,11 @@
       </c>
       <c r="G121" s="46">
         <f t="shared" si="1"/>
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="102"/>
+      <c r="A122" s="103"/>
       <c r="B122" s="37" t="s">
         <v>460</v>
       </c>
@@ -8292,7 +8306,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="102"/>
+      <c r="A123" s="103"/>
       <c r="B123" s="37" t="s">
         <v>461</v>
       </c>
@@ -8315,7 +8329,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="102"/>
+      <c r="A124" s="103"/>
       <c r="B124" s="37" t="s">
         <v>462</v>
       </c>
@@ -8324,7 +8338,7 @@
       </c>
       <c r="D124" s="33">
         <f>IF(OR('Selection List'!B14="U",'Selection List'!B14="B"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" s="37" t="s">
         <v>92</v>
@@ -8334,11 +8348,11 @@
       </c>
       <c r="G124" s="46">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="102"/>
+      <c r="A125" s="103"/>
       <c r="B125" s="37" t="s">
         <v>463</v>
       </c>
@@ -8347,7 +8361,7 @@
       </c>
       <c r="D125" s="33">
         <f>IF(OR('Selection List'!B14="U",'Selection List'!B14="B"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" s="37" t="s">
         <v>92</v>
@@ -8357,11 +8371,11 @@
       </c>
       <c r="G125" s="46">
         <f t="shared" si="1"/>
-        <v>425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="102"/>
+      <c r="A126" s="103"/>
       <c r="B126" s="37" t="s">
         <v>462</v>
       </c>
@@ -8384,7 +8398,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="102"/>
+      <c r="A127" s="103"/>
       <c r="B127" s="37" t="s">
         <v>464</v>
       </c>
@@ -8393,7 +8407,7 @@
       </c>
       <c r="D127" s="33">
         <f>IF('Selection List'!B18="A",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" s="37" t="s">
         <v>92</v>
@@ -8403,11 +8417,11 @@
       </c>
       <c r="G127" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="102"/>
+      <c r="A128" s="103"/>
       <c r="B128" s="37" t="s">
         <v>438</v>
       </c>
@@ -8416,7 +8430,7 @@
       </c>
       <c r="D128" s="33">
         <f>IF('Selection List'!B18="A",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" s="37" t="s">
         <v>92</v>
@@ -8426,11 +8440,11 @@
       </c>
       <c r="G128" s="46">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="102"/>
+      <c r="A129" s="103"/>
       <c r="B129" s="37" t="s">
         <v>467</v>
       </c>
@@ -8439,7 +8453,7 @@
       </c>
       <c r="D129" s="33">
         <f>IF(OR('Selection List'!B5="S",'Selection List'!B11=1,'Selection List'!B11=2,'Selection List'!B11=3,'Selection List'!B11=4,'Selection List'!B11=5,'Selection List'!B19=0,'Selection List'!B19=2,'Selection List'!B19=1,'Selection List'!B19=3),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" s="37" t="s">
         <v>92</v>
@@ -8449,11 +8463,11 @@
       </c>
       <c r="G129" s="46">
         <f t="shared" ref="G129:G194" si="2">D129*F129</f>
-        <v>80.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="102"/>
+      <c r="A130" s="103"/>
       <c r="B130" s="37" t="s">
         <v>468</v>
       </c>
@@ -8462,7 +8476,7 @@
       </c>
       <c r="D130" s="33">
         <f>IF(OR('Selection List'!B5="S",'Selection List'!B11=1,'Selection List'!B11=2,'Selection List'!B11=3,'Selection List'!B11=4,'Selection List'!B11=5,'Selection List'!B19=0,'Selection List'!B19=2,'Selection List'!B19=1,'Selection List'!B19=3),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130" s="37" t="s">
         <v>92</v>
@@ -8472,11 +8486,11 @@
       </c>
       <c r="G130" s="46">
         <f t="shared" si="2"/>
-        <v>6.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="102"/>
+      <c r="A131" s="103"/>
       <c r="B131" s="37" t="s">
         <v>469</v>
       </c>
@@ -8485,7 +8499,7 @@
       </c>
       <c r="D131" s="33">
         <f>IF('Selection List'!B21=0,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" s="37" t="s">
         <v>92</v>
@@ -8495,11 +8509,11 @@
       </c>
       <c r="G131" s="46">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="102"/>
+      <c r="A132" s="103"/>
       <c r="B132" s="37" t="s">
         <v>470</v>
       </c>
@@ -8522,7 +8536,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="102"/>
+      <c r="A133" s="103"/>
       <c r="B133" s="37" t="s">
         <v>471</v>
       </c>
@@ -8531,7 +8545,7 @@
       </c>
       <c r="D133" s="33">
         <f>IF('Selection List'!B16=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" s="37" t="s">
         <v>92</v>
@@ -8541,11 +8555,11 @@
       </c>
       <c r="G133" s="46">
         <f t="shared" si="2"/>
-        <v>206.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="102"/>
+      <c r="A134" s="103"/>
       <c r="B134" s="47" t="s">
         <v>525</v>
       </c>
@@ -8554,7 +8568,7 @@
       </c>
       <c r="D134" s="33">
         <f>IF('Selection List'!B16=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" s="37" t="s">
         <v>92</v>
@@ -8564,11 +8578,11 @@
       </c>
       <c r="G134" s="46">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="102"/>
+      <c r="A135" s="103"/>
       <c r="B135" s="37" t="s">
         <v>465</v>
       </c>
@@ -8577,7 +8591,7 @@
       </c>
       <c r="D135" s="33">
         <f>IF(OR('Selection List'!B23=1),1,0)+IF('Selection List'!B19="N",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" s="37" t="s">
         <v>92</v>
@@ -8587,11 +8601,11 @@
       </c>
       <c r="G135" s="46">
         <f t="shared" si="2"/>
-        <v>3.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="102"/>
+      <c r="A136" s="103"/>
       <c r="B136" s="37" t="s">
         <v>466</v>
       </c>
@@ -8600,7 +8614,7 @@
       </c>
       <c r="D136" s="33">
         <f>IF(OR('Selection List'!B23=1),1,0)+IF('Selection List'!B19="N",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136" s="37" t="s">
         <v>92</v>
@@ -8610,11 +8624,11 @@
       </c>
       <c r="G136" s="46">
         <f t="shared" si="2"/>
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="102"/>
+      <c r="A137" s="103"/>
       <c r="B137" s="37" t="s">
         <v>500</v>
       </c>
@@ -8637,7 +8651,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="102"/>
+      <c r="A138" s="103"/>
       <c r="B138" s="37" t="s">
         <v>301</v>
       </c>
@@ -8659,7 +8673,7 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="102"/>
+      <c r="A139" s="103"/>
       <c r="B139" s="37" t="s">
         <v>302</v>
       </c>
@@ -8682,7 +8696,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="102"/>
+      <c r="A140" s="103"/>
       <c r="B140" s="37" t="s">
         <v>303</v>
       </c>
@@ -8705,7 +8719,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="102"/>
+      <c r="A141" s="103"/>
       <c r="B141" s="37" t="s">
         <v>304</v>
       </c>
@@ -8728,7 +8742,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="102"/>
+      <c r="A142" s="103"/>
       <c r="B142" s="37" t="s">
         <v>305</v>
       </c>
@@ -8751,7 +8765,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="102"/>
+      <c r="A143" s="103"/>
       <c r="B143" s="37" t="s">
         <v>306</v>
       </c>
@@ -8774,7 +8788,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="102"/>
+      <c r="A144" s="103"/>
       <c r="B144" s="37" t="s">
         <v>307</v>
       </c>
@@ -8797,7 +8811,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="102"/>
+      <c r="A145" s="103"/>
       <c r="B145" s="37" t="s">
         <v>308</v>
       </c>
@@ -8820,7 +8834,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="102"/>
+      <c r="A146" s="103"/>
       <c r="B146" s="37" t="s">
         <v>309</v>
       </c>
@@ -8843,7 +8857,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="102"/>
+      <c r="A147" s="103"/>
       <c r="B147" s="37" t="s">
         <v>311</v>
       </c>
@@ -8866,7 +8880,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="102"/>
+      <c r="A148" s="103"/>
       <c r="B148" s="37" t="s">
         <v>313</v>
       </c>
@@ -8889,7 +8903,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="102"/>
+      <c r="A149" s="103"/>
       <c r="B149" s="37" t="s">
         <v>315</v>
       </c>
@@ -8898,7 +8912,7 @@
       </c>
       <c r="D149" s="33">
         <f>IF(AND('Selection List'!B10="P",OR('Selection List'!B1=23,'Selection List'!B1=30)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" s="34" t="s">
         <v>92</v>
@@ -8908,11 +8922,11 @@
       </c>
       <c r="G149" s="46">
         <f t="shared" si="2"/>
-        <v>1937.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="102"/>
+      <c r="A150" s="103"/>
       <c r="B150" s="47" t="s">
         <v>526</v>
       </c>
@@ -8935,7 +8949,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="102"/>
+      <c r="A151" s="103"/>
       <c r="B151" s="47" t="s">
         <v>527</v>
       </c>
@@ -8958,7 +8972,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="102"/>
+      <c r="A152" s="103"/>
       <c r="B152" s="37" t="s">
         <v>316</v>
       </c>
@@ -8967,7 +8981,7 @@
       </c>
       <c r="D152" s="33">
         <f>IF(OR('Selection List'!B10="E",'Selection List'!B10="P"),0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E152" s="34" t="s">
         <v>92</v>
@@ -8977,11 +8991,11 @@
       </c>
       <c r="G152" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="102"/>
+      <c r="A153" s="103"/>
       <c r="B153" s="37" t="s">
         <v>318</v>
       </c>
@@ -8990,7 +9004,7 @@
       </c>
       <c r="D153" s="33">
         <f>IF(OR('Selection List'!B10="E",'Selection List'!B10="P"),0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E153" s="34" t="s">
         <v>92</v>
@@ -9000,11 +9014,11 @@
       </c>
       <c r="G153" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="102"/>
+      <c r="A154" s="103"/>
       <c r="B154" s="37" t="s">
         <v>319</v>
       </c>
@@ -9027,7 +9041,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="102"/>
+      <c r="A155" s="103"/>
       <c r="B155" s="37" t="s">
         <v>320</v>
       </c>
@@ -9050,7 +9064,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="102"/>
+      <c r="A156" s="103"/>
       <c r="B156" s="37" t="s">
         <v>321</v>
       </c>
@@ -9059,7 +9073,7 @@
       </c>
       <c r="D156" s="33">
         <f>IF(AND('Selection List'!B7=1,OR('Selection List'!B1=30,'Selection List'!B1=23)),2,IF(AND('Selection List'!B7=1,'Selection List'!B1=17),1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E156" s="34" t="s">
         <v>92</v>
@@ -9069,11 +9083,11 @@
       </c>
       <c r="G156" s="46">
         <f t="shared" si="2"/>
-        <v>213.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="102"/>
+      <c r="A157" s="103"/>
       <c r="B157" s="37" t="s">
         <v>322</v>
       </c>
@@ -9082,7 +9096,7 @@
       </c>
       <c r="D157" s="33">
         <f>IF('Selection List'!B8="O",2,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E157" s="34" t="s">
         <v>92</v>
@@ -9092,11 +9106,11 @@
       </c>
       <c r="G157" s="46">
         <f t="shared" si="2"/>
-        <v>89.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" s="102"/>
+      <c r="A158" s="103"/>
       <c r="B158" s="37" t="s">
         <v>323</v>
       </c>
@@ -9118,7 +9132,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="102"/>
+      <c r="A159" s="103"/>
       <c r="B159" s="37" t="s">
         <v>324</v>
       </c>
@@ -9140,7 +9154,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="102"/>
+      <c r="A160" s="103"/>
       <c r="B160" s="37" t="s">
         <v>325</v>
       </c>
@@ -9162,7 +9176,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="102"/>
+      <c r="A161" s="103"/>
       <c r="B161" s="37" t="s">
         <v>498</v>
       </c>
@@ -9185,7 +9199,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="103"/>
+      <c r="A162" s="104"/>
       <c r="B162" s="47" t="s">
         <v>528</v>
       </c>
@@ -9194,7 +9208,7 @@
       </c>
       <c r="D162" s="33">
         <f>IF(OR('Selection List'!B19=2,'Selection List'!B19=3),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" s="34" t="s">
         <v>92</v>
@@ -9204,11 +9218,11 @@
       </c>
       <c r="G162" s="46">
         <f t="shared" si="2"/>
-        <v>315.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="98" t="s">
+      <c r="A163" s="99" t="s">
         <v>490</v>
       </c>
       <c r="B163" s="37" t="s">
@@ -9232,7 +9246,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="99"/>
+      <c r="A164" s="100"/>
       <c r="B164" s="37" t="s">
         <v>433</v>
       </c>
@@ -9254,7 +9268,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="99"/>
+      <c r="A165" s="100"/>
       <c r="B165" s="37" t="s">
         <v>434</v>
       </c>
@@ -9276,7 +9290,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="99"/>
+      <c r="A166" s="100"/>
       <c r="B166" s="37" t="s">
         <v>435</v>
       </c>
@@ -9298,7 +9312,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="99"/>
+      <c r="A167" s="100"/>
       <c r="B167" s="37" t="s">
         <v>436</v>
       </c>
@@ -9320,7 +9334,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="99"/>
+      <c r="A168" s="100"/>
       <c r="B168" s="37" t="s">
         <v>437</v>
       </c>
@@ -9342,7 +9356,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="99"/>
+      <c r="A169" s="100"/>
       <c r="B169" s="37" t="s">
         <v>438</v>
       </c>
@@ -9364,7 +9378,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="99"/>
+      <c r="A170" s="100"/>
       <c r="B170" s="37" t="s">
         <v>439</v>
       </c>
@@ -9386,7 +9400,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="99"/>
+      <c r="A171" s="100"/>
       <c r="B171" s="37" t="s">
         <v>440</v>
       </c>
@@ -9408,7 +9422,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="99"/>
+      <c r="A172" s="100"/>
       <c r="B172" s="37" t="s">
         <v>420</v>
       </c>
@@ -9430,7 +9444,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="99"/>
+      <c r="A173" s="100"/>
       <c r="B173" s="37" t="s">
         <v>421</v>
       </c>
@@ -9452,7 +9466,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="99"/>
+      <c r="A174" s="100"/>
       <c r="B174" s="37" t="s">
         <v>422</v>
       </c>
@@ -9474,7 +9488,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="99"/>
+      <c r="A175" s="100"/>
       <c r="B175" s="37" t="s">
         <v>423</v>
       </c>
@@ -9496,7 +9510,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="99"/>
+      <c r="A176" s="100"/>
       <c r="B176" s="37" t="s">
         <v>424</v>
       </c>
@@ -9518,7 +9532,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="99"/>
+      <c r="A177" s="100"/>
       <c r="B177" s="37" t="s">
         <v>425</v>
       </c>
@@ -9540,7 +9554,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="99"/>
+      <c r="A178" s="100"/>
       <c r="B178" s="37" t="s">
         <v>344</v>
       </c>
@@ -9562,7 +9576,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="99"/>
+      <c r="A179" s="100"/>
       <c r="B179" s="37" t="s">
         <v>345</v>
       </c>
@@ -9584,7 +9598,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="99"/>
+      <c r="A180" s="100"/>
       <c r="B180" s="37" t="s">
         <v>346</v>
       </c>
@@ -9606,7 +9620,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="99"/>
+      <c r="A181" s="100"/>
       <c r="B181" s="37" t="s">
         <v>347</v>
       </c>
@@ -9628,7 +9642,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="99"/>
+      <c r="A182" s="100"/>
       <c r="B182" s="37" t="s">
         <v>348</v>
       </c>
@@ -9650,7 +9664,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="99"/>
+      <c r="A183" s="100"/>
       <c r="B183" s="37" t="s">
         <v>349</v>
       </c>
@@ -9672,7 +9686,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="99"/>
+      <c r="A184" s="100"/>
       <c r="B184" s="37" t="s">
         <v>350</v>
       </c>
@@ -9694,7 +9708,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="99"/>
+      <c r="A185" s="100"/>
       <c r="B185" s="37" t="s">
         <v>351</v>
       </c>
@@ -9716,7 +9730,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="99"/>
+      <c r="A186" s="100"/>
       <c r="B186" s="37" t="s">
         <v>352</v>
       </c>
@@ -9738,7 +9752,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="99"/>
+      <c r="A187" s="100"/>
       <c r="B187" s="37" t="s">
         <v>353</v>
       </c>
@@ -9760,7 +9774,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="99"/>
+      <c r="A188" s="100"/>
       <c r="B188" s="37" t="s">
         <v>354</v>
       </c>
@@ -9782,7 +9796,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="99"/>
+      <c r="A189" s="100"/>
       <c r="B189" s="37" t="s">
         <v>355</v>
       </c>
@@ -9804,7 +9818,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="99"/>
+      <c r="A190" s="100"/>
       <c r="B190" s="37" t="s">
         <v>356</v>
       </c>
@@ -9826,7 +9840,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="99"/>
+      <c r="A191" s="100"/>
       <c r="B191" s="37" t="s">
         <v>357</v>
       </c>
@@ -9848,7 +9862,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="99"/>
+      <c r="A192" s="100"/>
       <c r="B192" s="37" t="s">
         <v>358</v>
       </c>
@@ -9870,7 +9884,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="99"/>
+      <c r="A193" s="100"/>
       <c r="B193" s="37" t="s">
         <v>359</v>
       </c>
@@ -9892,7 +9906,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="99"/>
+      <c r="A194" s="100"/>
       <c r="B194" s="37" t="s">
         <v>360</v>
       </c>
@@ -9914,7 +9928,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="99"/>
+      <c r="A195" s="100"/>
       <c r="B195" s="37" t="s">
         <v>361</v>
       </c>
@@ -9936,7 +9950,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="99"/>
+      <c r="A196" s="100"/>
       <c r="B196" s="37" t="s">
         <v>362</v>
       </c>
@@ -9958,7 +9972,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="99"/>
+      <c r="A197" s="100"/>
       <c r="B197" s="37" t="s">
         <v>363</v>
       </c>
@@ -9980,7 +9994,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="99"/>
+      <c r="A198" s="100"/>
       <c r="B198" s="37" t="s">
         <v>364</v>
       </c>
@@ -10002,7 +10016,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="99"/>
+      <c r="A199" s="100"/>
       <c r="B199" s="37" t="s">
         <v>365</v>
       </c>
@@ -10024,7 +10038,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="99"/>
+      <c r="A200" s="100"/>
       <c r="B200" s="37" t="s">
         <v>366</v>
       </c>
@@ -10046,7 +10060,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="99"/>
+      <c r="A201" s="100"/>
       <c r="B201" s="37" t="s">
         <v>367</v>
       </c>
@@ -10068,7 +10082,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="99"/>
+      <c r="A202" s="100"/>
       <c r="B202" s="37" t="s">
         <v>368</v>
       </c>
@@ -10090,7 +10104,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="99"/>
+      <c r="A203" s="100"/>
       <c r="B203" s="37" t="s">
         <v>369</v>
       </c>
@@ -10112,7 +10126,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="99"/>
+      <c r="A204" s="100"/>
       <c r="B204" s="37" t="s">
         <v>370</v>
       </c>
@@ -10134,7 +10148,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="99"/>
+      <c r="A205" s="100"/>
       <c r="B205" s="37" t="s">
         <v>371</v>
       </c>
@@ -10156,7 +10170,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="99"/>
+      <c r="A206" s="100"/>
       <c r="B206" s="37" t="s">
         <v>372</v>
       </c>
@@ -10178,7 +10192,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="99"/>
+      <c r="A207" s="100"/>
       <c r="B207" s="37" t="s">
         <v>373</v>
       </c>
@@ -10200,7 +10214,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="99"/>
+      <c r="A208" s="100"/>
       <c r="B208" s="37" t="s">
         <v>374</v>
       </c>
@@ -10222,7 +10236,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="99"/>
+      <c r="A209" s="100"/>
       <c r="B209" s="37" t="s">
         <v>375</v>
       </c>
@@ -10244,7 +10258,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="99"/>
+      <c r="A210" s="100"/>
       <c r="B210" s="37" t="s">
         <v>376</v>
       </c>
@@ -10266,7 +10280,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="99"/>
+      <c r="A211" s="100"/>
       <c r="B211" s="37" t="s">
         <v>377</v>
       </c>
@@ -10288,7 +10302,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="99"/>
+      <c r="A212" s="100"/>
       <c r="B212" s="37" t="s">
         <v>378</v>
       </c>
@@ -10310,7 +10324,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="99"/>
+      <c r="A213" s="100"/>
       <c r="B213" s="37" t="s">
         <v>379</v>
       </c>
@@ -10332,7 +10346,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="99"/>
+      <c r="A214" s="100"/>
       <c r="B214" s="37" t="s">
         <v>380</v>
       </c>
@@ -10354,7 +10368,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="99"/>
+      <c r="A215" s="100"/>
       <c r="B215" s="37" t="s">
         <v>381</v>
       </c>
@@ -10376,7 +10390,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="100"/>
+      <c r="A216" s="101"/>
       <c r="B216" s="47" t="s">
         <v>529</v>
       </c>
@@ -10398,23 +10412,23 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C217" s="106" t="s">
+      <c r="C217" s="107" t="s">
         <v>509</v>
       </c>
-      <c r="D217" s="106"/>
-      <c r="E217" s="106"/>
-      <c r="F217" s="104">
+      <c r="D217" s="107"/>
+      <c r="E217" s="107"/>
+      <c r="F217" s="105">
         <f>SUM(G2:G216)</f>
-        <v>28520.04099999999</v>
-      </c>
-      <c r="G217" s="104"/>
+        <v>18316.204000000009</v>
+      </c>
+      <c r="G217" s="105"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C218" s="107"/>
-      <c r="D218" s="107"/>
-      <c r="E218" s="107"/>
-      <c r="F218" s="105"/>
-      <c r="G218" s="105"/>
+      <c r="C218" s="108"/>
+      <c r="D218" s="108"/>
+      <c r="E218" s="108"/>
+      <c r="F218" s="106"/>
+      <c r="G218" s="106"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E218"/>
@@ -10455,7 +10469,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="116"/>
+      <c r="A1" s="117"/>
       <c r="B1" s="14">
         <v>17</v>
       </c>
@@ -10464,7 +10478,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
+      <c r="A2" s="117"/>
       <c r="B2" s="14">
         <v>23</v>
       </c>
@@ -10474,7 +10488,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="15">
         <v>30</v>
       </c>
@@ -10484,7 +10498,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="115" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -10496,7 +10510,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
@@ -10506,7 +10520,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="115"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -10516,7 +10530,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="112" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -10528,7 +10542,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="113"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
@@ -10538,7 +10552,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="115" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -10550,7 +10564,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -10560,7 +10574,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="115" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -10571,7 +10585,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -10581,7 +10595,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="112" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -10592,7 +10606,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -10601,7 +10615,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -10611,7 +10625,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="115" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="4">
@@ -10623,7 +10637,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="2">
         <v>0</v>
       </c>
@@ -10633,7 +10647,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="112" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -10645,7 +10659,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="113"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
@@ -10655,7 +10669,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="112" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -10667,7 +10681,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="113"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
@@ -10677,7 +10691,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="112" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -10688,7 +10702,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
@@ -10697,7 +10711,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="8">
         <v>2</v>
       </c>
@@ -10706,7 +10720,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="7">
         <v>3</v>
       </c>
@@ -10715,7 +10729,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="7" t="s">
         <v>37</v>
       </c>
@@ -10724,7 +10738,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="113"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="9" t="s">
         <v>39</v>
       </c>
@@ -10734,7 +10748,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="111" t="s">
+      <c r="A28" s="112" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="4">
@@ -10746,7 +10760,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="112"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="5">
         <v>1</v>
       </c>
@@ -10756,7 +10770,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="112"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="5">
         <v>2</v>
       </c>
@@ -10766,7 +10780,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="112"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="5">
         <v>3</v>
       </c>
@@ -10775,7 +10789,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="112"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="5">
         <v>4</v>
       </c>
@@ -10784,7 +10798,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="113"/>
+      <c r="A33" s="114"/>
       <c r="B33" s="5">
         <v>5</v>
       </c>
@@ -10793,7 +10807,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="111" t="s">
+      <c r="A34" s="112" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="4">
@@ -10804,7 +10818,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="113"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="2">
         <v>1</v>
       </c>
@@ -10813,7 +10827,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="111" t="s">
+      <c r="A36" s="112" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -10825,19 +10839,19 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="112"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="112"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="112"/>
+      <c r="A39" s="113"/>
       <c r="B39" s="5" t="s">
         <v>45</v>
       </c>
@@ -10847,7 +10861,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="111" t="s">
+      <c r="A40" s="112" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="4">
@@ -10859,7 +10873,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="113"/>
+      <c r="A41" s="114"/>
       <c r="B41" s="2">
         <v>3</v>
       </c>
@@ -10869,7 +10883,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="112" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="4">
@@ -10880,7 +10894,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="112"/>
+      <c r="A43" s="113"/>
       <c r="B43" s="5">
         <v>1</v>
       </c>
@@ -10889,7 +10903,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="113"/>
+      <c r="A44" s="114"/>
       <c r="B44" s="2">
         <v>2</v>
       </c>
@@ -10899,7 +10913,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="111" t="s">
+      <c r="A45" s="112" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="4">
@@ -10910,13 +10924,13 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="112"/>
+      <c r="A46" s="113"/>
       <c r="B46" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="113"/>
+      <c r="A47" s="114"/>
       <c r="B47" s="2">
         <v>2</v>
       </c>
@@ -10926,7 +10940,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="111" t="s">
+      <c r="A48" s="112" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="4">
@@ -10938,7 +10952,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="113"/>
+      <c r="A49" s="114"/>
       <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
@@ -10948,7 +10962,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="111" t="s">
+      <c r="A50" s="112" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -10960,7 +10974,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="112"/>
+      <c r="A51" s="113"/>
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -10970,7 +10984,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="112"/>
+      <c r="A52" s="113"/>
       <c r="B52" s="5">
         <v>1</v>
       </c>
@@ -10980,7 +10994,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="112"/>
+      <c r="A53" s="113"/>
       <c r="B53" s="5">
         <v>2</v>
       </c>
@@ -10990,7 +11004,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="112"/>
+      <c r="A54" s="113"/>
       <c r="B54" s="5">
         <v>3</v>
       </c>
@@ -11000,7 +11014,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="121" t="s">
+      <c r="A55" s="122" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="10">
@@ -11012,7 +11026,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="122"/>
+      <c r="A56" s="123"/>
       <c r="B56" s="11">
         <v>1</v>
       </c>
@@ -11022,7 +11036,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="122"/>
+      <c r="A57" s="123"/>
       <c r="B57" s="11">
         <v>2</v>
       </c>
@@ -11032,7 +11046,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="122"/>
+      <c r="A58" s="123"/>
       <c r="B58" s="11">
         <v>3</v>
       </c>
@@ -11042,7 +11056,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="122"/>
+      <c r="A59" s="123"/>
       <c r="B59" s="11">
         <v>4</v>
       </c>
@@ -11052,7 +11066,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="121" t="s">
+      <c r="A60" s="122" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="10">
@@ -11064,7 +11078,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="122"/>
+      <c r="A61" s="123"/>
       <c r="B61" s="11">
         <v>1</v>
       </c>
@@ -11074,7 +11088,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="122"/>
+      <c r="A62" s="123"/>
       <c r="B62" s="11">
         <v>2</v>
       </c>
@@ -11084,7 +11098,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="122"/>
+      <c r="A63" s="123"/>
       <c r="B63" s="11">
         <v>3</v>
       </c>
@@ -11094,7 +11108,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="114" t="s">
+      <c r="A64" s="115" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -11105,7 +11119,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="118"/>
+      <c r="A65" s="119"/>
       <c r="B65" s="5" t="s">
         <v>21</v>
       </c>
@@ -11114,7 +11128,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="115"/>
+      <c r="A66" s="116"/>
       <c r="B66" s="2" t="s">
         <v>46</v>
       </c>
@@ -11123,7 +11137,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="114" t="s">
+      <c r="A67" s="115" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="12">
@@ -11134,7 +11148,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="115"/>
+      <c r="A68" s="116"/>
       <c r="B68" s="2">
         <v>1</v>
       </c>
@@ -11149,7 +11163,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="119" t="s">
+      <c r="A70" s="120" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="3">
@@ -11160,7 +11174,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="120"/>
+      <c r="A71" s="121"/>
       <c r="B71" s="3">
         <v>2</v>
       </c>

--- a/TERA.xlsx
+++ b/TERA.xlsx
@@ -2095,9 +2095,6 @@
     <t>Air Tightness Class</t>
   </si>
   <si>
-    <t>3C</t>
-  </si>
-  <si>
     <t>Damper Dimensions</t>
   </si>
   <si>
@@ -2129,6 +2126,9 @@
   </si>
   <si>
     <t>Water Shut off valve</t>
+  </si>
+  <si>
+    <t>C4</t>
   </si>
 </sst>
 </file>
@@ -2805,6 +2805,86 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2821,91 +2901,20 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2937,14 +2946,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2955,7 +2961,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2966,21 +2981,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3328,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A79" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,12 +3346,12 @@
       <c r="A1" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>531</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="49"/>
       <c r="G1" s="50"/>
     </row>
@@ -3359,12 +3359,12 @@
       <c r="A2" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="78" t="s">
         <v>533</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="49"/>
       <c r="G2" s="50"/>
     </row>
@@ -3372,21 +3372,21 @@
       <c r="A3" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="78" t="s">
         <v>535</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="49"/>
       <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="77" t="s">
         <v>536</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="51" t="s">
         <v>537</v>
       </c>
@@ -3400,10 +3400,10 @@
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="73" t="s">
         <v>539</v>
       </c>
-      <c r="E5" s="93"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="49"/>
       <c r="G5" s="52"/>
     </row>
@@ -3413,10 +3413,10 @@
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
-      <c r="D6" s="96">
+      <c r="D6" s="79">
         <v>340.7</v>
       </c>
-      <c r="E6" s="96"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="49"/>
       <c r="G6" s="52"/>
     </row>
@@ -3426,10 +3426,10 @@
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
-      <c r="D7" s="93">
+      <c r="D7" s="73">
         <v>33333</v>
       </c>
-      <c r="E7" s="93"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="49"/>
       <c r="G7" s="52"/>
     </row>
@@ -3439,10 +3439,10 @@
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="74" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="94"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="49"/>
       <c r="G8" s="52"/>
     </row>
@@ -3452,34 +3452,34 @@
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="73" t="s">
         <v>545</v>
       </c>
-      <c r="E9" s="93"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="49"/>
       <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="75" t="s">
         <v>546</v>
       </c>
-      <c r="B10" s="77"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="76" t="s">
         <v>547</v>
       </c>
-      <c r="E10" s="95"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="49"/>
       <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="77" t="s">
         <v>548</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="49"/>
       <c r="G11" s="52"/>
     </row>
@@ -3489,23 +3489,23 @@
       </c>
       <c r="B12" s="81"/>
       <c r="C12" s="81"/>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="84" t="s">
         <v>550</v>
       </c>
-      <c r="E12" s="92"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="75" t="s">
         <v>551</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="89" t="s">
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="80" t="s">
         <v>552</v>
       </c>
-      <c r="E13" s="89"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
     </row>
@@ -3515,23 +3515,23 @@
       </c>
       <c r="B14" s="81"/>
       <c r="C14" s="81"/>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="82" t="s">
         <v>554</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="75" t="s">
         <v>555</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="89" t="s">
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="80" t="s">
         <v>554</v>
       </c>
-      <c r="E15" s="89"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
     </row>
@@ -3541,29 +3541,29 @@
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="82" t="s">
         <v>557</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="77" t="s">
         <v>558</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="49"/>
       <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="83" t="s">
         <v>559</v>
       </c>
-      <c r="B18" s="91"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="58" t="s">
         <v>560</v>
       </c>
@@ -3573,10 +3573,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="75" t="s">
         <v>562</v>
       </c>
-      <c r="B19" s="77"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="86">
         <v>44</v>
       </c>
@@ -3599,10 +3599,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="75" t="s">
         <v>565</v>
       </c>
-      <c r="B21" s="77"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="86">
         <v>14.2</v>
       </c>
@@ -3625,10 +3625,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="75" t="s">
         <v>567</v>
       </c>
-      <c r="B23" s="77"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="86">
         <v>102.8</v>
       </c>
@@ -3651,10 +3651,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="75" t="s">
         <v>571</v>
       </c>
-      <c r="B25" s="77"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="86">
         <v>11</v>
       </c>
@@ -3677,10 +3677,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="75" t="s">
         <v>573</v>
       </c>
-      <c r="B27" s="77"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="86">
         <v>26.6</v>
       </c>
@@ -3703,14 +3703,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="75" t="s">
         <v>577</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="88">
+      <c r="B29" s="75"/>
+      <c r="C29" s="87">
         <v>71</v>
       </c>
-      <c r="D29" s="88"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="63"/>
     </row>
     <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3736,13 +3736,13 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="77" t="s">
         <v>582</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="49"/>
       <c r="G32" s="52"/>
     </row>
@@ -3751,23 +3751,23 @@
         <v>583</v>
       </c>
       <c r="B33" s="81"/>
-      <c r="C33" s="84">
+      <c r="C33" s="88">
         <v>33333</v>
       </c>
-      <c r="D33" s="84"/>
+      <c r="D33" s="88"/>
       <c r="E33" s="62" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="75" t="s">
         <v>584</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="87">
+      <c r="B34" s="75"/>
+      <c r="C34" s="90">
         <v>111</v>
       </c>
-      <c r="D34" s="87"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="61" t="s">
         <v>568</v>
       </c>
@@ -3777,23 +3777,23 @@
         <v>585</v>
       </c>
       <c r="B35" s="81"/>
-      <c r="C35" s="84">
+      <c r="C35" s="88">
         <v>259.3</v>
       </c>
-      <c r="D35" s="84"/>
+      <c r="D35" s="88"/>
       <c r="E35" s="62" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="75" t="s">
         <v>586</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="83">
+      <c r="B36" s="75"/>
+      <c r="C36" s="89">
         <v>1513</v>
       </c>
-      <c r="D36" s="83"/>
+      <c r="D36" s="89"/>
       <c r="E36" s="61" t="s">
         <v>587</v>
       </c>
@@ -3803,23 +3803,23 @@
         <v>588</v>
       </c>
       <c r="B37" s="81"/>
-      <c r="C37" s="84">
+      <c r="C37" s="88">
         <v>2370</v>
       </c>
-      <c r="D37" s="84"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="62" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="75" t="s">
         <v>589</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="83">
+      <c r="B38" s="75"/>
+      <c r="C38" s="89">
         <v>63</v>
       </c>
-      <c r="D38" s="83"/>
+      <c r="D38" s="89"/>
       <c r="E38" s="61" t="s">
         <v>561</v>
       </c>
@@ -3836,10 +3836,10 @@
       <c r="E39" s="67"/>
     </row>
     <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="75" t="s">
         <v>592</v>
       </c>
-      <c r="B40" s="77"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="86" t="s">
         <v>593</v>
       </c>
@@ -3862,10 +3862,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="75" t="s">
         <v>596</v>
       </c>
-      <c r="B42" s="77"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="86">
         <v>4.8</v>
       </c>
@@ -3875,13 +3875,13 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="77" t="s">
         <v>597</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
       <c r="F43" s="49"/>
       <c r="G43" s="52"/>
     </row>
@@ -3890,23 +3890,23 @@
         <v>598</v>
       </c>
       <c r="B44" s="81"/>
-      <c r="C44" s="82">
+      <c r="C44" s="91">
         <v>45.5</v>
       </c>
-      <c r="D44" s="82"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="62" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="75" t="s">
         <v>599</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="83" t="s">
+      <c r="B45" s="75"/>
+      <c r="C45" s="89" t="s">
         <v>600</v>
       </c>
-      <c r="D45" s="83"/>
+      <c r="D45" s="89"/>
       <c r="E45" s="61"/>
     </row>
     <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3914,35 +3914,35 @@
         <v>601</v>
       </c>
       <c r="B46" s="81"/>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="88" t="s">
         <v>602</v>
       </c>
-      <c r="D46" s="84"/>
+      <c r="D46" s="88"/>
       <c r="E46" s="62" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="75" t="s">
         <v>604</v>
       </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="78">
+      <c r="B47" s="75"/>
+      <c r="C47" s="92">
         <v>4</v>
       </c>
-      <c r="D47" s="78"/>
+      <c r="D47" s="92"/>
       <c r="E47" s="66" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="77" t="s">
         <v>605</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
       <c r="F48" s="49"/>
       <c r="G48" s="52"/>
     </row>
@@ -3951,45 +3951,45 @@
         <v>598</v>
       </c>
       <c r="B49" s="81"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
       <c r="E49" s="62" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="75" t="s">
         <v>606</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="83" t="s">
-        <v>607</v>
-      </c>
-      <c r="D50" s="83"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="89" t="s">
+        <v>618</v>
+      </c>
+      <c r="D50" s="89"/>
       <c r="E50" s="61"/>
     </row>
     <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="81" t="s">
+        <v>607</v>
+      </c>
+      <c r="B51" s="81"/>
+      <c r="C51" s="88" t="s">
         <v>608</v>
       </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="84" t="s">
-        <v>609</v>
-      </c>
-      <c r="D51" s="84"/>
+      <c r="D51" s="88"/>
       <c r="E51" s="62" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="75" t="s">
         <v>604</v>
       </c>
-      <c r="B52" s="77"/>
-      <c r="C52" s="78" t="s">
-        <v>610</v>
-      </c>
-      <c r="D52" s="78"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="92" t="s">
+        <v>609</v>
+      </c>
+      <c r="D52" s="92"/>
       <c r="E52" s="66" t="s">
         <v>92</v>
       </c>
@@ -3998,13 +3998,13 @@
       <c r="A53" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="B53" s="79" t="str">
+      <c r="B53" s="78" t="str">
         <f>B1</f>
         <v>Enter your data</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
       <c r="F53" s="49"/>
       <c r="G53" s="50"/>
     </row>
@@ -4012,13 +4012,13 @@
       <c r="A54" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="B54" s="79" t="str">
+      <c r="B54" s="78" t="str">
         <f>B2</f>
         <v>Geniox Tera C Macro CRAH</v>
       </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
       <c r="F54" s="49"/>
       <c r="G54" s="50"/>
     </row>
@@ -4026,189 +4026,189 @@
       <c r="A55" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="B55" s="79" t="str">
+      <c r="B55" s="78" t="str">
         <f>B3</f>
         <v>TERA 170</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
       <c r="F55" s="49"/>
       <c r="G55" s="50"/>
     </row>
     <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="80" t="s">
-        <v>611</v>
-      </c>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
+      <c r="A56" s="77" t="s">
+        <v>610</v>
+      </c>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
       <c r="F56" s="68"/>
       <c r="G56" s="69"/>
     </row>
     <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="73" t="s">
-        <v>612</v>
-      </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
+      <c r="A57" s="93" t="s">
+        <v>611</v>
+      </c>
+      <c r="B57" s="93"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
       <c r="F57" s="68"/>
       <c r="G57" s="69"/>
     </row>
     <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="75" t="s">
-        <v>613</v>
-      </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
+      <c r="A58" s="95" t="s">
+        <v>612</v>
+      </c>
+      <c r="B58" s="95"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
       <c r="F58" s="68"/>
       <c r="G58" s="69"/>
     </row>
     <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="73" t="s">
-        <v>614</v>
-      </c>
-      <c r="B59" s="73"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
+      <c r="A59" s="93" t="s">
+        <v>613</v>
+      </c>
+      <c r="B59" s="93"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
       <c r="F59" s="68"/>
       <c r="G59" s="69"/>
     </row>
     <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="75"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="96"/>
       <c r="F60" s="68"/>
       <c r="G60" s="69"/>
     </row>
     <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="73" t="s">
+      <c r="A61" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="73"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
       <c r="F61" s="68"/>
       <c r="G61" s="69"/>
     </row>
     <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="95" t="s">
         <v>544</v>
       </c>
-      <c r="B62" s="75"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
       <c r="F62" s="68"/>
       <c r="G62" s="69"/>
     </row>
     <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="73" t="s">
-        <v>615</v>
-      </c>
-      <c r="B63" s="73"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
+      <c r="A63" s="93" t="s">
+        <v>614</v>
+      </c>
+      <c r="B63" s="93"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="94"/>
       <c r="F63" s="68"/>
       <c r="G63" s="69"/>
     </row>
     <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="75" t="s">
-        <v>616</v>
-      </c>
-      <c r="B64" s="75"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
+      <c r="A64" s="95" t="s">
+        <v>615</v>
+      </c>
+      <c r="B64" s="95"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
       <c r="F64" s="68"/>
       <c r="G64" s="69"/>
     </row>
     <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="73" t="s">
-        <v>617</v>
-      </c>
-      <c r="B65" s="73"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
+      <c r="A65" s="93" t="s">
+        <v>616</v>
+      </c>
+      <c r="B65" s="93"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="94"/>
+      <c r="E65" s="94"/>
       <c r="F65" s="68"/>
       <c r="G65" s="69"/>
     </row>
     <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="75"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
       <c r="F66" s="68"/>
       <c r="G66" s="69"/>
     </row>
     <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="73"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="94"/>
+      <c r="E67" s="94"/>
       <c r="F67" s="68"/>
       <c r="G67" s="69"/>
     </row>
     <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="75" t="s">
+      <c r="A68" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
       <c r="F68" s="68"/>
       <c r="G68" s="69"/>
     </row>
     <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="73"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="94"/>
       <c r="F69" s="68"/>
       <c r="G69" s="69"/>
     </row>
     <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="75" t="s">
+      <c r="A70" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="75"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="96"/>
       <c r="F70" s="68"/>
       <c r="G70" s="69"/>
     </row>
     <row r="71" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="73" t="s">
-        <v>618</v>
-      </c>
-      <c r="B71" s="73"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
+      <c r="A71" s="93" t="s">
+        <v>617</v>
+      </c>
+      <c r="B71" s="93"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
       <c r="F71" s="68"/>
       <c r="G71" s="69"/>
     </row>
@@ -4889,66 +4889,55 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="A42:B42"/>
@@ -4962,55 +4951,66 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5515,7 +5515,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="100" t="s">
         <v>273</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -5540,7 +5540,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="33" t="s">
         <v>263</v>
       </c>
@@ -5563,7 +5563,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="33" t="s">
         <v>263</v>
       </c>
@@ -5586,7 +5586,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="101" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -5611,7 +5611,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="37" t="s">
         <v>240</v>
       </c>
@@ -5634,7 +5634,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="38" t="s">
         <v>242</v>
       </c>
@@ -5657,7 +5657,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="38" t="s">
         <v>244</v>
       </c>
@@ -5680,7 +5680,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5703,7 +5703,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="38" t="s">
         <v>93</v>
       </c>
@@ -5726,7 +5726,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="101" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="39" t="s">
@@ -5751,7 +5751,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="39" t="s">
         <v>98</v>
       </c>
@@ -5823,7 +5823,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="101" t="s">
         <v>103</v>
       </c>
       <c r="B15" s="40" t="s">
@@ -5848,7 +5848,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="40" t="s">
         <v>249</v>
       </c>
@@ -5871,7 +5871,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="39" t="s">
         <v>102</v>
       </c>
@@ -5894,7 +5894,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="40" t="s">
         <v>105</v>
       </c>
@@ -5917,7 +5917,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="40" t="s">
         <v>107</v>
       </c>
@@ -5940,7 +5940,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="101" t="s">
         <v>252</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -5964,7 +5964,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="37" t="s">
         <v>112</v>
       </c>
@@ -5987,7 +5987,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="37" t="s">
         <v>114</v>
       </c>
@@ -6010,7 +6010,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
+      <c r="A23" s="101"/>
       <c r="B23" s="37" t="s">
         <v>116</v>
       </c>
@@ -6033,7 +6033,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="109"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="37" t="s">
         <v>118</v>
       </c>
@@ -6056,7 +6056,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="109"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="37" t="s">
         <v>120</v>
       </c>
@@ -6079,7 +6079,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="37" t="s">
         <v>122</v>
       </c>
@@ -6102,7 +6102,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="37" t="s">
         <v>124</v>
       </c>
@@ -6125,7 +6125,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="109"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="37" t="s">
         <v>127</v>
       </c>
@@ -6148,7 +6148,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="37" t="s">
         <v>129</v>
       </c>
@@ -6171,7 +6171,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="37" t="s">
         <v>131</v>
       </c>
@@ -6194,7 +6194,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="37" t="s">
         <v>133</v>
       </c>
@@ -6217,7 +6217,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="47" t="s">
         <v>516</v>
       </c>
@@ -6240,7 +6240,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="47" t="s">
         <v>517</v>
       </c>
@@ -6263,7 +6263,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="37" t="s">
         <v>136</v>
       </c>
@@ -6286,7 +6286,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="109"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="37" t="s">
         <v>138</v>
       </c>
@@ -6309,7 +6309,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="109"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="37" t="s">
         <v>140</v>
       </c>
@@ -6331,7 +6331,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="37" t="s">
         <v>142</v>
       </c>
@@ -6353,7 +6353,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="109"/>
+      <c r="A38" s="101"/>
       <c r="B38" s="37" t="s">
         <v>144</v>
       </c>
@@ -6375,7 +6375,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="109"/>
+      <c r="A39" s="101"/>
       <c r="B39" s="39" t="s">
         <v>146</v>
       </c>
@@ -6398,7 +6398,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
+      <c r="A40" s="101"/>
       <c r="B40" s="39" t="s">
         <v>148</v>
       </c>
@@ -6421,7 +6421,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="109"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="37" t="s">
         <v>150</v>
       </c>
@@ -6443,7 +6443,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="109"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="37" t="s">
         <v>172</v>
       </c>
@@ -6466,7 +6466,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
+      <c r="A43" s="101"/>
       <c r="B43" s="37" t="s">
         <v>174</v>
       </c>
@@ -6489,7 +6489,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="109"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="37" t="s">
         <v>176</v>
       </c>
@@ -6512,7 +6512,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="109"/>
+      <c r="A45" s="101"/>
       <c r="B45" s="37" t="s">
         <v>178</v>
       </c>
@@ -6535,7 +6535,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="109"/>
+      <c r="A46" s="101"/>
       <c r="B46" s="37" t="s">
         <v>180</v>
       </c>
@@ -6558,7 +6558,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="109"/>
+      <c r="A47" s="101"/>
       <c r="B47" s="37" t="s">
         <v>192</v>
       </c>
@@ -6581,7 +6581,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="109"/>
+      <c r="A48" s="101"/>
       <c r="B48" s="39" t="s">
         <v>218</v>
       </c>
@@ -6603,7 +6603,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
+      <c r="A49" s="101"/>
       <c r="B49" s="39" t="s">
         <v>220</v>
       </c>
@@ -6625,7 +6625,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="109"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="39" t="s">
         <v>222</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="99" t="s">
         <v>254</v>
       </c>
       <c r="B51" s="39" t="s">
@@ -6672,7 +6672,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="110"/>
+      <c r="A52" s="99"/>
       <c r="B52" s="39" t="s">
         <v>154</v>
       </c>
@@ -6695,7 +6695,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="110"/>
+      <c r="A53" s="99"/>
       <c r="B53" s="39" t="s">
         <v>156</v>
       </c>
@@ -6718,7 +6718,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="110"/>
+      <c r="A54" s="99"/>
       <c r="B54" s="47" t="s">
         <v>518</v>
       </c>
@@ -6741,7 +6741,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="110"/>
+      <c r="A55" s="99"/>
       <c r="B55" s="47" t="s">
         <v>518</v>
       </c>
@@ -6764,7 +6764,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
+      <c r="A56" s="99"/>
       <c r="B56" s="47" t="s">
         <v>518</v>
       </c>
@@ -6787,7 +6787,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="110"/>
+      <c r="A57" s="99"/>
       <c r="B57" s="39" t="s">
         <v>158</v>
       </c>
@@ -6810,7 +6810,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="110"/>
+      <c r="A58" s="99"/>
       <c r="B58" s="37" t="s">
         <v>160</v>
       </c>
@@ -6833,7 +6833,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="110"/>
+      <c r="A59" s="99"/>
       <c r="B59" s="39" t="s">
         <v>162</v>
       </c>
@@ -6856,7 +6856,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="110"/>
+      <c r="A60" s="99"/>
       <c r="B60" s="39" t="s">
         <v>164</v>
       </c>
@@ -6879,7 +6879,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="110"/>
+      <c r="A61" s="99"/>
       <c r="B61" s="37" t="s">
         <v>224</v>
       </c>
@@ -6902,7 +6902,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="110"/>
+      <c r="A62" s="99"/>
       <c r="B62" s="37" t="s">
         <v>226</v>
       </c>
@@ -6925,7 +6925,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="110"/>
+      <c r="A63" s="99"/>
       <c r="B63" s="45" t="s">
         <v>228</v>
       </c>
@@ -6948,7 +6948,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="110"/>
+      <c r="A64" s="99"/>
       <c r="B64" s="47" t="s">
         <v>518</v>
       </c>
@@ -6971,7 +6971,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="110"/>
+      <c r="A65" s="99"/>
       <c r="B65" s="47" t="s">
         <v>518</v>
       </c>
@@ -6994,7 +6994,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="110"/>
+      <c r="A66" s="99"/>
       <c r="B66" s="47" t="s">
         <v>518</v>
       </c>
@@ -7017,7 +7017,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="110"/>
+      <c r="A67" s="99"/>
       <c r="B67" s="37" t="s">
         <v>230</v>
       </c>
@@ -7040,7 +7040,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="110"/>
+      <c r="A68" s="99"/>
       <c r="B68" s="37" t="s">
         <v>224</v>
       </c>
@@ -7063,7 +7063,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="110"/>
+      <c r="A69" s="99"/>
       <c r="B69" s="37" t="s">
         <v>233</v>
       </c>
@@ -7086,7 +7086,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="110"/>
+      <c r="A70" s="99"/>
       <c r="B70" s="37" t="s">
         <v>235</v>
       </c>
@@ -7109,7 +7109,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="110"/>
+      <c r="A71" s="99"/>
       <c r="B71" s="37" t="s">
         <v>166</v>
       </c>
@@ -7131,7 +7131,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="110"/>
+      <c r="A72" s="99"/>
       <c r="B72" s="37" t="s">
         <v>168</v>
       </c>
@@ -7153,7 +7153,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="110"/>
+      <c r="A73" s="99"/>
       <c r="B73" s="37" t="s">
         <v>170</v>
       </c>
@@ -7176,7 +7176,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="110"/>
+      <c r="A74" s="99"/>
       <c r="B74" s="47" t="s">
         <v>519</v>
       </c>
@@ -7199,7 +7199,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="110"/>
+      <c r="A75" s="99"/>
       <c r="B75" s="39" t="s">
         <v>196</v>
       </c>
@@ -7221,7 +7221,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="110"/>
+      <c r="A76" s="99"/>
       <c r="B76" s="39" t="s">
         <v>198</v>
       </c>
@@ -7243,7 +7243,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="110"/>
+      <c r="A77" s="99"/>
       <c r="B77" s="39" t="s">
         <v>200</v>
       </c>
@@ -7265,7 +7265,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="110"/>
+      <c r="A78" s="99"/>
       <c r="B78" s="39" t="s">
         <v>202</v>
       </c>
@@ -7287,7 +7287,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="110"/>
+      <c r="A79" s="99"/>
       <c r="B79" s="39" t="s">
         <v>204</v>
       </c>
@@ -7309,7 +7309,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="110"/>
+      <c r="A80" s="99"/>
       <c r="B80" s="39" t="s">
         <v>206</v>
       </c>
@@ -7331,7 +7331,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="110"/>
+      <c r="A81" s="99"/>
       <c r="B81" s="39" t="s">
         <v>208</v>
       </c>
@@ -7353,7 +7353,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="110"/>
+      <c r="A82" s="99"/>
       <c r="B82" s="39" t="s">
         <v>210</v>
       </c>
@@ -7375,7 +7375,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="110"/>
+      <c r="A83" s="99"/>
       <c r="B83" s="39" t="s">
         <v>212</v>
       </c>
@@ -7397,7 +7397,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="110"/>
+      <c r="A84" s="99"/>
       <c r="B84" s="39" t="s">
         <v>214</v>
       </c>
@@ -7419,7 +7419,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="110"/>
+      <c r="A85" s="99"/>
       <c r="B85" s="39" t="s">
         <v>216</v>
       </c>
@@ -7441,7 +7441,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="110" t="s">
+      <c r="A86" s="99" t="s">
         <v>270</v>
       </c>
       <c r="B86" s="37" t="s">
@@ -7466,7 +7466,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="110"/>
+      <c r="A87" s="99"/>
       <c r="B87" s="37" t="s">
         <v>267</v>
       </c>
@@ -7489,7 +7489,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="110"/>
+      <c r="A88" s="99"/>
       <c r="B88" s="37" t="s">
         <v>269</v>
       </c>
@@ -7512,7 +7512,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="109" t="s">
+      <c r="A89" s="101" t="s">
         <v>253</v>
       </c>
       <c r="B89" s="39" t="s">
@@ -7537,7 +7537,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="109"/>
+      <c r="A90" s="101"/>
       <c r="B90" s="39" t="s">
         <v>184</v>
       </c>
@@ -7560,7 +7560,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="109"/>
+      <c r="A91" s="101"/>
       <c r="B91" s="39" t="s">
         <v>186</v>
       </c>
@@ -7583,7 +7583,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="109"/>
+      <c r="A92" s="101"/>
       <c r="B92" s="39" t="s">
         <v>188</v>
       </c>
@@ -7606,7 +7606,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="109"/>
+      <c r="A93" s="101"/>
       <c r="B93" s="39" t="s">
         <v>190</v>
       </c>
@@ -7628,7 +7628,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="109"/>
+      <c r="A94" s="101"/>
       <c r="B94" s="39" t="s">
         <v>194</v>
       </c>
@@ -7648,7 +7648,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="109"/>
+      <c r="A95" s="101"/>
       <c r="B95" s="47" t="s">
         <v>520</v>
       </c>
@@ -7671,7 +7671,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="109"/>
+      <c r="A96" s="101"/>
       <c r="B96" s="47" t="s">
         <v>521</v>
       </c>
@@ -7694,7 +7694,7 @@
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A97" s="109"/>
+      <c r="A97" s="101"/>
       <c r="B97" s="37" t="s">
         <v>275</v>
       </c>
@@ -7717,7 +7717,7 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A98" s="109"/>
+      <c r="A98" s="101"/>
       <c r="B98" s="37" t="s">
         <v>276</v>
       </c>
@@ -7740,7 +7740,7 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="109"/>
+      <c r="A99" s="101"/>
       <c r="B99" s="37" t="s">
         <v>277</v>
       </c>
@@ -7763,7 +7763,7 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A100" s="109"/>
+      <c r="A100" s="101"/>
       <c r="B100" s="37" t="s">
         <v>278</v>
       </c>
@@ -7786,7 +7786,7 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A101" s="109"/>
+      <c r="A101" s="101"/>
       <c r="B101" s="37" t="s">
         <v>279</v>
       </c>
@@ -7809,7 +7809,7 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A102" s="109"/>
+      <c r="A102" s="101"/>
       <c r="B102" s="37" t="s">
         <v>280</v>
       </c>
@@ -7832,7 +7832,7 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="109"/>
+      <c r="A103" s="101"/>
       <c r="B103" s="37" t="s">
         <v>281</v>
       </c>
@@ -7855,7 +7855,7 @@
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A104" s="109"/>
+      <c r="A104" s="101"/>
       <c r="B104" s="37" t="s">
         <v>282</v>
       </c>
@@ -7878,7 +7878,7 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A105" s="109"/>
+      <c r="A105" s="101"/>
       <c r="B105" s="37" t="s">
         <v>299</v>
       </c>
@@ -7914,7 +7914,7 @@
       <c r="U105" s="30"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A106" s="109"/>
+      <c r="A106" s="101"/>
       <c r="B106" s="37" t="s">
         <v>283</v>
       </c>
@@ -7937,7 +7937,7 @@
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="109"/>
+      <c r="A107" s="101"/>
       <c r="B107" s="37" t="s">
         <v>495</v>
       </c>
@@ -7960,7 +7960,7 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A108" s="109"/>
+      <c r="A108" s="101"/>
       <c r="B108" s="37" t="s">
         <v>284</v>
       </c>
@@ -7983,7 +7983,7 @@
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A109" s="109"/>
+      <c r="A109" s="101"/>
       <c r="B109" s="37" t="s">
         <v>285</v>
       </c>
@@ -8006,7 +8006,7 @@
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A110" s="109"/>
+      <c r="A110" s="101"/>
       <c r="B110" s="37" t="s">
         <v>286</v>
       </c>
@@ -8028,7 +8028,7 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A111" s="102" t="s">
+      <c r="A111" s="105" t="s">
         <v>508</v>
       </c>
       <c r="B111" s="47" t="s">
@@ -8053,7 +8053,7 @@
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A112" s="103"/>
+      <c r="A112" s="106"/>
       <c r="B112" s="47" t="s">
         <v>523</v>
       </c>
@@ -8076,7 +8076,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="103"/>
+      <c r="A113" s="106"/>
       <c r="B113" s="37" t="s">
         <v>450</v>
       </c>
@@ -8099,7 +8099,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="103"/>
+      <c r="A114" s="106"/>
       <c r="B114" s="37" t="s">
         <v>451</v>
       </c>
@@ -8122,7 +8122,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="103"/>
+      <c r="A115" s="106"/>
       <c r="B115" s="37" t="s">
         <v>454</v>
       </c>
@@ -8145,7 +8145,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="103"/>
+      <c r="A116" s="106"/>
       <c r="B116" s="47" t="s">
         <v>524</v>
       </c>
@@ -8168,7 +8168,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="103"/>
+      <c r="A117" s="106"/>
       <c r="B117" s="37" t="s">
         <v>455</v>
       </c>
@@ -8191,7 +8191,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="103"/>
+      <c r="A118" s="106"/>
       <c r="B118" s="37" t="s">
         <v>456</v>
       </c>
@@ -8214,7 +8214,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="103"/>
+      <c r="A119" s="106"/>
       <c r="B119" s="37" t="s">
         <v>457</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="103"/>
+      <c r="A120" s="106"/>
       <c r="B120" s="37" t="s">
         <v>458</v>
       </c>
@@ -8260,7 +8260,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="103"/>
+      <c r="A121" s="106"/>
       <c r="B121" s="37" t="s">
         <v>459</v>
       </c>
@@ -8283,7 +8283,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="103"/>
+      <c r="A122" s="106"/>
       <c r="B122" s="37" t="s">
         <v>460</v>
       </c>
@@ -8306,7 +8306,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="103"/>
+      <c r="A123" s="106"/>
       <c r="B123" s="37" t="s">
         <v>461</v>
       </c>
@@ -8329,7 +8329,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="103"/>
+      <c r="A124" s="106"/>
       <c r="B124" s="37" t="s">
         <v>462</v>
       </c>
@@ -8352,7 +8352,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="103"/>
+      <c r="A125" s="106"/>
       <c r="B125" s="37" t="s">
         <v>463</v>
       </c>
@@ -8375,7 +8375,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="103"/>
+      <c r="A126" s="106"/>
       <c r="B126" s="37" t="s">
         <v>462</v>
       </c>
@@ -8398,7 +8398,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="103"/>
+      <c r="A127" s="106"/>
       <c r="B127" s="37" t="s">
         <v>464</v>
       </c>
@@ -8421,7 +8421,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="103"/>
+      <c r="A128" s="106"/>
       <c r="B128" s="37" t="s">
         <v>438</v>
       </c>
@@ -8444,7 +8444,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="103"/>
+      <c r="A129" s="106"/>
       <c r="B129" s="37" t="s">
         <v>467</v>
       </c>
@@ -8467,7 +8467,7 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="103"/>
+      <c r="A130" s="106"/>
       <c r="B130" s="37" t="s">
         <v>468</v>
       </c>
@@ -8490,7 +8490,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="103"/>
+      <c r="A131" s="106"/>
       <c r="B131" s="37" t="s">
         <v>469</v>
       </c>
@@ -8513,7 +8513,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="103"/>
+      <c r="A132" s="106"/>
       <c r="B132" s="37" t="s">
         <v>470</v>
       </c>
@@ -8536,7 +8536,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="103"/>
+      <c r="A133" s="106"/>
       <c r="B133" s="37" t="s">
         <v>471</v>
       </c>
@@ -8559,7 +8559,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="103"/>
+      <c r="A134" s="106"/>
       <c r="B134" s="47" t="s">
         <v>525</v>
       </c>
@@ -8582,7 +8582,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="103"/>
+      <c r="A135" s="106"/>
       <c r="B135" s="37" t="s">
         <v>465</v>
       </c>
@@ -8605,7 +8605,7 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="103"/>
+      <c r="A136" s="106"/>
       <c r="B136" s="37" t="s">
         <v>466</v>
       </c>
@@ -8628,7 +8628,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="103"/>
+      <c r="A137" s="106"/>
       <c r="B137" s="37" t="s">
         <v>500</v>
       </c>
@@ -8651,7 +8651,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="103"/>
+      <c r="A138" s="106"/>
       <c r="B138" s="37" t="s">
         <v>301</v>
       </c>
@@ -8673,7 +8673,7 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="103"/>
+      <c r="A139" s="106"/>
       <c r="B139" s="37" t="s">
         <v>302</v>
       </c>
@@ -8696,7 +8696,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="103"/>
+      <c r="A140" s="106"/>
       <c r="B140" s="37" t="s">
         <v>303</v>
       </c>
@@ -8719,7 +8719,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="103"/>
+      <c r="A141" s="106"/>
       <c r="B141" s="37" t="s">
         <v>304</v>
       </c>
@@ -8742,7 +8742,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="103"/>
+      <c r="A142" s="106"/>
       <c r="B142" s="37" t="s">
         <v>305</v>
       </c>
@@ -8765,7 +8765,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="103"/>
+      <c r="A143" s="106"/>
       <c r="B143" s="37" t="s">
         <v>306</v>
       </c>
@@ -8788,7 +8788,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="103"/>
+      <c r="A144" s="106"/>
       <c r="B144" s="37" t="s">
         <v>307</v>
       </c>
@@ -8811,7 +8811,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="103"/>
+      <c r="A145" s="106"/>
       <c r="B145" s="37" t="s">
         <v>308</v>
       </c>
@@ -8834,7 +8834,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="103"/>
+      <c r="A146" s="106"/>
       <c r="B146" s="37" t="s">
         <v>309</v>
       </c>
@@ -8857,7 +8857,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="103"/>
+      <c r="A147" s="106"/>
       <c r="B147" s="37" t="s">
         <v>311</v>
       </c>
@@ -8880,7 +8880,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="103"/>
+      <c r="A148" s="106"/>
       <c r="B148" s="37" t="s">
         <v>313</v>
       </c>
@@ -8903,7 +8903,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="103"/>
+      <c r="A149" s="106"/>
       <c r="B149" s="37" t="s">
         <v>315</v>
       </c>
@@ -8926,7 +8926,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="103"/>
+      <c r="A150" s="106"/>
       <c r="B150" s="47" t="s">
         <v>526</v>
       </c>
@@ -8949,7 +8949,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="103"/>
+      <c r="A151" s="106"/>
       <c r="B151" s="47" t="s">
         <v>527</v>
       </c>
@@ -8972,7 +8972,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="103"/>
+      <c r="A152" s="106"/>
       <c r="B152" s="37" t="s">
         <v>316</v>
       </c>
@@ -8995,7 +8995,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="103"/>
+      <c r="A153" s="106"/>
       <c r="B153" s="37" t="s">
         <v>318</v>
       </c>
@@ -9018,7 +9018,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="103"/>
+      <c r="A154" s="106"/>
       <c r="B154" s="37" t="s">
         <v>319</v>
       </c>
@@ -9041,7 +9041,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="103"/>
+      <c r="A155" s="106"/>
       <c r="B155" s="37" t="s">
         <v>320</v>
       </c>
@@ -9064,7 +9064,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="103"/>
+      <c r="A156" s="106"/>
       <c r="B156" s="37" t="s">
         <v>321</v>
       </c>
@@ -9087,7 +9087,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="103"/>
+      <c r="A157" s="106"/>
       <c r="B157" s="37" t="s">
         <v>322</v>
       </c>
@@ -9110,7 +9110,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" s="103"/>
+      <c r="A158" s="106"/>
       <c r="B158" s="37" t="s">
         <v>323</v>
       </c>
@@ -9132,7 +9132,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="103"/>
+      <c r="A159" s="106"/>
       <c r="B159" s="37" t="s">
         <v>324</v>
       </c>
@@ -9154,7 +9154,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="103"/>
+      <c r="A160" s="106"/>
       <c r="B160" s="37" t="s">
         <v>325</v>
       </c>
@@ -9176,7 +9176,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="103"/>
+      <c r="A161" s="106"/>
       <c r="B161" s="37" t="s">
         <v>498</v>
       </c>
@@ -9199,7 +9199,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="104"/>
+      <c r="A162" s="107"/>
       <c r="B162" s="47" t="s">
         <v>528</v>
       </c>
@@ -9222,7 +9222,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="99" t="s">
+      <c r="A163" s="102" t="s">
         <v>490</v>
       </c>
       <c r="B163" s="37" t="s">
@@ -9246,7 +9246,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="100"/>
+      <c r="A164" s="103"/>
       <c r="B164" s="37" t="s">
         <v>433</v>
       </c>
@@ -9268,7 +9268,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="100"/>
+      <c r="A165" s="103"/>
       <c r="B165" s="37" t="s">
         <v>434</v>
       </c>
@@ -9290,7 +9290,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="100"/>
+      <c r="A166" s="103"/>
       <c r="B166" s="37" t="s">
         <v>435</v>
       </c>
@@ -9312,7 +9312,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="100"/>
+      <c r="A167" s="103"/>
       <c r="B167" s="37" t="s">
         <v>436</v>
       </c>
@@ -9334,7 +9334,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="100"/>
+      <c r="A168" s="103"/>
       <c r="B168" s="37" t="s">
         <v>437</v>
       </c>
@@ -9356,7 +9356,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="100"/>
+      <c r="A169" s="103"/>
       <c r="B169" s="37" t="s">
         <v>438</v>
       </c>
@@ -9378,7 +9378,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="100"/>
+      <c r="A170" s="103"/>
       <c r="B170" s="37" t="s">
         <v>439</v>
       </c>
@@ -9400,7 +9400,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="100"/>
+      <c r="A171" s="103"/>
       <c r="B171" s="37" t="s">
         <v>440</v>
       </c>
@@ -9422,7 +9422,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="100"/>
+      <c r="A172" s="103"/>
       <c r="B172" s="37" t="s">
         <v>420</v>
       </c>
@@ -9444,7 +9444,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="100"/>
+      <c r="A173" s="103"/>
       <c r="B173" s="37" t="s">
         <v>421</v>
       </c>
@@ -9466,7 +9466,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="100"/>
+      <c r="A174" s="103"/>
       <c r="B174" s="37" t="s">
         <v>422</v>
       </c>
@@ -9488,7 +9488,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="100"/>
+      <c r="A175" s="103"/>
       <c r="B175" s="37" t="s">
         <v>423</v>
       </c>
@@ -9510,7 +9510,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="100"/>
+      <c r="A176" s="103"/>
       <c r="B176" s="37" t="s">
         <v>424</v>
       </c>
@@ -9532,7 +9532,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="100"/>
+      <c r="A177" s="103"/>
       <c r="B177" s="37" t="s">
         <v>425</v>
       </c>
@@ -9554,7 +9554,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="100"/>
+      <c r="A178" s="103"/>
       <c r="B178" s="37" t="s">
         <v>344</v>
       </c>
@@ -9576,7 +9576,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="100"/>
+      <c r="A179" s="103"/>
       <c r="B179" s="37" t="s">
         <v>345</v>
       </c>
@@ -9598,7 +9598,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="100"/>
+      <c r="A180" s="103"/>
       <c r="B180" s="37" t="s">
         <v>346</v>
       </c>
@@ -9620,7 +9620,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="100"/>
+      <c r="A181" s="103"/>
       <c r="B181" s="37" t="s">
         <v>347</v>
       </c>
@@ -9642,7 +9642,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="100"/>
+      <c r="A182" s="103"/>
       <c r="B182" s="37" t="s">
         <v>348</v>
       </c>
@@ -9664,7 +9664,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="100"/>
+      <c r="A183" s="103"/>
       <c r="B183" s="37" t="s">
         <v>349</v>
       </c>
@@ -9686,7 +9686,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="100"/>
+      <c r="A184" s="103"/>
       <c r="B184" s="37" t="s">
         <v>350</v>
       </c>
@@ -9708,7 +9708,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="100"/>
+      <c r="A185" s="103"/>
       <c r="B185" s="37" t="s">
         <v>351</v>
       </c>
@@ -9730,7 +9730,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="100"/>
+      <c r="A186" s="103"/>
       <c r="B186" s="37" t="s">
         <v>352</v>
       </c>
@@ -9752,7 +9752,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="100"/>
+      <c r="A187" s="103"/>
       <c r="B187" s="37" t="s">
         <v>353</v>
       </c>
@@ -9774,7 +9774,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="100"/>
+      <c r="A188" s="103"/>
       <c r="B188" s="37" t="s">
         <v>354</v>
       </c>
@@ -9796,7 +9796,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="100"/>
+      <c r="A189" s="103"/>
       <c r="B189" s="37" t="s">
         <v>355</v>
       </c>
@@ -9818,7 +9818,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="100"/>
+      <c r="A190" s="103"/>
       <c r="B190" s="37" t="s">
         <v>356</v>
       </c>
@@ -9840,7 +9840,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="100"/>
+      <c r="A191" s="103"/>
       <c r="B191" s="37" t="s">
         <v>357</v>
       </c>
@@ -9862,7 +9862,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="100"/>
+      <c r="A192" s="103"/>
       <c r="B192" s="37" t="s">
         <v>358</v>
       </c>
@@ -9884,7 +9884,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="100"/>
+      <c r="A193" s="103"/>
       <c r="B193" s="37" t="s">
         <v>359</v>
       </c>
@@ -9906,7 +9906,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="100"/>
+      <c r="A194" s="103"/>
       <c r="B194" s="37" t="s">
         <v>360</v>
       </c>
@@ -9928,7 +9928,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="100"/>
+      <c r="A195" s="103"/>
       <c r="B195" s="37" t="s">
         <v>361</v>
       </c>
@@ -9950,7 +9950,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="100"/>
+      <c r="A196" s="103"/>
       <c r="B196" s="37" t="s">
         <v>362</v>
       </c>
@@ -9972,7 +9972,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="100"/>
+      <c r="A197" s="103"/>
       <c r="B197" s="37" t="s">
         <v>363</v>
       </c>
@@ -9994,7 +9994,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="100"/>
+      <c r="A198" s="103"/>
       <c r="B198" s="37" t="s">
         <v>364</v>
       </c>
@@ -10016,7 +10016,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="100"/>
+      <c r="A199" s="103"/>
       <c r="B199" s="37" t="s">
         <v>365</v>
       </c>
@@ -10038,7 +10038,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="100"/>
+      <c r="A200" s="103"/>
       <c r="B200" s="37" t="s">
         <v>366</v>
       </c>
@@ -10060,7 +10060,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="100"/>
+      <c r="A201" s="103"/>
       <c r="B201" s="37" t="s">
         <v>367</v>
       </c>
@@ -10082,7 +10082,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="100"/>
+      <c r="A202" s="103"/>
       <c r="B202" s="37" t="s">
         <v>368</v>
       </c>
@@ -10104,7 +10104,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="100"/>
+      <c r="A203" s="103"/>
       <c r="B203" s="37" t="s">
         <v>369</v>
       </c>
@@ -10126,7 +10126,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="100"/>
+      <c r="A204" s="103"/>
       <c r="B204" s="37" t="s">
         <v>370</v>
       </c>
@@ -10148,7 +10148,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="100"/>
+      <c r="A205" s="103"/>
       <c r="B205" s="37" t="s">
         <v>371</v>
       </c>
@@ -10170,7 +10170,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="100"/>
+      <c r="A206" s="103"/>
       <c r="B206" s="37" t="s">
         <v>372</v>
       </c>
@@ -10192,7 +10192,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="100"/>
+      <c r="A207" s="103"/>
       <c r="B207" s="37" t="s">
         <v>373</v>
       </c>
@@ -10214,7 +10214,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="100"/>
+      <c r="A208" s="103"/>
       <c r="B208" s="37" t="s">
         <v>374</v>
       </c>
@@ -10236,7 +10236,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="100"/>
+      <c r="A209" s="103"/>
       <c r="B209" s="37" t="s">
         <v>375</v>
       </c>
@@ -10258,7 +10258,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="100"/>
+      <c r="A210" s="103"/>
       <c r="B210" s="37" t="s">
         <v>376</v>
       </c>
@@ -10280,7 +10280,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="100"/>
+      <c r="A211" s="103"/>
       <c r="B211" s="37" t="s">
         <v>377</v>
       </c>
@@ -10302,7 +10302,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="100"/>
+      <c r="A212" s="103"/>
       <c r="B212" s="37" t="s">
         <v>378</v>
       </c>
@@ -10324,7 +10324,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="100"/>
+      <c r="A213" s="103"/>
       <c r="B213" s="37" t="s">
         <v>379</v>
       </c>
@@ -10346,7 +10346,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="100"/>
+      <c r="A214" s="103"/>
       <c r="B214" s="37" t="s">
         <v>380</v>
       </c>
@@ -10368,7 +10368,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="100"/>
+      <c r="A215" s="103"/>
       <c r="B215" s="37" t="s">
         <v>381</v>
       </c>
@@ -10390,7 +10390,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="101"/>
+      <c r="A216" s="104"/>
       <c r="B216" s="47" t="s">
         <v>529</v>
       </c>
@@ -10412,27 +10412,32 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C217" s="107" t="s">
+      <c r="C217" s="110" t="s">
         <v>509</v>
       </c>
-      <c r="D217" s="107"/>
-      <c r="E217" s="107"/>
-      <c r="F217" s="105">
+      <c r="D217" s="110"/>
+      <c r="E217" s="110"/>
+      <c r="F217" s="108">
         <f>SUM(G2:G216)</f>
         <v>18316.204000000009</v>
       </c>
-      <c r="G217" s="105"/>
+      <c r="G217" s="108"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C218" s="108"/>
-      <c r="D218" s="108"/>
-      <c r="E218" s="108"/>
-      <c r="F218" s="106"/>
-      <c r="G218" s="106"/>
+      <c r="C218" s="111"/>
+      <c r="D218" s="111"/>
+      <c r="E218" s="111"/>
+      <c r="F218" s="109"/>
+      <c r="G218" s="109"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E218"/>
   <mergeCells count="12">
+    <mergeCell ref="A163:A216"/>
+    <mergeCell ref="A111:A162"/>
+    <mergeCell ref="F217:G218"/>
+    <mergeCell ref="C217:E218"/>
+    <mergeCell ref="A89:A110"/>
     <mergeCell ref="A51:A85"/>
     <mergeCell ref="A86:A88"/>
     <mergeCell ref="A2:A4"/>
@@ -10440,11 +10445,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A50"/>
-    <mergeCell ref="A163:A216"/>
-    <mergeCell ref="A111:A162"/>
-    <mergeCell ref="F217:G218"/>
-    <mergeCell ref="C217:E218"/>
-    <mergeCell ref="A89:A110"/>
   </mergeCells>
   <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
@@ -10469,7 +10469,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="117"/>
+      <c r="A1" s="122"/>
       <c r="B1" s="14">
         <v>17</v>
       </c>
@@ -10478,7 +10478,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="14">
         <v>23</v>
       </c>
@@ -10488,7 +10488,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="15">
         <v>30</v>
       </c>
@@ -10498,7 +10498,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="119" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -10510,7 +10510,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="119"/>
+      <c r="A5" s="120"/>
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
@@ -10520,7 +10520,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="116"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -10530,7 +10530,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="114" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -10542,7 +10542,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="114"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
@@ -10552,7 +10552,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="119" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -10564,7 +10564,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="116"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -10574,7 +10574,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="119" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -10585,7 +10585,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="116"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -10595,7 +10595,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="114" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -10606,7 +10606,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -10615,7 +10615,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="114"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -10625,7 +10625,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="119" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="4">
@@ -10637,7 +10637,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="2">
         <v>0</v>
       </c>
@@ -10647,7 +10647,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="114" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -10659,7 +10659,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="114"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
@@ -10669,7 +10669,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="114" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -10681,7 +10681,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="114"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
@@ -10691,7 +10691,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="114" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -10702,7 +10702,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="113"/>
+      <c r="A23" s="115"/>
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
@@ -10711,7 +10711,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="113"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="8">
         <v>2</v>
       </c>
@@ -10720,7 +10720,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="113"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="7">
         <v>3</v>
       </c>
@@ -10729,7 +10729,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="113"/>
+      <c r="A26" s="115"/>
       <c r="B26" s="7" t="s">
         <v>37</v>
       </c>
@@ -10738,7 +10738,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="114"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="9" t="s">
         <v>39</v>
       </c>
@@ -10748,7 +10748,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="112" t="s">
+      <c r="A28" s="114" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="4">
@@ -10760,7 +10760,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="113"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="5">
         <v>1</v>
       </c>
@@ -10770,7 +10770,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="113"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="5">
         <v>2</v>
       </c>
@@ -10780,7 +10780,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="5">
         <v>3</v>
       </c>
@@ -10789,7 +10789,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="113"/>
+      <c r="A32" s="115"/>
       <c r="B32" s="5">
         <v>4</v>
       </c>
@@ -10798,7 +10798,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="114"/>
+      <c r="A33" s="116"/>
       <c r="B33" s="5">
         <v>5</v>
       </c>
@@ -10807,7 +10807,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="112" t="s">
+      <c r="A34" s="114" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="4">
@@ -10818,7 +10818,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="114"/>
+      <c r="A35" s="116"/>
       <c r="B35" s="2">
         <v>1</v>
       </c>
@@ -10827,7 +10827,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="114" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -10839,19 +10839,19 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="113"/>
+      <c r="A37" s="115"/>
       <c r="B37" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="113"/>
+      <c r="A38" s="115"/>
       <c r="B38" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="113"/>
+      <c r="A39" s="115"/>
       <c r="B39" s="5" t="s">
         <v>45</v>
       </c>
@@ -10861,7 +10861,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="112" t="s">
+      <c r="A40" s="114" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="4">
@@ -10873,7 +10873,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="114"/>
+      <c r="A41" s="116"/>
       <c r="B41" s="2">
         <v>3</v>
       </c>
@@ -10883,7 +10883,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="112" t="s">
+      <c r="A42" s="114" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="4">
@@ -10894,7 +10894,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="113"/>
+      <c r="A43" s="115"/>
       <c r="B43" s="5">
         <v>1</v>
       </c>
@@ -10903,7 +10903,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="114"/>
+      <c r="A44" s="116"/>
       <c r="B44" s="2">
         <v>2</v>
       </c>
@@ -10913,7 +10913,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="112" t="s">
+      <c r="A45" s="114" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="4">
@@ -10924,13 +10924,13 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="113"/>
+      <c r="A46" s="115"/>
       <c r="B46" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="114"/>
+      <c r="A47" s="116"/>
       <c r="B47" s="2">
         <v>2</v>
       </c>
@@ -10940,7 +10940,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="114" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="4">
@@ -10952,7 +10952,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="114"/>
+      <c r="A49" s="116"/>
       <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
@@ -10962,7 +10962,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="112" t="s">
+      <c r="A50" s="114" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -10974,7 +10974,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="113"/>
+      <c r="A51" s="115"/>
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -10984,7 +10984,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="113"/>
+      <c r="A52" s="115"/>
       <c r="B52" s="5">
         <v>1</v>
       </c>
@@ -10994,7 +10994,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="113"/>
+      <c r="A53" s="115"/>
       <c r="B53" s="5">
         <v>2</v>
       </c>
@@ -11004,7 +11004,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="113"/>
+      <c r="A54" s="115"/>
       <c r="B54" s="5">
         <v>3</v>
       </c>
@@ -11014,7 +11014,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="122" t="s">
+      <c r="A55" s="117" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="10">
@@ -11026,7 +11026,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="123"/>
+      <c r="A56" s="118"/>
       <c r="B56" s="11">
         <v>1</v>
       </c>
@@ -11036,7 +11036,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="123"/>
+      <c r="A57" s="118"/>
       <c r="B57" s="11">
         <v>2</v>
       </c>
@@ -11046,7 +11046,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="123"/>
+      <c r="A58" s="118"/>
       <c r="B58" s="11">
         <v>3</v>
       </c>
@@ -11056,7 +11056,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="123"/>
+      <c r="A59" s="118"/>
       <c r="B59" s="11">
         <v>4</v>
       </c>
@@ -11066,7 +11066,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="122" t="s">
+      <c r="A60" s="117" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="10">
@@ -11078,7 +11078,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="123"/>
+      <c r="A61" s="118"/>
       <c r="B61" s="11">
         <v>1</v>
       </c>
@@ -11088,7 +11088,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="123"/>
+      <c r="A62" s="118"/>
       <c r="B62" s="11">
         <v>2</v>
       </c>
@@ -11098,7 +11098,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="123"/>
+      <c r="A63" s="118"/>
       <c r="B63" s="11">
         <v>3</v>
       </c>
@@ -11108,7 +11108,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="115" t="s">
+      <c r="A64" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -11119,7 +11119,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="119"/>
+      <c r="A65" s="120"/>
       <c r="B65" s="5" t="s">
         <v>21</v>
       </c>
@@ -11128,7 +11128,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="116"/>
+      <c r="A66" s="121"/>
       <c r="B66" s="2" t="s">
         <v>46</v>
       </c>
@@ -11137,7 +11137,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="115" t="s">
+      <c r="A67" s="119" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="12">
@@ -11148,7 +11148,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="116"/>
+      <c r="A68" s="121"/>
       <c r="B68" s="2">
         <v>1</v>
       </c>
@@ -11163,7 +11163,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="120" t="s">
+      <c r="A70" s="112" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="3">
@@ -11174,7 +11174,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="121"/>
+      <c r="A71" s="113"/>
       <c r="B71" s="3">
         <v>2</v>
       </c>
@@ -11184,6 +11184,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A41"/>
@@ -11197,16 +11207,6 @@
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TERA.xlsx
+++ b/TERA.xlsx
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="620">
   <si>
     <t>FLOW CONFIGURATION</t>
   </si>
@@ -2129,6 +2129,9 @@
   </si>
   <si>
     <t>C4</t>
+  </si>
+  <si>
+    <t>1.4.0.0</t>
   </si>
 </sst>
 </file>
@@ -2805,39 +2808,71 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2854,51 +2889,19 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2906,15 +2909,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2946,11 +2940,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2961,16 +2958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2981,6 +2969,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3328,8 +3331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3339,32 +3342,35 @@
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="79" t="s">
         <v>531</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="49"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="69" t="s">
+        <v>619</v>
+      </c>
       <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>533</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="49"/>
       <c r="G2" s="50"/>
     </row>
@@ -3372,21 +3378,21 @@
       <c r="A3" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="79" t="s">
         <v>535</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="49"/>
       <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="80" t="s">
         <v>536</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="51" t="s">
         <v>537</v>
       </c>
@@ -3400,10 +3406,10 @@
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="93" t="s">
         <v>539</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="49"/>
       <c r="G5" s="52"/>
     </row>
@@ -3413,10 +3419,10 @@
       </c>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
-      <c r="D6" s="79">
+      <c r="D6" s="96">
         <v>340.7</v>
       </c>
-      <c r="E6" s="79"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="49"/>
       <c r="G6" s="52"/>
     </row>
@@ -3426,10 +3432,10 @@
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
-      <c r="D7" s="73">
+      <c r="D7" s="93">
         <v>33333</v>
       </c>
-      <c r="E7" s="73"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="49"/>
       <c r="G7" s="52"/>
     </row>
@@ -3439,10 +3445,10 @@
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="94" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="74"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="49"/>
       <c r="G8" s="52"/>
     </row>
@@ -3452,34 +3458,34 @@
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="93" t="s">
         <v>545</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="49"/>
       <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="77" t="s">
         <v>546</v>
       </c>
-      <c r="B10" s="75"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="95" t="s">
         <v>547</v>
       </c>
-      <c r="E10" s="76"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="49"/>
       <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="80" t="s">
         <v>548</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="49"/>
       <c r="G11" s="52"/>
     </row>
@@ -3489,23 +3495,23 @@
       </c>
       <c r="B12" s="81"/>
       <c r="C12" s="81"/>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="92" t="s">
         <v>550</v>
       </c>
-      <c r="E12" s="84"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="77" t="s">
         <v>551</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="80" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="89" t="s">
         <v>552</v>
       </c>
-      <c r="E13" s="80"/>
+      <c r="E13" s="89"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
     </row>
@@ -3515,23 +3521,23 @@
       </c>
       <c r="B14" s="81"/>
       <c r="C14" s="81"/>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="90" t="s">
         <v>554</v>
       </c>
-      <c r="E14" s="82"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="77" t="s">
         <v>555</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="80" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="89" t="s">
         <v>554</v>
       </c>
-      <c r="E15" s="80"/>
+      <c r="E15" s="89"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
     </row>
@@ -3541,29 +3547,29 @@
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="90" t="s">
         <v>557</v>
       </c>
-      <c r="E16" s="82"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="80" t="s">
         <v>558</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="49"/>
       <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="91" t="s">
         <v>559</v>
       </c>
-      <c r="B18" s="83"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="58" t="s">
         <v>560</v>
       </c>
@@ -3573,10 +3579,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="77" t="s">
         <v>562</v>
       </c>
-      <c r="B19" s="75"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="86">
         <v>44</v>
       </c>
@@ -3599,10 +3605,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="77" t="s">
         <v>565</v>
       </c>
-      <c r="B21" s="75"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="86">
         <v>14.2</v>
       </c>
@@ -3625,10 +3631,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="77" t="s">
         <v>567</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="86">
         <v>102.8</v>
       </c>
@@ -3651,10 +3657,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="77" t="s">
         <v>571</v>
       </c>
-      <c r="B25" s="75"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="86">
         <v>11</v>
       </c>
@@ -3677,10 +3683,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="77" t="s">
         <v>573</v>
       </c>
-      <c r="B27" s="75"/>
+      <c r="B27" s="77"/>
       <c r="C27" s="86">
         <v>26.6</v>
       </c>
@@ -3703,14 +3709,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="77" t="s">
         <v>577</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="87">
+      <c r="B29" s="77"/>
+      <c r="C29" s="88">
         <v>71</v>
       </c>
-      <c r="D29" s="87"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="63"/>
     </row>
     <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3736,13 +3742,13 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="49"/>
       <c r="G32" s="52"/>
     </row>
@@ -3751,23 +3757,23 @@
         <v>583</v>
       </c>
       <c r="B33" s="81"/>
-      <c r="C33" s="88">
+      <c r="C33" s="84">
         <v>33333</v>
       </c>
-      <c r="D33" s="88"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="62" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="77" t="s">
         <v>584</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="90">
+      <c r="B34" s="77"/>
+      <c r="C34" s="87">
         <v>111</v>
       </c>
-      <c r="D34" s="90"/>
+      <c r="D34" s="87"/>
       <c r="E34" s="61" t="s">
         <v>568</v>
       </c>
@@ -3777,23 +3783,23 @@
         <v>585</v>
       </c>
       <c r="B35" s="81"/>
-      <c r="C35" s="88">
+      <c r="C35" s="84">
         <v>259.3</v>
       </c>
-      <c r="D35" s="88"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="62" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="77" t="s">
         <v>586</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="89">
+      <c r="B36" s="77"/>
+      <c r="C36" s="83">
         <v>1513</v>
       </c>
-      <c r="D36" s="89"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="61" t="s">
         <v>587</v>
       </c>
@@ -3803,23 +3809,23 @@
         <v>588</v>
       </c>
       <c r="B37" s="81"/>
-      <c r="C37" s="88">
+      <c r="C37" s="84">
         <v>2370</v>
       </c>
-      <c r="D37" s="88"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="62" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="77" t="s">
         <v>589</v>
       </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="89">
+      <c r="B38" s="77"/>
+      <c r="C38" s="83">
         <v>63</v>
       </c>
-      <c r="D38" s="89"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="61" t="s">
         <v>561</v>
       </c>
@@ -3836,10 +3842,10 @@
       <c r="E39" s="67"/>
     </row>
     <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="77" t="s">
         <v>592</v>
       </c>
-      <c r="B40" s="75"/>
+      <c r="B40" s="77"/>
       <c r="C40" s="86" t="s">
         <v>593</v>
       </c>
@@ -3862,10 +3868,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="77" t="s">
         <v>596</v>
       </c>
-      <c r="B42" s="75"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="86">
         <v>4.8</v>
       </c>
@@ -3875,13 +3881,13 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="77" t="s">
+      <c r="A43" s="80" t="s">
         <v>597</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="49"/>
       <c r="G43" s="52"/>
     </row>
@@ -3890,23 +3896,23 @@
         <v>598</v>
       </c>
       <c r="B44" s="81"/>
-      <c r="C44" s="91">
+      <c r="C44" s="82">
         <v>45.5</v>
       </c>
-      <c r="D44" s="91"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="62" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="77" t="s">
         <v>599</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="89" t="s">
+      <c r="B45" s="77"/>
+      <c r="C45" s="83" t="s">
         <v>600</v>
       </c>
-      <c r="D45" s="89"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="61"/>
     </row>
     <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3914,35 +3920,35 @@
         <v>601</v>
       </c>
       <c r="B46" s="81"/>
-      <c r="C46" s="88" t="s">
+      <c r="C46" s="84" t="s">
         <v>602</v>
       </c>
-      <c r="D46" s="88"/>
+      <c r="D46" s="84"/>
       <c r="E46" s="62" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="77" t="s">
         <v>604</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="92">
+      <c r="B47" s="77"/>
+      <c r="C47" s="78">
         <v>4</v>
       </c>
-      <c r="D47" s="92"/>
+      <c r="D47" s="78"/>
       <c r="E47" s="66" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="80" t="s">
         <v>605</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
       <c r="F48" s="49"/>
       <c r="G48" s="52"/>
     </row>
@@ -3951,21 +3957,21 @@
         <v>598</v>
       </c>
       <c r="B49" s="81"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
       <c r="E49" s="62" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="77" t="s">
         <v>606</v>
       </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="89" t="s">
+      <c r="B50" s="77"/>
+      <c r="C50" s="83" t="s">
         <v>618</v>
       </c>
-      <c r="D50" s="89"/>
+      <c r="D50" s="83"/>
       <c r="E50" s="61"/>
     </row>
     <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3973,23 +3979,23 @@
         <v>607</v>
       </c>
       <c r="B51" s="81"/>
-      <c r="C51" s="88" t="s">
+      <c r="C51" s="84" t="s">
         <v>608</v>
       </c>
-      <c r="D51" s="88"/>
+      <c r="D51" s="84"/>
       <c r="E51" s="62" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="77" t="s">
         <v>604</v>
       </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="92" t="s">
+      <c r="B52" s="77"/>
+      <c r="C52" s="78" t="s">
         <v>609</v>
       </c>
-      <c r="D52" s="92"/>
+      <c r="D52" s="78"/>
       <c r="E52" s="66" t="s">
         <v>92</v>
       </c>
@@ -3998,13 +4004,13 @@
       <c r="A53" s="48" t="s">
         <v>530</v>
       </c>
-      <c r="B53" s="78" t="str">
+      <c r="B53" s="79" t="str">
         <f>B1</f>
         <v>Enter your data</v>
       </c>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
       <c r="F53" s="49"/>
       <c r="G53" s="50"/>
     </row>
@@ -4012,13 +4018,13 @@
       <c r="A54" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="B54" s="78" t="str">
+      <c r="B54" s="79" t="str">
         <f>B2</f>
         <v>Geniox Tera C Macro CRAH</v>
       </c>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
       <c r="F54" s="49"/>
       <c r="G54" s="50"/>
     </row>
@@ -4026,189 +4032,189 @@
       <c r="A55" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="B55" s="78" t="str">
+      <c r="B55" s="79" t="str">
         <f>B3</f>
         <v>TERA 170</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
       <c r="F55" s="49"/>
       <c r="G55" s="50"/>
     </row>
     <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="77" t="s">
+      <c r="A56" s="80" t="s">
         <v>610</v>
       </c>
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="68"/>
       <c r="G56" s="69"/>
     </row>
     <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="93" t="s">
+      <c r="A57" s="73" t="s">
         <v>611</v>
       </c>
-      <c r="B57" s="93"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="68"/>
       <c r="G57" s="69"/>
     </row>
     <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="95" t="s">
+      <c r="A58" s="75" t="s">
         <v>612</v>
       </c>
-      <c r="B58" s="95"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="96"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
       <c r="F58" s="68"/>
       <c r="G58" s="69"/>
     </row>
     <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="93" t="s">
+      <c r="A59" s="73" t="s">
         <v>613</v>
       </c>
-      <c r="B59" s="93"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
       <c r="F59" s="68"/>
       <c r="G59" s="69"/>
     </row>
     <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="95" t="s">
+      <c r="A60" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="95"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="96"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
       <c r="F60" s="68"/>
       <c r="G60" s="69"/>
     </row>
     <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="93" t="s">
+      <c r="A61" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="68"/>
       <c r="G61" s="69"/>
     </row>
     <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="95" t="s">
+      <c r="A62" s="75" t="s">
         <v>544</v>
       </c>
-      <c r="B62" s="95"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
       <c r="F62" s="68"/>
       <c r="G62" s="69"/>
     </row>
     <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="93" t="s">
+      <c r="A63" s="73" t="s">
         <v>614</v>
       </c>
-      <c r="B63" s="93"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
       <c r="F63" s="68"/>
       <c r="G63" s="69"/>
     </row>
     <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="95" t="s">
+      <c r="A64" s="75" t="s">
         <v>615</v>
       </c>
-      <c r="B64" s="95"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="96"/>
-      <c r="E64" s="96"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
       <c r="F64" s="68"/>
       <c r="G64" s="69"/>
     </row>
     <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="93" t="s">
+      <c r="A65" s="73" t="s">
         <v>616</v>
       </c>
-      <c r="B65" s="93"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
       <c r="F65" s="68"/>
       <c r="G65" s="69"/>
     </row>
     <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="95" t="s">
+      <c r="A66" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="95"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="96"/>
-      <c r="E66" s="96"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
       <c r="F66" s="68"/>
       <c r="G66" s="69"/>
     </row>
     <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="93"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
       <c r="F67" s="68"/>
       <c r="G67" s="69"/>
     </row>
     <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="95" t="s">
+      <c r="A68" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="95"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96"/>
-      <c r="E68" s="96"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
       <c r="F68" s="68"/>
       <c r="G68" s="69"/>
     </row>
     <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="93" t="s">
+      <c r="A69" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="93"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="68"/>
       <c r="G69" s="69"/>
     </row>
     <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="95" t="s">
+      <c r="A70" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="95"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="96"/>
-      <c r="E70" s="96"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
       <c r="F70" s="68"/>
       <c r="G70" s="69"/>
     </row>
     <row r="71" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="93" t="s">
+      <c r="A71" s="73" t="s">
         <v>617</v>
       </c>
-      <c r="B71" s="93"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
       <c r="F71" s="68"/>
       <c r="G71" s="69"/>
     </row>
@@ -4636,7 +4642,6 @@
       <c r="G118" s="69"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="69"/>
       <c r="B119" s="69"/>
       <c r="C119" s="69"/>
       <c r="D119" s="69"/>
@@ -4889,42 +4894,79 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
@@ -4938,79 +4980,42 @@
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5515,7 +5520,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="111" t="s">
         <v>273</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -5540,7 +5545,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="33" t="s">
         <v>263</v>
       </c>
@@ -5563,7 +5568,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="33" t="s">
         <v>263</v>
       </c>
@@ -5586,7 +5591,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="109" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -5611,7 +5616,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="101"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="37" t="s">
         <v>240</v>
       </c>
@@ -5634,7 +5639,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="101"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="38" t="s">
         <v>242</v>
       </c>
@@ -5657,7 +5662,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="101"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="38" t="s">
         <v>244</v>
       </c>
@@ -5680,7 +5685,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5703,7 +5708,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="38" t="s">
         <v>93</v>
       </c>
@@ -5726,7 +5731,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="109" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="39" t="s">
@@ -5751,7 +5756,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="101"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="39" t="s">
         <v>98</v>
       </c>
@@ -5823,7 +5828,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="109" t="s">
         <v>103</v>
       </c>
       <c r="B15" s="40" t="s">
@@ -5848,7 +5853,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="101"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="40" t="s">
         <v>249</v>
       </c>
@@ -5871,7 +5876,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="101"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="39" t="s">
         <v>102</v>
       </c>
@@ -5894,7 +5899,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="40" t="s">
         <v>105</v>
       </c>
@@ -5917,7 +5922,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="40" t="s">
         <v>107</v>
       </c>
@@ -5940,7 +5945,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="109" t="s">
         <v>252</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -5964,7 +5969,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="37" t="s">
         <v>112</v>
       </c>
@@ -5987,7 +5992,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="37" t="s">
         <v>114</v>
       </c>
@@ -6010,7 +6015,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="101"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="37" t="s">
         <v>116</v>
       </c>
@@ -6033,7 +6038,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="101"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="37" t="s">
         <v>118</v>
       </c>
@@ -6056,7 +6061,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="101"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="37" t="s">
         <v>120</v>
       </c>
@@ -6079,7 +6084,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="101"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="37" t="s">
         <v>122</v>
       </c>
@@ -6102,7 +6107,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="101"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="37" t="s">
         <v>124</v>
       </c>
@@ -6125,7 +6130,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="101"/>
+      <c r="A28" s="109"/>
       <c r="B28" s="37" t="s">
         <v>127</v>
       </c>
@@ -6148,7 +6153,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="101"/>
+      <c r="A29" s="109"/>
       <c r="B29" s="37" t="s">
         <v>129</v>
       </c>
@@ -6171,7 +6176,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="37" t="s">
         <v>131</v>
       </c>
@@ -6194,7 +6199,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
+      <c r="A31" s="109"/>
       <c r="B31" s="37" t="s">
         <v>133</v>
       </c>
@@ -6217,7 +6222,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="47" t="s">
         <v>516</v>
       </c>
@@ -6240,7 +6245,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
+      <c r="A33" s="109"/>
       <c r="B33" s="47" t="s">
         <v>517</v>
       </c>
@@ -6263,7 +6268,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
+      <c r="A34" s="109"/>
       <c r="B34" s="37" t="s">
         <v>136</v>
       </c>
@@ -6286,7 +6291,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="101"/>
+      <c r="A35" s="109"/>
       <c r="B35" s="37" t="s">
         <v>138</v>
       </c>
@@ -6309,7 +6314,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="101"/>
+      <c r="A36" s="109"/>
       <c r="B36" s="37" t="s">
         <v>140</v>
       </c>
@@ -6331,7 +6336,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="101"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="37" t="s">
         <v>142</v>
       </c>
@@ -6353,7 +6358,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="101"/>
+      <c r="A38" s="109"/>
       <c r="B38" s="37" t="s">
         <v>144</v>
       </c>
@@ -6375,7 +6380,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="101"/>
+      <c r="A39" s="109"/>
       <c r="B39" s="39" t="s">
         <v>146</v>
       </c>
@@ -6398,7 +6403,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="101"/>
+      <c r="A40" s="109"/>
       <c r="B40" s="39" t="s">
         <v>148</v>
       </c>
@@ -6421,7 +6426,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="101"/>
+      <c r="A41" s="109"/>
       <c r="B41" s="37" t="s">
         <v>150</v>
       </c>
@@ -6443,7 +6448,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="101"/>
+      <c r="A42" s="109"/>
       <c r="B42" s="37" t="s">
         <v>172</v>
       </c>
@@ -6466,7 +6471,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="101"/>
+      <c r="A43" s="109"/>
       <c r="B43" s="37" t="s">
         <v>174</v>
       </c>
@@ -6489,7 +6494,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="101"/>
+      <c r="A44" s="109"/>
       <c r="B44" s="37" t="s">
         <v>176</v>
       </c>
@@ -6512,7 +6517,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="101"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="37" t="s">
         <v>178</v>
       </c>
@@ -6535,7 +6540,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="101"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="37" t="s">
         <v>180</v>
       </c>
@@ -6558,7 +6563,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="101"/>
+      <c r="A47" s="109"/>
       <c r="B47" s="37" t="s">
         <v>192</v>
       </c>
@@ -6581,7 +6586,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="101"/>
+      <c r="A48" s="109"/>
       <c r="B48" s="39" t="s">
         <v>218</v>
       </c>
@@ -6603,7 +6608,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="101"/>
+      <c r="A49" s="109"/>
       <c r="B49" s="39" t="s">
         <v>220</v>
       </c>
@@ -6625,7 +6630,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="101"/>
+      <c r="A50" s="109"/>
       <c r="B50" s="39" t="s">
         <v>222</v>
       </c>
@@ -6647,7 +6652,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="110" t="s">
         <v>254</v>
       </c>
       <c r="B51" s="39" t="s">
@@ -6672,7 +6677,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="99"/>
+      <c r="A52" s="110"/>
       <c r="B52" s="39" t="s">
         <v>154</v>
       </c>
@@ -6695,7 +6700,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="99"/>
+      <c r="A53" s="110"/>
       <c r="B53" s="39" t="s">
         <v>156</v>
       </c>
@@ -6718,7 +6723,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="99"/>
+      <c r="A54" s="110"/>
       <c r="B54" s="47" t="s">
         <v>518</v>
       </c>
@@ -6741,7 +6746,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="99"/>
+      <c r="A55" s="110"/>
       <c r="B55" s="47" t="s">
         <v>518</v>
       </c>
@@ -6764,7 +6769,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="99"/>
+      <c r="A56" s="110"/>
       <c r="B56" s="47" t="s">
         <v>518</v>
       </c>
@@ -6787,7 +6792,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="99"/>
+      <c r="A57" s="110"/>
       <c r="B57" s="39" t="s">
         <v>158</v>
       </c>
@@ -6810,7 +6815,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="99"/>
+      <c r="A58" s="110"/>
       <c r="B58" s="37" t="s">
         <v>160</v>
       </c>
@@ -6833,7 +6838,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="99"/>
+      <c r="A59" s="110"/>
       <c r="B59" s="39" t="s">
         <v>162</v>
       </c>
@@ -6856,7 +6861,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="99"/>
+      <c r="A60" s="110"/>
       <c r="B60" s="39" t="s">
         <v>164</v>
       </c>
@@ -6879,7 +6884,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="99"/>
+      <c r="A61" s="110"/>
       <c r="B61" s="37" t="s">
         <v>224</v>
       </c>
@@ -6902,7 +6907,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="99"/>
+      <c r="A62" s="110"/>
       <c r="B62" s="37" t="s">
         <v>226</v>
       </c>
@@ -6925,7 +6930,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="99"/>
+      <c r="A63" s="110"/>
       <c r="B63" s="45" t="s">
         <v>228</v>
       </c>
@@ -6948,7 +6953,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="99"/>
+      <c r="A64" s="110"/>
       <c r="B64" s="47" t="s">
         <v>518</v>
       </c>
@@ -6971,7 +6976,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="99"/>
+      <c r="A65" s="110"/>
       <c r="B65" s="47" t="s">
         <v>518</v>
       </c>
@@ -6994,7 +6999,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="99"/>
+      <c r="A66" s="110"/>
       <c r="B66" s="47" t="s">
         <v>518</v>
       </c>
@@ -7017,7 +7022,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="99"/>
+      <c r="A67" s="110"/>
       <c r="B67" s="37" t="s">
         <v>230</v>
       </c>
@@ -7040,7 +7045,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="99"/>
+      <c r="A68" s="110"/>
       <c r="B68" s="37" t="s">
         <v>224</v>
       </c>
@@ -7063,7 +7068,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="99"/>
+      <c r="A69" s="110"/>
       <c r="B69" s="37" t="s">
         <v>233</v>
       </c>
@@ -7086,7 +7091,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="99"/>
+      <c r="A70" s="110"/>
       <c r="B70" s="37" t="s">
         <v>235</v>
       </c>
@@ -7109,7 +7114,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="99"/>
+      <c r="A71" s="110"/>
       <c r="B71" s="37" t="s">
         <v>166</v>
       </c>
@@ -7131,7 +7136,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="99"/>
+      <c r="A72" s="110"/>
       <c r="B72" s="37" t="s">
         <v>168</v>
       </c>
@@ -7153,7 +7158,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="99"/>
+      <c r="A73" s="110"/>
       <c r="B73" s="37" t="s">
         <v>170</v>
       </c>
@@ -7176,7 +7181,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="99"/>
+      <c r="A74" s="110"/>
       <c r="B74" s="47" t="s">
         <v>519</v>
       </c>
@@ -7199,7 +7204,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="99"/>
+      <c r="A75" s="110"/>
       <c r="B75" s="39" t="s">
         <v>196</v>
       </c>
@@ -7221,7 +7226,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="99"/>
+      <c r="A76" s="110"/>
       <c r="B76" s="39" t="s">
         <v>198</v>
       </c>
@@ -7243,7 +7248,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="99"/>
+      <c r="A77" s="110"/>
       <c r="B77" s="39" t="s">
         <v>200</v>
       </c>
@@ -7265,7 +7270,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="99"/>
+      <c r="A78" s="110"/>
       <c r="B78" s="39" t="s">
         <v>202</v>
       </c>
@@ -7287,7 +7292,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="99"/>
+      <c r="A79" s="110"/>
       <c r="B79" s="39" t="s">
         <v>204</v>
       </c>
@@ -7309,7 +7314,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="99"/>
+      <c r="A80" s="110"/>
       <c r="B80" s="39" t="s">
         <v>206</v>
       </c>
@@ -7331,7 +7336,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="99"/>
+      <c r="A81" s="110"/>
       <c r="B81" s="39" t="s">
         <v>208</v>
       </c>
@@ -7353,7 +7358,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="99"/>
+      <c r="A82" s="110"/>
       <c r="B82" s="39" t="s">
         <v>210</v>
       </c>
@@ -7375,7 +7380,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="99"/>
+      <c r="A83" s="110"/>
       <c r="B83" s="39" t="s">
         <v>212</v>
       </c>
@@ -7397,7 +7402,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="99"/>
+      <c r="A84" s="110"/>
       <c r="B84" s="39" t="s">
         <v>214</v>
       </c>
@@ -7419,7 +7424,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="99"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="39" t="s">
         <v>216</v>
       </c>
@@ -7441,7 +7446,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="99" t="s">
+      <c r="A86" s="110" t="s">
         <v>270</v>
       </c>
       <c r="B86" s="37" t="s">
@@ -7466,7 +7471,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="99"/>
+      <c r="A87" s="110"/>
       <c r="B87" s="37" t="s">
         <v>267</v>
       </c>
@@ -7489,7 +7494,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="99"/>
+      <c r="A88" s="110"/>
       <c r="B88" s="37" t="s">
         <v>269</v>
       </c>
@@ -7512,7 +7517,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="101" t="s">
+      <c r="A89" s="109" t="s">
         <v>253</v>
       </c>
       <c r="B89" s="39" t="s">
@@ -7537,7 +7542,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="101"/>
+      <c r="A90" s="109"/>
       <c r="B90" s="39" t="s">
         <v>184</v>
       </c>
@@ -7560,7 +7565,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="101"/>
+      <c r="A91" s="109"/>
       <c r="B91" s="39" t="s">
         <v>186</v>
       </c>
@@ -7583,7 +7588,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="101"/>
+      <c r="A92" s="109"/>
       <c r="B92" s="39" t="s">
         <v>188</v>
       </c>
@@ -7606,7 +7611,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="101"/>
+      <c r="A93" s="109"/>
       <c r="B93" s="39" t="s">
         <v>190</v>
       </c>
@@ -7628,7 +7633,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="101"/>
+      <c r="A94" s="109"/>
       <c r="B94" s="39" t="s">
         <v>194</v>
       </c>
@@ -7648,7 +7653,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="101"/>
+      <c r="A95" s="109"/>
       <c r="B95" s="47" t="s">
         <v>520</v>
       </c>
@@ -7671,7 +7676,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="101"/>
+      <c r="A96" s="109"/>
       <c r="B96" s="47" t="s">
         <v>521</v>
       </c>
@@ -7694,7 +7699,7 @@
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A97" s="101"/>
+      <c r="A97" s="109"/>
       <c r="B97" s="37" t="s">
         <v>275</v>
       </c>
@@ -7717,7 +7722,7 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A98" s="101"/>
+      <c r="A98" s="109"/>
       <c r="B98" s="37" t="s">
         <v>276</v>
       </c>
@@ -7740,7 +7745,7 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="101"/>
+      <c r="A99" s="109"/>
       <c r="B99" s="37" t="s">
         <v>277</v>
       </c>
@@ -7763,7 +7768,7 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A100" s="101"/>
+      <c r="A100" s="109"/>
       <c r="B100" s="37" t="s">
         <v>278</v>
       </c>
@@ -7786,7 +7791,7 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A101" s="101"/>
+      <c r="A101" s="109"/>
       <c r="B101" s="37" t="s">
         <v>279</v>
       </c>
@@ -7809,7 +7814,7 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A102" s="101"/>
+      <c r="A102" s="109"/>
       <c r="B102" s="37" t="s">
         <v>280</v>
       </c>
@@ -7832,7 +7837,7 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="101"/>
+      <c r="A103" s="109"/>
       <c r="B103" s="37" t="s">
         <v>281</v>
       </c>
@@ -7855,7 +7860,7 @@
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A104" s="101"/>
+      <c r="A104" s="109"/>
       <c r="B104" s="37" t="s">
         <v>282</v>
       </c>
@@ -7878,7 +7883,7 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A105" s="101"/>
+      <c r="A105" s="109"/>
       <c r="B105" s="37" t="s">
         <v>299</v>
       </c>
@@ -7914,7 +7919,7 @@
       <c r="U105" s="30"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A106" s="101"/>
+      <c r="A106" s="109"/>
       <c r="B106" s="37" t="s">
         <v>283</v>
       </c>
@@ -7937,7 +7942,7 @@
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="101"/>
+      <c r="A107" s="109"/>
       <c r="B107" s="37" t="s">
         <v>495</v>
       </c>
@@ -7960,7 +7965,7 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A108" s="101"/>
+      <c r="A108" s="109"/>
       <c r="B108" s="37" t="s">
         <v>284</v>
       </c>
@@ -7983,7 +7988,7 @@
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A109" s="101"/>
+      <c r="A109" s="109"/>
       <c r="B109" s="37" t="s">
         <v>285</v>
       </c>
@@ -8006,7 +8011,7 @@
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A110" s="101"/>
+      <c r="A110" s="109"/>
       <c r="B110" s="37" t="s">
         <v>286</v>
       </c>
@@ -8028,7 +8033,7 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A111" s="105" t="s">
+      <c r="A111" s="102" t="s">
         <v>508</v>
       </c>
       <c r="B111" s="47" t="s">
@@ -8053,7 +8058,7 @@
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A112" s="106"/>
+      <c r="A112" s="103"/>
       <c r="B112" s="47" t="s">
         <v>523</v>
       </c>
@@ -8076,7 +8081,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="106"/>
+      <c r="A113" s="103"/>
       <c r="B113" s="37" t="s">
         <v>450</v>
       </c>
@@ -8099,7 +8104,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="106"/>
+      <c r="A114" s="103"/>
       <c r="B114" s="37" t="s">
         <v>451</v>
       </c>
@@ -8122,7 +8127,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="106"/>
+      <c r="A115" s="103"/>
       <c r="B115" s="37" t="s">
         <v>454</v>
       </c>
@@ -8145,7 +8150,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="106"/>
+      <c r="A116" s="103"/>
       <c r="B116" s="47" t="s">
         <v>524</v>
       </c>
@@ -8168,7 +8173,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="106"/>
+      <c r="A117" s="103"/>
       <c r="B117" s="37" t="s">
         <v>455</v>
       </c>
@@ -8191,7 +8196,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="106"/>
+      <c r="A118" s="103"/>
       <c r="B118" s="37" t="s">
         <v>456</v>
       </c>
@@ -8214,7 +8219,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="106"/>
+      <c r="A119" s="103"/>
       <c r="B119" s="37" t="s">
         <v>457</v>
       </c>
@@ -8237,7 +8242,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="106"/>
+      <c r="A120" s="103"/>
       <c r="B120" s="37" t="s">
         <v>458</v>
       </c>
@@ -8260,7 +8265,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="106"/>
+      <c r="A121" s="103"/>
       <c r="B121" s="37" t="s">
         <v>459</v>
       </c>
@@ -8283,7 +8288,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="106"/>
+      <c r="A122" s="103"/>
       <c r="B122" s="37" t="s">
         <v>460</v>
       </c>
@@ -8306,7 +8311,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="106"/>
+      <c r="A123" s="103"/>
       <c r="B123" s="37" t="s">
         <v>461</v>
       </c>
@@ -8329,7 +8334,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="106"/>
+      <c r="A124" s="103"/>
       <c r="B124" s="37" t="s">
         <v>462</v>
       </c>
@@ -8352,7 +8357,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="106"/>
+      <c r="A125" s="103"/>
       <c r="B125" s="37" t="s">
         <v>463</v>
       </c>
@@ -8375,7 +8380,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="106"/>
+      <c r="A126" s="103"/>
       <c r="B126" s="37" t="s">
         <v>462</v>
       </c>
@@ -8398,7 +8403,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="106"/>
+      <c r="A127" s="103"/>
       <c r="B127" s="37" t="s">
         <v>464</v>
       </c>
@@ -8421,7 +8426,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="106"/>
+      <c r="A128" s="103"/>
       <c r="B128" s="37" t="s">
         <v>438</v>
       </c>
@@ -8444,7 +8449,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="106"/>
+      <c r="A129" s="103"/>
       <c r="B129" s="37" t="s">
         <v>467</v>
       </c>
@@ -8467,7 +8472,7 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="106"/>
+      <c r="A130" s="103"/>
       <c r="B130" s="37" t="s">
         <v>468</v>
       </c>
@@ -8490,7 +8495,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="106"/>
+      <c r="A131" s="103"/>
       <c r="B131" s="37" t="s">
         <v>469</v>
       </c>
@@ -8513,7 +8518,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="106"/>
+      <c r="A132" s="103"/>
       <c r="B132" s="37" t="s">
         <v>470</v>
       </c>
@@ -8536,7 +8541,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="106"/>
+      <c r="A133" s="103"/>
       <c r="B133" s="37" t="s">
         <v>471</v>
       </c>
@@ -8559,7 +8564,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="106"/>
+      <c r="A134" s="103"/>
       <c r="B134" s="47" t="s">
         <v>525</v>
       </c>
@@ -8582,7 +8587,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="106"/>
+      <c r="A135" s="103"/>
       <c r="B135" s="37" t="s">
         <v>465</v>
       </c>
@@ -8605,7 +8610,7 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="106"/>
+      <c r="A136" s="103"/>
       <c r="B136" s="37" t="s">
         <v>466</v>
       </c>
@@ -8628,7 +8633,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="106"/>
+      <c r="A137" s="103"/>
       <c r="B137" s="37" t="s">
         <v>500</v>
       </c>
@@ -8651,7 +8656,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="106"/>
+      <c r="A138" s="103"/>
       <c r="B138" s="37" t="s">
         <v>301</v>
       </c>
@@ -8673,7 +8678,7 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="106"/>
+      <c r="A139" s="103"/>
       <c r="B139" s="37" t="s">
         <v>302</v>
       </c>
@@ -8696,7 +8701,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="106"/>
+      <c r="A140" s="103"/>
       <c r="B140" s="37" t="s">
         <v>303</v>
       </c>
@@ -8719,7 +8724,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="106"/>
+      <c r="A141" s="103"/>
       <c r="B141" s="37" t="s">
         <v>304</v>
       </c>
@@ -8742,7 +8747,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="106"/>
+      <c r="A142" s="103"/>
       <c r="B142" s="37" t="s">
         <v>305</v>
       </c>
@@ -8765,7 +8770,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="106"/>
+      <c r="A143" s="103"/>
       <c r="B143" s="37" t="s">
         <v>306</v>
       </c>
@@ -8788,7 +8793,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="106"/>
+      <c r="A144" s="103"/>
       <c r="B144" s="37" t="s">
         <v>307</v>
       </c>
@@ -8811,7 +8816,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="106"/>
+      <c r="A145" s="103"/>
       <c r="B145" s="37" t="s">
         <v>308</v>
       </c>
@@ -8834,7 +8839,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="106"/>
+      <c r="A146" s="103"/>
       <c r="B146" s="37" t="s">
         <v>309</v>
       </c>
@@ -8857,7 +8862,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="106"/>
+      <c r="A147" s="103"/>
       <c r="B147" s="37" t="s">
         <v>311</v>
       </c>
@@ -8880,7 +8885,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="106"/>
+      <c r="A148" s="103"/>
       <c r="B148" s="37" t="s">
         <v>313</v>
       </c>
@@ -8903,7 +8908,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="106"/>
+      <c r="A149" s="103"/>
       <c r="B149" s="37" t="s">
         <v>315</v>
       </c>
@@ -8926,7 +8931,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="106"/>
+      <c r="A150" s="103"/>
       <c r="B150" s="47" t="s">
         <v>526</v>
       </c>
@@ -8949,7 +8954,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="106"/>
+      <c r="A151" s="103"/>
       <c r="B151" s="47" t="s">
         <v>527</v>
       </c>
@@ -8972,7 +8977,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="106"/>
+      <c r="A152" s="103"/>
       <c r="B152" s="37" t="s">
         <v>316</v>
       </c>
@@ -8995,7 +9000,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="106"/>
+      <c r="A153" s="103"/>
       <c r="B153" s="37" t="s">
         <v>318</v>
       </c>
@@ -9018,7 +9023,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="106"/>
+      <c r="A154" s="103"/>
       <c r="B154" s="37" t="s">
         <v>319</v>
       </c>
@@ -9041,7 +9046,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="106"/>
+      <c r="A155" s="103"/>
       <c r="B155" s="37" t="s">
         <v>320</v>
       </c>
@@ -9064,7 +9069,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="106"/>
+      <c r="A156" s="103"/>
       <c r="B156" s="37" t="s">
         <v>321</v>
       </c>
@@ -9087,7 +9092,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="106"/>
+      <c r="A157" s="103"/>
       <c r="B157" s="37" t="s">
         <v>322</v>
       </c>
@@ -9110,7 +9115,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" s="106"/>
+      <c r="A158" s="103"/>
       <c r="B158" s="37" t="s">
         <v>323</v>
       </c>
@@ -9132,7 +9137,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="106"/>
+      <c r="A159" s="103"/>
       <c r="B159" s="37" t="s">
         <v>324</v>
       </c>
@@ -9154,7 +9159,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="106"/>
+      <c r="A160" s="103"/>
       <c r="B160" s="37" t="s">
         <v>325</v>
       </c>
@@ -9176,7 +9181,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="106"/>
+      <c r="A161" s="103"/>
       <c r="B161" s="37" t="s">
         <v>498</v>
       </c>
@@ -9199,7 +9204,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="107"/>
+      <c r="A162" s="104"/>
       <c r="B162" s="47" t="s">
         <v>528</v>
       </c>
@@ -9222,7 +9227,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="102" t="s">
+      <c r="A163" s="99" t="s">
         <v>490</v>
       </c>
       <c r="B163" s="37" t="s">
@@ -9246,7 +9251,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="103"/>
+      <c r="A164" s="100"/>
       <c r="B164" s="37" t="s">
         <v>433</v>
       </c>
@@ -9268,7 +9273,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="103"/>
+      <c r="A165" s="100"/>
       <c r="B165" s="37" t="s">
         <v>434</v>
       </c>
@@ -9290,7 +9295,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="103"/>
+      <c r="A166" s="100"/>
       <c r="B166" s="37" t="s">
         <v>435</v>
       </c>
@@ -9312,7 +9317,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="103"/>
+      <c r="A167" s="100"/>
       <c r="B167" s="37" t="s">
         <v>436</v>
       </c>
@@ -9334,7 +9339,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="103"/>
+      <c r="A168" s="100"/>
       <c r="B168" s="37" t="s">
         <v>437</v>
       </c>
@@ -9356,7 +9361,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="103"/>
+      <c r="A169" s="100"/>
       <c r="B169" s="37" t="s">
         <v>438</v>
       </c>
@@ -9378,7 +9383,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="103"/>
+      <c r="A170" s="100"/>
       <c r="B170" s="37" t="s">
         <v>439</v>
       </c>
@@ -9400,7 +9405,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="103"/>
+      <c r="A171" s="100"/>
       <c r="B171" s="37" t="s">
         <v>440</v>
       </c>
@@ -9422,7 +9427,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="103"/>
+      <c r="A172" s="100"/>
       <c r="B172" s="37" t="s">
         <v>420</v>
       </c>
@@ -9444,7 +9449,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="103"/>
+      <c r="A173" s="100"/>
       <c r="B173" s="37" t="s">
         <v>421</v>
       </c>
@@ -9466,7 +9471,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="103"/>
+      <c r="A174" s="100"/>
       <c r="B174" s="37" t="s">
         <v>422</v>
       </c>
@@ -9488,7 +9493,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="103"/>
+      <c r="A175" s="100"/>
       <c r="B175" s="37" t="s">
         <v>423</v>
       </c>
@@ -9510,7 +9515,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="103"/>
+      <c r="A176" s="100"/>
       <c r="B176" s="37" t="s">
         <v>424</v>
       </c>
@@ -9532,7 +9537,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="103"/>
+      <c r="A177" s="100"/>
       <c r="B177" s="37" t="s">
         <v>425</v>
       </c>
@@ -9554,7 +9559,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="103"/>
+      <c r="A178" s="100"/>
       <c r="B178" s="37" t="s">
         <v>344</v>
       </c>
@@ -9576,7 +9581,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="103"/>
+      <c r="A179" s="100"/>
       <c r="B179" s="37" t="s">
         <v>345</v>
       </c>
@@ -9598,7 +9603,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="103"/>
+      <c r="A180" s="100"/>
       <c r="B180" s="37" t="s">
         <v>346</v>
       </c>
@@ -9620,7 +9625,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="103"/>
+      <c r="A181" s="100"/>
       <c r="B181" s="37" t="s">
         <v>347</v>
       </c>
@@ -9642,7 +9647,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="103"/>
+      <c r="A182" s="100"/>
       <c r="B182" s="37" t="s">
         <v>348</v>
       </c>
@@ -9664,7 +9669,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="103"/>
+      <c r="A183" s="100"/>
       <c r="B183" s="37" t="s">
         <v>349</v>
       </c>
@@ -9686,7 +9691,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="103"/>
+      <c r="A184" s="100"/>
       <c r="B184" s="37" t="s">
         <v>350</v>
       </c>
@@ -9708,7 +9713,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="103"/>
+      <c r="A185" s="100"/>
       <c r="B185" s="37" t="s">
         <v>351</v>
       </c>
@@ -9730,7 +9735,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="103"/>
+      <c r="A186" s="100"/>
       <c r="B186" s="37" t="s">
         <v>352</v>
       </c>
@@ -9752,7 +9757,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="103"/>
+      <c r="A187" s="100"/>
       <c r="B187" s="37" t="s">
         <v>353</v>
       </c>
@@ -9774,7 +9779,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="103"/>
+      <c r="A188" s="100"/>
       <c r="B188" s="37" t="s">
         <v>354</v>
       </c>
@@ -9796,7 +9801,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="103"/>
+      <c r="A189" s="100"/>
       <c r="B189" s="37" t="s">
         <v>355</v>
       </c>
@@ -9818,7 +9823,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="103"/>
+      <c r="A190" s="100"/>
       <c r="B190" s="37" t="s">
         <v>356</v>
       </c>
@@ -9840,7 +9845,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="103"/>
+      <c r="A191" s="100"/>
       <c r="B191" s="37" t="s">
         <v>357</v>
       </c>
@@ -9862,7 +9867,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="103"/>
+      <c r="A192" s="100"/>
       <c r="B192" s="37" t="s">
         <v>358</v>
       </c>
@@ -9884,7 +9889,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="103"/>
+      <c r="A193" s="100"/>
       <c r="B193" s="37" t="s">
         <v>359</v>
       </c>
@@ -9906,7 +9911,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="103"/>
+      <c r="A194" s="100"/>
       <c r="B194" s="37" t="s">
         <v>360</v>
       </c>
@@ -9928,7 +9933,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="103"/>
+      <c r="A195" s="100"/>
       <c r="B195" s="37" t="s">
         <v>361</v>
       </c>
@@ -9950,7 +9955,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="103"/>
+      <c r="A196" s="100"/>
       <c r="B196" s="37" t="s">
         <v>362</v>
       </c>
@@ -9972,7 +9977,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="103"/>
+      <c r="A197" s="100"/>
       <c r="B197" s="37" t="s">
         <v>363</v>
       </c>
@@ -9994,7 +9999,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="103"/>
+      <c r="A198" s="100"/>
       <c r="B198" s="37" t="s">
         <v>364</v>
       </c>
@@ -10016,7 +10021,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="103"/>
+      <c r="A199" s="100"/>
       <c r="B199" s="37" t="s">
         <v>365</v>
       </c>
@@ -10038,7 +10043,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="103"/>
+      <c r="A200" s="100"/>
       <c r="B200" s="37" t="s">
         <v>366</v>
       </c>
@@ -10060,7 +10065,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="103"/>
+      <c r="A201" s="100"/>
       <c r="B201" s="37" t="s">
         <v>367</v>
       </c>
@@ -10082,7 +10087,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="103"/>
+      <c r="A202" s="100"/>
       <c r="B202" s="37" t="s">
         <v>368</v>
       </c>
@@ -10104,7 +10109,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="103"/>
+      <c r="A203" s="100"/>
       <c r="B203" s="37" t="s">
         <v>369</v>
       </c>
@@ -10126,7 +10131,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="103"/>
+      <c r="A204" s="100"/>
       <c r="B204" s="37" t="s">
         <v>370</v>
       </c>
@@ -10148,7 +10153,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="103"/>
+      <c r="A205" s="100"/>
       <c r="B205" s="37" t="s">
         <v>371</v>
       </c>
@@ -10170,7 +10175,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="103"/>
+      <c r="A206" s="100"/>
       <c r="B206" s="37" t="s">
         <v>372</v>
       </c>
@@ -10192,7 +10197,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="103"/>
+      <c r="A207" s="100"/>
       <c r="B207" s="37" t="s">
         <v>373</v>
       </c>
@@ -10214,7 +10219,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="103"/>
+      <c r="A208" s="100"/>
       <c r="B208" s="37" t="s">
         <v>374</v>
       </c>
@@ -10236,7 +10241,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="103"/>
+      <c r="A209" s="100"/>
       <c r="B209" s="37" t="s">
         <v>375</v>
       </c>
@@ -10258,7 +10263,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="103"/>
+      <c r="A210" s="100"/>
       <c r="B210" s="37" t="s">
         <v>376</v>
       </c>
@@ -10280,7 +10285,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="103"/>
+      <c r="A211" s="100"/>
       <c r="B211" s="37" t="s">
         <v>377</v>
       </c>
@@ -10302,7 +10307,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="103"/>
+      <c r="A212" s="100"/>
       <c r="B212" s="37" t="s">
         <v>378</v>
       </c>
@@ -10324,7 +10329,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="103"/>
+      <c r="A213" s="100"/>
       <c r="B213" s="37" t="s">
         <v>379</v>
       </c>
@@ -10346,7 +10351,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="103"/>
+      <c r="A214" s="100"/>
       <c r="B214" s="37" t="s">
         <v>380</v>
       </c>
@@ -10368,7 +10373,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="103"/>
+      <c r="A215" s="100"/>
       <c r="B215" s="37" t="s">
         <v>381</v>
       </c>
@@ -10390,7 +10395,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="104"/>
+      <c r="A216" s="101"/>
       <c r="B216" s="47" t="s">
         <v>529</v>
       </c>
@@ -10412,32 +10417,27 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C217" s="110" t="s">
+      <c r="C217" s="107" t="s">
         <v>509</v>
       </c>
-      <c r="D217" s="110"/>
-      <c r="E217" s="110"/>
-      <c r="F217" s="108">
+      <c r="D217" s="107"/>
+      <c r="E217" s="107"/>
+      <c r="F217" s="105">
         <f>SUM(G2:G216)</f>
         <v>18316.204000000009</v>
       </c>
-      <c r="G217" s="108"/>
+      <c r="G217" s="105"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C218" s="111"/>
-      <c r="D218" s="111"/>
-      <c r="E218" s="111"/>
-      <c r="F218" s="109"/>
-      <c r="G218" s="109"/>
+      <c r="C218" s="108"/>
+      <c r="D218" s="108"/>
+      <c r="E218" s="108"/>
+      <c r="F218" s="106"/>
+      <c r="G218" s="106"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E218"/>
   <mergeCells count="12">
-    <mergeCell ref="A163:A216"/>
-    <mergeCell ref="A111:A162"/>
-    <mergeCell ref="F217:G218"/>
-    <mergeCell ref="C217:E218"/>
-    <mergeCell ref="A89:A110"/>
     <mergeCell ref="A51:A85"/>
     <mergeCell ref="A86:A88"/>
     <mergeCell ref="A2:A4"/>
@@ -10445,6 +10445,11 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A50"/>
+    <mergeCell ref="A163:A216"/>
+    <mergeCell ref="A111:A162"/>
+    <mergeCell ref="F217:G218"/>
+    <mergeCell ref="C217:E218"/>
+    <mergeCell ref="A89:A110"/>
   </mergeCells>
   <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
@@ -10469,7 +10474,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="122"/>
+      <c r="A1" s="117"/>
       <c r="B1" s="14">
         <v>17</v>
       </c>
@@ -10478,7 +10483,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
+      <c r="A2" s="117"/>
       <c r="B2" s="14">
         <v>23</v>
       </c>
@@ -10488,7 +10493,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="123"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="15">
         <v>30</v>
       </c>
@@ -10498,7 +10503,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="115" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -10510,7 +10515,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
@@ -10520,7 +10525,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -10530,7 +10535,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="112" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -10542,7 +10547,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="116"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
@@ -10552,7 +10557,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="115" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -10564,7 +10569,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="121"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -10574,7 +10579,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="115" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -10585,7 +10590,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -10595,7 +10600,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="112" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -10606,7 +10611,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -10615,7 +10620,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="116"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -10625,7 +10630,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="115" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="4">
@@ -10637,7 +10642,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="121"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="2">
         <v>0</v>
       </c>
@@ -10647,7 +10652,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="112" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -10659,7 +10664,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="116"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
@@ -10669,7 +10674,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="112" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -10681,7 +10686,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="116"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
@@ -10691,7 +10696,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="112" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -10702,7 +10707,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="115"/>
+      <c r="A23" s="113"/>
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
@@ -10711,7 +10716,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="8">
         <v>2</v>
       </c>
@@ -10720,7 +10725,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="7">
         <v>3</v>
       </c>
@@ -10729,7 +10734,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="7" t="s">
         <v>37</v>
       </c>
@@ -10738,7 +10743,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="9" t="s">
         <v>39</v>
       </c>
@@ -10748,7 +10753,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="114" t="s">
+      <c r="A28" s="112" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="4">
@@ -10760,7 +10765,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="115"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="5">
         <v>1</v>
       </c>
@@ -10770,7 +10775,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="115"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="5">
         <v>2</v>
       </c>
@@ -10780,7 +10785,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="115"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="5">
         <v>3</v>
       </c>
@@ -10789,7 +10794,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="115"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="5">
         <v>4</v>
       </c>
@@ -10798,7 +10803,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="116"/>
+      <c r="A33" s="114"/>
       <c r="B33" s="5">
         <v>5</v>
       </c>
@@ -10807,7 +10812,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="112" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="4">
@@ -10818,7 +10823,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="116"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="2">
         <v>1</v>
       </c>
@@ -10827,7 +10832,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="114" t="s">
+      <c r="A36" s="112" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -10839,19 +10844,19 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="115"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="115"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="115"/>
+      <c r="A39" s="113"/>
       <c r="B39" s="5" t="s">
         <v>45</v>
       </c>
@@ -10861,7 +10866,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="114" t="s">
+      <c r="A40" s="112" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="4">
@@ -10873,7 +10878,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="116"/>
+      <c r="A41" s="114"/>
       <c r="B41" s="2">
         <v>3</v>
       </c>
@@ -10883,7 +10888,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="114" t="s">
+      <c r="A42" s="112" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="4">
@@ -10894,7 +10899,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="115"/>
+      <c r="A43" s="113"/>
       <c r="B43" s="5">
         <v>1</v>
       </c>
@@ -10903,7 +10908,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="116"/>
+      <c r="A44" s="114"/>
       <c r="B44" s="2">
         <v>2</v>
       </c>
@@ -10913,7 +10918,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="114" t="s">
+      <c r="A45" s="112" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="4">
@@ -10924,13 +10929,13 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="115"/>
+      <c r="A46" s="113"/>
       <c r="B46" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="116"/>
+      <c r="A47" s="114"/>
       <c r="B47" s="2">
         <v>2</v>
       </c>
@@ -10940,7 +10945,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="114" t="s">
+      <c r="A48" s="112" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="4">
@@ -10952,7 +10957,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="116"/>
+      <c r="A49" s="114"/>
       <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
@@ -10962,7 +10967,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="114" t="s">
+      <c r="A50" s="112" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -10974,7 +10979,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="115"/>
+      <c r="A51" s="113"/>
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -10984,7 +10989,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="115"/>
+      <c r="A52" s="113"/>
       <c r="B52" s="5">
         <v>1</v>
       </c>
@@ -10994,7 +10999,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="115"/>
+      <c r="A53" s="113"/>
       <c r="B53" s="5">
         <v>2</v>
       </c>
@@ -11004,7 +11009,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="115"/>
+      <c r="A54" s="113"/>
       <c r="B54" s="5">
         <v>3</v>
       </c>
@@ -11014,7 +11019,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="117" t="s">
+      <c r="A55" s="122" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="10">
@@ -11026,7 +11031,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="118"/>
+      <c r="A56" s="123"/>
       <c r="B56" s="11">
         <v>1</v>
       </c>
@@ -11036,7 +11041,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="118"/>
+      <c r="A57" s="123"/>
       <c r="B57" s="11">
         <v>2</v>
       </c>
@@ -11046,7 +11051,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="118"/>
+      <c r="A58" s="123"/>
       <c r="B58" s="11">
         <v>3</v>
       </c>
@@ -11056,7 +11061,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="118"/>
+      <c r="A59" s="123"/>
       <c r="B59" s="11">
         <v>4</v>
       </c>
@@ -11066,7 +11071,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="117" t="s">
+      <c r="A60" s="122" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="10">
@@ -11078,7 +11083,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="118"/>
+      <c r="A61" s="123"/>
       <c r="B61" s="11">
         <v>1</v>
       </c>
@@ -11088,7 +11093,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="118"/>
+      <c r="A62" s="123"/>
       <c r="B62" s="11">
         <v>2</v>
       </c>
@@ -11098,7 +11103,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="118"/>
+      <c r="A63" s="123"/>
       <c r="B63" s="11">
         <v>3</v>
       </c>
@@ -11108,7 +11113,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="119" t="s">
+      <c r="A64" s="115" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -11119,7 +11124,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="120"/>
+      <c r="A65" s="119"/>
       <c r="B65" s="5" t="s">
         <v>21</v>
       </c>
@@ -11128,7 +11133,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="121"/>
+      <c r="A66" s="116"/>
       <c r="B66" s="2" t="s">
         <v>46</v>
       </c>
@@ -11137,7 +11142,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="119" t="s">
+      <c r="A67" s="115" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="12">
@@ -11148,7 +11153,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="121"/>
+      <c r="A68" s="116"/>
       <c r="B68" s="2">
         <v>1</v>
       </c>
@@ -11163,7 +11168,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="112" t="s">
+      <c r="A70" s="120" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="3">
@@ -11174,7 +11179,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="113"/>
+      <c r="A71" s="121"/>
       <c r="B71" s="3">
         <v>2</v>
       </c>
@@ -11184,16 +11189,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A41"/>
@@ -11207,6 +11202,16 @@
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TERA.xlsx
+++ b/TERA.xlsx
@@ -2131,7 +2131,7 @@
     <t>C4</t>
   </si>
   <si>
-    <t>1.4.0.0</t>
+    <t>1.5.0.0</t>
   </si>
 </sst>
 </file>
@@ -3332,7 +3332,7 @@
   <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TERA.xlsx
+++ b/TERA.xlsx
@@ -2131,7 +2131,7 @@
     <t>C4</t>
   </si>
   <si>
-    <t>1.5.0.0</t>
+    <t>1.4.0.0</t>
   </si>
 </sst>
 </file>
@@ -3332,7 +3332,7 @@
   <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TERA.xlsx
+++ b/TERA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="h60oF1LZxTLggQb6TdpdFchnJeYqdYV4NSz7sNxoU63IJxYrt+XeultdAgXnKbtHTC/wR8iFLL8IQFevjd4lww==" workbookSaltValue="0OX9hbrWk2T1cXOo5NHEXQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="gFSFBJoSoakuiwsx0UWrt7QFkvI1sieTRDjhGwv7Rj1MowZfStlF1NOIWHITGL/rQ/0YaDubnYeSgRfV5WpgmQ==" workbookSaltValue="u6Jku+RnhAZ9oQx5bNYdBQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="620">
   <si>
     <t>FLOW CONFIGURATION</t>
   </si>
@@ -1870,6 +1870,9 @@
     <t>Enter your data</t>
   </si>
   <si>
+    <t>1.4.0.0</t>
+  </si>
+  <si>
     <t>Unit:</t>
   </si>
   <si>
@@ -2095,6 +2098,9 @@
     <t>Air Tightness Class</t>
   </si>
   <si>
+    <t>C4</t>
+  </si>
+  <si>
     <t>Damper Dimensions</t>
   </si>
   <si>
@@ -2126,12 +2132,6 @@
   </si>
   <si>
     <t>Water Shut off valve</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>1.4.0.0</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2143,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2295,15 +2295,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2598,7 +2589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2717,193 +2708,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2984,6 +2788,192 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3332,7 +3322,7 @@
   <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="190" zoomScaleNormal="100" zoomScaleSheetLayoutView="190" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3347,1613 +3337,1602 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="75" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="76" t="s">
         <v>531</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="69" t="s">
-        <v>619</v>
-      </c>
-      <c r="G1" s="50"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>532</v>
-      </c>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="75" t="s">
         <v>533</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="B2" s="76" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>534</v>
-      </c>
-      <c r="B3" s="79" t="s">
+      <c r="A3" s="75" t="s">
         <v>535</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="76" t="s">
+        <v>536</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
-      <c r="D4" s="51" t="s">
-        <v>537</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="52"/>
+      <c r="D4" s="81" t="s">
+        <v>538</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="82"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>538</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="93" t="s">
+      <c r="A5" s="83" t="s">
         <v>539</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="52"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84" t="s">
+        <v>540</v>
+      </c>
+      <c r="E5" s="84"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>540</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="96">
+      <c r="A6" s="85" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86">
         <v>340.7</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="52"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>541</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="93">
+      <c r="A7" s="83" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84">
         <v>33333</v>
       </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="52"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="82"/>
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>542</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="94" t="s">
+      <c r="A8" s="87" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="52"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="88" t="s">
+        <v>544</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="82"/>
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>544</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="93" t="s">
+      <c r="A9" s="83" t="s">
         <v>545</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="52"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84" t="s">
+        <v>546</v>
+      </c>
+      <c r="E9" s="84"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="82"/>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
-        <v>546</v>
-      </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="95" t="s">
+      <c r="A10" s="89" t="s">
         <v>547</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="52"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="90" t="s">
+        <v>548</v>
+      </c>
+      <c r="E10" s="90"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="82"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="80" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
       <c r="E11" s="80"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="52"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
-        <v>549</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
+      <c r="A12" s="91" t="s">
+        <v>550</v>
+      </c>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="92" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E12" s="92"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
-        <v>551</v>
-      </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="89" t="s">
+      <c r="A13" s="89" t="s">
         <v>552</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-    </row>
-    <row r="14" spans="1:7" s="57" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="94" t="s">
         <v>553</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="90" t="s">
+      <c r="E13" s="94"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+    </row>
+    <row r="14" spans="1:7" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="91" t="s">
         <v>554</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="95" t="s">
+        <v>555</v>
+      </c>
+      <c r="E14" s="95"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="89" t="s">
+        <v>556</v>
+      </c>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="94" t="s">
         <v>555</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="89" t="s">
-        <v>554</v>
-      </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
-        <v>556</v>
-      </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="90" t="s">
+      <c r="A16" s="91" t="s">
         <v>557</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="95" t="s">
+        <v>558</v>
+      </c>
+      <c r="E16" s="95"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="80" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
       <c r="E17" s="80"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="52"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="82"/>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
-        <v>559</v>
-      </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="58" t="s">
+      <c r="A18" s="97" t="s">
         <v>560</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60" t="s">
+      <c r="B18" s="97"/>
+      <c r="C18" s="98" t="s">
         <v>561</v>
       </c>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="89" t="s">
+        <v>563</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="101">
+        <v>44</v>
+      </c>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="91" t="s">
+        <v>565</v>
+      </c>
+      <c r="B20" s="91"/>
+      <c r="C20" s="103">
+        <v>11</v>
+      </c>
+      <c r="D20" s="103"/>
+      <c r="E20" s="104" t="s">
         <v>562</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="86">
-        <v>44</v>
-      </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="61" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
+        <v>566</v>
+      </c>
+      <c r="B21" s="89"/>
+      <c r="C21" s="101">
+        <v>14.2</v>
+      </c>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102" t="s">
         <v>564</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="85">
+    </row>
+    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="91" t="s">
+        <v>567</v>
+      </c>
+      <c r="B22" s="91"/>
+      <c r="C22" s="103">
+        <v>62.2</v>
+      </c>
+      <c r="D22" s="103"/>
+      <c r="E22" s="104" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
+        <v>568</v>
+      </c>
+      <c r="B23" s="89"/>
+      <c r="C23" s="101">
+        <v>102.8</v>
+      </c>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="91" t="s">
+        <v>570</v>
+      </c>
+      <c r="B24" s="91"/>
+      <c r="C24" s="103">
+        <v>340.7</v>
+      </c>
+      <c r="D24" s="103"/>
+      <c r="E24" s="104" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="89" t="s">
+        <v>572</v>
+      </c>
+      <c r="B25" s="89"/>
+      <c r="C25" s="101">
         <v>11</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="62" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
-        <v>565</v>
-      </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="86">
-        <v>14.2</v>
-      </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="61" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
-        <v>566</v>
-      </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="85">
-        <v>62.2</v>
-      </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="62" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
-        <v>567</v>
-      </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="86">
-        <v>102.8</v>
-      </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="61" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
-        <v>569</v>
-      </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="85">
-        <v>340.7</v>
-      </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="62" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
-        <v>571</v>
-      </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="86">
-        <v>11</v>
-      </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="61" t="s">
-        <v>563</v>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
-        <v>572</v>
-      </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="85">
+      <c r="A26" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="B26" s="91"/>
+      <c r="C26" s="103">
         <v>22</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="62" t="s">
-        <v>563</v>
+      <c r="D26" s="103"/>
+      <c r="E26" s="104" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
-        <v>573</v>
-      </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="86">
+      <c r="A27" s="89" t="s">
+        <v>574</v>
+      </c>
+      <c r="B27" s="89"/>
+      <c r="C27" s="101">
         <v>26.6</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="61" t="s">
-        <v>574</v>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
-        <v>575</v>
-      </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="85">
+      <c r="A28" s="91" t="s">
+        <v>576</v>
+      </c>
+      <c r="B28" s="91"/>
+      <c r="C28" s="103">
         <v>85.8</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="62" t="s">
-        <v>576</v>
+      <c r="D28" s="103"/>
+      <c r="E28" s="104" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
-        <v>577</v>
-      </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="88">
+      <c r="A29" s="89" t="s">
+        <v>578</v>
+      </c>
+      <c r="B29" s="89"/>
+      <c r="C29" s="105">
         <v>71</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="63"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="106"/>
     </row>
     <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="81" t="s">
-        <v>578</v>
-      </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="85" t="s">
+      <c r="A30" s="91" t="s">
         <v>579</v>
       </c>
-      <c r="D30" s="85"/>
-      <c r="E30" s="64"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="103" t="s">
+        <v>580</v>
+      </c>
+      <c r="D30" s="103"/>
+      <c r="E30" s="107"/>
     </row>
     <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
-        <v>580</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="66" t="s">
+      <c r="A31" s="108" t="s">
         <v>581</v>
+      </c>
+      <c r="B31" s="85"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="109" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B32" s="80"/>
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="52"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="82"/>
     </row>
     <row r="33" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
-        <v>583</v>
-      </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="84">
+      <c r="A33" s="91" t="s">
+        <v>584</v>
+      </c>
+      <c r="B33" s="91"/>
+      <c r="C33" s="110">
         <v>33333</v>
       </c>
-      <c r="D33" s="84"/>
-      <c r="E33" s="62" t="s">
-        <v>574</v>
+      <c r="D33" s="110"/>
+      <c r="E33" s="104" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77" t="s">
-        <v>584</v>
-      </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="87">
+      <c r="A34" s="89" t="s">
+        <v>585</v>
+      </c>
+      <c r="B34" s="89"/>
+      <c r="C34" s="111">
         <v>111</v>
       </c>
-      <c r="D34" s="87"/>
-      <c r="E34" s="61" t="s">
-        <v>568</v>
+      <c r="D34" s="111"/>
+      <c r="E34" s="102" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
-        <v>585</v>
-      </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="84">
+      <c r="A35" s="91" t="s">
+        <v>586</v>
+      </c>
+      <c r="B35" s="91"/>
+      <c r="C35" s="110">
         <v>259.3</v>
       </c>
-      <c r="D35" s="84"/>
-      <c r="E35" s="62" t="s">
-        <v>568</v>
+      <c r="D35" s="110"/>
+      <c r="E35" s="104" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77" t="s">
-        <v>586</v>
-      </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="83">
+      <c r="A36" s="89" t="s">
+        <v>587</v>
+      </c>
+      <c r="B36" s="89"/>
+      <c r="C36" s="112">
         <v>1513</v>
       </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="61" t="s">
-        <v>587</v>
+      <c r="D36" s="112"/>
+      <c r="E36" s="102" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="91" t="s">
+        <v>589</v>
+      </c>
+      <c r="B37" s="91"/>
+      <c r="C37" s="110">
+        <v>2370</v>
+      </c>
+      <c r="D37" s="110"/>
+      <c r="E37" s="104" t="s">
         <v>588</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="84">
-        <v>2370</v>
-      </c>
-      <c r="D37" s="84"/>
-      <c r="E37" s="62" t="s">
-        <v>587</v>
-      </c>
     </row>
     <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77" t="s">
-        <v>589</v>
-      </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="83">
+      <c r="A38" s="89" t="s">
+        <v>590</v>
+      </c>
+      <c r="B38" s="89"/>
+      <c r="C38" s="112">
         <v>63</v>
       </c>
-      <c r="D38" s="83"/>
-      <c r="E38" s="61" t="s">
-        <v>561</v>
+      <c r="D38" s="112"/>
+      <c r="E38" s="102" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
-        <v>590</v>
-      </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="85" t="s">
+      <c r="A39" s="91" t="s">
         <v>591</v>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="67"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="103" t="s">
+        <v>592</v>
+      </c>
+      <c r="D39" s="103"/>
+      <c r="E39" s="113"/>
     </row>
     <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
-        <v>592</v>
-      </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="86" t="s">
+      <c r="A40" s="89" t="s">
         <v>593</v>
       </c>
-      <c r="D40" s="86"/>
-      <c r="E40" s="61" t="s">
+      <c r="B40" s="89"/>
+      <c r="C40" s="101" t="s">
         <v>594</v>
       </c>
+      <c r="D40" s="101"/>
+      <c r="E40" s="102" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="81" t="s">
-        <v>595</v>
-      </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="85">
+      <c r="A41" s="91" t="s">
+        <v>596</v>
+      </c>
+      <c r="B41" s="91"/>
+      <c r="C41" s="103">
         <v>30</v>
       </c>
-      <c r="D41" s="85"/>
-      <c r="E41" s="62" t="s">
+      <c r="D41" s="103"/>
+      <c r="E41" s="104" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="77" t="s">
-        <v>596</v>
-      </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="86">
+      <c r="A42" s="89" t="s">
+        <v>597</v>
+      </c>
+      <c r="B42" s="89"/>
+      <c r="C42" s="101">
         <v>4.8</v>
       </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="61" t="s">
-        <v>570</v>
+      <c r="D42" s="101"/>
+      <c r="E42" s="102" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="80" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="52"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="82"/>
     </row>
     <row r="44" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81" t="s">
-        <v>598</v>
-      </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="82">
+      <c r="A44" s="91" t="s">
+        <v>599</v>
+      </c>
+      <c r="B44" s="91"/>
+      <c r="C44" s="114">
         <v>45.5</v>
       </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="62" t="s">
-        <v>568</v>
+      <c r="D44" s="114"/>
+      <c r="E44" s="104" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="77" t="s">
-        <v>599</v>
-      </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="83" t="s">
+      <c r="A45" s="89" t="s">
         <v>600</v>
       </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="61"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="112" t="s">
+        <v>601</v>
+      </c>
+      <c r="D45" s="112"/>
+      <c r="E45" s="102"/>
     </row>
     <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81" t="s">
-        <v>601</v>
-      </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="84" t="s">
+      <c r="A46" s="91" t="s">
         <v>602</v>
       </c>
-      <c r="D46" s="84"/>
-      <c r="E46" s="62" t="s">
+      <c r="B46" s="91"/>
+      <c r="C46" s="110" t="s">
         <v>603</v>
       </c>
+      <c r="D46" s="110"/>
+      <c r="E46" s="104" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="77" t="s">
-        <v>604</v>
-      </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="78">
+      <c r="A47" s="89" t="s">
+        <v>605</v>
+      </c>
+      <c r="B47" s="89"/>
+      <c r="C47" s="115">
         <v>4</v>
       </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="66" t="s">
+      <c r="D47" s="115"/>
+      <c r="E47" s="109" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="80" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B48" s="80"/>
       <c r="C48" s="80"/>
       <c r="D48" s="80"/>
       <c r="E48" s="80"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="52"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="82"/>
     </row>
     <row r="49" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="81" t="s">
-        <v>598</v>
-      </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="62" t="s">
-        <v>568</v>
+      <c r="A49" s="91" t="s">
+        <v>599</v>
+      </c>
+      <c r="B49" s="91"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="104" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
-        <v>606</v>
-      </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="83" t="s">
-        <v>618</v>
-      </c>
-      <c r="D50" s="83"/>
-      <c r="E50" s="61"/>
+      <c r="A50" s="89" t="s">
+        <v>607</v>
+      </c>
+      <c r="B50" s="89"/>
+      <c r="C50" s="112" t="s">
+        <v>608</v>
+      </c>
+      <c r="D50" s="112"/>
+      <c r="E50" s="102"/>
     </row>
     <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="81" t="s">
-        <v>607</v>
-      </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="84" t="s">
-        <v>608</v>
-      </c>
-      <c r="D51" s="84"/>
-      <c r="E51" s="62" t="s">
-        <v>603</v>
+      <c r="A51" s="91" t="s">
+        <v>609</v>
+      </c>
+      <c r="B51" s="91"/>
+      <c r="C51" s="110" t="s">
+        <v>610</v>
+      </c>
+      <c r="D51" s="110"/>
+      <c r="E51" s="104" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="77" t="s">
-        <v>604</v>
-      </c>
-      <c r="B52" s="77"/>
-      <c r="C52" s="78" t="s">
-        <v>609</v>
-      </c>
-      <c r="D52" s="78"/>
-      <c r="E52" s="66" t="s">
+      <c r="A52" s="89" t="s">
+        <v>605</v>
+      </c>
+      <c r="B52" s="89"/>
+      <c r="C52" s="115" t="s">
+        <v>611</v>
+      </c>
+      <c r="D52" s="115"/>
+      <c r="E52" s="109" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="75" t="s">
         <v>530</v>
       </c>
-      <c r="B53" s="79" t="str">
+      <c r="B53" s="76" t="str">
         <f>B1</f>
         <v>Enter your data</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="78"/>
     </row>
     <row r="54" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
-        <v>532</v>
-      </c>
-      <c r="B54" s="79" t="str">
+      <c r="A54" s="75" t="s">
+        <v>533</v>
+      </c>
+      <c r="B54" s="76" t="str">
         <f>B2</f>
         <v>Geniox Tera C Macro CRAH</v>
       </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="78"/>
     </row>
     <row r="55" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48" t="s">
-        <v>534</v>
-      </c>
-      <c r="B55" s="79" t="str">
+      <c r="A55" s="75" t="s">
+        <v>535</v>
+      </c>
+      <c r="B55" s="76" t="str">
         <f>B3</f>
         <v>TERA 170</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="50"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="78"/>
     </row>
     <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="80" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B56" s="80"/>
       <c r="C56" s="80"/>
       <c r="D56" s="80"/>
       <c r="E56" s="80"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="69"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="77"/>
     </row>
     <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="73" t="s">
-        <v>611</v>
-      </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="69"/>
+      <c r="A57" s="117" t="s">
+        <v>613</v>
+      </c>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="77"/>
     </row>
     <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="75" t="s">
-        <v>612</v>
-      </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="69"/>
+      <c r="A58" s="119" t="s">
+        <v>614</v>
+      </c>
+      <c r="B58" s="119"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="77"/>
     </row>
     <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="73" t="s">
-        <v>613</v>
-      </c>
-      <c r="B59" s="73"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="69"/>
+      <c r="A59" s="117" t="s">
+        <v>615</v>
+      </c>
+      <c r="B59" s="117"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="77"/>
     </row>
     <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="75"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="69"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="120"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="77"/>
     </row>
     <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="73" t="s">
+      <c r="A61" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="73"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="69"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="77"/>
     </row>
     <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="75" t="s">
-        <v>544</v>
-      </c>
-      <c r="B62" s="75"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="69"/>
+      <c r="A62" s="119" t="s">
+        <v>545</v>
+      </c>
+      <c r="B62" s="119"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="77"/>
     </row>
     <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="73" t="s">
-        <v>614</v>
-      </c>
-      <c r="B63" s="73"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="69"/>
+      <c r="A63" s="117" t="s">
+        <v>616</v>
+      </c>
+      <c r="B63" s="117"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="77"/>
     </row>
     <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="75" t="s">
-        <v>615</v>
-      </c>
-      <c r="B64" s="75"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="69"/>
+      <c r="A64" s="119" t="s">
+        <v>617</v>
+      </c>
+      <c r="B64" s="119"/>
+      <c r="C64" s="120"/>
+      <c r="D64" s="120"/>
+      <c r="E64" s="120"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="77"/>
     </row>
     <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="73" t="s">
-        <v>616</v>
-      </c>
-      <c r="B65" s="73"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="69"/>
+      <c r="A65" s="117" t="s">
+        <v>618</v>
+      </c>
+      <c r="B65" s="117"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="77"/>
     </row>
     <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="75"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="69"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="77"/>
     </row>
     <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="73"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="69"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="118"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="77"/>
     </row>
     <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="75" t="s">
+      <c r="A68" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="69"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="120"/>
+      <c r="E68" s="120"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="77"/>
     </row>
     <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="73"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="69"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="118"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="77"/>
     </row>
     <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="75" t="s">
+      <c r="A70" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="75"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="69"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="120"/>
+      <c r="D70" s="120"/>
+      <c r="E70" s="120"/>
+      <c r="F70" s="116"/>
+      <c r="G70" s="77"/>
     </row>
     <row r="71" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="73" t="s">
-        <v>617</v>
-      </c>
-      <c r="B71" s="73"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="69"/>
+      <c r="A71" s="117" t="s">
+        <v>619</v>
+      </c>
+      <c r="B71" s="117"/>
+      <c r="C71" s="118"/>
+      <c r="D71" s="118"/>
+      <c r="E71" s="118"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="77"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="69"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="69"/>
+      <c r="A72" s="77"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="116"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="77"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="69"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="69"/>
+      <c r="A73" s="77"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="77"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="69"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="69"/>
+      <c r="A74" s="77"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="116"/>
+      <c r="F74" s="116"/>
+      <c r="G74" s="77"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="69"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="69"/>
+      <c r="A75" s="77"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="116"/>
+      <c r="G75" s="77"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="69"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="69"/>
+      <c r="A76" s="77"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="77"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="69"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="69"/>
+      <c r="A77" s="77"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="77"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="69"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="69"/>
+      <c r="A78" s="77"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="77"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="69"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="69"/>
+      <c r="A79" s="77"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="77"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="69"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="69"/>
+      <c r="A80" s="77"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="116"/>
+      <c r="G80" s="77"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="69"/>
-      <c r="B81" s="69"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="69"/>
+      <c r="A81" s="77"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="116"/>
+      <c r="G81" s="77"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="69"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="69"/>
+      <c r="A82" s="77"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
+      <c r="G82" s="77"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="69"/>
-      <c r="B83" s="69"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="69"/>
+      <c r="A83" s="77"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="116"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="77"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="69"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="69"/>
+      <c r="A84" s="77"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="116"/>
+      <c r="F84" s="116"/>
+      <c r="G84" s="77"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="69"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="69"/>
+      <c r="A85" s="77"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="116"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="77"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="69"/>
+      <c r="A86" s="77"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="77"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="69"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="69"/>
+      <c r="A87" s="77"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="116"/>
+      <c r="G87" s="77"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="69"/>
+      <c r="A88" s="77"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="116"/>
+      <c r="F88" s="116"/>
+      <c r="G88" s="77"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="69"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="69"/>
+      <c r="A89" s="77"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="116"/>
+      <c r="F89" s="116"/>
+      <c r="G89" s="77"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="69"/>
+      <c r="A90" s="77"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="77"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="69"/>
-      <c r="B91" s="69"/>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="69"/>
+      <c r="A91" s="77"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="116"/>
+      <c r="F91" s="116"/>
+      <c r="G91" s="77"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="69"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="69"/>
+      <c r="A92" s="77"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="77"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="116"/>
+      <c r="F92" s="116"/>
+      <c r="G92" s="77"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="69"/>
-      <c r="B93" s="69"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="69"/>
+      <c r="A93" s="77"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="116"/>
+      <c r="F93" s="116"/>
+      <c r="G93" s="77"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="69"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="68"/>
-      <c r="F94" s="68"/>
-      <c r="G94" s="69"/>
+      <c r="A94" s="77"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="116"/>
+      <c r="F94" s="116"/>
+      <c r="G94" s="77"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="69"/>
-      <c r="B95" s="69"/>
-      <c r="C95" s="69"/>
-      <c r="D95" s="69"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="69"/>
+      <c r="A95" s="77"/>
+      <c r="B95" s="77"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="116"/>
+      <c r="F95" s="116"/>
+      <c r="G95" s="77"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="69"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="69"/>
+      <c r="A96" s="77"/>
+      <c r="B96" s="77"/>
+      <c r="C96" s="77"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="116"/>
+      <c r="F96" s="116"/>
+      <c r="G96" s="77"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="69"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="69"/>
+      <c r="A97" s="77"/>
+      <c r="B97" s="77"/>
+      <c r="C97" s="77"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="116"/>
+      <c r="G97" s="77"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="69"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="69"/>
+      <c r="A98" s="77"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="116"/>
+      <c r="F98" s="116"/>
+      <c r="G98" s="77"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="69"/>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="69"/>
+      <c r="A99" s="77"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="77"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="69"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="68"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="69"/>
+      <c r="A100" s="77"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="116"/>
+      <c r="F100" s="116"/>
+      <c r="G100" s="77"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="69"/>
-      <c r="B101" s="69"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="68"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="69"/>
+      <c r="A101" s="77"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="116"/>
+      <c r="G101" s="77"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="69"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="68"/>
-      <c r="F102" s="68"/>
-      <c r="G102" s="69"/>
+      <c r="A102" s="77"/>
+      <c r="B102" s="77"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="116"/>
+      <c r="F102" s="116"/>
+      <c r="G102" s="77"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="69"/>
-      <c r="B103" s="69"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="69"/>
+      <c r="A103" s="77"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="116"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="77"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="69"/>
-      <c r="B104" s="69"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="68"/>
-      <c r="F104" s="68"/>
-      <c r="G104" s="69"/>
+      <c r="A104" s="77"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="116"/>
+      <c r="F104" s="116"/>
+      <c r="G104" s="77"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="69"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="69"/>
+      <c r="A105" s="77"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="116"/>
+      <c r="F105" s="116"/>
+      <c r="G105" s="77"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="69"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="68"/>
-      <c r="F106" s="68"/>
-      <c r="G106" s="69"/>
+      <c r="A106" s="77"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="116"/>
+      <c r="F106" s="116"/>
+      <c r="G106" s="77"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="69"/>
-      <c r="B107" s="69"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="68"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="69"/>
+      <c r="A107" s="77"/>
+      <c r="B107" s="77"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="116"/>
+      <c r="F107" s="116"/>
+      <c r="G107" s="77"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="69"/>
-      <c r="B108" s="69"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="68"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="69"/>
+      <c r="A108" s="77"/>
+      <c r="B108" s="77"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="116"/>
+      <c r="F108" s="116"/>
+      <c r="G108" s="77"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="69"/>
-      <c r="B109" s="69"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="68"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="69"/>
+      <c r="A109" s="77"/>
+      <c r="B109" s="77"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="116"/>
+      <c r="F109" s="116"/>
+      <c r="G109" s="77"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="69"/>
-      <c r="B110" s="69"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="68"/>
-      <c r="F110" s="68"/>
-      <c r="G110" s="69"/>
+      <c r="A110" s="77"/>
+      <c r="B110" s="77"/>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="116"/>
+      <c r="F110" s="116"/>
+      <c r="G110" s="77"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="69"/>
-      <c r="B111" s="69"/>
-      <c r="C111" s="69"/>
-      <c r="D111" s="69"/>
-      <c r="E111" s="68"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="69"/>
+      <c r="A111" s="77"/>
+      <c r="B111" s="77"/>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="116"/>
+      <c r="G111" s="77"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="69"/>
-      <c r="B112" s="69"/>
-      <c r="C112" s="69"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="68"/>
-      <c r="F112" s="68"/>
-      <c r="G112" s="69"/>
+      <c r="A112" s="77"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="116"/>
+      <c r="F112" s="116"/>
+      <c r="G112" s="77"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="69"/>
-      <c r="B113" s="69"/>
-      <c r="C113" s="69"/>
-      <c r="D113" s="69"/>
-      <c r="E113" s="68"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="69"/>
+      <c r="A113" s="77"/>
+      <c r="B113" s="77"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="116"/>
+      <c r="F113" s="116"/>
+      <c r="G113" s="77"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="69"/>
-      <c r="B114" s="69"/>
-      <c r="C114" s="69"/>
-      <c r="D114" s="69"/>
-      <c r="E114" s="68"/>
-      <c r="F114" s="68"/>
-      <c r="G114" s="69"/>
+      <c r="A114" s="77"/>
+      <c r="B114" s="77"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="116"/>
+      <c r="F114" s="116"/>
+      <c r="G114" s="77"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="69"/>
-      <c r="B115" s="69"/>
-      <c r="C115" s="69"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="68"/>
-      <c r="F115" s="68"/>
-      <c r="G115" s="69"/>
+      <c r="A115" s="77"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="116"/>
+      <c r="F115" s="116"/>
+      <c r="G115" s="77"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="69"/>
-      <c r="B116" s="69"/>
-      <c r="C116" s="69"/>
-      <c r="D116" s="69"/>
-      <c r="E116" s="68"/>
-      <c r="F116" s="68"/>
-      <c r="G116" s="69"/>
+      <c r="A116" s="77"/>
+      <c r="B116" s="77"/>
+      <c r="C116" s="77"/>
+      <c r="D116" s="77"/>
+      <c r="E116" s="116"/>
+      <c r="F116" s="116"/>
+      <c r="G116" s="77"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="69"/>
-      <c r="B117" s="69"/>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="68"/>
-      <c r="F117" s="68"/>
-      <c r="G117" s="69"/>
+      <c r="A117" s="77"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="116"/>
+      <c r="F117" s="116"/>
+      <c r="G117" s="77"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="69"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="69"/>
-      <c r="D118" s="69"/>
-      <c r="E118" s="68"/>
-      <c r="F118" s="68"/>
-      <c r="G118" s="69"/>
+      <c r="A118" s="77"/>
+      <c r="B118" s="77"/>
+      <c r="C118" s="77"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="116"/>
+      <c r="F118" s="116"/>
+      <c r="G118" s="77"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B119" s="69"/>
-      <c r="C119" s="69"/>
-      <c r="D119" s="69"/>
-      <c r="E119" s="68"/>
-      <c r="F119" s="68"/>
-      <c r="G119" s="69"/>
+      <c r="B119" s="77"/>
+      <c r="C119" s="77"/>
+      <c r="D119" s="77"/>
+      <c r="E119" s="116"/>
+      <c r="F119" s="116"/>
+      <c r="G119" s="77"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="69"/>
-      <c r="B120" s="69"/>
-      <c r="C120" s="69"/>
-      <c r="D120" s="69"/>
-      <c r="E120" s="68"/>
-      <c r="F120" s="68"/>
-      <c r="G120" s="69"/>
+      <c r="A120" s="77"/>
+      <c r="B120" s="77"/>
+      <c r="C120" s="77"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="116"/>
+      <c r="F120" s="116"/>
+      <c r="G120" s="77"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="69"/>
-      <c r="B121" s="69"/>
-      <c r="C121" s="69"/>
-      <c r="D121" s="69"/>
-      <c r="E121" s="68"/>
-      <c r="F121" s="68"/>
-      <c r="G121" s="69"/>
+      <c r="A121" s="77"/>
+      <c r="B121" s="77"/>
+      <c r="C121" s="77"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="116"/>
+      <c r="F121" s="116"/>
+      <c r="G121" s="77"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="69"/>
-      <c r="B122" s="69"/>
-      <c r="C122" s="69"/>
-      <c r="D122" s="69"/>
-      <c r="E122" s="68"/>
-      <c r="F122" s="68"/>
-      <c r="G122" s="69"/>
+      <c r="A122" s="77"/>
+      <c r="B122" s="77"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="116"/>
+      <c r="F122" s="116"/>
+      <c r="G122" s="77"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="69"/>
-      <c r="B123" s="69"/>
-      <c r="C123" s="69"/>
-      <c r="D123" s="69"/>
-      <c r="E123" s="68"/>
-      <c r="F123" s="68"/>
-      <c r="G123" s="69"/>
+      <c r="A123" s="77"/>
+      <c r="B123" s="77"/>
+      <c r="C123" s="77"/>
+      <c r="D123" s="77"/>
+      <c r="E123" s="116"/>
+      <c r="F123" s="116"/>
+      <c r="G123" s="77"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="69"/>
-      <c r="B124" s="69"/>
-      <c r="C124" s="69"/>
-      <c r="D124" s="69"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="68"/>
-      <c r="G124" s="69"/>
+      <c r="A124" s="77"/>
+      <c r="B124" s="77"/>
+      <c r="C124" s="77"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="116"/>
+      <c r="F124" s="116"/>
+      <c r="G124" s="77"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="69"/>
-      <c r="B125" s="69"/>
-      <c r="C125" s="69"/>
-      <c r="D125" s="69"/>
-      <c r="E125" s="68"/>
-      <c r="F125" s="68"/>
-      <c r="G125" s="69"/>
+      <c r="A125" s="77"/>
+      <c r="B125" s="77"/>
+      <c r="C125" s="77"/>
+      <c r="D125" s="77"/>
+      <c r="E125" s="116"/>
+      <c r="F125" s="116"/>
+      <c r="G125" s="77"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="69"/>
-      <c r="B126" s="69"/>
-      <c r="C126" s="69"/>
-      <c r="D126" s="69"/>
-      <c r="E126" s="68"/>
-      <c r="F126" s="68"/>
-      <c r="G126" s="69"/>
+      <c r="A126" s="77"/>
+      <c r="B126" s="77"/>
+      <c r="C126" s="77"/>
+      <c r="D126" s="77"/>
+      <c r="E126" s="116"/>
+      <c r="F126" s="116"/>
+      <c r="G126" s="77"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="69"/>
-      <c r="B127" s="69"/>
-      <c r="C127" s="69"/>
-      <c r="D127" s="69"/>
-      <c r="E127" s="68"/>
-      <c r="F127" s="68"/>
-      <c r="G127" s="69"/>
+      <c r="A127" s="77"/>
+      <c r="B127" s="77"/>
+      <c r="C127" s="77"/>
+      <c r="D127" s="77"/>
+      <c r="E127" s="116"/>
+      <c r="F127" s="116"/>
+      <c r="G127" s="77"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="69"/>
-      <c r="B128" s="69"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="69"/>
-      <c r="E128" s="68"/>
-      <c r="F128" s="68"/>
-      <c r="G128" s="69"/>
+      <c r="A128" s="77"/>
+      <c r="B128" s="77"/>
+      <c r="C128" s="77"/>
+      <c r="D128" s="77"/>
+      <c r="E128" s="116"/>
+      <c r="F128" s="116"/>
+      <c r="G128" s="77"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="69"/>
-      <c r="B129" s="69"/>
-      <c r="C129" s="69"/>
-      <c r="D129" s="69"/>
-      <c r="E129" s="68"/>
-      <c r="F129" s="68"/>
-      <c r="G129" s="69"/>
+      <c r="A129" s="77"/>
+      <c r="B129" s="77"/>
+      <c r="C129" s="77"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="116"/>
+      <c r="F129" s="116"/>
+      <c r="G129" s="77"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="69"/>
-      <c r="B130" s="69"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="69"/>
-      <c r="E130" s="68"/>
-      <c r="F130" s="68"/>
-      <c r="G130" s="69"/>
+      <c r="A130" s="77"/>
+      <c r="B130" s="77"/>
+      <c r="C130" s="77"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="116"/>
+      <c r="F130" s="116"/>
+      <c r="G130" s="77"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="70"/>
-      <c r="B131" s="70"/>
-      <c r="C131" s="70"/>
-      <c r="D131" s="70"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="70"/>
+      <c r="A131" s="121"/>
+      <c r="B131" s="121"/>
+      <c r="C131" s="121"/>
+      <c r="D131" s="121"/>
+      <c r="E131" s="122"/>
+      <c r="F131" s="122"/>
+      <c r="G131" s="121"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="70"/>
-      <c r="B132" s="70"/>
-      <c r="C132" s="70"/>
-      <c r="D132" s="70"/>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="70"/>
+      <c r="A132" s="121"/>
+      <c r="B132" s="121"/>
+      <c r="C132" s="121"/>
+      <c r="D132" s="121"/>
+      <c r="E132" s="122"/>
+      <c r="F132" s="122"/>
+      <c r="G132" s="121"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="70"/>
-      <c r="B133" s="70"/>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="70"/>
+      <c r="A133" s="121"/>
+      <c r="B133" s="121"/>
+      <c r="C133" s="121"/>
+      <c r="D133" s="121"/>
+      <c r="E133" s="122"/>
+      <c r="F133" s="122"/>
+      <c r="G133" s="121"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="70"/>
-      <c r="B134" s="70"/>
-      <c r="C134" s="70"/>
-      <c r="D134" s="70"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="70"/>
+      <c r="A134" s="121"/>
+      <c r="B134" s="121"/>
+      <c r="C134" s="121"/>
+      <c r="D134" s="121"/>
+      <c r="E134" s="122"/>
+      <c r="F134" s="122"/>
+      <c r="G134" s="121"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="70"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="70"/>
-      <c r="D135" s="70"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="71"/>
-      <c r="G135" s="70"/>
+      <c r="A135" s="121"/>
+      <c r="B135" s="121"/>
+      <c r="C135" s="121"/>
+      <c r="D135" s="121"/>
+      <c r="E135" s="122"/>
+      <c r="F135" s="122"/>
+      <c r="G135" s="121"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="70"/>
-      <c r="B136" s="70"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="71"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="70"/>
+      <c r="A136" s="121"/>
+      <c r="B136" s="121"/>
+      <c r="C136" s="121"/>
+      <c r="D136" s="121"/>
+      <c r="E136" s="122"/>
+      <c r="F136" s="122"/>
+      <c r="G136" s="121"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="70"/>
-      <c r="B137" s="70"/>
-      <c r="C137" s="70"/>
-      <c r="D137" s="70"/>
-      <c r="E137" s="71"/>
-      <c r="F137" s="71"/>
-      <c r="G137" s="70"/>
+      <c r="A137" s="121"/>
+      <c r="B137" s="121"/>
+      <c r="C137" s="121"/>
+      <c r="D137" s="121"/>
+      <c r="E137" s="122"/>
+      <c r="F137" s="122"/>
+      <c r="G137" s="121"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="70"/>
-      <c r="B138" s="70"/>
-      <c r="C138" s="70"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="71"/>
-      <c r="F138" s="71"/>
-      <c r="G138" s="70"/>
+      <c r="A138" s="121"/>
+      <c r="B138" s="121"/>
+      <c r="C138" s="121"/>
+      <c r="D138" s="121"/>
+      <c r="E138" s="122"/>
+      <c r="F138" s="122"/>
+      <c r="G138" s="121"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="70"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="70"/>
+      <c r="A139" s="121"/>
+      <c r="B139" s="121"/>
+      <c r="C139" s="121"/>
+      <c r="D139" s="121"/>
+      <c r="E139" s="122"/>
+      <c r="F139" s="122"/>
+      <c r="G139" s="121"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="70"/>
-      <c r="B140" s="70"/>
-      <c r="C140" s="70"/>
-      <c r="D140" s="70"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="70"/>
+      <c r="A140" s="121"/>
+      <c r="B140" s="121"/>
+      <c r="C140" s="121"/>
+      <c r="D140" s="121"/>
+      <c r="E140" s="122"/>
+      <c r="F140" s="122"/>
+      <c r="G140" s="121"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="70"/>
-      <c r="B141" s="70"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="70"/>
+      <c r="A141" s="121"/>
+      <c r="B141" s="121"/>
+      <c r="C141" s="121"/>
+      <c r="D141" s="121"/>
+      <c r="E141" s="122"/>
+      <c r="F141" s="122"/>
+      <c r="G141" s="121"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="70"/>
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="71"/>
-      <c r="F142" s="71"/>
-      <c r="G142" s="70"/>
+      <c r="A142" s="121"/>
+      <c r="B142" s="121"/>
+      <c r="C142" s="121"/>
+      <c r="D142" s="121"/>
+      <c r="E142" s="122"/>
+      <c r="F142" s="122"/>
+      <c r="G142" s="121"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="70"/>
-      <c r="B143" s="70"/>
-      <c r="C143" s="70"/>
-      <c r="D143" s="70"/>
-      <c r="E143" s="71"/>
-      <c r="F143" s="71"/>
-      <c r="G143" s="70"/>
+      <c r="A143" s="121"/>
+      <c r="B143" s="121"/>
+      <c r="C143" s="121"/>
+      <c r="D143" s="121"/>
+      <c r="E143" s="122"/>
+      <c r="F143" s="122"/>
+      <c r="G143" s="121"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="70"/>
-      <c r="B144" s="70"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="70"/>
+      <c r="A144" s="121"/>
+      <c r="B144" s="121"/>
+      <c r="C144" s="121"/>
+      <c r="D144" s="121"/>
+      <c r="E144" s="122"/>
+      <c r="F144" s="122"/>
+      <c r="G144" s="121"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="70"/>
-      <c r="B145" s="70"/>
-      <c r="C145" s="70"/>
-      <c r="D145" s="70"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="70"/>
+      <c r="A145" s="121"/>
+      <c r="B145" s="121"/>
+      <c r="C145" s="121"/>
+      <c r="D145" s="121"/>
+      <c r="E145" s="122"/>
+      <c r="F145" s="122"/>
+      <c r="G145" s="121"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="70"/>
-      <c r="B146" s="70"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="70"/>
+      <c r="A146" s="121"/>
+      <c r="B146" s="121"/>
+      <c r="C146" s="121"/>
+      <c r="D146" s="121"/>
+      <c r="E146" s="122"/>
+      <c r="F146" s="122"/>
+      <c r="G146" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="A42:B42"/>
@@ -4967,55 +4946,66 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5034,16 +5024,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="210.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5052,7 +5042,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="28">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>514</v>
@@ -5085,7 +5075,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>57</v>
@@ -5095,8 +5085,8 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19">
-        <v>0</v>
+      <c r="B5" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>58</v>
@@ -5118,7 +5108,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>60</v>
@@ -5157,7 +5147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>71</v>
       </c>
@@ -5306,9 +5296,9 @@
       </c>
       <c r="B24" s="22" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6&amp;B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12&amp;B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18&amp;B19&amp;B20&amp;B21&amp;B22&amp;B23</f>
-        <v>17BRH0H0SSN000N0000N00F0</v>
-      </c>
-      <c r="C24" s="97" t="s">
+        <v>23BRLSH1SSN000N0000N00F0</v>
+      </c>
+      <c r="C24" s="48" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5316,12 +5306,9 @@
       <c r="A25" s="21"/>
       <c r="B25" s="27">
         <f>Sheet1!F217/0.6</f>
-        <v>30527.006666666683</v>
-      </c>
-      <c r="C25" s="98"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="72"/>
+        <v>40110.21666666666</v>
+      </c>
+      <c r="C25" s="49"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -5485,7 +5472,7 @@
   <dimension ref="A1:U218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C31" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5520,7 +5507,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="62" t="s">
         <v>273</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -5531,7 +5518,7 @@
       </c>
       <c r="D2" s="35">
         <f>IF('Selection List'!B1=17,75.16,IF('Selection List'!B1=23,87.28,IF('Selection List'!B1=30,97.52,"VEYY")))</f>
-        <v>75.16</v>
+        <v>87.28</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>92</v>
@@ -5541,11 +5528,11 @@
       </c>
       <c r="G2" s="46">
         <f>D2*F2</f>
-        <v>3382.2</v>
+        <v>3927.6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="33" t="s">
         <v>263</v>
       </c>
@@ -5554,7 +5541,7 @@
       </c>
       <c r="D3" s="35">
         <f>IF('Selection List'!B1=17,13.75,IF('Selection List'!B1=23,18.77,IF('Selection List'!B1=30,21.39,"VEYY")))</f>
-        <v>13.75</v>
+        <v>18.77</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>92</v>
@@ -5564,11 +5551,11 @@
       </c>
       <c r="G3" s="46">
         <f t="shared" ref="G3:G66" si="0">D3*F3</f>
-        <v>618.75</v>
+        <v>844.65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="33" t="s">
         <v>263</v>
       </c>
@@ -5577,7 +5564,7 @@
       </c>
       <c r="D4" s="35">
         <f>IF('Selection List'!B1=17,19.3,IF('Selection List'!B1=23,25.83,IF('Selection List'!B1=30,27.8,"VEYY")))</f>
-        <v>19.3</v>
+        <v>25.83</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>92</v>
@@ -5587,11 +5574,11 @@
       </c>
       <c r="G4" s="46">
         <f t="shared" si="0"/>
-        <v>868.5</v>
+        <v>1162.3499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="60" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -5608,7 +5595,7 @@
         <v>92</v>
       </c>
       <c r="F5" s="46">
-        <v>3770</v>
+        <v>3373.18</v>
       </c>
       <c r="G5" s="46">
         <f t="shared" si="0"/>
@@ -5616,7 +5603,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="37" t="s">
         <v>240</v>
       </c>
@@ -5625,21 +5612,21 @@
       </c>
       <c r="D6" s="34">
         <f>IF(AND('Selection List'!B1=17,'Selection List'!B4="H"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="46">
-        <v>4305</v>
+        <v>3847.62</v>
       </c>
       <c r="G6" s="46">
         <f t="shared" si="0"/>
-        <v>4305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="38" t="s">
         <v>242</v>
       </c>
@@ -5648,21 +5635,21 @@
       </c>
       <c r="D7" s="34">
         <f>IF(AND('Selection List'!B1=23,'Selection List'!B4="L"),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="46">
-        <v>6680</v>
+        <v>5941.87</v>
       </c>
       <c r="G7" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5941.87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="38" t="s">
         <v>244</v>
       </c>
@@ -5677,7 +5664,7 @@
         <v>92</v>
       </c>
       <c r="F8" s="46">
-        <v>7410</v>
+        <v>6574.13</v>
       </c>
       <c r="G8" s="46">
         <f t="shared" si="0"/>
@@ -5685,7 +5672,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5700,7 +5687,7 @@
         <v>92</v>
       </c>
       <c r="F9" s="46">
-        <v>8050</v>
+        <v>7076.35</v>
       </c>
       <c r="G9" s="46">
         <f t="shared" si="0"/>
@@ -5708,7 +5695,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="38" t="s">
         <v>93</v>
       </c>
@@ -5723,7 +5710,7 @@
         <v>92</v>
       </c>
       <c r="F10" s="46">
-        <v>9000</v>
+        <v>7888.96</v>
       </c>
       <c r="G10" s="46">
         <f t="shared" si="0"/>
@@ -5731,7 +5718,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="60" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="39" t="s">
@@ -5742,7 +5729,7 @@
       </c>
       <c r="D11" s="34" cm="1">
         <f t="array" ref="D11">IF('Selection List'!B17=2,0,IF('Selection List'!B1=17,3,IF('Selection List'!B1=23,4,IF('Selection List'!B1=30,5,veyy))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>92</v>
@@ -5752,11 +5739,11 @@
       </c>
       <c r="G11" s="46">
         <f t="shared" si="0"/>
-        <v>2437.1999999999998</v>
+        <v>3249.6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="39" t="s">
         <v>98</v>
       </c>
@@ -5790,7 +5777,7 @@
       </c>
       <c r="D13" s="34">
         <f>IF('Selection List'!B5="S",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>497</v>
@@ -5800,7 +5787,7 @@
       </c>
       <c r="G13" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5828,7 +5815,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="60" t="s">
         <v>103</v>
       </c>
       <c r="B15" s="40" t="s">
@@ -5839,7 +5826,7 @@
       </c>
       <c r="D15" s="34">
         <f>IF(AND('Selection List'!B1=17,(OR('Selection List'!B2="F",'Selection List'!B2="B"))),6,0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>92</v>
@@ -5849,11 +5836,11 @@
       </c>
       <c r="G15" s="46">
         <f t="shared" si="0"/>
-        <v>74.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="40" t="s">
         <v>249</v>
       </c>
@@ -5862,7 +5849,7 @@
       </c>
       <c r="D16" s="34">
         <f>IF(AND('Selection List'!B1=23,(OR('Selection List'!B2="F",'Selection List'!B2="B"))),8,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>92</v>
@@ -5872,11 +5859,11 @@
       </c>
       <c r="G16" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93.92</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="39" t="s">
         <v>102</v>
       </c>
@@ -5899,7 +5886,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="40" t="s">
         <v>105</v>
       </c>
@@ -5922,7 +5909,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="40" t="s">
         <v>107</v>
       </c>
@@ -5945,7 +5932,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="60" t="s">
         <v>252</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -5961,15 +5948,15 @@
         <v>111</v>
       </c>
       <c r="F20" s="46">
-        <v>5.4</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="G20" s="46">
         <f t="shared" si="0"/>
-        <v>21.6</v>
+        <v>16.559999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="37" t="s">
         <v>112</v>
       </c>
@@ -5978,21 +5965,21 @@
       </c>
       <c r="D21" s="34">
         <f>IF('Selection List'!B1=17,7,IF('Selection List'!B1=23,8.5,IF('Selection List'!B1=30,10,"VEYY")))</f>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>111</v>
       </c>
       <c r="F21" s="46">
-        <v>7.69</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="G21" s="46">
         <f t="shared" si="0"/>
-        <v>53.830000000000005</v>
+        <v>72.589999999999989</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="37" t="s">
         <v>114</v>
       </c>
@@ -6001,21 +5988,21 @@
       </c>
       <c r="D22" s="34">
         <f>IF('Selection List'!B1=17,19,IF('Selection List'!B1=23,20.5,IF('Selection List'!B1=30,22,"VEYY")))</f>
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="46">
-        <v>7.59</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="G22" s="46">
         <f t="shared" si="0"/>
-        <v>144.21</v>
+        <v>175.07</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="37" t="s">
         <v>116</v>
       </c>
@@ -6024,21 +6011,21 @@
       </c>
       <c r="D23" s="34">
         <f>IF('Selection List'!B1=17,31,IF('Selection List'!B1=23,34.5,IF('Selection List'!B1=30,38,"VEYY")))</f>
-        <v>31</v>
+        <v>34.5</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>111</v>
       </c>
       <c r="F23" s="46">
-        <v>5.31</v>
+        <v>4.33</v>
       </c>
       <c r="G23" s="46">
         <f t="shared" si="0"/>
-        <v>164.60999999999999</v>
+        <v>149.38499999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="109"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="37" t="s">
         <v>118</v>
       </c>
@@ -6047,21 +6034,21 @@
       </c>
       <c r="D24" s="34">
         <f>IF('Selection List'!B1=17,14,IF('Selection List'!B1=23,17,IF('Selection List'!B1=30,20,"VEYY")))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E24" s="34" t="s">
         <v>111</v>
       </c>
       <c r="F24" s="46">
-        <v>4</v>
+        <v>3.44</v>
       </c>
       <c r="G24" s="46">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>58.48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="109"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="37" t="s">
         <v>120</v>
       </c>
@@ -6070,21 +6057,21 @@
       </c>
       <c r="D25" s="34">
         <f>IF('Selection List'!B1=17,4,IF('Selection List'!B1=23,6,IF('Selection List'!B1=30,8,"VEYY")))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F25" s="46">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="G25" s="46">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="37" t="s">
         <v>122</v>
       </c>
@@ -6093,21 +6080,21 @@
       </c>
       <c r="D26" s="34">
         <f>IF('Selection List'!B1=17,58,IF('Selection List'!B1=23,59,IF('Selection List'!B1=30,60,"VEYY")))</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F26" s="46">
-        <v>0.81</v>
+        <v>0.32</v>
       </c>
       <c r="G26" s="46">
         <f t="shared" si="0"/>
-        <v>46.980000000000004</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="37" t="s">
         <v>124</v>
       </c>
@@ -6116,21 +6103,21 @@
       </c>
       <c r="D27" s="34">
         <f>IF('Selection List'!B1=17,289.2,IF('Selection List'!B1=23,319.2,IF('Selection List'!B1=30,349.2,"VEYY")))</f>
-        <v>289.2</v>
+        <v>319.2</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>126</v>
       </c>
       <c r="F27" s="46">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="G27" s="46">
         <f t="shared" si="0"/>
-        <v>309.44400000000002</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="109"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="37" t="s">
         <v>127</v>
       </c>
@@ -6139,21 +6126,21 @@
       </c>
       <c r="D28" s="34">
         <f>IF('Selection List'!B1=17,89,IF('Selection List'!B1=23,97.9,IF('Selection List'!B1=30,106.8,"VEYY")))</f>
-        <v>89</v>
+        <v>97.9</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>111</v>
       </c>
       <c r="F28" s="46">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="G28" s="46">
         <f t="shared" si="0"/>
-        <v>275.90000000000003</v>
+        <v>280.97300000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="37" t="s">
         <v>129</v>
       </c>
@@ -6162,21 +6149,21 @@
       </c>
       <c r="D29" s="34">
         <f>IF('Selection List'!B1=17,23,IF('Selection List'!B1=23,25.3,IF('Selection List'!B1=30,27.6,"VEYY")))</f>
-        <v>23</v>
+        <v>25.3</v>
       </c>
       <c r="E29" s="34" t="s">
         <v>111</v>
       </c>
       <c r="F29" s="46">
-        <v>2.44</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G29" s="46">
         <f t="shared" si="0"/>
-        <v>56.12</v>
+        <v>56.672000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="37" t="s">
         <v>131</v>
       </c>
@@ -6185,21 +6172,21 @@
       </c>
       <c r="D30" s="34">
         <f>IF('Selection List'!B1=17,204,IF('Selection List'!B1=23,241,IF('Selection List'!B1=30,292,"VEYY")))</f>
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="E30" s="34" t="s">
         <v>126</v>
       </c>
       <c r="F30" s="46">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="G30" s="46">
         <f t="shared" si="0"/>
-        <v>161.16</v>
+        <v>175.93</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="37" t="s">
         <v>133</v>
       </c>
@@ -6208,7 +6195,7 @@
       </c>
       <c r="D31" s="34">
         <f>IF('Selection List'!B1=17,30,IF('Selection List'!B1=23,45,IF('Selection List'!B1=30,60,"VEYY")))</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>135</v>
@@ -6218,11 +6205,11 @@
       </c>
       <c r="G31" s="46">
         <f t="shared" si="0"/>
-        <v>95.4</v>
+        <v>143.1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="47" t="s">
         <v>516</v>
       </c>
@@ -6245,7 +6232,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="47" t="s">
         <v>517</v>
       </c>
@@ -6268,7 +6255,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="37" t="s">
         <v>136</v>
       </c>
@@ -6277,21 +6264,21 @@
       </c>
       <c r="D34" s="34">
         <f>IF('Selection List'!B1=17,18,IF('Selection List'!B1=23,54,IF('Selection List'!B1=30,90,"VEYY")))</f>
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E34" s="34" t="s">
         <v>126</v>
       </c>
       <c r="F34" s="46">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G34" s="46">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="109"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="37" t="s">
         <v>138</v>
       </c>
@@ -6300,21 +6287,21 @@
       </c>
       <c r="D35" s="34">
         <f>IF('Selection List'!B1=17,11,IF('Selection List'!B1=23,17.5,IF('Selection List'!B1=30,24,"VEYY")))</f>
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="E35" s="34" t="s">
         <v>126</v>
       </c>
       <c r="F35" s="46">
-        <v>4.22</v>
+        <v>3.98</v>
       </c>
       <c r="G35" s="46">
         <f t="shared" si="0"/>
-        <v>46.419999999999995</v>
+        <v>69.650000000000006</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="109"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="37" t="s">
         <v>140</v>
       </c>
@@ -6328,15 +6315,15 @@
         <v>92</v>
       </c>
       <c r="F36" s="46">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G36" s="46">
         <f t="shared" si="0"/>
-        <v>11.2</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="37" t="s">
         <v>142</v>
       </c>
@@ -6350,15 +6337,15 @@
         <v>92</v>
       </c>
       <c r="F37" s="46">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G37" s="46">
         <f t="shared" si="0"/>
-        <v>10.4</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="109"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="37" t="s">
         <v>144</v>
       </c>
@@ -6372,15 +6359,15 @@
         <v>92</v>
       </c>
       <c r="F38" s="46">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G38" s="46">
         <f t="shared" si="0"/>
-        <v>5.2</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="109"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="39" t="s">
         <v>146</v>
       </c>
@@ -6389,21 +6376,21 @@
       </c>
       <c r="D39" s="34">
         <f>IF('Selection List'!B1=17,9,IF('Selection List'!B1=23,12,IF('Selection List'!B1=30,15,"VEYY")))</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E39" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F39" s="46">
-        <v>5</v>
+        <v>0.22</v>
       </c>
       <c r="G39" s="46">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="39" t="s">
         <v>148</v>
       </c>
@@ -6412,21 +6399,21 @@
       </c>
       <c r="D40" s="34">
         <f>IF('Selection List'!B1=17,6,IF('Selection List'!B1=23,8,IF('Selection List'!B1=30,10,"VEYY")))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E40" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F40" s="46">
-        <v>16.440000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G40" s="46">
         <f t="shared" si="0"/>
-        <v>98.640000000000015</v>
+        <v>128.80000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="109"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="37" t="s">
         <v>150</v>
       </c>
@@ -6448,7 +6435,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="109"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="37" t="s">
         <v>172</v>
       </c>
@@ -6457,21 +6444,21 @@
       </c>
       <c r="D42" s="33">
         <f>IF('Selection List'!B1=17,6,IF('Selection List'!B1=23,9,IF('Selection List'!B1=30,12,"VEYY")))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E42" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F42" s="46">
-        <v>9.5</v>
+        <v>8.09</v>
       </c>
       <c r="G42" s="46">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>72.81</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="37" t="s">
         <v>174</v>
       </c>
@@ -6480,21 +6467,21 @@
       </c>
       <c r="D43" s="33">
         <f>IF('Selection List'!B1=17,2,IF('Selection List'!B1=23,3,IF('Selection List'!B1=30,4,"VEYY")))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F43" s="46">
-        <v>3</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G43" s="46">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7.6499999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="109"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="37" t="s">
         <v>176</v>
       </c>
@@ -6503,21 +6490,21 @@
       </c>
       <c r="D44" s="34">
         <f>IF('Selection List'!B1=17,2,IF('Selection List'!B1=23,3,IF('Selection List'!B1=30,4,"VEYY")))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F44" s="46">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="G44" s="46">
         <f t="shared" si="0"/>
-        <v>2.64</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="109"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="37" t="s">
         <v>178</v>
       </c>
@@ -6526,21 +6513,21 @@
       </c>
       <c r="D45" s="34">
         <f>IF('Selection List'!B1=17,6,IF('Selection List'!B1=23,9,IF('Selection List'!B1=30,12,"VEYY")))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E45" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F45" s="46">
-        <v>0.96</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G45" s="46">
         <f t="shared" si="0"/>
-        <v>5.76</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="109"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="37" t="s">
         <v>180</v>
       </c>
@@ -6549,21 +6536,21 @@
       </c>
       <c r="D46" s="34">
         <f>IF('Selection List'!B1=17,6,IF('Selection List'!B1=23,9,IF('Selection List'!B1=30,12,"VEYY")))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E46" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F46" s="46">
-        <v>1.79</v>
+        <v>2.15</v>
       </c>
       <c r="G46" s="46">
         <f t="shared" si="0"/>
-        <v>10.74</v>
+        <v>19.349999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="109"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="37" t="s">
         <v>192</v>
       </c>
@@ -6572,21 +6559,21 @@
       </c>
       <c r="D47" s="34">
         <f>IF('Selection List'!B1=17,10,IF('Selection List'!B1=23,15,IF('Selection List'!B1=30,20,"VEYY")))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E47" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F47" s="46">
-        <v>1.74</v>
+        <v>2.09</v>
       </c>
       <c r="G47" s="46">
         <f t="shared" si="0"/>
-        <v>17.399999999999999</v>
+        <v>31.349999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="109"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="39" t="s">
         <v>218</v>
       </c>
@@ -6608,7 +6595,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="39" t="s">
         <v>220</v>
       </c>
@@ -6622,15 +6609,15 @@
         <v>92</v>
       </c>
       <c r="F49" s="46">
-        <v>1.43</v>
+        <v>1.9</v>
       </c>
       <c r="G49" s="46">
         <f t="shared" si="0"/>
-        <v>11.44</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="109"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="39" t="s">
         <v>222</v>
       </c>
@@ -6644,15 +6631,15 @@
         <v>126</v>
       </c>
       <c r="F50" s="46">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G50" s="46">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="61" t="s">
         <v>254</v>
       </c>
       <c r="B51" s="39" t="s">
@@ -6663,7 +6650,7 @@
       </c>
       <c r="D51" s="34">
         <f>IF('Selection List'!B1=17,0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E51" s="34" t="s">
         <v>92</v>
@@ -6673,11 +6660,11 @@
       </c>
       <c r="G51" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>311.39999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="110"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="39" t="s">
         <v>154</v>
       </c>
@@ -6686,7 +6673,7 @@
       </c>
       <c r="D52" s="34">
         <f>IF('Selection List'!B1=17,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="34" t="s">
         <v>92</v>
@@ -6696,11 +6683,11 @@
       </c>
       <c r="G52" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>261.39</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="110"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="39" t="s">
         <v>156</v>
       </c>
@@ -6709,7 +6696,7 @@
       </c>
       <c r="D53" s="34">
         <f>IF('Selection List'!B1=17,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="34" t="s">
         <v>92</v>
@@ -6719,11 +6706,11 @@
       </c>
       <c r="G53" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="110"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="47" t="s">
         <v>518</v>
       </c>
@@ -6732,7 +6719,7 @@
       </c>
       <c r="D54" s="34">
         <f>IF(AND(OR('Selection List'!B1=23,('Selection List'!B1=30)),OR('Selection List'!B10=3,'Selection List'!B10="N")),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="34" t="s">
         <v>92</v>
@@ -6742,11 +6729,11 @@
       </c>
       <c r="G54" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>248.68</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="110"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="47" t="s">
         <v>518</v>
       </c>
@@ -6769,7 +6756,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="47" t="s">
         <v>518</v>
       </c>
@@ -6792,7 +6779,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="110"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="39" t="s">
         <v>158</v>
       </c>
@@ -6801,7 +6788,7 @@
       </c>
       <c r="D57" s="34">
         <f>IF('Selection List'!B1=17,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="34" t="s">
         <v>92</v>
@@ -6811,11 +6798,11 @@
       </c>
       <c r="G57" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>253.66</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="110"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="37" t="s">
         <v>160</v>
       </c>
@@ -6824,7 +6811,7 @@
       </c>
       <c r="D58" s="34">
         <f>IF('Selection List'!B1=17,0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58" s="34" t="s">
         <v>92</v>
@@ -6834,11 +6821,11 @@
       </c>
       <c r="G58" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.66</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="110"/>
+      <c r="A59" s="61"/>
       <c r="B59" s="39" t="s">
         <v>162</v>
       </c>
@@ -6847,7 +6834,7 @@
       </c>
       <c r="D59" s="34">
         <f>IF('Selection List'!B1=17,0,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59" s="34" t="s">
         <v>92</v>
@@ -6857,11 +6844,11 @@
       </c>
       <c r="G59" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="110"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="39" t="s">
         <v>164</v>
       </c>
@@ -6870,7 +6857,7 @@
       </c>
       <c r="D60" s="34">
         <f>IF('Selection List'!B1=17,0,8)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E60" s="34" t="s">
         <v>92</v>
@@ -6880,11 +6867,11 @@
       </c>
       <c r="G60" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.9600000000000009</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="110"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="37" t="s">
         <v>224</v>
       </c>
@@ -6893,7 +6880,7 @@
       </c>
       <c r="D61" s="34">
         <f>IF('Selection List'!B1=17,2,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E61" s="34" t="s">
         <v>92</v>
@@ -6903,11 +6890,11 @@
       </c>
       <c r="G61" s="46">
         <f t="shared" si="0"/>
-        <v>255.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="110"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="37" t="s">
         <v>226</v>
       </c>
@@ -6916,7 +6903,7 @@
       </c>
       <c r="D62" s="34">
         <f>IF('Selection List'!B1=17,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="34" t="s">
         <v>92</v>
@@ -6926,11 +6913,11 @@
       </c>
       <c r="G62" s="46">
         <f t="shared" si="0"/>
-        <v>184.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="110"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="45" t="s">
         <v>228</v>
       </c>
@@ -6939,7 +6926,7 @@
       </c>
       <c r="D63" s="34">
         <f>IF('Selection List'!B1=17,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="34" t="s">
         <v>92</v>
@@ -6949,11 +6936,11 @@
       </c>
       <c r="G63" s="46">
         <f t="shared" si="0"/>
-        <v>185.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="110"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="47" t="s">
         <v>518</v>
       </c>
@@ -6962,7 +6949,7 @@
       </c>
       <c r="D64" s="34">
         <f>IF(AND('Selection List'!B1=17,OR('Selection List'!B10=3,'Selection List'!B10="N")),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="34" t="s">
         <v>92</v>
@@ -6972,11 +6959,11 @@
       </c>
       <c r="G64" s="46">
         <f t="shared" si="0"/>
-        <v>248.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="110"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="47" t="s">
         <v>518</v>
       </c>
@@ -6999,7 +6986,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="110"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="47" t="s">
         <v>518</v>
       </c>
@@ -7022,7 +7009,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="110"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="37" t="s">
         <v>230</v>
       </c>
@@ -7031,7 +7018,7 @@
       </c>
       <c r="D67" s="34">
         <f>IF('Selection List'!B1=17,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="34" t="s">
         <v>92</v>
@@ -7041,11 +7028,11 @@
       </c>
       <c r="G67" s="46">
         <f t="shared" ref="G67:G128" si="1">D67*F67</f>
-        <v>193.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="110"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="37" t="s">
         <v>224</v>
       </c>
@@ -7054,7 +7041,7 @@
       </c>
       <c r="D68" s="34">
         <f>IF('Selection List'!B1=17,2,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>92</v>
@@ -7064,11 +7051,11 @@
       </c>
       <c r="G68" s="46">
         <f t="shared" si="1"/>
-        <v>255.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="110"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="37" t="s">
         <v>233</v>
       </c>
@@ -7077,7 +7064,7 @@
       </c>
       <c r="D69" s="34">
         <f>IF('Selection List'!B1=17,2,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>92</v>
@@ -7087,11 +7074,11 @@
       </c>
       <c r="G69" s="46">
         <f t="shared" si="1"/>
-        <v>31.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="110"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="37" t="s">
         <v>235</v>
       </c>
@@ -7100,7 +7087,7 @@
       </c>
       <c r="D70" s="34">
         <f>IF('Selection List'!B1=17,8,0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>92</v>
@@ -7110,11 +7097,11 @@
       </c>
       <c r="G70" s="46">
         <f t="shared" si="1"/>
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="110"/>
+      <c r="A71" s="61"/>
       <c r="B71" s="37" t="s">
         <v>166</v>
       </c>
@@ -7136,7 +7123,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="110"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="37" t="s">
         <v>168</v>
       </c>
@@ -7158,7 +7145,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="110"/>
+      <c r="A73" s="61"/>
       <c r="B73" s="37" t="s">
         <v>170</v>
       </c>
@@ -7167,7 +7154,7 @@
       </c>
       <c r="D73" s="33">
         <f>IF('Selection List'!B1=17,0,8)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E73" s="34" t="s">
         <v>92</v>
@@ -7177,11 +7164,11 @@
       </c>
       <c r="G73" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="110"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="47" t="s">
         <v>519</v>
       </c>
@@ -7190,7 +7177,7 @@
       </c>
       <c r="D74" s="33">
         <f>IF('Selection List'!B1=17,8,0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E74" s="34" t="s">
         <v>92</v>
@@ -7200,11 +7187,11 @@
       </c>
       <c r="G74" s="46">
         <f t="shared" si="1"/>
-        <v>7.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="110"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="39" t="s">
         <v>196</v>
       </c>
@@ -7218,15 +7205,15 @@
         <v>92</v>
       </c>
       <c r="F75" s="46">
-        <v>1.74</v>
+        <v>2.65</v>
       </c>
       <c r="G75" s="46">
         <f t="shared" si="1"/>
-        <v>1.74</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="110"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="39" t="s">
         <v>198</v>
       </c>
@@ -7248,7 +7235,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="110"/>
+      <c r="A77" s="61"/>
       <c r="B77" s="39" t="s">
         <v>200</v>
       </c>
@@ -7262,15 +7249,15 @@
         <v>92</v>
       </c>
       <c r="F77" s="46">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G77" s="46">
         <f t="shared" si="1"/>
-        <v>0.85000000000000009</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="110"/>
+      <c r="A78" s="61"/>
       <c r="B78" s="39" t="s">
         <v>202</v>
       </c>
@@ -7284,15 +7271,15 @@
         <v>111</v>
       </c>
       <c r="F78" s="46">
-        <v>0.87</v>
+        <v>1.6</v>
       </c>
       <c r="G78" s="46">
         <f t="shared" si="1"/>
-        <v>0.87</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="110"/>
+      <c r="A79" s="61"/>
       <c r="B79" s="39" t="s">
         <v>204</v>
       </c>
@@ -7314,7 +7301,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="110"/>
+      <c r="A80" s="61"/>
       <c r="B80" s="39" t="s">
         <v>206</v>
       </c>
@@ -7336,7 +7323,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="110"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="39" t="s">
         <v>208</v>
       </c>
@@ -7358,7 +7345,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="110"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="39" t="s">
         <v>210</v>
       </c>
@@ -7380,7 +7367,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="110"/>
+      <c r="A83" s="61"/>
       <c r="B83" s="39" t="s">
         <v>212</v>
       </c>
@@ -7402,7 +7389,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="110"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="39" t="s">
         <v>214</v>
       </c>
@@ -7416,15 +7403,15 @@
         <v>92</v>
       </c>
       <c r="F84" s="46">
-        <v>1.28</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G84" s="46">
         <f t="shared" si="1"/>
-        <v>2.56</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="110"/>
+      <c r="A85" s="61"/>
       <c r="B85" s="39" t="s">
         <v>216</v>
       </c>
@@ -7446,7 +7433,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="110" t="s">
+      <c r="A86" s="61" t="s">
         <v>270</v>
       </c>
       <c r="B86" s="37" t="s">
@@ -7463,7 +7450,7 @@
         <v>92</v>
       </c>
       <c r="F86" s="46">
-        <v>541</v>
+        <v>397.06</v>
       </c>
       <c r="G86" s="46">
         <f t="shared" si="1"/>
@@ -7471,7 +7458,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="110"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="37" t="s">
         <v>267</v>
       </c>
@@ -7480,21 +7467,21 @@
       </c>
       <c r="D87" s="34">
         <f>IF(AND('Selection List'!B1=23,'Selection List'!B7=1),2,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E87" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F87" s="46">
-        <v>325</v>
+        <v>238.66</v>
       </c>
       <c r="G87" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>477.32</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="110"/>
+      <c r="A88" s="61"/>
       <c r="B88" s="37" t="s">
         <v>269</v>
       </c>
@@ -7509,7 +7496,7 @@
         <v>92</v>
       </c>
       <c r="F88" s="46">
-        <v>673</v>
+        <v>493.79</v>
       </c>
       <c r="G88" s="46">
         <f t="shared" si="1"/>
@@ -7517,7 +7504,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="109" t="s">
+      <c r="A89" s="60" t="s">
         <v>253</v>
       </c>
       <c r="B89" s="39" t="s">
@@ -7528,7 +7515,7 @@
       </c>
       <c r="D89" s="34">
         <f>IF(AND('Selection List'!B1=30,OR('Selection List'!B2="B",'Selection List'!B2="M")),3,IF(AND('Selection List'!B1=23,OR('Selection List'!B2="B",'Selection List'!B2="M")),3,IF(AND('Selection List'!B1=17,OR('Selection List'!B2="B",'Selection List'!B2="M")),2,0)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89" s="34" t="s">
         <v>92</v>
@@ -7538,11 +7525,11 @@
       </c>
       <c r="G89" s="46">
         <f t="shared" si="1"/>
-        <v>15.78</v>
+        <v>23.669999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="109"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="39" t="s">
         <v>184</v>
       </c>
@@ -7565,7 +7552,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="109"/>
+      <c r="A91" s="60"/>
       <c r="B91" s="39" t="s">
         <v>186</v>
       </c>
@@ -7574,7 +7561,7 @@
       </c>
       <c r="D91" s="34">
         <f>IF(AND('Selection List'!B1=30,OR('Selection List'!B2="B",'Selection List'!B2="M")),1,IF(AND('Selection List'!B1=23,OR('Selection List'!B2="B",'Selection List'!B2="M")),2,IF(AND('Selection List'!B1=17,OR('Selection List'!B2="B",'Selection List'!B2="M")),1,0)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="34" t="s">
         <v>92</v>
@@ -7584,11 +7571,11 @@
       </c>
       <c r="G91" s="46">
         <f t="shared" si="1"/>
-        <v>0.89</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="109"/>
+      <c r="A92" s="60"/>
       <c r="B92" s="39" t="s">
         <v>188</v>
       </c>
@@ -7597,7 +7584,7 @@
       </c>
       <c r="D92" s="34">
         <f>IF(AND('Selection List'!B1=30,OR('Selection List'!B2="B",'Selection List'!B2="M")),5,IF(AND('Selection List'!B1=23,OR('Selection List'!B2="B",'Selection List'!B2="M")),4,IF(AND('Selection List'!B1=17,OR('Selection List'!B2="B",'Selection List'!B2="M")),3,0)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E92" s="34" t="s">
         <v>92</v>
@@ -7607,11 +7594,11 @@
       </c>
       <c r="G92" s="46">
         <f t="shared" si="1"/>
-        <v>2.67</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="109"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="39" t="s">
         <v>190</v>
       </c>
@@ -7633,7 +7620,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="109"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="39" t="s">
         <v>194</v>
       </c>
@@ -7646,14 +7633,16 @@
       <c r="E94" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F94" s="46"/>
+      <c r="F94" s="46">
+        <v>0.05</v>
+      </c>
       <c r="G94" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="109"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="47" t="s">
         <v>520</v>
       </c>
@@ -7668,15 +7657,15 @@
         <v>92</v>
       </c>
       <c r="F95" s="46">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G95" s="46">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="109"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="47" t="s">
         <v>521</v>
       </c>
@@ -7691,15 +7680,15 @@
         <v>92</v>
       </c>
       <c r="F96" s="46">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G96" s="46">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A97" s="109"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="37" t="s">
         <v>275</v>
       </c>
@@ -7708,21 +7697,21 @@
       </c>
       <c r="D97" s="33">
         <f>IF(AND('Selection List'!B1=30,'Selection List'!B2="F"),5,IF(AND('Selection List'!B1=30,'Selection List'!B2="M"),5,IF(AND('Selection List'!B1=30,'Selection List'!B2="B"),6,IF(AND('Selection List'!B1=23,'Selection List'!B2="F"),4,IF(AND('Selection List'!B1=23,'Selection List'!B2="M"),4,IF(AND('Selection List'!B1=23,'Selection List'!B2="B"),5,IF(AND('Selection List'!B1=17,'Selection List'!B2="F"),3,IF(AND('Selection List'!B1=17,'Selection List'!B2="M"),4,IF(AND('Selection List'!B1=17,'Selection List'!B2="B"),4,"VEYY")))))))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E97" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F97" s="46">
-        <v>50.05</v>
+        <v>56.52</v>
       </c>
       <c r="G97" s="46">
         <f t="shared" si="1"/>
-        <v>200.2</v>
+        <v>282.60000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A98" s="109"/>
+      <c r="A98" s="60"/>
       <c r="B98" s="37" t="s">
         <v>276</v>
       </c>
@@ -7731,21 +7720,21 @@
       </c>
       <c r="D98" s="33">
         <f>IF(AND('Selection List'!B1=30,'Selection List'!B2="F"),2,IF(AND('Selection List'!B1=30,'Selection List'!B2="M"),3,IF(AND('Selection List'!B1=30,'Selection List'!B2="B"),3,IF(AND('Selection List'!B1=23,'Selection List'!B2="F"),3,IF(AND('Selection List'!B1=23,'Selection List'!B2="M"),3,IF(AND('Selection List'!B1=23,'Selection List'!B2="B"),3,IF(AND('Selection List'!B1=17,'Selection List'!B2="F"),3,IF(AND('Selection List'!B1=17,'Selection List'!B2="M"),2,IF(AND('Selection List'!B1=17,'Selection List'!B2="B"),4,"VEYY")))))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E98" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F98" s="46">
-        <v>56</v>
+        <v>63.36</v>
       </c>
       <c r="G98" s="46">
         <f t="shared" si="1"/>
-        <v>224</v>
+        <v>190.07999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="109"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="37" t="s">
         <v>277</v>
       </c>
@@ -7760,15 +7749,15 @@
         <v>92</v>
       </c>
       <c r="F99" s="46">
-        <v>61.6</v>
+        <v>69.84</v>
       </c>
       <c r="G99" s="46">
         <f t="shared" si="1"/>
-        <v>123.2</v>
+        <v>139.68</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A100" s="109"/>
+      <c r="A100" s="60"/>
       <c r="B100" s="37" t="s">
         <v>278</v>
       </c>
@@ -7777,21 +7766,21 @@
       </c>
       <c r="D100" s="33">
         <f>IF(AND('Selection List'!B1=30,'Selection List'!B2="F"),1,IF(AND('Selection List'!B1=30,'Selection List'!B2="M"),1,IF(AND('Selection List'!B1=30,'Selection List'!B2="B"),1,IF(AND('Selection List'!B1=23,'Selection List'!B2="F"),1,IF(AND('Selection List'!B1=23,'Selection List'!B2="M"),1,IF(AND('Selection List'!B1=23,'Selection List'!B2="B"),1,IF(AND('Selection List'!B1=17,'Selection List'!B2="F"),0,IF(AND('Selection List'!B1=17,'Selection List'!B2="M"),0,IF(AND('Selection List'!B1=17,'Selection List'!B2="B"),0,"VEYY")))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F100" s="46">
-        <v>73.849999999999994</v>
+        <v>83.52</v>
       </c>
       <c r="G100" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83.52</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A101" s="109"/>
+      <c r="A101" s="60"/>
       <c r="B101" s="37" t="s">
         <v>279</v>
       </c>
@@ -7800,21 +7789,21 @@
       </c>
       <c r="D101" s="33">
         <f>IF('Selection List'!B1=17,5,IF('Selection List'!B1=23,6,IF('Selection List'!B1=30,7,"veyy")))+IF('Selection List'!B8="O",2,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E101" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F101" s="46">
-        <v>11.43</v>
+        <v>14.11</v>
       </c>
       <c r="G101" s="46">
         <f t="shared" si="1"/>
-        <v>57.15</v>
+        <v>84.66</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A102" s="109"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="37" t="s">
         <v>280</v>
       </c>
@@ -7823,21 +7812,21 @@
       </c>
       <c r="D102" s="33">
         <f>IF('Selection List'!B1=17,6,IF('Selection List'!B1=23,7,IF('Selection List'!B1=30,8,"veyy")))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E102" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F102" s="46">
-        <v>16.55</v>
+        <v>20.43</v>
       </c>
       <c r="G102" s="46">
         <f t="shared" si="1"/>
-        <v>99.300000000000011</v>
+        <v>143.01</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="109"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="37" t="s">
         <v>281</v>
       </c>
@@ -7846,7 +7835,7 @@
       </c>
       <c r="D103" s="33">
         <f>IF('Selection List'!B1=17,3,IF('Selection List'!B1=23,4,IF('Selection List'!B1=30,5,"veyy")))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E103" s="34" t="s">
         <v>92</v>
@@ -7856,11 +7845,11 @@
       </c>
       <c r="G103" s="46">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A104" s="109"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="37" t="s">
         <v>282</v>
       </c>
@@ -7869,7 +7858,7 @@
       </c>
       <c r="D104" s="33">
         <f>IF('Selection List'!B1=17,5,IF('Selection List'!B1=23,6,IF('Selection List'!B1=30,7,"veyy")))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E104" s="34" t="s">
         <v>92</v>
@@ -7879,11 +7868,11 @@
       </c>
       <c r="G104" s="46">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A105" s="109"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="37" t="s">
         <v>299</v>
       </c>
@@ -7919,7 +7908,7 @@
       <c r="U105" s="30"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A106" s="109"/>
+      <c r="A106" s="60"/>
       <c r="B106" s="37" t="s">
         <v>283</v>
       </c>
@@ -7928,7 +7917,7 @@
       </c>
       <c r="D106" s="33">
         <f>IF('Selection List'!B1=17,6,IF('Selection List'!B1=23,7,IF('Selection List'!B1=30,8,"veyy")))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E106" s="34" t="s">
         <v>92</v>
@@ -7938,11 +7927,11 @@
       </c>
       <c r="G106" s="46">
         <f t="shared" si="1"/>
-        <v>96.72</v>
+        <v>112.84</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="109"/>
+      <c r="A107" s="60"/>
       <c r="B107" s="37" t="s">
         <v>495</v>
       </c>
@@ -7957,15 +7946,15 @@
         <v>92</v>
       </c>
       <c r="F107" s="46">
-        <v>96.25</v>
+        <v>11.88</v>
       </c>
       <c r="G107" s="46">
         <f t="shared" si="1"/>
-        <v>96.25</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A108" s="109"/>
+      <c r="A108" s="60"/>
       <c r="B108" s="37" t="s">
         <v>284</v>
       </c>
@@ -7988,7 +7977,7 @@
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A109" s="109"/>
+      <c r="A109" s="60"/>
       <c r="B109" s="37" t="s">
         <v>285</v>
       </c>
@@ -7997,21 +7986,21 @@
       </c>
       <c r="D109" s="33">
         <f>IF('Selection List'!B1=17,4,IF('Selection List'!B1=23,5,IF('Selection List'!B1=30,6,"veyy")))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E109" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F109" s="46">
-        <v>15.79</v>
+        <v>25.6</v>
       </c>
       <c r="G109" s="46">
         <f t="shared" si="1"/>
-        <v>63.16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A110" s="109"/>
+      <c r="A110" s="60"/>
       <c r="B110" s="37" t="s">
         <v>286</v>
       </c>
@@ -8025,15 +8014,15 @@
         <v>92</v>
       </c>
       <c r="F110" s="46">
-        <v>20.74</v>
+        <v>19.48</v>
       </c>
       <c r="G110" s="46">
         <f t="shared" si="1"/>
-        <v>20.74</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A111" s="102" t="s">
+      <c r="A111" s="53" t="s">
         <v>508</v>
       </c>
       <c r="B111" s="47" t="s">
@@ -8044,21 +8033,21 @@
       </c>
       <c r="D111" s="33">
         <f>1-IF(OR(AND('Selection List'!B1=30,'Selection List'!B5="S"),AND('Selection List'!B1=23,'Selection List'!B5="S")),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F111" s="46">
-        <v>75</v>
+        <v>99.15</v>
       </c>
       <c r="G111" s="46">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A112" s="103"/>
+      <c r="A112" s="54"/>
       <c r="B112" s="47" t="s">
         <v>523</v>
       </c>
@@ -8067,21 +8056,21 @@
       </c>
       <c r="D112" s="33">
         <f>IF(OR(AND('Selection List'!B1=30,'Selection List'!B5="S"),AND('Selection List'!B1=23,'Selection List'!B5="S")),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F112" s="46">
-        <v>90</v>
+        <v>107.1</v>
       </c>
       <c r="G112" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="103"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="37" t="s">
         <v>450</v>
       </c>
@@ -8090,21 +8079,21 @@
       </c>
       <c r="D113" s="33" cm="1">
         <f t="array" ref="D113">IF('Selection List'!B1=17,3,IF('Selection List'!B1=23,4,IF('Selection List'!B1=30,5,veyy)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E113" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F113" s="46">
-        <v>22</v>
+        <v>22.7</v>
       </c>
       <c r="G113" s="46">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="103"/>
+      <c r="A114" s="54"/>
       <c r="B114" s="37" t="s">
         <v>451</v>
       </c>
@@ -8113,21 +8102,21 @@
       </c>
       <c r="D114" s="33" cm="1">
         <f t="array" ref="D114">IF('Selection List'!B1=17,3,IF('Selection List'!B1=23,4,IF('Selection List'!B1=30,5,veyy)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F114" s="46">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="G114" s="46">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="103"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="37" t="s">
         <v>454</v>
       </c>
@@ -8142,7 +8131,7 @@
         <v>92</v>
       </c>
       <c r="F115" s="46">
-        <v>858.6</v>
+        <v>826.8</v>
       </c>
       <c r="G115" s="46">
         <f t="shared" si="1"/>
@@ -8150,7 +8139,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="103"/>
+      <c r="A116" s="54"/>
       <c r="B116" s="47" t="s">
         <v>524</v>
       </c>
@@ -8165,7 +8154,7 @@
         <v>92</v>
       </c>
       <c r="F116" s="46">
-        <v>912.6</v>
+        <v>878.8</v>
       </c>
       <c r="G116" s="46">
         <f t="shared" si="1"/>
@@ -8173,7 +8162,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="103"/>
+      <c r="A117" s="54"/>
       <c r="B117" s="37" t="s">
         <v>455</v>
       </c>
@@ -8188,7 +8177,7 @@
         <v>92</v>
       </c>
       <c r="F117" s="46">
-        <v>7.3</v>
+        <v>7.02</v>
       </c>
       <c r="G117" s="46">
         <f t="shared" si="1"/>
@@ -8196,7 +8185,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="103"/>
+      <c r="A118" s="54"/>
       <c r="B118" s="37" t="s">
         <v>456</v>
       </c>
@@ -8211,7 +8200,7 @@
         <v>92</v>
       </c>
       <c r="F118" s="46">
-        <v>31.86</v>
+        <v>30.68</v>
       </c>
       <c r="G118" s="46">
         <f t="shared" si="1"/>
@@ -8219,7 +8208,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="103"/>
+      <c r="A119" s="54"/>
       <c r="B119" s="37" t="s">
         <v>457</v>
       </c>
@@ -8234,7 +8223,7 @@
         <v>92</v>
       </c>
       <c r="F119" s="46">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G119" s="46">
         <f t="shared" si="1"/>
@@ -8242,7 +8231,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="103"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="37" t="s">
         <v>458</v>
       </c>
@@ -8265,7 +8254,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="103"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="37" t="s">
         <v>459</v>
       </c>
@@ -8280,7 +8269,7 @@
         <v>92</v>
       </c>
       <c r="F121" s="46">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G121" s="46">
         <f t="shared" si="1"/>
@@ -8288,7 +8277,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="103"/>
+      <c r="A122" s="54"/>
       <c r="B122" s="37" t="s">
         <v>460</v>
       </c>
@@ -8303,7 +8292,7 @@
         <v>92</v>
       </c>
       <c r="F122" s="46">
-        <v>3850</v>
+        <v>3950</v>
       </c>
       <c r="G122" s="46">
         <f t="shared" si="1"/>
@@ -8311,7 +8300,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="103"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="37" t="s">
         <v>461</v>
       </c>
@@ -8326,7 +8315,7 @@
         <v>92</v>
       </c>
       <c r="F123" s="46">
-        <v>150</v>
+        <v>139.01</v>
       </c>
       <c r="G123" s="46">
         <f t="shared" si="1"/>
@@ -8334,7 +8323,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="103"/>
+      <c r="A124" s="54"/>
       <c r="B124" s="37" t="s">
         <v>462</v>
       </c>
@@ -8349,7 +8338,7 @@
         <v>92</v>
       </c>
       <c r="F124" s="46">
-        <v>3.5</v>
+        <v>2.71</v>
       </c>
       <c r="G124" s="46">
         <f t="shared" si="1"/>
@@ -8357,7 +8346,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="103"/>
+      <c r="A125" s="54"/>
       <c r="B125" s="37" t="s">
         <v>463</v>
       </c>
@@ -8372,7 +8361,7 @@
         <v>92</v>
       </c>
       <c r="F125" s="46">
-        <v>425</v>
+        <v>424.08</v>
       </c>
       <c r="G125" s="46">
         <f t="shared" si="1"/>
@@ -8380,7 +8369,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="103"/>
+      <c r="A126" s="54"/>
       <c r="B126" s="37" t="s">
         <v>462</v>
       </c>
@@ -8395,7 +8384,7 @@
         <v>92</v>
       </c>
       <c r="F126" s="46">
-        <v>3.5</v>
+        <v>2.71</v>
       </c>
       <c r="G126" s="46">
         <f t="shared" si="1"/>
@@ -8403,7 +8392,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="103"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="37" t="s">
         <v>464</v>
       </c>
@@ -8418,7 +8407,7 @@
         <v>92</v>
       </c>
       <c r="F127" s="46">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="G127" s="46">
         <f t="shared" si="1"/>
@@ -8426,7 +8415,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="103"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="37" t="s">
         <v>438</v>
       </c>
@@ -8441,7 +8430,7 @@
         <v>92</v>
       </c>
       <c r="F128" s="46">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G128" s="46">
         <f t="shared" si="1"/>
@@ -8449,7 +8438,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="103"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="37" t="s">
         <v>467</v>
       </c>
@@ -8458,21 +8447,21 @@
       </c>
       <c r="D129" s="33">
         <f>IF(OR('Selection List'!B5="S",'Selection List'!B11=1,'Selection List'!B11=2,'Selection List'!B11=3,'Selection List'!B11=4,'Selection List'!B11=5,'Selection List'!B19=0,'Selection List'!B19=2,'Selection List'!B19=1,'Selection List'!B19=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" s="37" t="s">
         <v>92</v>
       </c>
       <c r="F129" s="46">
-        <v>80.84</v>
+        <v>82.92</v>
       </c>
       <c r="G129" s="46">
         <f t="shared" ref="G129:G194" si="2">D129*F129</f>
-        <v>0</v>
+        <v>82.92</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="103"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="37" t="s">
         <v>468</v>
       </c>
@@ -8481,21 +8470,21 @@
       </c>
       <c r="D130" s="33">
         <f>IF(OR('Selection List'!B5="S",'Selection List'!B11=1,'Selection List'!B11=2,'Selection List'!B11=3,'Selection List'!B11=4,'Selection List'!B11=5,'Selection List'!B19=0,'Selection List'!B19=2,'Selection List'!B19=1,'Selection List'!B19=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" s="37" t="s">
         <v>92</v>
       </c>
       <c r="F130" s="46">
-        <v>6.93</v>
+        <v>7.11</v>
       </c>
       <c r="G130" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="103"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="37" t="s">
         <v>469</v>
       </c>
@@ -8510,7 +8499,7 @@
         <v>92</v>
       </c>
       <c r="F131" s="46">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G131" s="46">
         <f t="shared" si="2"/>
@@ -8518,7 +8507,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="103"/>
+      <c r="A132" s="54"/>
       <c r="B132" s="37" t="s">
         <v>470</v>
       </c>
@@ -8541,7 +8530,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="103"/>
+      <c r="A133" s="54"/>
       <c r="B133" s="37" t="s">
         <v>471</v>
       </c>
@@ -8564,7 +8553,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="103"/>
+      <c r="A134" s="54"/>
       <c r="B134" s="47" t="s">
         <v>525</v>
       </c>
@@ -8587,7 +8576,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="103"/>
+      <c r="A135" s="54"/>
       <c r="B135" s="37" t="s">
         <v>465</v>
       </c>
@@ -8602,7 +8591,7 @@
         <v>92</v>
       </c>
       <c r="F135" s="46">
-        <v>3.68</v>
+        <v>3.98</v>
       </c>
       <c r="G135" s="46">
         <f t="shared" si="2"/>
@@ -8610,7 +8599,7 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="103"/>
+      <c r="A136" s="54"/>
       <c r="B136" s="37" t="s">
         <v>466</v>
       </c>
@@ -8625,7 +8614,7 @@
         <v>92</v>
       </c>
       <c r="F136" s="46">
-        <v>2.1</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G136" s="46">
         <f t="shared" si="2"/>
@@ -8633,7 +8622,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="103"/>
+      <c r="A137" s="54"/>
       <c r="B137" s="37" t="s">
         <v>500</v>
       </c>
@@ -8642,21 +8631,21 @@
       </c>
       <c r="D137" s="33">
         <f>IF('Selection List'!B5="S",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" s="37" t="s">
         <v>92</v>
       </c>
       <c r="F137" s="46">
-        <v>18.5</v>
+        <v>17.55</v>
       </c>
       <c r="G137" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="103"/>
+      <c r="A138" s="54"/>
       <c r="B138" s="37" t="s">
         <v>301</v>
       </c>
@@ -8678,7 +8667,7 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="103"/>
+      <c r="A139" s="54"/>
       <c r="B139" s="37" t="s">
         <v>302</v>
       </c>
@@ -8693,7 +8682,7 @@
         <v>92</v>
       </c>
       <c r="F139" s="46">
-        <v>289</v>
+        <v>288.99</v>
       </c>
       <c r="G139" s="46">
         <f t="shared" si="2"/>
@@ -8701,7 +8690,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="103"/>
+      <c r="A140" s="54"/>
       <c r="B140" s="37" t="s">
         <v>303</v>
       </c>
@@ -8724,7 +8713,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="103"/>
+      <c r="A141" s="54"/>
       <c r="B141" s="37" t="s">
         <v>304</v>
       </c>
@@ -8747,7 +8736,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="103"/>
+      <c r="A142" s="54"/>
       <c r="B142" s="37" t="s">
         <v>305</v>
       </c>
@@ -8770,7 +8759,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="103"/>
+      <c r="A143" s="54"/>
       <c r="B143" s="37" t="s">
         <v>306</v>
       </c>
@@ -8793,7 +8782,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="103"/>
+      <c r="A144" s="54"/>
       <c r="B144" s="37" t="s">
         <v>307</v>
       </c>
@@ -8816,7 +8805,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="103"/>
+      <c r="A145" s="54"/>
       <c r="B145" s="37" t="s">
         <v>308</v>
       </c>
@@ -8839,7 +8828,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="103"/>
+      <c r="A146" s="54"/>
       <c r="B146" s="37" t="s">
         <v>309</v>
       </c>
@@ -8862,7 +8851,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="103"/>
+      <c r="A147" s="54"/>
       <c r="B147" s="37" t="s">
         <v>311</v>
       </c>
@@ -8885,7 +8874,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="103"/>
+      <c r="A148" s="54"/>
       <c r="B148" s="37" t="s">
         <v>313</v>
       </c>
@@ -8908,7 +8897,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="103"/>
+      <c r="A149" s="54"/>
       <c r="B149" s="37" t="s">
         <v>315</v>
       </c>
@@ -8931,7 +8920,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="103"/>
+      <c r="A150" s="54"/>
       <c r="B150" s="47" t="s">
         <v>526</v>
       </c>
@@ -8954,7 +8943,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="103"/>
+      <c r="A151" s="54"/>
       <c r="B151" s="47" t="s">
         <v>527</v>
       </c>
@@ -8977,7 +8966,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="103"/>
+      <c r="A152" s="54"/>
       <c r="B152" s="37" t="s">
         <v>316</v>
       </c>
@@ -9000,7 +8989,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="103"/>
+      <c r="A153" s="54"/>
       <c r="B153" s="37" t="s">
         <v>318</v>
       </c>
@@ -9015,15 +9004,15 @@
         <v>92</v>
       </c>
       <c r="F153" s="46">
-        <v>11.1</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="G153" s="46">
         <f t="shared" si="2"/>
-        <v>22.2</v>
+        <v>17.940000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="103"/>
+      <c r="A154" s="54"/>
       <c r="B154" s="37" t="s">
         <v>319</v>
       </c>
@@ -9046,7 +9035,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="103"/>
+      <c r="A155" s="54"/>
       <c r="B155" s="37" t="s">
         <v>320</v>
       </c>
@@ -9069,7 +9058,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="103"/>
+      <c r="A156" s="54"/>
       <c r="B156" s="37" t="s">
         <v>321</v>
       </c>
@@ -9078,7 +9067,7 @@
       </c>
       <c r="D156" s="33">
         <f>IF(AND('Selection List'!B7=1,OR('Selection List'!B1=30,'Selection List'!B1=23)),2,IF(AND('Selection List'!B7=1,'Selection List'!B1=17),1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E156" s="34" t="s">
         <v>92</v>
@@ -9088,11 +9077,11 @@
       </c>
       <c r="G156" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>213.2</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="103"/>
+      <c r="A157" s="54"/>
       <c r="B157" s="37" t="s">
         <v>322</v>
       </c>
@@ -9115,7 +9104,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" s="103"/>
+      <c r="A158" s="54"/>
       <c r="B158" s="37" t="s">
         <v>323</v>
       </c>
@@ -9137,7 +9126,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="103"/>
+      <c r="A159" s="54"/>
       <c r="B159" s="37" t="s">
         <v>324</v>
       </c>
@@ -9159,7 +9148,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="103"/>
+      <c r="A160" s="54"/>
       <c r="B160" s="37" t="s">
         <v>325</v>
       </c>
@@ -9173,15 +9162,15 @@
         <v>111</v>
       </c>
       <c r="F160" s="46">
-        <v>19.207000000000001</v>
+        <v>19.21</v>
       </c>
       <c r="G160" s="46">
         <f t="shared" si="2"/>
-        <v>192.07</v>
+        <v>192.10000000000002</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="103"/>
+      <c r="A161" s="54"/>
       <c r="B161" s="37" t="s">
         <v>498</v>
       </c>
@@ -9204,7 +9193,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="104"/>
+      <c r="A162" s="55"/>
       <c r="B162" s="47" t="s">
         <v>528</v>
       </c>
@@ -9227,7 +9216,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="99" t="s">
+      <c r="A163" s="50" t="s">
         <v>490</v>
       </c>
       <c r="B163" s="37" t="s">
@@ -9243,15 +9232,15 @@
         <v>92</v>
       </c>
       <c r="F163" s="46">
-        <v>20</v>
+        <v>22.07</v>
       </c>
       <c r="G163" s="46">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="100"/>
+      <c r="A164" s="51"/>
       <c r="B164" s="37" t="s">
         <v>433</v>
       </c>
@@ -9265,15 +9254,15 @@
         <v>92</v>
       </c>
       <c r="F164" s="46">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G164" s="46">
         <f t="shared" si="2"/>
-        <v>0.30000000000000004</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="100"/>
+      <c r="A165" s="51"/>
       <c r="B165" s="37" t="s">
         <v>434</v>
       </c>
@@ -9287,15 +9276,15 @@
         <v>92</v>
       </c>
       <c r="F165" s="46">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G165" s="46">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="100"/>
+      <c r="A166" s="51"/>
       <c r="B166" s="37" t="s">
         <v>435</v>
       </c>
@@ -9309,15 +9298,15 @@
         <v>92</v>
       </c>
       <c r="F166" s="46">
-        <v>26</v>
+        <v>26.48</v>
       </c>
       <c r="G166" s="46">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="100"/>
+      <c r="A167" s="51"/>
       <c r="B167" s="37" t="s">
         <v>436</v>
       </c>
@@ -9331,15 +9320,15 @@
         <v>92</v>
       </c>
       <c r="F167" s="46">
-        <v>4</v>
+        <v>3.31</v>
       </c>
       <c r="G167" s="46">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="100"/>
+      <c r="A168" s="51"/>
       <c r="B168" s="37" t="s">
         <v>437</v>
       </c>
@@ -9353,15 +9342,15 @@
         <v>92</v>
       </c>
       <c r="F168" s="46">
-        <v>34.200000000000003</v>
+        <v>34</v>
       </c>
       <c r="G168" s="46">
         <f t="shared" si="2"/>
-        <v>34.200000000000003</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="100"/>
+      <c r="A169" s="51"/>
       <c r="B169" s="37" t="s">
         <v>438</v>
       </c>
@@ -9375,15 +9364,15 @@
         <v>92</v>
       </c>
       <c r="F169" s="46">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G169" s="46">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="100"/>
+      <c r="A170" s="51"/>
       <c r="B170" s="37" t="s">
         <v>439</v>
       </c>
@@ -9397,15 +9386,15 @@
         <v>92</v>
       </c>
       <c r="F170" s="46">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G170" s="46">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="100"/>
+      <c r="A171" s="51"/>
       <c r="B171" s="37" t="s">
         <v>440</v>
       </c>
@@ -9419,15 +9408,15 @@
         <v>92</v>
       </c>
       <c r="F171" s="46">
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G171" s="46">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="100"/>
+      <c r="A172" s="51"/>
       <c r="B172" s="37" t="s">
         <v>420</v>
       </c>
@@ -9441,15 +9430,15 @@
         <v>92</v>
       </c>
       <c r="F172" s="46">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G172" s="46">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="100"/>
+      <c r="A173" s="51"/>
       <c r="B173" s="37" t="s">
         <v>421</v>
       </c>
@@ -9463,15 +9452,15 @@
         <v>92</v>
       </c>
       <c r="F173" s="46">
-        <v>2.8</v>
+        <v>2.23</v>
       </c>
       <c r="G173" s="46">
         <f t="shared" si="2"/>
-        <v>8.3999999999999986</v>
+        <v>6.6899999999999995</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="100"/>
+      <c r="A174" s="51"/>
       <c r="B174" s="37" t="s">
         <v>422</v>
       </c>
@@ -9485,15 +9474,15 @@
         <v>92</v>
       </c>
       <c r="F174" s="46">
-        <v>213.22</v>
+        <v>218.69</v>
       </c>
       <c r="G174" s="46">
         <f t="shared" si="2"/>
-        <v>213.22</v>
+        <v>218.69</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="100"/>
+      <c r="A175" s="51"/>
       <c r="B175" s="37" t="s">
         <v>423</v>
       </c>
@@ -9507,15 +9496,15 @@
         <v>92</v>
       </c>
       <c r="F175" s="46">
-        <v>11.39</v>
+        <v>11.69</v>
       </c>
       <c r="G175" s="46">
         <f t="shared" si="2"/>
-        <v>11.39</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="100"/>
+      <c r="A176" s="51"/>
       <c r="B176" s="37" t="s">
         <v>424</v>
       </c>
@@ -9529,15 +9518,15 @@
         <v>92</v>
       </c>
       <c r="F176" s="46">
-        <v>10</v>
+        <v>6.62</v>
       </c>
       <c r="G176" s="46">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="100"/>
+      <c r="A177" s="51"/>
       <c r="B177" s="37" t="s">
         <v>425</v>
       </c>
@@ -9551,15 +9540,15 @@
         <v>92</v>
       </c>
       <c r="F177" s="46">
-        <v>10</v>
+        <v>8.06</v>
       </c>
       <c r="G177" s="46">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="100"/>
+      <c r="A178" s="51"/>
       <c r="B178" s="37" t="s">
         <v>344</v>
       </c>
@@ -9573,15 +9562,15 @@
         <v>92</v>
       </c>
       <c r="F178" s="46">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="G178" s="46">
         <f t="shared" si="2"/>
-        <v>13.600000000000001</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="100"/>
+      <c r="A179" s="51"/>
       <c r="B179" s="37" t="s">
         <v>345</v>
       </c>
@@ -9595,15 +9584,15 @@
         <v>92</v>
       </c>
       <c r="F179" s="46">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="G179" s="46">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>6.6000000000000005</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="100"/>
+      <c r="A180" s="51"/>
       <c r="B180" s="37" t="s">
         <v>346</v>
       </c>
@@ -9617,15 +9606,15 @@
         <v>92</v>
       </c>
       <c r="F180" s="46">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="G180" s="46">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="100"/>
+      <c r="A181" s="51"/>
       <c r="B181" s="37" t="s">
         <v>347</v>
       </c>
@@ -9639,15 +9628,15 @@
         <v>92</v>
       </c>
       <c r="F181" s="46">
-        <v>2</v>
+        <v>0.94</v>
       </c>
       <c r="G181" s="46">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="100"/>
+      <c r="A182" s="51"/>
       <c r="B182" s="37" t="s">
         <v>348</v>
       </c>
@@ -9661,15 +9650,15 @@
         <v>111</v>
       </c>
       <c r="F182" s="46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G182" s="46">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="100"/>
+      <c r="A183" s="51"/>
       <c r="B183" s="37" t="s">
         <v>349</v>
       </c>
@@ -9683,15 +9672,15 @@
         <v>111</v>
       </c>
       <c r="F183" s="46">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="G183" s="46">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="100"/>
+      <c r="A184" s="51"/>
       <c r="B184" s="37" t="s">
         <v>350</v>
       </c>
@@ -9705,15 +9694,15 @@
         <v>111</v>
       </c>
       <c r="F184" s="46">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G184" s="46">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="100"/>
+      <c r="A185" s="51"/>
       <c r="B185" s="37" t="s">
         <v>351</v>
       </c>
@@ -9727,15 +9716,15 @@
         <v>92</v>
       </c>
       <c r="F185" s="46">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="G185" s="46">
         <f t="shared" si="2"/>
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="100"/>
+      <c r="A186" s="51"/>
       <c r="B186" s="37" t="s">
         <v>352</v>
       </c>
@@ -9749,15 +9738,15 @@
         <v>111</v>
       </c>
       <c r="F186" s="46">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="G186" s="46">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="100"/>
+      <c r="A187" s="51"/>
       <c r="B187" s="37" t="s">
         <v>353</v>
       </c>
@@ -9771,15 +9760,15 @@
         <v>92</v>
       </c>
       <c r="F187" s="46">
-        <v>18</v>
+        <v>15.75</v>
       </c>
       <c r="G187" s="46">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="100"/>
+      <c r="A188" s="51"/>
       <c r="B188" s="37" t="s">
         <v>354</v>
       </c>
@@ -9793,15 +9782,15 @@
         <v>111</v>
       </c>
       <c r="F188" s="46">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G188" s="46">
         <f t="shared" si="2"/>
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="100"/>
+      <c r="A189" s="51"/>
       <c r="B189" s="37" t="s">
         <v>355</v>
       </c>
@@ -9823,7 +9812,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="100"/>
+      <c r="A190" s="51"/>
       <c r="B190" s="37" t="s">
         <v>356</v>
       </c>
@@ -9845,7 +9834,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="100"/>
+      <c r="A191" s="51"/>
       <c r="B191" s="37" t="s">
         <v>357</v>
       </c>
@@ -9867,7 +9856,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="100"/>
+      <c r="A192" s="51"/>
       <c r="B192" s="37" t="s">
         <v>358</v>
       </c>
@@ -9889,7 +9878,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="100"/>
+      <c r="A193" s="51"/>
       <c r="B193" s="37" t="s">
         <v>359</v>
       </c>
@@ -9911,7 +9900,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="100"/>
+      <c r="A194" s="51"/>
       <c r="B194" s="37" t="s">
         <v>360</v>
       </c>
@@ -9925,15 +9914,15 @@
         <v>92</v>
       </c>
       <c r="F194" s="46">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G194" s="46">
         <f t="shared" si="2"/>
-        <v>0.30000000000000004</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="100"/>
+      <c r="A195" s="51"/>
       <c r="B195" s="37" t="s">
         <v>361</v>
       </c>
@@ -9947,15 +9936,15 @@
         <v>111</v>
       </c>
       <c r="F195" s="46">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G195" s="46">
         <f t="shared" ref="G195:G216" si="3">D195*F195</f>
-        <v>3</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="100"/>
+      <c r="A196" s="51"/>
       <c r="B196" s="37" t="s">
         <v>362</v>
       </c>
@@ -9969,15 +9958,15 @@
         <v>111</v>
       </c>
       <c r="F196" s="46">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G196" s="46">
         <f t="shared" si="3"/>
-        <v>1.2000000000000002</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="100"/>
+      <c r="A197" s="51"/>
       <c r="B197" s="37" t="s">
         <v>363</v>
       </c>
@@ -9991,15 +9980,15 @@
         <v>111</v>
       </c>
       <c r="F197" s="46">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G197" s="46">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="100"/>
+      <c r="A198" s="51"/>
       <c r="B198" s="37" t="s">
         <v>364</v>
       </c>
@@ -10013,15 +10002,15 @@
         <v>111</v>
       </c>
       <c r="F198" s="46">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G198" s="46">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="100"/>
+      <c r="A199" s="51"/>
       <c r="B199" s="37" t="s">
         <v>365</v>
       </c>
@@ -10035,15 +10024,15 @@
         <v>111</v>
       </c>
       <c r="F199" s="46">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G199" s="46">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="100"/>
+      <c r="A200" s="51"/>
       <c r="B200" s="37" t="s">
         <v>366</v>
       </c>
@@ -10057,15 +10046,15 @@
         <v>111</v>
       </c>
       <c r="F200" s="46">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G200" s="46">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="100"/>
+      <c r="A201" s="51"/>
       <c r="B201" s="37" t="s">
         <v>367</v>
       </c>
@@ -10079,15 +10068,15 @@
         <v>111</v>
       </c>
       <c r="F201" s="46">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="G201" s="46">
         <f t="shared" si="3"/>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="100"/>
+      <c r="A202" s="51"/>
       <c r="B202" s="37" t="s">
         <v>368</v>
       </c>
@@ -10101,15 +10090,15 @@
         <v>111</v>
       </c>
       <c r="F202" s="46">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="G202" s="46">
         <f t="shared" si="3"/>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="100"/>
+      <c r="A203" s="51"/>
       <c r="B203" s="37" t="s">
         <v>369</v>
       </c>
@@ -10123,15 +10112,15 @@
         <v>111</v>
       </c>
       <c r="F203" s="46">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="G203" s="46">
         <f t="shared" si="3"/>
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="100"/>
+      <c r="A204" s="51"/>
       <c r="B204" s="37" t="s">
         <v>370</v>
       </c>
@@ -10145,15 +10134,15 @@
         <v>92</v>
       </c>
       <c r="F204" s="46">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G204" s="46">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="100"/>
+      <c r="A205" s="51"/>
       <c r="B205" s="37" t="s">
         <v>371</v>
       </c>
@@ -10167,15 +10156,15 @@
         <v>92</v>
       </c>
       <c r="F205" s="46">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="G205" s="46">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="100"/>
+      <c r="A206" s="51"/>
       <c r="B206" s="37" t="s">
         <v>372</v>
       </c>
@@ -10189,15 +10178,15 @@
         <v>92</v>
       </c>
       <c r="F206" s="46">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="G206" s="46">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="100"/>
+      <c r="A207" s="51"/>
       <c r="B207" s="37" t="s">
         <v>373</v>
       </c>
@@ -10211,15 +10200,15 @@
         <v>92</v>
       </c>
       <c r="F207" s="46">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G207" s="46">
         <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="100"/>
+      <c r="A208" s="51"/>
       <c r="B208" s="37" t="s">
         <v>374</v>
       </c>
@@ -10241,7 +10230,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="100"/>
+      <c r="A209" s="51"/>
       <c r="B209" s="37" t="s">
         <v>375</v>
       </c>
@@ -10255,15 +10244,15 @@
         <v>92</v>
       </c>
       <c r="F209" s="46">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="G209" s="46">
         <f t="shared" si="3"/>
-        <v>8.25</v>
+        <v>6.3000000000000007</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="100"/>
+      <c r="A210" s="51"/>
       <c r="B210" s="37" t="s">
         <v>376</v>
       </c>
@@ -10285,7 +10274,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="100"/>
+      <c r="A211" s="51"/>
       <c r="B211" s="37" t="s">
         <v>377</v>
       </c>
@@ -10299,15 +10288,15 @@
         <v>92</v>
       </c>
       <c r="F211" s="46">
-        <v>0.56000000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="G211" s="46">
         <f t="shared" si="3"/>
-        <v>2.8000000000000003</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="100"/>
+      <c r="A212" s="51"/>
       <c r="B212" s="37" t="s">
         <v>378</v>
       </c>
@@ -10329,7 +10318,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="100"/>
+      <c r="A213" s="51"/>
       <c r="B213" s="37" t="s">
         <v>379</v>
       </c>
@@ -10343,15 +10332,15 @@
         <v>92</v>
       </c>
       <c r="F213" s="46">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="G213" s="46">
         <f t="shared" si="3"/>
-        <v>1.6500000000000001</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="100"/>
+      <c r="A214" s="51"/>
       <c r="B214" s="37" t="s">
         <v>380</v>
       </c>
@@ -10365,15 +10354,15 @@
         <v>92</v>
       </c>
       <c r="F214" s="46">
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="G214" s="46">
         <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="100"/>
+      <c r="A215" s="51"/>
       <c r="B215" s="37" t="s">
         <v>381</v>
       </c>
@@ -10387,15 +10376,15 @@
         <v>92</v>
       </c>
       <c r="F215" s="46">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G215" s="46">
         <f t="shared" si="3"/>
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="101"/>
+      <c r="A216" s="52"/>
       <c r="B216" s="47" t="s">
         <v>529</v>
       </c>
@@ -10409,31 +10398,31 @@
         <v>92</v>
       </c>
       <c r="F216" s="46">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="G216" s="46">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C217" s="107" t="s">
+      <c r="C217" s="58" t="s">
         <v>509</v>
       </c>
-      <c r="D217" s="107"/>
-      <c r="E217" s="107"/>
-      <c r="F217" s="105">
+      <c r="D217" s="58"/>
+      <c r="E217" s="58"/>
+      <c r="F217" s="56">
         <f>SUM(G2:G216)</f>
-        <v>18316.204000000009</v>
-      </c>
-      <c r="G217" s="105"/>
+        <v>24066.129999999994</v>
+      </c>
+      <c r="G217" s="56"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C218" s="108"/>
-      <c r="D218" s="108"/>
-      <c r="E218" s="108"/>
-      <c r="F218" s="106"/>
-      <c r="G218" s="106"/>
+      <c r="C218" s="59"/>
+      <c r="D218" s="59"/>
+      <c r="E218" s="59"/>
+      <c r="F218" s="57"/>
+      <c r="G218" s="57"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E218"/>
@@ -10464,7 +10453,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C31" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10474,7 +10463,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="117"/>
+      <c r="A1" s="68"/>
       <c r="B1" s="14">
         <v>17</v>
       </c>
@@ -10483,7 +10472,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="14">
         <v>23</v>
       </c>
@@ -10493,7 +10482,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="15">
         <v>30</v>
       </c>
@@ -10503,7 +10492,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -10515,7 +10504,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="119"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
@@ -10525,7 +10514,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="116"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -10535,7 +10524,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -10547,7 +10536,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="114"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
@@ -10557,7 +10546,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -10569,7 +10558,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="116"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -10579,7 +10568,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="66" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -10590,7 +10579,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="116"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -10600,7 +10589,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="63" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -10611,7 +10600,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
@@ -10620,7 +10609,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="114"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -10630,7 +10619,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="66" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="4">
@@ -10642,7 +10631,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="2">
         <v>0</v>
       </c>
@@ -10652,7 +10641,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="63" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -10664,7 +10653,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="114"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
@@ -10674,7 +10663,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="63" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -10686,7 +10675,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="114"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
@@ -10696,7 +10685,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="63" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -10707,7 +10696,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="113"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
@@ -10716,7 +10705,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="113"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="8">
         <v>2</v>
       </c>
@@ -10725,7 +10714,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="113"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="7">
         <v>3</v>
       </c>
@@ -10734,7 +10723,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="113"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="7" t="s">
         <v>37</v>
       </c>
@@ -10743,7 +10732,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="114"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="9" t="s">
         <v>39</v>
       </c>
@@ -10753,7 +10742,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="112" t="s">
+      <c r="A28" s="63" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="4">
@@ -10765,7 +10754,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="113"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="5">
         <v>1</v>
       </c>
@@ -10775,7 +10764,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="113"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="5">
         <v>2</v>
       </c>
@@ -10785,7 +10774,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="5">
         <v>3</v>
       </c>
@@ -10794,7 +10783,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="113"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="5">
         <v>4</v>
       </c>
@@ -10803,7 +10792,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="114"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="5">
         <v>5</v>
       </c>
@@ -10812,7 +10801,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="112" t="s">
+      <c r="A34" s="63" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="4">
@@ -10823,7 +10812,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="114"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="2">
         <v>1</v>
       </c>
@@ -10832,7 +10821,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="63" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -10844,19 +10833,19 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="113"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="113"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="113"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="5" t="s">
         <v>45</v>
       </c>
@@ -10866,7 +10855,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="112" t="s">
+      <c r="A40" s="63" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="4">
@@ -10878,7 +10867,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="114"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="2">
         <v>3</v>
       </c>
@@ -10888,7 +10877,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="112" t="s">
+      <c r="A42" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="4">
@@ -10899,7 +10888,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="113"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="5">
         <v>1</v>
       </c>
@@ -10908,7 +10897,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="114"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="2">
         <v>2</v>
       </c>
@@ -10918,7 +10907,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="112" t="s">
+      <c r="A45" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="4">
@@ -10929,13 +10918,13 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="113"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="114"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="2">
         <v>2</v>
       </c>
@@ -10945,7 +10934,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="63" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="4">
@@ -10957,7 +10946,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="114"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
@@ -10967,7 +10956,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="112" t="s">
+      <c r="A50" s="63" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -10979,7 +10968,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="113"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -10989,7 +10978,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="113"/>
+      <c r="A52" s="64"/>
       <c r="B52" s="5">
         <v>1</v>
       </c>
@@ -10999,7 +10988,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="113"/>
+      <c r="A53" s="64"/>
       <c r="B53" s="5">
         <v>2</v>
       </c>
@@ -11009,7 +10998,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="113"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="5">
         <v>3</v>
       </c>
@@ -11019,7 +11008,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="122" t="s">
+      <c r="A55" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="10">
@@ -11031,7 +11020,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="123"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="11">
         <v>1</v>
       </c>
@@ -11041,7 +11030,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="123"/>
+      <c r="A57" s="74"/>
       <c r="B57" s="11">
         <v>2</v>
       </c>
@@ -11051,7 +11040,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="123"/>
+      <c r="A58" s="74"/>
       <c r="B58" s="11">
         <v>3</v>
       </c>
@@ -11061,7 +11050,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="123"/>
+      <c r="A59" s="74"/>
       <c r="B59" s="11">
         <v>4</v>
       </c>
@@ -11071,7 +11060,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="122" t="s">
+      <c r="A60" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="10">
@@ -11083,7 +11072,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="123"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="11">
         <v>1</v>
       </c>
@@ -11093,7 +11082,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="123"/>
+      <c r="A62" s="74"/>
       <c r="B62" s="11">
         <v>2</v>
       </c>
@@ -11103,7 +11092,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="123"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="11">
         <v>3</v>
       </c>
@@ -11113,7 +11102,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="115" t="s">
+      <c r="A64" s="66" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -11124,7 +11113,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="119"/>
+      <c r="A65" s="70"/>
       <c r="B65" s="5" t="s">
         <v>21</v>
       </c>
@@ -11133,7 +11122,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="116"/>
+      <c r="A66" s="67"/>
       <c r="B66" s="2" t="s">
         <v>46</v>
       </c>
@@ -11142,7 +11131,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="115" t="s">
+      <c r="A67" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="12">
@@ -11153,7 +11142,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="116"/>
+      <c r="A68" s="67"/>
       <c r="B68" s="2">
         <v>1</v>
       </c>
@@ -11168,7 +11157,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="120" t="s">
+      <c r="A70" s="71" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="3">
@@ -11179,7 +11168,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="121"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="3">
         <v>2</v>
       </c>
